--- a/Data/bombayAuto.xlsx
+++ b/Data/bombayAuto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J645"/>
+  <dimension ref="A1:J686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14577,6 +14577,1182 @@
         <v>49</v>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>12</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr"/>
+      <c r="D646" t="inlineStr"/>
+      <c r="E646" t="inlineStr"/>
+      <c r="F646" t="inlineStr"/>
+      <c r="G646" t="inlineStr"/>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>11</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr"/>
+      <c r="D647" t="inlineStr"/>
+      <c r="E647" t="inlineStr"/>
+      <c r="F647" t="inlineStr"/>
+      <c r="G647" t="inlineStr"/>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J647" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>33</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr"/>
+      <c r="D648" t="inlineStr"/>
+      <c r="E648" t="inlineStr"/>
+      <c r="F648" t="inlineStr"/>
+      <c r="G648" t="inlineStr"/>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J648" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>35</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr"/>
+      <c r="D649" t="inlineStr"/>
+      <c r="E649" t="inlineStr"/>
+      <c r="F649" t="inlineStr"/>
+      <c r="G649" t="inlineStr"/>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J649" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>16</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="inlineStr"/>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="inlineStr"/>
+      <c r="G650" t="inlineStr"/>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J650" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>22</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr"/>
+      <c r="D651" t="inlineStr"/>
+      <c r="E651" t="inlineStr"/>
+      <c r="F651" t="inlineStr"/>
+      <c r="G651" t="inlineStr"/>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J651" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>35</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr"/>
+      <c r="E652" t="inlineStr"/>
+      <c r="F652" t="inlineStr"/>
+      <c r="G652" t="inlineStr"/>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J652" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>20</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr"/>
+      <c r="D653" t="inlineStr"/>
+      <c r="E653" t="inlineStr"/>
+      <c r="F653" t="inlineStr"/>
+      <c r="G653" t="inlineStr"/>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J653" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>16</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr"/>
+      <c r="D654" t="inlineStr"/>
+      <c r="E654" t="inlineStr"/>
+      <c r="F654" t="inlineStr"/>
+      <c r="G654" t="inlineStr"/>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J654" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>10</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr"/>
+      <c r="E655" t="inlineStr"/>
+      <c r="F655" t="inlineStr"/>
+      <c r="G655" t="inlineStr"/>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J655" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>35</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr"/>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr"/>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J656" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>23</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr"/>
+      <c r="E657" t="inlineStr"/>
+      <c r="F657" t="inlineStr"/>
+      <c r="G657" t="inlineStr"/>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J657" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>0</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>{5: 0}</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr"/>
+      <c r="E658" t="inlineStr"/>
+      <c r="F658" t="inlineStr"/>
+      <c r="G658" t="inlineStr"/>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J658" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>2</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>{5: 1}</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr"/>
+      <c r="F659" t="inlineStr"/>
+      <c r="G659" t="inlineStr"/>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J659" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>17</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>{5: 2}</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="inlineStr"/>
+      <c r="E660" t="inlineStr"/>
+      <c r="F660" t="inlineStr"/>
+      <c r="G660" t="inlineStr"/>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J660" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>0</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>{5: 3}</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr"/>
+      <c r="E661" t="inlineStr"/>
+      <c r="F661" t="inlineStr"/>
+      <c r="G661" t="inlineStr"/>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J661" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>13</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>{5: 4, 15: 0}</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr"/>
+      <c r="E662" t="inlineStr"/>
+      <c r="F662" t="inlineStr"/>
+      <c r="G662" t="inlineStr"/>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J662" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>29</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>{5: 5, 15: 1, 32: 0}</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="inlineStr"/>
+      <c r="F663" t="inlineStr"/>
+      <c r="G663" t="inlineStr"/>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J663" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>12</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>{5: 6, 7: 0, 15: 2, 32: 1}</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr"/>
+      <c r="D664" t="inlineStr"/>
+      <c r="E664" t="inlineStr"/>
+      <c r="F664" t="inlineStr"/>
+      <c r="G664" t="inlineStr"/>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J664" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>33</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>{7: 1, 15: 3, 32: 2}</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr"/>
+      <c r="D665" t="inlineStr"/>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr"/>
+      <c r="G665" t="inlineStr"/>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="J665" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>18</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>{15: 4, 32: 3}</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr"/>
+      <c r="D666" t="inlineStr"/>
+      <c r="E666" t="inlineStr"/>
+      <c r="F666" t="inlineStr"/>
+      <c r="G666" t="inlineStr"/>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J666" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>7</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>{15: 5, 32: 4}</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr"/>
+      <c r="E667" t="inlineStr"/>
+      <c r="F667" t="inlineStr"/>
+      <c r="G667" t="inlineStr"/>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J667" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>30</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>{15: 6, 32: 5}</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr"/>
+      <c r="E668" t="inlineStr"/>
+      <c r="F668" t="inlineStr"/>
+      <c r="G668" t="inlineStr"/>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J668" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>18</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>{32: 6}</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr"/>
+      <c r="E669" t="inlineStr"/>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr"/>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="J669" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>4</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr"/>
+      <c r="E670" t="inlineStr"/>
+      <c r="F670" t="inlineStr"/>
+      <c r="G670" t="inlineStr"/>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J670" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>13</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr"/>
+      <c r="E671" t="inlineStr"/>
+      <c r="F671" t="inlineStr"/>
+      <c r="G671" t="inlineStr"/>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J671" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>4</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>{26: 0}</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="inlineStr"/>
+      <c r="E672" t="inlineStr"/>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr"/>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J672" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>12</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr"/>
+      <c r="D673" t="inlineStr"/>
+      <c r="E673" t="inlineStr"/>
+      <c r="F673" t="inlineStr"/>
+      <c r="G673" t="inlineStr"/>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J673" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>18</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="inlineStr"/>
+      <c r="E674" t="inlineStr"/>
+      <c r="F674" t="inlineStr"/>
+      <c r="G674" t="inlineStr"/>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J674" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>11</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>{11: 0}</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr"/>
+      <c r="D675" t="inlineStr"/>
+      <c r="E675" t="inlineStr"/>
+      <c r="F675" t="inlineStr"/>
+      <c r="G675" t="inlineStr"/>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J675" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>25</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>{11: 1}</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr"/>
+      <c r="E676" t="inlineStr"/>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr"/>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J676" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>11</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>{1: 0}</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr"/>
+      <c r="D677" t="inlineStr"/>
+      <c r="E677" t="inlineStr"/>
+      <c r="F677" t="inlineStr"/>
+      <c r="G677" t="inlineStr"/>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J677" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>12</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>{1: 1}</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr"/>
+      <c r="D678" t="inlineStr"/>
+      <c r="E678" t="inlineStr"/>
+      <c r="F678" t="inlineStr"/>
+      <c r="G678" t="inlineStr"/>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J678" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>18</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>{1: 2, 19: 0}</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr"/>
+      <c r="D679" t="inlineStr"/>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr"/>
+      <c r="G679" t="inlineStr"/>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J679" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>16</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>{19: 1}</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr"/>
+      <c r="D680" t="inlineStr"/>
+      <c r="E680" t="inlineStr"/>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr"/>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J680" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>0</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr"/>
+      <c r="D681" t="inlineStr"/>
+      <c r="E681" t="inlineStr"/>
+      <c r="F681" t="inlineStr"/>
+      <c r="G681" t="inlineStr"/>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>[19]</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J681" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>14</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr"/>
+      <c r="D682" t="inlineStr"/>
+      <c r="E682" t="inlineStr"/>
+      <c r="F682" t="inlineStr"/>
+      <c r="G682" t="inlineStr"/>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J682" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>29</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>{21: 0}</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr"/>
+      <c r="D683" t="inlineStr"/>
+      <c r="E683" t="inlineStr"/>
+      <c r="F683" t="inlineStr"/>
+      <c r="G683" t="inlineStr"/>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J683" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>5</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>{21: 1}</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr"/>
+      <c r="D684" t="inlineStr"/>
+      <c r="E684" t="inlineStr"/>
+      <c r="F684" t="inlineStr"/>
+      <c r="G684" t="inlineStr"/>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J684" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>33</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>{21: 2}</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr"/>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr"/>
+      <c r="F685" t="inlineStr"/>
+      <c r="G685" t="inlineStr"/>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J685" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>4</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>{1: 0}</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr"/>
+      <c r="D686" t="inlineStr"/>
+      <c r="E686" t="inlineStr"/>
+      <c r="F686" t="inlineStr"/>
+      <c r="G686" t="inlineStr"/>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>[21]</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J686" t="n">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/bombayAuto.xlsx
+++ b/Data/bombayAuto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J686"/>
+  <dimension ref="A1:J1025"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15753,6 +15753,9694 @@
         <v>41</v>
       </c>
     </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>30</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr"/>
+      <c r="D687" t="inlineStr"/>
+      <c r="E687" t="inlineStr"/>
+      <c r="F687" t="inlineStr"/>
+      <c r="G687" t="inlineStr"/>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J687" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>1</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr"/>
+      <c r="D688" t="inlineStr"/>
+      <c r="E688" t="inlineStr"/>
+      <c r="F688" t="inlineStr"/>
+      <c r="G688" t="inlineStr"/>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J688" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>6</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr"/>
+      <c r="D689" t="inlineStr"/>
+      <c r="E689" t="inlineStr"/>
+      <c r="F689" t="inlineStr"/>
+      <c r="G689" t="inlineStr"/>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J689" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>18</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr"/>
+      <c r="D690" t="inlineStr"/>
+      <c r="E690" t="inlineStr"/>
+      <c r="F690" t="inlineStr"/>
+      <c r="G690" t="inlineStr"/>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J690" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>10</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr"/>
+      <c r="D691" t="inlineStr"/>
+      <c r="E691" t="inlineStr"/>
+      <c r="F691" t="inlineStr"/>
+      <c r="G691" t="inlineStr"/>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J691" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>3</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr"/>
+      <c r="D692" t="inlineStr"/>
+      <c r="E692" t="inlineStr"/>
+      <c r="F692" t="inlineStr"/>
+      <c r="G692" t="inlineStr"/>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J692" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>6</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr"/>
+      <c r="D693" t="inlineStr"/>
+      <c r="E693" t="inlineStr"/>
+      <c r="F693" t="inlineStr"/>
+      <c r="G693" t="inlineStr"/>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J693" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>15</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr"/>
+      <c r="D694" t="inlineStr"/>
+      <c r="E694" t="inlineStr"/>
+      <c r="F694" t="inlineStr"/>
+      <c r="G694" t="inlineStr"/>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J694" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>34</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr"/>
+      <c r="D695" t="inlineStr"/>
+      <c r="E695" t="inlineStr"/>
+      <c r="F695" t="inlineStr"/>
+      <c r="G695" t="inlineStr"/>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J695" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>7</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>{11: 0}</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr"/>
+      <c r="D696" t="inlineStr"/>
+      <c r="E696" t="inlineStr"/>
+      <c r="F696" t="inlineStr"/>
+      <c r="G696" t="inlineStr"/>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J696" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>1</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>{11: 1}</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr"/>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr"/>
+      <c r="F697" t="inlineStr"/>
+      <c r="G697" t="inlineStr"/>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J697" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>36</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr"/>
+      <c r="D698" t="inlineStr"/>
+      <c r="E698" t="inlineStr"/>
+      <c r="F698" t="inlineStr"/>
+      <c r="G698" t="inlineStr"/>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J698" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>3</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr"/>
+      <c r="D699" t="inlineStr"/>
+      <c r="E699" t="inlineStr"/>
+      <c r="F699" t="inlineStr"/>
+      <c r="G699" t="inlineStr"/>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J699" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>0</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="inlineStr"/>
+      <c r="E700" t="inlineStr"/>
+      <c r="F700" t="inlineStr"/>
+      <c r="G700" t="inlineStr"/>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J700" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>34</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr"/>
+      <c r="D701" t="inlineStr"/>
+      <c r="E701" t="inlineStr"/>
+      <c r="F701" t="inlineStr"/>
+      <c r="G701" t="inlineStr"/>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J701" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>36</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>{7: 0}</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr"/>
+      <c r="E702" t="inlineStr"/>
+      <c r="F702" t="inlineStr"/>
+      <c r="G702" t="inlineStr"/>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J702" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>23</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>{7: 1}</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr"/>
+      <c r="D703" t="inlineStr"/>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr"/>
+      <c r="G703" t="inlineStr"/>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J703" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>12</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr"/>
+      <c r="E704" t="inlineStr"/>
+      <c r="F704" t="inlineStr"/>
+      <c r="G704" t="inlineStr"/>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J704" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>22</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>{15: 0}</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr"/>
+      <c r="E705" t="inlineStr"/>
+      <c r="F705" t="inlineStr"/>
+      <c r="G705" t="inlineStr"/>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J705" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>31</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>{15: 1}</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr"/>
+      <c r="E706" t="inlineStr"/>
+      <c r="F706" t="inlineStr"/>
+      <c r="G706" t="inlineStr"/>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J706" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>15</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr"/>
+      <c r="D707" t="inlineStr"/>
+      <c r="E707" t="inlineStr"/>
+      <c r="F707" t="inlineStr"/>
+      <c r="G707" t="inlineStr"/>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J707" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>26</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr"/>
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr"/>
+      <c r="G708" t="inlineStr"/>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J708" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>8</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="inlineStr"/>
+      <c r="E709" t="inlineStr"/>
+      <c r="F709" t="inlineStr"/>
+      <c r="G709" t="inlineStr"/>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J709" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>21</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr"/>
+      <c r="D710" t="inlineStr"/>
+      <c r="E710" t="inlineStr"/>
+      <c r="F710" t="inlineStr"/>
+      <c r="G710" t="inlineStr"/>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J710" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>21</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="inlineStr"/>
+      <c r="E711" t="inlineStr"/>
+      <c r="F711" t="inlineStr"/>
+      <c r="G711" t="inlineStr"/>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J711" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>20</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr"/>
+      <c r="E712" t="inlineStr"/>
+      <c r="F712" t="inlineStr"/>
+      <c r="G712" t="inlineStr"/>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J712" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>13</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr"/>
+      <c r="D713" t="inlineStr"/>
+      <c r="E713" t="inlineStr"/>
+      <c r="F713" t="inlineStr"/>
+      <c r="G713" t="inlineStr"/>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J713" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>32</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr"/>
+      <c r="D714" t="inlineStr"/>
+      <c r="E714" t="inlineStr"/>
+      <c r="F714" t="inlineStr"/>
+      <c r="G714" t="inlineStr"/>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J714" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>16</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr"/>
+      <c r="D715" t="inlineStr"/>
+      <c r="E715" t="inlineStr"/>
+      <c r="F715" t="inlineStr"/>
+      <c r="G715" t="inlineStr"/>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J715" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>32</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr"/>
+      <c r="D716" t="inlineStr"/>
+      <c r="E716" t="inlineStr"/>
+      <c r="F716" t="inlineStr"/>
+      <c r="G716" t="inlineStr"/>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J716" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>23</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr"/>
+      <c r="D717" t="inlineStr"/>
+      <c r="E717" t="inlineStr"/>
+      <c r="F717" t="inlineStr"/>
+      <c r="G717" t="inlineStr"/>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J717" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>6</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr"/>
+      <c r="D718" t="inlineStr"/>
+      <c r="E718" t="inlineStr"/>
+      <c r="F718" t="inlineStr"/>
+      <c r="G718" t="inlineStr"/>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J718" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>35</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr"/>
+      <c r="D719" t="inlineStr"/>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr"/>
+      <c r="G719" t="inlineStr"/>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J719" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>31</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr"/>
+      <c r="D720" t="inlineStr"/>
+      <c r="E720" t="inlineStr"/>
+      <c r="F720" t="inlineStr"/>
+      <c r="G720" t="inlineStr"/>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J720" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>5</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr"/>
+      <c r="D721" t="inlineStr"/>
+      <c r="E721" t="inlineStr"/>
+      <c r="F721" t="inlineStr"/>
+      <c r="G721" t="inlineStr"/>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J721" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>4</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr"/>
+      <c r="E722" t="inlineStr"/>
+      <c r="F722" t="inlineStr"/>
+      <c r="G722" t="inlineStr"/>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J722" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>24</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr"/>
+      <c r="D723" t="inlineStr"/>
+      <c r="E723" t="inlineStr"/>
+      <c r="F723" t="inlineStr"/>
+      <c r="G723" t="inlineStr"/>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I723" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J723" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>15</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr"/>
+      <c r="D724" t="inlineStr"/>
+      <c r="E724" t="inlineStr"/>
+      <c r="F724" t="inlineStr"/>
+      <c r="G724" t="inlineStr"/>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J724" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>1</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>{23: 0}</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr"/>
+      <c r="D725" t="inlineStr"/>
+      <c r="E725" t="inlineStr"/>
+      <c r="F725" t="inlineStr"/>
+      <c r="G725" t="inlineStr"/>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I725" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J725" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>27</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>{23: 1}</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr"/>
+      <c r="E726" t="inlineStr"/>
+      <c r="F726" t="inlineStr"/>
+      <c r="G726" t="inlineStr"/>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J726" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>2</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>{23: 2}</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr"/>
+      <c r="E727" t="inlineStr"/>
+      <c r="F727" t="inlineStr"/>
+      <c r="G727" t="inlineStr"/>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I727" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J727" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>2</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>{23: 3}</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr"/>
+      <c r="D728" t="inlineStr"/>
+      <c r="E728" t="inlineStr"/>
+      <c r="F728" t="inlineStr"/>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J728" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>16</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr"/>
+      <c r="D729" t="inlineStr"/>
+      <c r="E729" t="inlineStr"/>
+      <c r="F729" t="inlineStr"/>
+      <c r="G729" t="inlineStr"/>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J729" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>14</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>{11: 0}</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr"/>
+      <c r="E730" t="inlineStr"/>
+      <c r="F730" t="inlineStr"/>
+      <c r="G730" t="inlineStr"/>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J730" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>25</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>{11: 1}</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr"/>
+      <c r="D731" t="inlineStr"/>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr"/>
+      <c r="G731" t="inlineStr"/>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J731" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>13</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr"/>
+      <c r="D732" t="inlineStr"/>
+      <c r="E732" t="inlineStr"/>
+      <c r="F732" t="inlineStr"/>
+      <c r="G732" t="inlineStr"/>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J732" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>2</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>{22: 0}</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr"/>
+      <c r="D733" t="inlineStr"/>
+      <c r="E733" t="inlineStr"/>
+      <c r="F733" t="inlineStr"/>
+      <c r="G733" t="inlineStr"/>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I733" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J733" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>26</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>{22: 1}</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr"/>
+      <c r="D734" t="inlineStr"/>
+      <c r="E734" t="inlineStr"/>
+      <c r="F734" t="inlineStr"/>
+      <c r="G734" t="inlineStr"/>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J734" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>32</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>{22: 2}</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr"/>
+      <c r="D735" t="inlineStr"/>
+      <c r="E735" t="inlineStr"/>
+      <c r="F735" t="inlineStr"/>
+      <c r="G735" t="inlineStr"/>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I735" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J735" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>27</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>{22: 3}</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr"/>
+      <c r="E736" t="inlineStr"/>
+      <c r="F736" t="inlineStr"/>
+      <c r="G736" t="inlineStr"/>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I736" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J736" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>13</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>{22: 4}</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr"/>
+      <c r="D737" t="inlineStr"/>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F737" t="inlineStr"/>
+      <c r="G737" t="inlineStr"/>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I737" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J737" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>29</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr"/>
+      <c r="E738" t="inlineStr"/>
+      <c r="F738" t="inlineStr"/>
+      <c r="G738" t="inlineStr"/>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="I738" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J738" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>12</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr"/>
+      <c r="D739" t="inlineStr"/>
+      <c r="E739" t="inlineStr"/>
+      <c r="F739" t="inlineStr"/>
+      <c r="G739" t="inlineStr"/>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I739" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J739" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>36</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr"/>
+      <c r="D740" t="inlineStr"/>
+      <c r="E740" t="inlineStr"/>
+      <c r="F740" t="inlineStr"/>
+      <c r="G740" t="inlineStr"/>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I740" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J740" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>28</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr"/>
+      <c r="D741" t="inlineStr"/>
+      <c r="E741" t="inlineStr"/>
+      <c r="F741" t="inlineStr"/>
+      <c r="G741" t="inlineStr"/>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I741" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J741" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>3</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr"/>
+      <c r="D742" t="inlineStr"/>
+      <c r="E742" t="inlineStr"/>
+      <c r="F742" t="inlineStr"/>
+      <c r="G742" t="inlineStr"/>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I742" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J742" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>15</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr"/>
+      <c r="D743" t="inlineStr"/>
+      <c r="E743" t="inlineStr"/>
+      <c r="F743" t="inlineStr"/>
+      <c r="G743" t="inlineStr"/>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I743" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J743" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>6</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr"/>
+      <c r="D744" t="inlineStr"/>
+      <c r="E744" t="inlineStr"/>
+      <c r="F744" t="inlineStr"/>
+      <c r="G744" t="inlineStr"/>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I744" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J744" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>5</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr"/>
+      <c r="D745" t="inlineStr"/>
+      <c r="E745" t="inlineStr"/>
+      <c r="F745" t="inlineStr"/>
+      <c r="G745" t="inlineStr"/>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I745" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J745" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>14</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr"/>
+      <c r="D746" t="inlineStr"/>
+      <c r="E746" t="inlineStr"/>
+      <c r="F746" t="inlineStr"/>
+      <c r="G746" t="inlineStr"/>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I746" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J746" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>11</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr"/>
+      <c r="D747" t="inlineStr"/>
+      <c r="E747" t="inlineStr"/>
+      <c r="F747" t="inlineStr"/>
+      <c r="G747" t="inlineStr"/>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I747" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J747" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>3</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>{26: 0}</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr"/>
+      <c r="D748" t="inlineStr"/>
+      <c r="E748" t="inlineStr"/>
+      <c r="F748" t="inlineStr"/>
+      <c r="G748" t="inlineStr"/>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I748" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J748" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>13</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>{26: 1}</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr"/>
+      <c r="D749" t="inlineStr"/>
+      <c r="E749" t="inlineStr"/>
+      <c r="F749" t="inlineStr"/>
+      <c r="G749" t="inlineStr"/>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I749" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J749" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>5</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>{26: 2}</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr"/>
+      <c r="D750" t="inlineStr"/>
+      <c r="E750" t="inlineStr"/>
+      <c r="F750" t="inlineStr"/>
+      <c r="G750" t="inlineStr"/>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I750" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J750" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>11</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>{26: 3}</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr"/>
+      <c r="D751" t="inlineStr"/>
+      <c r="E751" t="inlineStr"/>
+      <c r="F751" t="inlineStr"/>
+      <c r="G751" t="inlineStr"/>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I751" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J751" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>11</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>{11: 0, 26: 4}</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr"/>
+      <c r="D752" t="inlineStr"/>
+      <c r="E752" t="inlineStr"/>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G752" t="inlineStr"/>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I752" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J752" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>23</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>{26: 5}</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr"/>
+      <c r="D753" t="inlineStr"/>
+      <c r="E753" t="inlineStr"/>
+      <c r="F753" t="inlineStr"/>
+      <c r="G753" t="inlineStr"/>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="I753" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J753" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>24</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>{26: 6}</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr"/>
+      <c r="D754" t="inlineStr"/>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F754" t="inlineStr"/>
+      <c r="G754" t="inlineStr"/>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I754" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J754" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>32</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr"/>
+      <c r="D755" t="inlineStr"/>
+      <c r="E755" t="inlineStr"/>
+      <c r="F755" t="inlineStr"/>
+      <c r="G755" t="inlineStr"/>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="I755" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J755" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>17</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr"/>
+      <c r="D756" t="inlineStr"/>
+      <c r="E756" t="inlineStr"/>
+      <c r="F756" t="inlineStr"/>
+      <c r="G756" t="inlineStr"/>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I756" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J756" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>4</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>{30: 0}</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr"/>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr"/>
+      <c r="F757" t="inlineStr"/>
+      <c r="G757" t="inlineStr"/>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I757" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J757" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>8</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>{15: 0}</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr"/>
+      <c r="D758" t="inlineStr"/>
+      <c r="E758" t="inlineStr"/>
+      <c r="F758" t="inlineStr"/>
+      <c r="G758" t="inlineStr"/>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="I758" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J758" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>13</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>{15: 1}</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr"/>
+      <c r="D759" t="inlineStr"/>
+      <c r="E759" t="inlineStr"/>
+      <c r="F759" t="inlineStr"/>
+      <c r="G759" t="inlineStr"/>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I759" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J759" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>34</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>{15: 2}</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr"/>
+      <c r="E760" t="inlineStr"/>
+      <c r="F760" t="inlineStr"/>
+      <c r="G760" t="inlineStr"/>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J760" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>15</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>{23: 0}</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr"/>
+      <c r="D761" t="inlineStr"/>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F761" t="inlineStr"/>
+      <c r="G761" t="inlineStr"/>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J761" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>30</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>{34: 0}</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr"/>
+      <c r="D762" t="inlineStr"/>
+      <c r="E762" t="inlineStr"/>
+      <c r="F762" t="inlineStr"/>
+      <c r="G762" t="inlineStr"/>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="I762" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J762" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>19</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>{27: 0, 34: 1}</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr"/>
+      <c r="D763" t="inlineStr"/>
+      <c r="E763" t="inlineStr"/>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G763" t="inlineStr"/>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I763" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J763" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>11</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>{34: 2}</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr"/>
+      <c r="D764" t="inlineStr"/>
+      <c r="E764" t="inlineStr"/>
+      <c r="F764" t="inlineStr"/>
+      <c r="G764" t="inlineStr"/>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="I764" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J764" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>29</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>{34: 3}</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr"/>
+      <c r="D765" t="inlineStr"/>
+      <c r="E765" t="inlineStr"/>
+      <c r="F765" t="inlineStr"/>
+      <c r="G765" t="inlineStr"/>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I765" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J765" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>30</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>{34: 4}</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr"/>
+      <c r="D766" t="inlineStr"/>
+      <c r="E766" t="inlineStr"/>
+      <c r="F766" t="inlineStr"/>
+      <c r="G766" t="inlineStr"/>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I766" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J766" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>23</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>{34: 5}</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr"/>
+      <c r="D767" t="inlineStr"/>
+      <c r="E767" t="inlineStr"/>
+      <c r="F767" t="inlineStr"/>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I767" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J767" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>36</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr"/>
+      <c r="D768" t="inlineStr"/>
+      <c r="E768" t="inlineStr"/>
+      <c r="F768" t="inlineStr"/>
+      <c r="G768" t="inlineStr"/>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="I768" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J768" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>25</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>{34: 0}</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr"/>
+      <c r="D769" t="inlineStr"/>
+      <c r="E769" t="inlineStr"/>
+      <c r="F769" t="inlineStr"/>
+      <c r="G769" t="inlineStr"/>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I769" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J769" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>7</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>{34: 1}</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr"/>
+      <c r="D770" t="inlineStr"/>
+      <c r="E770" t="inlineStr"/>
+      <c r="F770" t="inlineStr"/>
+      <c r="G770" t="inlineStr"/>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I770" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J770" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>32</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>{34: 2}</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr"/>
+      <c r="D771" t="inlineStr"/>
+      <c r="E771" t="inlineStr"/>
+      <c r="F771" t="inlineStr"/>
+      <c r="G771" t="inlineStr"/>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I771" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J771" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>7</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>{34: 3}</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr"/>
+      <c r="D772" t="inlineStr"/>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F772" t="inlineStr"/>
+      <c r="G772" t="inlineStr"/>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I772" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J772" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>27</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr"/>
+      <c r="D773" t="inlineStr"/>
+      <c r="E773" t="inlineStr"/>
+      <c r="F773" t="inlineStr"/>
+      <c r="G773" t="inlineStr"/>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="I773" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J773" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>18</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr"/>
+      <c r="D774" t="inlineStr"/>
+      <c r="E774" t="inlineStr"/>
+      <c r="F774" t="inlineStr"/>
+      <c r="G774" t="inlineStr"/>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I774" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J774" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>28</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr"/>
+      <c r="D775" t="inlineStr"/>
+      <c r="E775" t="inlineStr"/>
+      <c r="F775" t="inlineStr"/>
+      <c r="G775" t="inlineStr"/>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I775" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J775" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>3</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr"/>
+      <c r="D776" t="inlineStr"/>
+      <c r="E776" t="inlineStr"/>
+      <c r="F776" t="inlineStr"/>
+      <c r="G776" t="inlineStr"/>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I776" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J776" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>19</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr"/>
+      <c r="D777" t="inlineStr"/>
+      <c r="E777" t="inlineStr"/>
+      <c r="F777" t="inlineStr"/>
+      <c r="G777" t="inlineStr"/>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I777" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J777" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>25</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr"/>
+      <c r="D778" t="inlineStr"/>
+      <c r="E778" t="inlineStr"/>
+      <c r="F778" t="inlineStr"/>
+      <c r="G778" t="inlineStr"/>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I778" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J778" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>24</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr"/>
+      <c r="D779" t="inlineStr"/>
+      <c r="E779" t="inlineStr"/>
+      <c r="F779" t="inlineStr"/>
+      <c r="G779" t="inlineStr"/>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I779" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J779" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>10</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr"/>
+      <c r="D780" t="inlineStr"/>
+      <c r="E780" t="inlineStr"/>
+      <c r="F780" t="inlineStr"/>
+      <c r="G780" t="inlineStr"/>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I780" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J780" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>2</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>{16: 0}</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr"/>
+      <c r="D781" t="inlineStr"/>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="inlineStr"/>
+      <c r="G781" t="inlineStr"/>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I781" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J781" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>29</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>{16: 1}</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr"/>
+      <c r="D782" t="inlineStr"/>
+      <c r="E782" t="inlineStr"/>
+      <c r="F782" t="inlineStr"/>
+      <c r="G782" t="inlineStr"/>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J782" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>6</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>{16: 2}</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr"/>
+      <c r="D783" t="inlineStr"/>
+      <c r="E783" t="inlineStr"/>
+      <c r="F783" t="inlineStr"/>
+      <c r="G783" t="inlineStr"/>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J783" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>8</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>{16: 3}</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr"/>
+      <c r="D784" t="inlineStr"/>
+      <c r="E784" t="inlineStr"/>
+      <c r="F784" t="inlineStr"/>
+      <c r="G784" t="inlineStr"/>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J784" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>9</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>{16: 4}</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr"/>
+      <c r="E785" t="inlineStr"/>
+      <c r="F785" t="inlineStr"/>
+      <c r="G785" t="inlineStr"/>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J785" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>16</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr"/>
+      <c r="D786" t="inlineStr"/>
+      <c r="E786" t="inlineStr"/>
+      <c r="F786" t="inlineStr"/>
+      <c r="G786" t="inlineStr"/>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J786" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>25</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr"/>
+      <c r="D787" t="inlineStr"/>
+      <c r="E787" t="inlineStr"/>
+      <c r="F787" t="inlineStr"/>
+      <c r="G787" t="inlineStr"/>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I787" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J787" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>24</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr"/>
+      <c r="D788" t="inlineStr"/>
+      <c r="E788" t="inlineStr"/>
+      <c r="F788" t="inlineStr"/>
+      <c r="G788" t="inlineStr"/>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I788" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J788" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>33</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr"/>
+      <c r="D789" t="inlineStr"/>
+      <c r="E789" t="inlineStr"/>
+      <c r="F789" t="inlineStr"/>
+      <c r="G789" t="inlineStr"/>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I789" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J789" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>26</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>{27: 0}</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr"/>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr"/>
+      <c r="F790" t="inlineStr"/>
+      <c r="G790" t="inlineStr"/>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I790" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J790" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>6</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr"/>
+      <c r="D791" t="inlineStr"/>
+      <c r="E791" t="inlineStr"/>
+      <c r="F791" t="inlineStr"/>
+      <c r="G791" t="inlineStr"/>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="I791" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J791" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>18</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr"/>
+      <c r="D792" t="inlineStr"/>
+      <c r="E792" t="inlineStr"/>
+      <c r="F792" t="inlineStr"/>
+      <c r="G792" t="inlineStr"/>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I792" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J792" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>25</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr"/>
+      <c r="D793" t="inlineStr"/>
+      <c r="E793" t="inlineStr"/>
+      <c r="F793" t="inlineStr"/>
+      <c r="G793" t="inlineStr"/>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I793" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J793" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>33</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr"/>
+      <c r="D794" t="inlineStr"/>
+      <c r="E794" t="inlineStr"/>
+      <c r="F794" t="inlineStr"/>
+      <c r="G794" t="inlineStr"/>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I794" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J794" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>24</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr"/>
+      <c r="D795" t="inlineStr"/>
+      <c r="E795" t="inlineStr"/>
+      <c r="F795" t="inlineStr"/>
+      <c r="G795" t="inlineStr"/>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I795" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J795" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>15</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr"/>
+      <c r="D796" t="inlineStr"/>
+      <c r="E796" t="inlineStr"/>
+      <c r="F796" t="inlineStr"/>
+      <c r="G796" t="inlineStr"/>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I796" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J796" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>6</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr"/>
+      <c r="D797" t="inlineStr"/>
+      <c r="E797" t="inlineStr"/>
+      <c r="F797" t="inlineStr"/>
+      <c r="G797" t="inlineStr"/>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I797" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J797" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>8</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr"/>
+      <c r="D798" t="inlineStr"/>
+      <c r="E798" t="inlineStr"/>
+      <c r="F798" t="inlineStr"/>
+      <c r="G798" t="inlineStr"/>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I798" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J798" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>34</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr"/>
+      <c r="D799" t="inlineStr"/>
+      <c r="E799" t="inlineStr"/>
+      <c r="F799" t="inlineStr"/>
+      <c r="G799" t="inlineStr"/>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I799" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J799" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>31</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr"/>
+      <c r="D800" t="inlineStr"/>
+      <c r="E800" t="inlineStr"/>
+      <c r="F800" t="inlineStr"/>
+      <c r="G800" t="inlineStr"/>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I800" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J800" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>18</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr"/>
+      <c r="D801" t="inlineStr"/>
+      <c r="E801" t="inlineStr"/>
+      <c r="F801" t="inlineStr"/>
+      <c r="G801" t="inlineStr"/>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I801" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J801" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>3</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr"/>
+      <c r="D802" t="inlineStr"/>
+      <c r="E802" t="inlineStr"/>
+      <c r="F802" t="inlineStr"/>
+      <c r="G802" t="inlineStr"/>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I802" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J802" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>26</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr"/>
+      <c r="D803" t="inlineStr"/>
+      <c r="E803" t="inlineStr"/>
+      <c r="F803" t="inlineStr"/>
+      <c r="G803" t="inlineStr"/>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I803" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J803" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>29</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr"/>
+      <c r="D804" t="inlineStr"/>
+      <c r="E804" t="inlineStr"/>
+      <c r="F804" t="inlineStr"/>
+      <c r="G804" t="inlineStr"/>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I804" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J804" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>12</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr"/>
+      <c r="D805" t="inlineStr"/>
+      <c r="E805" t="inlineStr"/>
+      <c r="F805" t="inlineStr"/>
+      <c r="G805" t="inlineStr"/>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I805" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J805" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>4</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr"/>
+      <c r="D806" t="inlineStr"/>
+      <c r="E806" t="inlineStr"/>
+      <c r="F806" t="inlineStr"/>
+      <c r="G806" t="inlineStr"/>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I806" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J806" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>25</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr"/>
+      <c r="D807" t="inlineStr"/>
+      <c r="E807" t="inlineStr"/>
+      <c r="F807" t="inlineStr"/>
+      <c r="G807" t="inlineStr"/>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I807" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J807" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>27</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr"/>
+      <c r="D808" t="inlineStr"/>
+      <c r="E808" t="inlineStr"/>
+      <c r="F808" t="inlineStr"/>
+      <c r="G808" t="inlineStr"/>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I808" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J808" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>12</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr"/>
+      <c r="D809" t="inlineStr"/>
+      <c r="E809" t="inlineStr"/>
+      <c r="F809" t="inlineStr"/>
+      <c r="G809" t="inlineStr"/>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I809" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J809" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>21</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr"/>
+      <c r="D810" t="inlineStr"/>
+      <c r="E810" t="inlineStr"/>
+      <c r="F810" t="inlineStr"/>
+      <c r="G810" t="inlineStr"/>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I810" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J810" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>18</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>{22: 0}</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr"/>
+      <c r="D811" t="inlineStr"/>
+      <c r="E811" t="inlineStr"/>
+      <c r="F811" t="inlineStr"/>
+      <c r="G811" t="inlineStr"/>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I811" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J811" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>36</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>{22: 1, 31: 0}</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr"/>
+      <c r="D812" t="inlineStr"/>
+      <c r="E812" t="inlineStr"/>
+      <c r="F812" t="inlineStr"/>
+      <c r="G812" t="inlineStr"/>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I812" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J812" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>12</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>{22: 2, 31: 1}</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr"/>
+      <c r="D813" t="inlineStr"/>
+      <c r="E813" t="inlineStr"/>
+      <c r="F813" t="inlineStr"/>
+      <c r="G813" t="inlineStr"/>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I813" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J813" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>21</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>{22: 3, 31: 2}</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr"/>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr"/>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G814" t="inlineStr"/>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I814" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J814" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>18</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr"/>
+      <c r="D815" t="inlineStr"/>
+      <c r="E815" t="inlineStr"/>
+      <c r="F815" t="inlineStr"/>
+      <c r="G815" t="inlineStr"/>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>[22, 31]</t>
+        </is>
+      </c>
+      <c r="I815" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J815" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>36</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr"/>
+      <c r="D816" t="inlineStr"/>
+      <c r="E816" t="inlineStr"/>
+      <c r="F816" t="inlineStr"/>
+      <c r="G816" t="inlineStr"/>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I816" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J816" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>12</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr"/>
+      <c r="D817" t="inlineStr"/>
+      <c r="E817" t="inlineStr"/>
+      <c r="F817" t="inlineStr"/>
+      <c r="G817" t="inlineStr"/>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I817" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J817" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>21</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr"/>
+      <c r="D818" t="inlineStr"/>
+      <c r="E818" t="inlineStr"/>
+      <c r="F818" t="inlineStr"/>
+      <c r="G818" t="inlineStr"/>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I818" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J818" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>0</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr"/>
+      <c r="D819" t="inlineStr"/>
+      <c r="E819" t="inlineStr"/>
+      <c r="F819" t="inlineStr"/>
+      <c r="G819" t="inlineStr"/>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I819" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J819" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>35</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr"/>
+      <c r="D820" t="inlineStr"/>
+      <c r="E820" t="inlineStr"/>
+      <c r="F820" t="inlineStr"/>
+      <c r="G820" t="inlineStr"/>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I820" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J820" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>26</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr"/>
+      <c r="D821" t="inlineStr"/>
+      <c r="E821" t="inlineStr"/>
+      <c r="F821" t="inlineStr"/>
+      <c r="G821" t="inlineStr"/>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I821" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J821" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>23</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr"/>
+      <c r="D822" t="inlineStr"/>
+      <c r="E822" t="inlineStr"/>
+      <c r="F822" t="inlineStr"/>
+      <c r="G822" t="inlineStr"/>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I822" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J822" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>35</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr"/>
+      <c r="D823" t="inlineStr"/>
+      <c r="E823" t="inlineStr"/>
+      <c r="F823" t="inlineStr"/>
+      <c r="G823" t="inlineStr"/>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I823" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J823" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>0</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr"/>
+      <c r="D824" t="inlineStr"/>
+      <c r="E824" t="inlineStr"/>
+      <c r="F824" t="inlineStr"/>
+      <c r="G824" t="inlineStr"/>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I824" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J824" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>17</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr"/>
+      <c r="D825" t="inlineStr"/>
+      <c r="E825" t="inlineStr"/>
+      <c r="F825" t="inlineStr"/>
+      <c r="G825" t="inlineStr"/>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I825" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J825" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>12</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr"/>
+      <c r="D826" t="inlineStr"/>
+      <c r="E826" t="inlineStr"/>
+      <c r="F826" t="inlineStr"/>
+      <c r="G826" t="inlineStr"/>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I826" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J826" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>31</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>{11: 0}</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr"/>
+      <c r="D827" t="inlineStr"/>
+      <c r="E827" t="inlineStr"/>
+      <c r="F827" t="inlineStr"/>
+      <c r="G827" t="inlineStr"/>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I827" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J827" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>16</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>{11: 1}</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr"/>
+      <c r="D828" t="inlineStr"/>
+      <c r="E828" t="inlineStr"/>
+      <c r="F828" t="inlineStr"/>
+      <c r="G828" t="inlineStr"/>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I828" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J828" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>5</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>{11: 2}</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr"/>
+      <c r="E829" t="inlineStr"/>
+      <c r="F829" t="inlineStr"/>
+      <c r="G829" t="inlineStr"/>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I829" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J829" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>11</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr"/>
+      <c r="D830" t="inlineStr"/>
+      <c r="E830" t="inlineStr"/>
+      <c r="F830" t="inlineStr"/>
+      <c r="G830" t="inlineStr"/>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="I830" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J830" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>21</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr"/>
+      <c r="D831" t="inlineStr"/>
+      <c r="E831" t="inlineStr"/>
+      <c r="F831" t="inlineStr"/>
+      <c r="G831" t="inlineStr"/>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I831" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J831" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>28</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr"/>
+      <c r="D832" t="inlineStr"/>
+      <c r="E832" t="inlineStr"/>
+      <c r="F832" t="inlineStr"/>
+      <c r="G832" t="inlineStr"/>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I832" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J832" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>11</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr"/>
+      <c r="D833" t="inlineStr"/>
+      <c r="E833" t="inlineStr"/>
+      <c r="F833" t="inlineStr"/>
+      <c r="G833" t="inlineStr"/>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I833" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J833" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>2</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr"/>
+      <c r="D834" t="inlineStr"/>
+      <c r="E834" t="inlineStr"/>
+      <c r="F834" t="inlineStr"/>
+      <c r="G834" t="inlineStr"/>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I834" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J834" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>21</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr"/>
+      <c r="D835" t="inlineStr"/>
+      <c r="E835" t="inlineStr"/>
+      <c r="F835" t="inlineStr"/>
+      <c r="G835" t="inlineStr"/>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I835" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J835" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>20</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr"/>
+      <c r="D836" t="inlineStr"/>
+      <c r="E836" t="inlineStr"/>
+      <c r="F836" t="inlineStr"/>
+      <c r="G836" t="inlineStr"/>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I836" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J836" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>36</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr"/>
+      <c r="D837" t="inlineStr"/>
+      <c r="E837" t="inlineStr"/>
+      <c r="F837" t="inlineStr"/>
+      <c r="G837" t="inlineStr"/>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I837" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J837" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>9</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr"/>
+      <c r="D838" t="inlineStr"/>
+      <c r="E838" t="inlineStr"/>
+      <c r="F838" t="inlineStr"/>
+      <c r="G838" t="inlineStr"/>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I838" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J838" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>4</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr"/>
+      <c r="D839" t="inlineStr"/>
+      <c r="E839" t="inlineStr"/>
+      <c r="F839" t="inlineStr"/>
+      <c r="G839" t="inlineStr"/>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I839" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J839" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>15</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>{15: 0}</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr"/>
+      <c r="D840" t="inlineStr"/>
+      <c r="E840" t="inlineStr"/>
+      <c r="F840" t="inlineStr"/>
+      <c r="G840" t="inlineStr"/>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I840" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J840" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>12</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>{15: 1}</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr"/>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr"/>
+      <c r="F841" t="inlineStr"/>
+      <c r="G841" t="inlineStr"/>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I841" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J841" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>32</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr"/>
+      <c r="D842" t="inlineStr"/>
+      <c r="E842" t="inlineStr"/>
+      <c r="F842" t="inlineStr"/>
+      <c r="G842" t="inlineStr"/>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J842" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>27</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr"/>
+      <c r="D843" t="inlineStr"/>
+      <c r="E843" t="inlineStr"/>
+      <c r="F843" t="inlineStr"/>
+      <c r="G843" t="inlineStr"/>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I843" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J843" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>18</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr"/>
+      <c r="D844" t="inlineStr"/>
+      <c r="E844" t="inlineStr"/>
+      <c r="F844" t="inlineStr"/>
+      <c r="G844" t="inlineStr"/>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I844" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J844" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>11</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr"/>
+      <c r="D845" t="inlineStr"/>
+      <c r="E845" t="inlineStr"/>
+      <c r="F845" t="inlineStr"/>
+      <c r="G845" t="inlineStr"/>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I845" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J845" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>1</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr"/>
+      <c r="D846" t="inlineStr"/>
+      <c r="E846" t="inlineStr"/>
+      <c r="F846" t="inlineStr"/>
+      <c r="G846" t="inlineStr"/>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I846" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J846" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>8</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr"/>
+      <c r="D847" t="inlineStr"/>
+      <c r="E847" t="inlineStr"/>
+      <c r="F847" t="inlineStr"/>
+      <c r="G847" t="inlineStr"/>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I847" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J847" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>12</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr"/>
+      <c r="D848" t="inlineStr"/>
+      <c r="E848" t="inlineStr"/>
+      <c r="F848" t="inlineStr"/>
+      <c r="G848" t="inlineStr"/>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I848" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J848" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>18</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr"/>
+      <c r="D849" t="inlineStr"/>
+      <c r="E849" t="inlineStr"/>
+      <c r="F849" t="inlineStr"/>
+      <c r="G849" t="inlineStr"/>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I849" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J849" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>1</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr"/>
+      <c r="D850" t="inlineStr"/>
+      <c r="E850" t="inlineStr"/>
+      <c r="F850" t="inlineStr"/>
+      <c r="G850" t="inlineStr"/>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I850" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J850" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>7</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>{26: 0}</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr"/>
+      <c r="D851" t="inlineStr"/>
+      <c r="E851" t="inlineStr"/>
+      <c r="F851" t="inlineStr"/>
+      <c r="G851" t="inlineStr"/>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I851" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J851" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>23</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>{26: 1}</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr"/>
+      <c r="D852" t="inlineStr"/>
+      <c r="E852" t="inlineStr"/>
+      <c r="F852" t="inlineStr"/>
+      <c r="G852" t="inlineStr"/>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I852" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J852" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>17</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>{26: 2}</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr"/>
+      <c r="D853" t="inlineStr"/>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F853" t="inlineStr"/>
+      <c r="G853" t="inlineStr"/>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I853" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J853" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>32</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr"/>
+      <c r="D854" t="inlineStr"/>
+      <c r="E854" t="inlineStr"/>
+      <c r="F854" t="inlineStr"/>
+      <c r="G854" t="inlineStr"/>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="I854" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J854" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>10</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>{34: 0}</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr"/>
+      <c r="D855" t="inlineStr"/>
+      <c r="E855" t="inlineStr"/>
+      <c r="F855" t="inlineStr"/>
+      <c r="G855" t="inlineStr"/>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I855" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J855" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>30</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>{30: 0, 34: 1}</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr"/>
+      <c r="D856" t="inlineStr"/>
+      <c r="E856" t="inlineStr"/>
+      <c r="F856" t="inlineStr"/>
+      <c r="G856" t="inlineStr"/>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I856" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J856" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>16</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>{30: 1, 34: 2}</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr"/>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr"/>
+      <c r="F857" t="inlineStr"/>
+      <c r="G857" t="inlineStr"/>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I857" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J857" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>11</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>{34: 3}</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr"/>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr"/>
+      <c r="F858" t="inlineStr"/>
+      <c r="G858" t="inlineStr"/>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="I858" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J858" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>17</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr"/>
+      <c r="D859" t="inlineStr"/>
+      <c r="E859" t="inlineStr"/>
+      <c r="F859" t="inlineStr"/>
+      <c r="G859" t="inlineStr"/>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="I859" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J859" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>7</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr"/>
+      <c r="D860" t="inlineStr"/>
+      <c r="E860" t="inlineStr"/>
+      <c r="F860" t="inlineStr"/>
+      <c r="G860" t="inlineStr"/>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I860" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J860" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>28</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr"/>
+      <c r="D861" t="inlineStr"/>
+      <c r="E861" t="inlineStr"/>
+      <c r="F861" t="inlineStr"/>
+      <c r="G861" t="inlineStr"/>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I861" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J861" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>18</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr"/>
+      <c r="D862" t="inlineStr"/>
+      <c r="E862" t="inlineStr"/>
+      <c r="F862" t="inlineStr"/>
+      <c r="G862" t="inlineStr"/>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I862" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J862" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>34</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr"/>
+      <c r="D863" t="inlineStr"/>
+      <c r="E863" t="inlineStr"/>
+      <c r="F863" t="inlineStr"/>
+      <c r="G863" t="inlineStr"/>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I863" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J863" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>6</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr"/>
+      <c r="D864" t="inlineStr"/>
+      <c r="E864" t="inlineStr"/>
+      <c r="F864" t="inlineStr"/>
+      <c r="G864" t="inlineStr"/>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I864" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J864" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>13</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr"/>
+      <c r="D865" t="inlineStr"/>
+      <c r="E865" t="inlineStr"/>
+      <c r="F865" t="inlineStr"/>
+      <c r="G865" t="inlineStr"/>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I865" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J865" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>12</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr"/>
+      <c r="D866" t="inlineStr"/>
+      <c r="E866" t="inlineStr"/>
+      <c r="F866" t="inlineStr"/>
+      <c r="G866" t="inlineStr"/>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I866" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J866" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>18</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr"/>
+      <c r="D867" t="inlineStr"/>
+      <c r="E867" t="inlineStr"/>
+      <c r="F867" t="inlineStr"/>
+      <c r="G867" t="inlineStr"/>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J867" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>18</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr"/>
+      <c r="D868" t="inlineStr"/>
+      <c r="E868" t="inlineStr"/>
+      <c r="F868" t="inlineStr"/>
+      <c r="G868" t="inlineStr"/>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J868" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>32</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr"/>
+      <c r="D869" t="inlineStr"/>
+      <c r="E869" t="inlineStr"/>
+      <c r="F869" t="inlineStr"/>
+      <c r="G869" t="inlineStr"/>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I869" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J869" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>4</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>{22: 0}</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr"/>
+      <c r="D870" t="inlineStr"/>
+      <c r="E870" t="inlineStr"/>
+      <c r="F870" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G870" t="inlineStr"/>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J870" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>14</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>{6: 0}</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr"/>
+      <c r="D871" t="inlineStr"/>
+      <c r="E871" t="inlineStr"/>
+      <c r="F871" t="inlineStr"/>
+      <c r="G871" t="inlineStr"/>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J871" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>24</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>{6: 1}</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr"/>
+      <c r="D872" t="inlineStr"/>
+      <c r="E872" t="inlineStr"/>
+      <c r="F872" t="inlineStr"/>
+      <c r="G872" t="inlineStr"/>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J872" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>16</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>{6: 2}</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr"/>
+      <c r="D873" t="inlineStr"/>
+      <c r="E873" t="inlineStr"/>
+      <c r="F873" t="inlineStr"/>
+      <c r="G873" t="inlineStr"/>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I873" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J873" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>16</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>{6: 3}</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr"/>
+      <c r="D874" t="inlineStr"/>
+      <c r="E874" t="inlineStr"/>
+      <c r="F874" t="inlineStr"/>
+      <c r="G874" t="inlineStr"/>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I874" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J874" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>15</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>{6: 4}</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr"/>
+      <c r="D875" t="inlineStr"/>
+      <c r="E875" t="inlineStr"/>
+      <c r="F875" t="inlineStr"/>
+      <c r="G875" t="inlineStr"/>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I875" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J875" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>21</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>{6: 5, 19: 0}</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr"/>
+      <c r="D876" t="inlineStr"/>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F876" t="inlineStr"/>
+      <c r="G876" t="inlineStr"/>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I876" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J876" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>17</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>{19: 1}</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr"/>
+      <c r="D877" t="inlineStr"/>
+      <c r="E877" t="inlineStr"/>
+      <c r="F877" t="inlineStr"/>
+      <c r="G877" t="inlineStr"/>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="I877" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J877" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>29</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>{19: 2}</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr"/>
+      <c r="D878" t="inlineStr"/>
+      <c r="E878" t="inlineStr"/>
+      <c r="F878" t="inlineStr"/>
+      <c r="G878" t="inlineStr"/>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I878" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J878" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>18</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>{19: 3}</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr"/>
+      <c r="D879" t="inlineStr"/>
+      <c r="E879" t="inlineStr"/>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="inlineStr"/>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I879" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J879" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>24</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>{19: 4}</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr"/>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr"/>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="inlineStr"/>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I880" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J880" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>15</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr"/>
+      <c r="D881" t="inlineStr"/>
+      <c r="E881" t="inlineStr"/>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="inlineStr"/>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>[19]</t>
+        </is>
+      </c>
+      <c r="I881" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J881" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>12</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr"/>
+      <c r="D882" t="inlineStr"/>
+      <c r="E882" t="inlineStr"/>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="inlineStr"/>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I882" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J882" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>4</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr"/>
+      <c r="D883" t="inlineStr"/>
+      <c r="E883" t="inlineStr"/>
+      <c r="F883" t="inlineStr"/>
+      <c r="G883" t="inlineStr"/>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I883" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J883" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>1</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr"/>
+      <c r="D884" t="inlineStr"/>
+      <c r="E884" t="inlineStr"/>
+      <c r="F884" t="inlineStr"/>
+      <c r="G884" t="inlineStr"/>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I884" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J884" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>20</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>{20: 0}</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr"/>
+      <c r="D885" t="inlineStr"/>
+      <c r="E885" t="inlineStr"/>
+      <c r="F885" t="inlineStr"/>
+      <c r="G885" t="inlineStr"/>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I885" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J885" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>34</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>{3: 0, 20: 1}</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr"/>
+      <c r="D886" t="inlineStr"/>
+      <c r="E886" t="inlineStr"/>
+      <c r="F886" t="inlineStr"/>
+      <c r="G886" t="inlineStr"/>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I886" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J886" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>36</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>{3: 1, 11: 0, 20: 2}</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr"/>
+      <c r="D887" t="inlineStr"/>
+      <c r="E887" t="inlineStr"/>
+      <c r="F887" t="inlineStr"/>
+      <c r="G887" t="inlineStr"/>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I887" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J887" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>21</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>{3: 2, 11: 1, 20: 3, 34: 0}</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr"/>
+      <c r="E888" t="inlineStr"/>
+      <c r="F888" t="inlineStr"/>
+      <c r="G888" t="inlineStr"/>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I888" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J888" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>11</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>{3: 3, 20: 4, 34: 1}</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr"/>
+      <c r="D889" t="inlineStr"/>
+      <c r="E889" t="inlineStr"/>
+      <c r="F889" t="inlineStr"/>
+      <c r="G889" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="I889" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J889" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>22</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>{3: 4, 34: 2}</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr"/>
+      <c r="D890" t="inlineStr"/>
+      <c r="E890" t="inlineStr"/>
+      <c r="F890" t="inlineStr"/>
+      <c r="G890" t="inlineStr"/>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
+      <c r="I890" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J890" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>29</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>{3: 5, 34: 3}</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr"/>
+      <c r="D891" t="inlineStr"/>
+      <c r="E891" t="inlineStr"/>
+      <c r="F891" t="inlineStr"/>
+      <c r="G891" t="inlineStr"/>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I891" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J891" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>24</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>{3: 6, 34: 4}</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr"/>
+      <c r="D892" t="inlineStr"/>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F892" t="inlineStr"/>
+      <c r="G892" t="inlineStr"/>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I892" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J892" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>0</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>{34: 5}</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr"/>
+      <c r="D893" t="inlineStr"/>
+      <c r="E893" t="inlineStr"/>
+      <c r="F893" t="inlineStr"/>
+      <c r="G893" t="inlineStr"/>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="I893" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J893" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>32</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>{34: 6}</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr"/>
+      <c r="D894" t="inlineStr"/>
+      <c r="E894" t="inlineStr"/>
+      <c r="F894" t="inlineStr"/>
+      <c r="G894" t="inlineStr"/>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I894" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J894" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>11</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr"/>
+      <c r="D895" t="inlineStr"/>
+      <c r="E895" t="inlineStr"/>
+      <c r="F895" t="inlineStr"/>
+      <c r="G895" t="inlineStr"/>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I895" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="J895" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>4</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>{17: 0}</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr"/>
+      <c r="D896" t="inlineStr"/>
+      <c r="E896" t="inlineStr"/>
+      <c r="F896" t="inlineStr"/>
+      <c r="G896" t="inlineStr"/>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I896" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J896" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>35</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>{5: 0, 17: 1}</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr"/>
+      <c r="D897" t="inlineStr"/>
+      <c r="E897" t="inlineStr"/>
+      <c r="F897" t="inlineStr"/>
+      <c r="G897" t="inlineStr"/>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I897" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J897" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>7</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>{4: 0, 5: 1, 17: 2}</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr"/>
+      <c r="E898" t="inlineStr"/>
+      <c r="F898" t="inlineStr"/>
+      <c r="G898" t="inlineStr"/>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I898" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J898" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>5</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>{3: 0, 4: 1, 17: 3}</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr"/>
+      <c r="D899" t="inlineStr"/>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F899" t="inlineStr"/>
+      <c r="G899" t="inlineStr"/>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="I899" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J899" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>6</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>{3: 1, 4: 2}</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr"/>
+      <c r="D900" t="inlineStr"/>
+      <c r="E900" t="inlineStr"/>
+      <c r="F900" t="inlineStr"/>
+      <c r="G900" t="inlineStr"/>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="I900" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J900" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>5</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr"/>
+      <c r="D901" t="inlineStr"/>
+      <c r="E901" t="inlineStr"/>
+      <c r="F901" t="inlineStr"/>
+      <c r="G901" t="inlineStr"/>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I901" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J901" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>26</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr"/>
+      <c r="D902" t="inlineStr"/>
+      <c r="E902" t="inlineStr"/>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="inlineStr"/>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I902" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J902" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>2</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr"/>
+      <c r="D903" t="inlineStr"/>
+      <c r="E903" t="inlineStr"/>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="inlineStr"/>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I903" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J903" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>16</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr"/>
+      <c r="D904" t="inlineStr"/>
+      <c r="E904" t="inlineStr"/>
+      <c r="F904" t="inlineStr"/>
+      <c r="G904" t="inlineStr"/>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I904" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J904" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>25</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr"/>
+      <c r="D905" t="inlineStr"/>
+      <c r="E905" t="inlineStr"/>
+      <c r="F905" t="inlineStr"/>
+      <c r="G905" t="inlineStr"/>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I905" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J905" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>26</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr"/>
+      <c r="D906" t="inlineStr"/>
+      <c r="E906" t="inlineStr"/>
+      <c r="F906" t="inlineStr"/>
+      <c r="G906" t="inlineStr"/>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I906" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J906" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>31</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr"/>
+      <c r="D907" t="inlineStr"/>
+      <c r="E907" t="inlineStr"/>
+      <c r="F907" t="inlineStr"/>
+      <c r="G907" t="inlineStr"/>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I907" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J907" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>0</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr"/>
+      <c r="D908" t="inlineStr"/>
+      <c r="E908" t="inlineStr"/>
+      <c r="F908" t="inlineStr"/>
+      <c r="G908" t="inlineStr"/>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I908" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J908" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>1</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr"/>
+      <c r="D909" t="inlineStr"/>
+      <c r="E909" t="inlineStr"/>
+      <c r="F909" t="inlineStr"/>
+      <c r="G909" t="inlineStr"/>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I909" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J909" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>28</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr"/>
+      <c r="D910" t="inlineStr"/>
+      <c r="E910" t="inlineStr"/>
+      <c r="F910" t="inlineStr"/>
+      <c r="G910" t="inlineStr"/>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I910" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J910" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>35</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>{11: 0}</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr"/>
+      <c r="D911" t="inlineStr"/>
+      <c r="E911" t="inlineStr"/>
+      <c r="F911" t="inlineStr"/>
+      <c r="G911" t="inlineStr"/>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I911" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J911" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>29</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>{11: 1}</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr"/>
+      <c r="D912" t="inlineStr"/>
+      <c r="E912" t="inlineStr"/>
+      <c r="F912" t="inlineStr"/>
+      <c r="G912" t="inlineStr"/>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I912" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J912" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>12</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>{11: 2}</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr"/>
+      <c r="D913" t="inlineStr"/>
+      <c r="E913" t="inlineStr"/>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G913" t="inlineStr"/>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I913" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J913" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>23</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr"/>
+      <c r="D914" t="inlineStr"/>
+      <c r="E914" t="inlineStr"/>
+      <c r="F914" t="inlineStr"/>
+      <c r="G914" t="inlineStr"/>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="I914" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J914" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>10</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr"/>
+      <c r="D915" t="inlineStr"/>
+      <c r="E915" t="inlineStr"/>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="inlineStr"/>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I915" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J915" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>25</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr"/>
+      <c r="D916" t="inlineStr"/>
+      <c r="E916" t="inlineStr"/>
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="inlineStr"/>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I916" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J916" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>31</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr"/>
+      <c r="D917" t="inlineStr"/>
+      <c r="E917" t="inlineStr"/>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr"/>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I917" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J917" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>8</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr"/>
+      <c r="D918" t="inlineStr"/>
+      <c r="E918" t="inlineStr"/>
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="inlineStr"/>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I918" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J918" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>13</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr"/>
+      <c r="D919" t="inlineStr"/>
+      <c r="E919" t="inlineStr"/>
+      <c r="F919" t="inlineStr"/>
+      <c r="G919" t="inlineStr"/>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I919" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J919" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>3</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr"/>
+      <c r="D920" t="inlineStr"/>
+      <c r="E920" t="inlineStr"/>
+      <c r="F920" t="inlineStr"/>
+      <c r="G920" t="inlineStr"/>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I920" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J920" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>5</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr"/>
+      <c r="D921" t="inlineStr"/>
+      <c r="E921" t="inlineStr"/>
+      <c r="F921" t="inlineStr"/>
+      <c r="G921" t="inlineStr"/>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I921" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J921" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>8</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr"/>
+      <c r="D922" t="inlineStr"/>
+      <c r="E922" t="inlineStr"/>
+      <c r="F922" t="inlineStr"/>
+      <c r="G922" t="inlineStr"/>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I922" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J922" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>31</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>{29: 0}</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr"/>
+      <c r="D923" t="inlineStr"/>
+      <c r="E923" t="inlineStr"/>
+      <c r="F923" t="inlineStr"/>
+      <c r="G923" t="inlineStr"/>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I923" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J923" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>11</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>{26: 0, 29: 1}</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr"/>
+      <c r="D924" t="inlineStr"/>
+      <c r="E924" t="inlineStr"/>
+      <c r="F924" t="inlineStr"/>
+      <c r="G924" t="inlineStr"/>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I924" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J924" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>33</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>{26: 1, 29: 2}</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr"/>
+      <c r="D925" t="inlineStr"/>
+      <c r="E925" t="inlineStr"/>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G925" t="inlineStr"/>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I925" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J925" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>12</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr"/>
+      <c r="D926" t="inlineStr"/>
+      <c r="E926" t="inlineStr"/>
+      <c r="F926" t="inlineStr"/>
+      <c r="G926" t="inlineStr"/>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>[26, 29]</t>
+        </is>
+      </c>
+      <c r="I926" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J926" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>33</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>{27: 0}</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr"/>
+      <c r="D927" t="inlineStr"/>
+      <c r="E927" t="inlineStr"/>
+      <c r="F927" t="inlineStr"/>
+      <c r="G927" t="inlineStr"/>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I927" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J927" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>8</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>{27: 1, 31: 0}</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr"/>
+      <c r="D928" t="inlineStr"/>
+      <c r="E928" t="inlineStr"/>
+      <c r="F928" t="inlineStr"/>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I928" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J928" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>33</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>{27: 2}</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr"/>
+      <c r="D929" t="inlineStr"/>
+      <c r="E929" t="inlineStr"/>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G929" t="inlineStr"/>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>[31]</t>
+        </is>
+      </c>
+      <c r="I929" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J929" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>17</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>{31: 0}</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr"/>
+      <c r="D930" t="inlineStr"/>
+      <c r="E930" t="inlineStr"/>
+      <c r="F930" t="inlineStr"/>
+      <c r="G930" t="inlineStr"/>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="I930" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J930" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>11</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>{31: 1}</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr"/>
+      <c r="D931" t="inlineStr"/>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="inlineStr"/>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I931" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J931" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>22</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr"/>
+      <c r="D932" t="inlineStr"/>
+      <c r="E932" t="inlineStr"/>
+      <c r="F932" t="inlineStr"/>
+      <c r="G932" t="inlineStr"/>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>[31]</t>
+        </is>
+      </c>
+      <c r="I932" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J932" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>10</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr"/>
+      <c r="D933" t="inlineStr"/>
+      <c r="E933" t="inlineStr"/>
+      <c r="F933" t="inlineStr"/>
+      <c r="G933" t="inlineStr"/>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I933" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J933" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>16</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr"/>
+      <c r="D934" t="inlineStr"/>
+      <c r="E934" t="inlineStr"/>
+      <c r="F934" t="inlineStr"/>
+      <c r="G934" t="inlineStr"/>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I934" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J934" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>36</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr"/>
+      <c r="D935" t="inlineStr"/>
+      <c r="E935" t="inlineStr"/>
+      <c r="F935" t="inlineStr"/>
+      <c r="G935" t="inlineStr"/>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I935" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J935" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>13</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>{19: 0}</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr"/>
+      <c r="D936" t="inlineStr"/>
+      <c r="E936" t="inlineStr"/>
+      <c r="F936" t="inlineStr"/>
+      <c r="G936" t="inlineStr"/>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I936" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J936" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>7</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>{19: 1}</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr"/>
+      <c r="D937" t="inlineStr"/>
+      <c r="E937" t="inlineStr"/>
+      <c r="F937" t="inlineStr"/>
+      <c r="G937" t="inlineStr"/>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I937" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J937" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>27</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>{19: 2}</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr"/>
+      <c r="D938" t="inlineStr"/>
+      <c r="E938" t="inlineStr"/>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G938" t="inlineStr"/>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I938" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J938" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>0</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr"/>
+      <c r="D939" t="inlineStr"/>
+      <c r="E939" t="inlineStr"/>
+      <c r="F939" t="inlineStr"/>
+      <c r="G939" t="inlineStr"/>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>[19]</t>
+        </is>
+      </c>
+      <c r="I939" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J939" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>21</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr"/>
+      <c r="D940" t="inlineStr"/>
+      <c r="E940" t="inlineStr"/>
+      <c r="F940" t="inlineStr"/>
+      <c r="G940" t="inlineStr"/>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I940" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J940" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>31</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr"/>
+      <c r="D941" t="inlineStr"/>
+      <c r="E941" t="inlineStr"/>
+      <c r="F941" t="inlineStr"/>
+      <c r="G941" t="inlineStr"/>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I941" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J941" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>12</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr"/>
+      <c r="D942" t="inlineStr"/>
+      <c r="E942" t="inlineStr"/>
+      <c r="F942" t="inlineStr"/>
+      <c r="G942" t="inlineStr"/>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J942" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>1</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr"/>
+      <c r="D943" t="inlineStr"/>
+      <c r="E943" t="inlineStr"/>
+      <c r="F943" t="inlineStr"/>
+      <c r="G943" t="inlineStr"/>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I943" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J943" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>29</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr"/>
+      <c r="D944" t="inlineStr"/>
+      <c r="E944" t="inlineStr"/>
+      <c r="F944" t="inlineStr"/>
+      <c r="G944" t="inlineStr"/>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J944" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>28</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr"/>
+      <c r="D945" t="inlineStr"/>
+      <c r="E945" t="inlineStr"/>
+      <c r="F945" t="inlineStr"/>
+      <c r="G945" t="inlineStr"/>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I945" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J945" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>18</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr"/>
+      <c r="D946" t="inlineStr"/>
+      <c r="E946" t="inlineStr"/>
+      <c r="F946" t="inlineStr"/>
+      <c r="G946" t="inlineStr"/>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I946" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J946" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>33</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr"/>
+      <c r="D947" t="inlineStr"/>
+      <c r="E947" t="inlineStr"/>
+      <c r="F947" t="inlineStr"/>
+      <c r="G947" t="inlineStr"/>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I947" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J947" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>16</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr"/>
+      <c r="D948" t="inlineStr"/>
+      <c r="E948" t="inlineStr"/>
+      <c r="F948" t="inlineStr"/>
+      <c r="G948" t="inlineStr"/>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I948" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J948" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>0</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr"/>
+      <c r="D949" t="inlineStr"/>
+      <c r="E949" t="inlineStr"/>
+      <c r="F949" t="inlineStr"/>
+      <c r="G949" t="inlineStr"/>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I949" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J949" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>27</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr"/>
+      <c r="D950" t="inlineStr"/>
+      <c r="E950" t="inlineStr"/>
+      <c r="F950" t="inlineStr"/>
+      <c r="G950" t="inlineStr"/>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I950" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J950" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>23</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr"/>
+      <c r="D951" t="inlineStr"/>
+      <c r="E951" t="inlineStr"/>
+      <c r="F951" t="inlineStr"/>
+      <c r="G951" t="inlineStr"/>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I951" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J951" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>11</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr"/>
+      <c r="D952" t="inlineStr"/>
+      <c r="E952" t="inlineStr"/>
+      <c r="F952" t="inlineStr"/>
+      <c r="G952" t="inlineStr"/>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I952" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J952" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>30</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>{34: 0}</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr"/>
+      <c r="D953" t="inlineStr"/>
+      <c r="E953" t="inlineStr"/>
+      <c r="F953" t="inlineStr"/>
+      <c r="G953" t="inlineStr"/>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I953" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J953" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>15</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>{21: 0, 34: 1}</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr"/>
+      <c r="D954" t="inlineStr"/>
+      <c r="E954" t="inlineStr"/>
+      <c r="F954" t="inlineStr"/>
+      <c r="G954" t="inlineStr"/>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I954" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J954" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>20</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>{21: 1, 34: 2}</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr"/>
+      <c r="D955" t="inlineStr"/>
+      <c r="E955" t="inlineStr"/>
+      <c r="F955" t="inlineStr"/>
+      <c r="G955" t="inlineStr"/>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I955" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J955" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>30</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>{21: 2, 34: 3}</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr"/>
+      <c r="D956" t="inlineStr"/>
+      <c r="E956" t="inlineStr"/>
+      <c r="F956" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G956" t="inlineStr"/>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I956" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J956" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>15</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>{34: 4, 36: 0}</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr"/>
+      <c r="D957" t="inlineStr"/>
+      <c r="E957" t="inlineStr"/>
+      <c r="F957" t="inlineStr"/>
+      <c r="G957" t="inlineStr"/>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>[21]</t>
+        </is>
+      </c>
+      <c r="I957" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J957" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>1</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>{34: 5, 36: 1}</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr"/>
+      <c r="E958" t="inlineStr"/>
+      <c r="F958" t="inlineStr"/>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I958" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J958" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>34</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr"/>
+      <c r="D959" t="inlineStr"/>
+      <c r="E959" t="inlineStr"/>
+      <c r="F959" t="inlineStr"/>
+      <c r="G959" t="inlineStr"/>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>[34, 36]</t>
+        </is>
+      </c>
+      <c r="I959" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J959" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>2</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr"/>
+      <c r="D960" t="inlineStr"/>
+      <c r="E960" t="inlineStr"/>
+      <c r="F960" t="inlineStr"/>
+      <c r="G960" t="inlineStr"/>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I960" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J960" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>6</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr"/>
+      <c r="D961" t="inlineStr"/>
+      <c r="E961" t="inlineStr"/>
+      <c r="F961" t="inlineStr"/>
+      <c r="G961" t="inlineStr"/>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I961" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J961" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>32</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr"/>
+      <c r="D962" t="inlineStr"/>
+      <c r="E962" t="inlineStr"/>
+      <c r="F962" t="inlineStr"/>
+      <c r="G962" t="inlineStr"/>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I962" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J962" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>1</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr"/>
+      <c r="D963" t="inlineStr"/>
+      <c r="E963" t="inlineStr"/>
+      <c r="F963" t="inlineStr"/>
+      <c r="G963" t="inlineStr"/>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I963" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J963" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>33</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>{20: 0}</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr"/>
+      <c r="D964" t="inlineStr"/>
+      <c r="E964" t="inlineStr"/>
+      <c r="F964" t="inlineStr"/>
+      <c r="G964" t="inlineStr"/>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I964" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J964" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>15</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>{20: 1}</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr"/>
+      <c r="D965" t="inlineStr"/>
+      <c r="E965" t="inlineStr"/>
+      <c r="F965" t="inlineStr"/>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I965" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J965" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>24</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>{22: 0}</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr"/>
+      <c r="D966" t="inlineStr"/>
+      <c r="E966" t="inlineStr"/>
+      <c r="F966" t="inlineStr"/>
+      <c r="G966" t="inlineStr"/>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
+      <c r="I966" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J966" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>8</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr"/>
+      <c r="D967" t="inlineStr"/>
+      <c r="E967" t="inlineStr"/>
+      <c r="F967" t="inlineStr"/>
+      <c r="G967" t="inlineStr"/>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I967" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J967" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>8</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr"/>
+      <c r="D968" t="inlineStr"/>
+      <c r="E968" t="inlineStr"/>
+      <c r="F968" t="inlineStr"/>
+      <c r="G968" t="inlineStr"/>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I968" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J968" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>4</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr"/>
+      <c r="D969" t="inlineStr"/>
+      <c r="E969" t="inlineStr"/>
+      <c r="F969" t="inlineStr"/>
+      <c r="G969" t="inlineStr"/>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I969" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J969" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>4</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr"/>
+      <c r="D970" t="inlineStr"/>
+      <c r="E970" t="inlineStr"/>
+      <c r="F970" t="inlineStr"/>
+      <c r="G970" t="inlineStr"/>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I970" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J970" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>28</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr"/>
+      <c r="D971" t="inlineStr"/>
+      <c r="E971" t="inlineStr"/>
+      <c r="F971" t="inlineStr"/>
+      <c r="G971" t="inlineStr"/>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I971" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J971" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>25</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr"/>
+      <c r="D972" t="inlineStr"/>
+      <c r="E972" t="inlineStr"/>
+      <c r="F972" t="inlineStr"/>
+      <c r="G972" t="inlineStr"/>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I972" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J972" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>35</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr"/>
+      <c r="D973" t="inlineStr"/>
+      <c r="E973" t="inlineStr"/>
+      <c r="F973" t="inlineStr"/>
+      <c r="G973" t="inlineStr"/>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I973" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J973" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>2</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr"/>
+      <c r="D974" t="inlineStr"/>
+      <c r="E974" t="inlineStr"/>
+      <c r="F974" t="inlineStr"/>
+      <c r="G974" t="inlineStr"/>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I974" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J974" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>7</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr"/>
+      <c r="D975" t="inlineStr"/>
+      <c r="E975" t="inlineStr"/>
+      <c r="F975" t="inlineStr"/>
+      <c r="G975" t="inlineStr"/>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I975" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J975" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>7</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr"/>
+      <c r="D976" t="inlineStr"/>
+      <c r="E976" t="inlineStr"/>
+      <c r="F976" t="inlineStr"/>
+      <c r="G976" t="inlineStr"/>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I976" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J976" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>34</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr"/>
+      <c r="D977" t="inlineStr"/>
+      <c r="E977" t="inlineStr"/>
+      <c r="F977" t="inlineStr"/>
+      <c r="G977" t="inlineStr"/>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I977" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J977" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>14</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>{23: 0}</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr"/>
+      <c r="D978" t="inlineStr"/>
+      <c r="E978" t="inlineStr"/>
+      <c r="F978" t="inlineStr"/>
+      <c r="G978" t="inlineStr"/>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I978" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J978" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>20</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>{23: 1}</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr"/>
+      <c r="D979" t="inlineStr"/>
+      <c r="E979" t="inlineStr"/>
+      <c r="F979" t="inlineStr"/>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I979" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J979" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>36</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr"/>
+      <c r="D980" t="inlineStr"/>
+      <c r="E980" t="inlineStr"/>
+      <c r="F980" t="inlineStr"/>
+      <c r="G980" t="inlineStr"/>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="I980" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J980" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>1</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>{27: 0}</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr"/>
+      <c r="D981" t="inlineStr"/>
+      <c r="E981" t="inlineStr"/>
+      <c r="F981" t="inlineStr"/>
+      <c r="G981" t="inlineStr"/>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I981" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J981" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>15</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>{27: 1}</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr"/>
+      <c r="D982" t="inlineStr"/>
+      <c r="E982" t="inlineStr"/>
+      <c r="F982" t="inlineStr"/>
+      <c r="G982" t="inlineStr"/>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I982" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J982" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>19</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>{27: 2}</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr"/>
+      <c r="D983" t="inlineStr"/>
+      <c r="E983" t="inlineStr"/>
+      <c r="F983" t="inlineStr"/>
+      <c r="G983" t="inlineStr"/>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I983" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J983" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>19</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>{27: 3}</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr"/>
+      <c r="D984" t="inlineStr"/>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="inlineStr"/>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I984" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J984" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>36</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr"/>
+      <c r="D985" t="inlineStr"/>
+      <c r="E985" t="inlineStr"/>
+      <c r="F985" t="inlineStr"/>
+      <c r="G985" t="inlineStr"/>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="I985" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J985" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>20</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr"/>
+      <c r="D986" t="inlineStr"/>
+      <c r="E986" t="inlineStr"/>
+      <c r="F986" t="inlineStr"/>
+      <c r="G986" t="inlineStr"/>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I986" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J986" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>5</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr"/>
+      <c r="D987" t="inlineStr"/>
+      <c r="E987" t="inlineStr"/>
+      <c r="F987" t="inlineStr"/>
+      <c r="G987" t="inlineStr"/>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I987" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J987" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>14</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr"/>
+      <c r="D988" t="inlineStr"/>
+      <c r="E988" t="inlineStr"/>
+      <c r="F988" t="inlineStr"/>
+      <c r="G988" t="inlineStr"/>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I988" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J988" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>17</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr"/>
+      <c r="D989" t="inlineStr"/>
+      <c r="E989" t="inlineStr"/>
+      <c r="F989" t="inlineStr"/>
+      <c r="G989" t="inlineStr"/>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I989" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J989" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>35</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>{11: 0}</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr"/>
+      <c r="D990" t="inlineStr"/>
+      <c r="E990" t="inlineStr"/>
+      <c r="F990" t="inlineStr"/>
+      <c r="G990" t="inlineStr"/>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I990" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J990" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>35</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>{11: 1}</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr"/>
+      <c r="D991" t="inlineStr"/>
+      <c r="E991" t="inlineStr"/>
+      <c r="F991" t="inlineStr"/>
+      <c r="G991" t="inlineStr"/>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I991" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J991" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>17</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>{11: 2}</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr"/>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E992" t="inlineStr"/>
+      <c r="F992" t="inlineStr"/>
+      <c r="G992" t="inlineStr"/>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I992" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J992" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>36</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>{23: 0}</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr"/>
+      <c r="D993" t="inlineStr"/>
+      <c r="E993" t="inlineStr"/>
+      <c r="F993" t="inlineStr"/>
+      <c r="G993" t="inlineStr"/>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="I993" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J993" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>32</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>{23: 1}</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr"/>
+      <c r="D994" t="inlineStr"/>
+      <c r="E994" t="inlineStr"/>
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="inlineStr"/>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I994" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J994" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>27</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>{23: 2}</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr"/>
+      <c r="D995" t="inlineStr"/>
+      <c r="E995" t="inlineStr"/>
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="inlineStr"/>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I995" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J995" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>19</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>{23: 3}</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr"/>
+      <c r="D996" t="inlineStr"/>
+      <c r="E996" t="inlineStr"/>
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I996" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J996" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>16</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr"/>
+      <c r="D997" t="inlineStr"/>
+      <c r="E997" t="inlineStr"/>
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="inlineStr"/>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="I997" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J997" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>16</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr"/>
+      <c r="D998" t="inlineStr"/>
+      <c r="E998" t="inlineStr"/>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="inlineStr"/>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I998" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J998" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>1</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr"/>
+      <c r="D999" t="inlineStr"/>
+      <c r="E999" t="inlineStr"/>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="inlineStr"/>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I999" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J999" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>25</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr"/>
+      <c r="D1000" t="inlineStr"/>
+      <c r="E1000" t="inlineStr"/>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="inlineStr"/>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1000" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1000" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr"/>
+      <c r="D1001" t="inlineStr"/>
+      <c r="E1001" t="inlineStr"/>
+      <c r="F1001" t="inlineStr"/>
+      <c r="G1001" t="inlineStr"/>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1001" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1001" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr"/>
+      <c r="D1002" t="inlineStr"/>
+      <c r="E1002" t="inlineStr"/>
+      <c r="F1002" t="inlineStr"/>
+      <c r="G1002" t="inlineStr"/>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1002" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1002" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>33</v>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>{1: 0}</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr"/>
+      <c r="D1003" t="inlineStr"/>
+      <c r="E1003" t="inlineStr"/>
+      <c r="F1003" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G1003" t="inlineStr"/>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1003" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1003" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>31</v>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr"/>
+      <c r="D1004" t="inlineStr"/>
+      <c r="E1004" t="inlineStr"/>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="inlineStr"/>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="I1004" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1004" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr"/>
+      <c r="D1005" t="inlineStr"/>
+      <c r="E1005" t="inlineStr"/>
+      <c r="F1005" t="inlineStr"/>
+      <c r="G1005" t="inlineStr"/>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1005" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1005" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>33</v>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr"/>
+      <c r="D1006" t="inlineStr"/>
+      <c r="E1006" t="inlineStr"/>
+      <c r="F1006" t="inlineStr"/>
+      <c r="G1006" t="inlineStr"/>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1006" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1006" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>24</v>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr"/>
+      <c r="D1007" t="inlineStr"/>
+      <c r="E1007" t="inlineStr"/>
+      <c r="F1007" t="inlineStr"/>
+      <c r="G1007" t="inlineStr"/>
+      <c r="H1007" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1007" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1007" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr"/>
+      <c r="D1008" t="inlineStr"/>
+      <c r="E1008" t="inlineStr"/>
+      <c r="F1008" t="inlineStr"/>
+      <c r="G1008" t="inlineStr"/>
+      <c r="H1008" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1008" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1008" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr"/>
+      <c r="D1009" t="inlineStr"/>
+      <c r="E1009" t="inlineStr"/>
+      <c r="F1009" t="inlineStr"/>
+      <c r="G1009" t="inlineStr"/>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1009" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1009" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>{34: 0}</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr"/>
+      <c r="D1010" t="inlineStr"/>
+      <c r="E1010" t="inlineStr"/>
+      <c r="F1010" t="inlineStr"/>
+      <c r="G1010" t="inlineStr"/>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1010" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1010" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>{34: 1}</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr"/>
+      <c r="D1011" t="inlineStr"/>
+      <c r="E1011" t="inlineStr"/>
+      <c r="F1011" t="inlineStr"/>
+      <c r="G1011" t="inlineStr"/>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1011" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1011" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>4</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>{34: 2}</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr"/>
+      <c r="D1012" t="inlineStr"/>
+      <c r="E1012" t="inlineStr"/>
+      <c r="F1012" t="inlineStr"/>
+      <c r="G1012" t="inlineStr"/>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1012" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1012" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>32</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>{34: 3}</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr"/>
+      <c r="D1013" t="inlineStr"/>
+      <c r="E1013" t="inlineStr"/>
+      <c r="F1013" t="inlineStr"/>
+      <c r="G1013" t="inlineStr"/>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1013" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1013" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>14</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>{34: 4}</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr"/>
+      <c r="D1014" t="inlineStr"/>
+      <c r="E1014" t="inlineStr"/>
+      <c r="F1014" t="inlineStr"/>
+      <c r="G1014" t="inlineStr"/>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1014" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1014" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>{5: 0, 34: 5}</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr"/>
+      <c r="D1015" t="inlineStr"/>
+      <c r="E1015" t="inlineStr"/>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="inlineStr"/>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1015" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1015" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>{5: 1, 34: 6}</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr"/>
+      <c r="D1016" t="inlineStr"/>
+      <c r="E1016" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F1016" t="inlineStr"/>
+      <c r="G1016" t="inlineStr"/>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1016" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1016" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>25</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>{5: 2}</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr"/>
+      <c r="D1017" t="inlineStr"/>
+      <c r="E1017" t="inlineStr"/>
+      <c r="F1017" t="inlineStr"/>
+      <c r="G1017" t="inlineStr"/>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="I1017" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1017" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>{5: 3}</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr"/>
+      <c r="D1018" t="inlineStr"/>
+      <c r="E1018" t="inlineStr"/>
+      <c r="F1018" t="inlineStr"/>
+      <c r="G1018" t="inlineStr"/>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1018" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1018" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>{5: 4}</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr"/>
+      <c r="D1019" t="inlineStr"/>
+      <c r="E1019" t="inlineStr"/>
+      <c r="F1019" t="inlineStr"/>
+      <c r="G1019" t="inlineStr"/>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1019" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1019" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>{5: 5, 26: 0}</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr"/>
+      <c r="D1020" t="inlineStr"/>
+      <c r="E1020" t="inlineStr"/>
+      <c r="F1020" t="inlineStr"/>
+      <c r="G1020" t="inlineStr"/>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1020" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1020" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>11</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>{5: 6, 26: 1}</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr"/>
+      <c r="D1021" t="inlineStr"/>
+      <c r="E1021" t="inlineStr"/>
+      <c r="F1021" t="inlineStr"/>
+      <c r="G1021" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1021" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1021" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>30</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>{26: 2}</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr"/>
+      <c r="D1022" t="inlineStr"/>
+      <c r="E1022" t="inlineStr"/>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="inlineStr"/>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="I1022" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1022" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>34</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>{26: 3}</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr"/>
+      <c r="D1023" t="inlineStr"/>
+      <c r="E1023" t="inlineStr"/>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="inlineStr"/>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1023" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1023" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>20</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>{26: 4}</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr"/>
+      <c r="D1024" t="inlineStr"/>
+      <c r="E1024" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="inlineStr"/>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I1024" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1024" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>{34: 0}</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr"/>
+      <c r="D1025" t="inlineStr"/>
+      <c r="E1025" t="inlineStr"/>
+      <c r="F1025" t="inlineStr"/>
+      <c r="G1025" t="inlineStr"/>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="I1025" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1025" t="n">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/bombayAuto.xlsx
+++ b/Data/bombayAuto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1633"/>
+  <dimension ref="A1:J1842"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47117,6 +47117,5966 @@
         <v>131</v>
       </c>
     </row>
+    <row r="1634">
+      <c r="A1634" t="n">
+        <v>11</v>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr"/>
+      <c r="D1634" t="inlineStr"/>
+      <c r="E1634" t="inlineStr"/>
+      <c r="F1634" t="inlineStr"/>
+      <c r="G1634" t="inlineStr"/>
+      <c r="H1634" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1634" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1635" t="inlineStr"/>
+      <c r="D1635" t="inlineStr"/>
+      <c r="E1635" t="inlineStr"/>
+      <c r="F1635" t="inlineStr"/>
+      <c r="G1635" t="inlineStr"/>
+      <c r="H1635" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1635" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1635" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="n">
+        <v>16</v>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr"/>
+      <c r="D1636" t="inlineStr"/>
+      <c r="E1636" t="inlineStr"/>
+      <c r="F1636" t="inlineStr"/>
+      <c r="G1636" t="inlineStr"/>
+      <c r="H1636" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1636" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1636" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="n">
+        <v>32</v>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr"/>
+      <c r="D1637" t="inlineStr"/>
+      <c r="E1637" t="inlineStr"/>
+      <c r="F1637" t="inlineStr"/>
+      <c r="G1637" t="inlineStr"/>
+      <c r="H1637" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1637" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1637" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="n">
+        <v>19</v>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1638" t="inlineStr"/>
+      <c r="D1638" t="inlineStr"/>
+      <c r="E1638" t="inlineStr"/>
+      <c r="F1638" t="inlineStr"/>
+      <c r="G1638" t="inlineStr"/>
+      <c r="H1638" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1638" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1638" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="n">
+        <v>28</v>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr"/>
+      <c r="D1639" t="inlineStr"/>
+      <c r="E1639" t="inlineStr"/>
+      <c r="F1639" t="inlineStr"/>
+      <c r="G1639" t="inlineStr"/>
+      <c r="H1639" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1639" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1639" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr"/>
+      <c r="D1640" t="inlineStr"/>
+      <c r="E1640" t="inlineStr"/>
+      <c r="F1640" t="inlineStr"/>
+      <c r="G1640" t="inlineStr"/>
+      <c r="H1640" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1640" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1640" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="n">
+        <v>13</v>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr"/>
+      <c r="D1641" t="inlineStr"/>
+      <c r="E1641" t="inlineStr"/>
+      <c r="F1641" t="inlineStr"/>
+      <c r="G1641" t="inlineStr"/>
+      <c r="H1641" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1641" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1641" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1642" t="inlineStr"/>
+      <c r="D1642" t="inlineStr"/>
+      <c r="E1642" t="inlineStr"/>
+      <c r="F1642" t="inlineStr"/>
+      <c r="G1642" t="inlineStr"/>
+      <c r="H1642" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1642" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1642" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr"/>
+      <c r="D1643" t="inlineStr"/>
+      <c r="E1643" t="inlineStr"/>
+      <c r="F1643" t="inlineStr"/>
+      <c r="G1643" t="inlineStr"/>
+      <c r="H1643" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1643" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1643" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr"/>
+      <c r="D1644" t="inlineStr"/>
+      <c r="E1644" t="inlineStr"/>
+      <c r="F1644" t="inlineStr"/>
+      <c r="G1644" t="inlineStr"/>
+      <c r="H1644" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1644" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1644" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr"/>
+      <c r="D1645" t="inlineStr"/>
+      <c r="E1645" t="inlineStr"/>
+      <c r="F1645" t="inlineStr"/>
+      <c r="G1645" t="inlineStr"/>
+      <c r="H1645" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1645" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1645" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr"/>
+      <c r="D1646" t="inlineStr"/>
+      <c r="E1646" t="inlineStr"/>
+      <c r="F1646" t="inlineStr"/>
+      <c r="G1646" t="inlineStr"/>
+      <c r="H1646" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1646" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1646" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="n">
+        <v>33</v>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr"/>
+      <c r="D1647" t="inlineStr"/>
+      <c r="E1647" t="inlineStr"/>
+      <c r="F1647" t="inlineStr"/>
+      <c r="G1647" t="inlineStr"/>
+      <c r="H1647" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1647" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1647" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>4</v>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr"/>
+      <c r="D1648" t="inlineStr"/>
+      <c r="E1648" t="inlineStr"/>
+      <c r="F1648" t="inlineStr"/>
+      <c r="G1648" t="inlineStr"/>
+      <c r="H1648" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1648" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1648" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="n">
+        <v>23</v>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr"/>
+      <c r="D1649" t="inlineStr"/>
+      <c r="E1649" t="inlineStr"/>
+      <c r="F1649" t="inlineStr"/>
+      <c r="G1649" t="inlineStr"/>
+      <c r="H1649" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1649" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1649" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="n">
+        <v>30</v>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr"/>
+      <c r="D1650" t="inlineStr"/>
+      <c r="E1650" t="inlineStr"/>
+      <c r="F1650" t="inlineStr"/>
+      <c r="G1650" t="inlineStr"/>
+      <c r="H1650" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1650" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1650" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr"/>
+      <c r="D1651" t="inlineStr"/>
+      <c r="E1651" t="inlineStr"/>
+      <c r="F1651" t="inlineStr"/>
+      <c r="G1651" t="inlineStr"/>
+      <c r="H1651" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1651" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1651" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr"/>
+      <c r="D1652" t="inlineStr"/>
+      <c r="E1652" t="inlineStr"/>
+      <c r="F1652" t="inlineStr"/>
+      <c r="G1652" t="inlineStr"/>
+      <c r="H1652" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1652" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1652" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>{12: 0}</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr"/>
+      <c r="D1653" t="inlineStr"/>
+      <c r="E1653" t="inlineStr"/>
+      <c r="F1653" t="inlineStr"/>
+      <c r="G1653" t="inlineStr"/>
+      <c r="H1653" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1653" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1653" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>22</v>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>{12: 1}</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr"/>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E1654" t="inlineStr"/>
+      <c r="F1654" t="inlineStr"/>
+      <c r="G1654" t="inlineStr"/>
+      <c r="H1654" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1654" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1654" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>28</v>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr"/>
+      <c r="D1655" t="inlineStr"/>
+      <c r="E1655" t="inlineStr"/>
+      <c r="F1655" t="inlineStr"/>
+      <c r="G1655" t="inlineStr"/>
+      <c r="H1655" t="inlineStr">
+        <is>
+          <t>{12: 1}</t>
+        </is>
+      </c>
+      <c r="I1655" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1655" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr"/>
+      <c r="D1656" t="inlineStr"/>
+      <c r="E1656" t="inlineStr"/>
+      <c r="F1656" t="inlineStr"/>
+      <c r="G1656" t="inlineStr"/>
+      <c r="H1656" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1656" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1656" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="n">
+        <v>29</v>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr"/>
+      <c r="D1657" t="inlineStr"/>
+      <c r="E1657" t="inlineStr"/>
+      <c r="F1657" t="inlineStr"/>
+      <c r="G1657" t="inlineStr"/>
+      <c r="H1657" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1657" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1657" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="n">
+        <v>27</v>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr"/>
+      <c r="D1658" t="inlineStr"/>
+      <c r="E1658" t="inlineStr"/>
+      <c r="F1658" t="inlineStr"/>
+      <c r="G1658" t="inlineStr"/>
+      <c r="H1658" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1658" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1658" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="n">
+        <v>13</v>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr"/>
+      <c r="D1659" t="inlineStr"/>
+      <c r="E1659" t="inlineStr"/>
+      <c r="F1659" t="inlineStr"/>
+      <c r="G1659" t="inlineStr"/>
+      <c r="H1659" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1659" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1659" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="n">
+        <v>17</v>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr"/>
+      <c r="D1660" t="inlineStr"/>
+      <c r="E1660" t="inlineStr"/>
+      <c r="F1660" t="inlineStr"/>
+      <c r="G1660" t="inlineStr"/>
+      <c r="H1660" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1660" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1660" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="n">
+        <v>22</v>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr"/>
+      <c r="D1661" t="inlineStr"/>
+      <c r="E1661" t="inlineStr"/>
+      <c r="F1661" t="inlineStr"/>
+      <c r="G1661" t="inlineStr"/>
+      <c r="H1661" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1661" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1661" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr"/>
+      <c r="D1662" t="inlineStr"/>
+      <c r="E1662" t="inlineStr"/>
+      <c r="F1662" t="inlineStr"/>
+      <c r="G1662" t="inlineStr"/>
+      <c r="H1662" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1662" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1662" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="n">
+        <v>24</v>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>{31: 0}</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr"/>
+      <c r="D1663" t="inlineStr"/>
+      <c r="E1663" t="inlineStr"/>
+      <c r="F1663" t="inlineStr"/>
+      <c r="G1663" t="inlineStr"/>
+      <c r="H1663" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1663" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1663" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>{31: 1}</t>
+        </is>
+      </c>
+      <c r="C1664" t="inlineStr"/>
+      <c r="D1664" t="inlineStr"/>
+      <c r="E1664" t="inlineStr"/>
+      <c r="F1664" t="inlineStr"/>
+      <c r="G1664" t="inlineStr"/>
+      <c r="H1664" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1664" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1664" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="n">
+        <v>16</v>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>{31: 2}</t>
+        </is>
+      </c>
+      <c r="C1665" t="inlineStr"/>
+      <c r="D1665" t="inlineStr"/>
+      <c r="E1665" t="inlineStr"/>
+      <c r="F1665" t="inlineStr"/>
+      <c r="G1665" t="inlineStr"/>
+      <c r="H1665" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1665" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1665" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="n">
+        <v>24</v>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>{31: 3}</t>
+        </is>
+      </c>
+      <c r="C1666" t="inlineStr"/>
+      <c r="D1666" t="inlineStr"/>
+      <c r="E1666" t="inlineStr"/>
+      <c r="F1666" t="inlineStr"/>
+      <c r="G1666" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H1666" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1666" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1666" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="n">
+        <v>33</v>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>{31: 4}</t>
+        </is>
+      </c>
+      <c r="C1667" t="inlineStr"/>
+      <c r="D1667" t="inlineStr"/>
+      <c r="E1667" t="inlineStr"/>
+      <c r="F1667" t="inlineStr"/>
+      <c r="G1667" t="inlineStr"/>
+      <c r="H1667" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1667" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1667" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="n">
+        <v>16</v>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>{31: 5}</t>
+        </is>
+      </c>
+      <c r="C1668" t="inlineStr"/>
+      <c r="D1668" t="inlineStr"/>
+      <c r="E1668" t="inlineStr"/>
+      <c r="F1668" t="inlineStr"/>
+      <c r="G1668" t="inlineStr"/>
+      <c r="H1668" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1668" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1668" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>{31: 6}</t>
+        </is>
+      </c>
+      <c r="C1669" t="inlineStr"/>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E1669" t="inlineStr"/>
+      <c r="F1669" t="inlineStr"/>
+      <c r="G1669" t="inlineStr"/>
+      <c r="H1669" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1669" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1669" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1670" t="inlineStr"/>
+      <c r="D1670" t="inlineStr"/>
+      <c r="E1670" t="inlineStr"/>
+      <c r="F1670" t="inlineStr"/>
+      <c r="G1670" t="inlineStr"/>
+      <c r="H1670" t="inlineStr">
+        <is>
+          <t>{31: 6}</t>
+        </is>
+      </c>
+      <c r="I1670" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1670" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr"/>
+      <c r="D1671" t="inlineStr"/>
+      <c r="E1671" t="inlineStr"/>
+      <c r="F1671" t="inlineStr"/>
+      <c r="G1671" t="inlineStr"/>
+      <c r="H1671" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1671" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1671" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr"/>
+      <c r="D1672" t="inlineStr"/>
+      <c r="E1672" t="inlineStr"/>
+      <c r="F1672" t="inlineStr"/>
+      <c r="G1672" t="inlineStr"/>
+      <c r="H1672" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1672" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1672" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>29</v>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1673" t="inlineStr"/>
+      <c r="D1673" t="inlineStr"/>
+      <c r="E1673" t="inlineStr"/>
+      <c r="F1673" t="inlineStr"/>
+      <c r="G1673" t="inlineStr"/>
+      <c r="H1673" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1673" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1673" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1674" t="inlineStr"/>
+      <c r="D1674" t="inlineStr"/>
+      <c r="E1674" t="inlineStr"/>
+      <c r="F1674" t="inlineStr"/>
+      <c r="G1674" t="inlineStr"/>
+      <c r="H1674" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1674" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1674" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="n">
+        <v>24</v>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1675" t="inlineStr"/>
+      <c r="D1675" t="inlineStr"/>
+      <c r="E1675" t="inlineStr"/>
+      <c r="F1675" t="inlineStr"/>
+      <c r="G1675" t="inlineStr"/>
+      <c r="H1675" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1675" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1675" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr"/>
+      <c r="D1676" t="inlineStr"/>
+      <c r="E1676" t="inlineStr"/>
+      <c r="F1676" t="inlineStr"/>
+      <c r="G1676" t="inlineStr"/>
+      <c r="H1676" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1676" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1676" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>21</v>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr"/>
+      <c r="D1677" t="inlineStr"/>
+      <c r="E1677" t="inlineStr"/>
+      <c r="F1677" t="inlineStr"/>
+      <c r="G1677" t="inlineStr"/>
+      <c r="H1677" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1677" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1677" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1678" t="inlineStr"/>
+      <c r="D1678" t="inlineStr"/>
+      <c r="E1678" t="inlineStr"/>
+      <c r="F1678" t="inlineStr"/>
+      <c r="G1678" t="inlineStr"/>
+      <c r="H1678" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1678" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1678" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr"/>
+      <c r="D1679" t="inlineStr"/>
+      <c r="E1679" t="inlineStr"/>
+      <c r="F1679" t="inlineStr"/>
+      <c r="G1679" t="inlineStr"/>
+      <c r="H1679" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1679" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1679" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr"/>
+      <c r="D1680" t="inlineStr"/>
+      <c r="E1680" t="inlineStr"/>
+      <c r="F1680" t="inlineStr"/>
+      <c r="G1680" t="inlineStr"/>
+      <c r="H1680" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1680" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1680" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="n">
+        <v>34</v>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr"/>
+      <c r="D1681" t="inlineStr"/>
+      <c r="E1681" t="inlineStr"/>
+      <c r="F1681" t="inlineStr"/>
+      <c r="G1681" t="inlineStr"/>
+      <c r="H1681" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1681" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1681" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr"/>
+      <c r="D1682" t="inlineStr"/>
+      <c r="E1682" t="inlineStr"/>
+      <c r="F1682" t="inlineStr"/>
+      <c r="G1682" t="inlineStr"/>
+      <c r="H1682" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1682" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1682" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="n">
+        <v>14</v>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>{1: 0}</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr"/>
+      <c r="D1683" t="inlineStr"/>
+      <c r="E1683" t="inlineStr"/>
+      <c r="F1683" t="inlineStr"/>
+      <c r="G1683" t="inlineStr"/>
+      <c r="H1683" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1683" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1683" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="n">
+        <v>29</v>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>{1: 1}</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr"/>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E1684" t="inlineStr"/>
+      <c r="F1684" t="inlineStr"/>
+      <c r="G1684" t="inlineStr"/>
+      <c r="H1684" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1684" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1684" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="n">
+        <v>33</v>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr"/>
+      <c r="D1685" t="inlineStr"/>
+      <c r="E1685" t="inlineStr"/>
+      <c r="F1685" t="inlineStr"/>
+      <c r="G1685" t="inlineStr"/>
+      <c r="H1685" t="inlineStr">
+        <is>
+          <t>{1: 1}</t>
+        </is>
+      </c>
+      <c r="I1685" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1685" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr"/>
+      <c r="D1686" t="inlineStr"/>
+      <c r="E1686" t="inlineStr"/>
+      <c r="F1686" t="inlineStr"/>
+      <c r="G1686" t="inlineStr"/>
+      <c r="H1686" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1686" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1686" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>20</v>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr"/>
+      <c r="D1687" t="inlineStr"/>
+      <c r="E1687" t="inlineStr"/>
+      <c r="F1687" t="inlineStr"/>
+      <c r="G1687" t="inlineStr"/>
+      <c r="H1687" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1687" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1687" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr"/>
+      <c r="D1688" t="inlineStr"/>
+      <c r="E1688" t="inlineStr"/>
+      <c r="F1688" t="inlineStr"/>
+      <c r="G1688" t="inlineStr"/>
+      <c r="H1688" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1688" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1688" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr"/>
+      <c r="D1689" t="inlineStr"/>
+      <c r="E1689" t="inlineStr"/>
+      <c r="F1689" t="inlineStr"/>
+      <c r="G1689" t="inlineStr"/>
+      <c r="H1689" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1689" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1689" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="n">
+        <v>13</v>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1690" t="inlineStr"/>
+      <c r="D1690" t="inlineStr"/>
+      <c r="E1690" t="inlineStr"/>
+      <c r="F1690" t="inlineStr"/>
+      <c r="G1690" t="inlineStr"/>
+      <c r="H1690" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1690" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1690" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="n">
+        <v>32</v>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1691" t="inlineStr"/>
+      <c r="D1691" t="inlineStr"/>
+      <c r="E1691" t="inlineStr"/>
+      <c r="F1691" t="inlineStr"/>
+      <c r="G1691" t="inlineStr"/>
+      <c r="H1691" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1691" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1691" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1692" t="inlineStr"/>
+      <c r="D1692" t="inlineStr"/>
+      <c r="E1692" t="inlineStr"/>
+      <c r="F1692" t="inlineStr"/>
+      <c r="G1692" t="inlineStr"/>
+      <c r="H1692" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1692" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1692" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1693" t="inlineStr"/>
+      <c r="D1693" t="inlineStr"/>
+      <c r="E1693" t="inlineStr"/>
+      <c r="F1693" t="inlineStr"/>
+      <c r="G1693" t="inlineStr"/>
+      <c r="H1693" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1693" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1693" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>{12: 0}</t>
+        </is>
+      </c>
+      <c r="C1694" t="inlineStr"/>
+      <c r="D1694" t="inlineStr"/>
+      <c r="E1694" t="inlineStr"/>
+      <c r="F1694" t="inlineStr"/>
+      <c r="G1694" t="inlineStr"/>
+      <c r="H1694" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1694" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1694" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="n">
+        <v>23</v>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>{12: 1}</t>
+        </is>
+      </c>
+      <c r="C1695" t="inlineStr"/>
+      <c r="D1695" t="inlineStr"/>
+      <c r="E1695" t="inlineStr"/>
+      <c r="F1695" t="inlineStr"/>
+      <c r="G1695" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H1695" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1695" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1695" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>{12: 2}</t>
+        </is>
+      </c>
+      <c r="C1696" t="inlineStr"/>
+      <c r="D1696" t="inlineStr"/>
+      <c r="E1696" t="inlineStr"/>
+      <c r="F1696" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G1696" t="inlineStr"/>
+      <c r="H1696" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1696" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1696" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>{12: 3}</t>
+        </is>
+      </c>
+      <c r="C1697" t="inlineStr"/>
+      <c r="D1697" t="inlineStr"/>
+      <c r="E1697" t="inlineStr"/>
+      <c r="F1697" t="inlineStr"/>
+      <c r="G1697" t="inlineStr"/>
+      <c r="H1697" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1697" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1697" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="n">
+        <v>22</v>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>{12: 4}</t>
+        </is>
+      </c>
+      <c r="C1698" t="inlineStr"/>
+      <c r="D1698" t="inlineStr"/>
+      <c r="E1698" t="inlineStr"/>
+      <c r="F1698" t="inlineStr"/>
+      <c r="G1698" t="inlineStr"/>
+      <c r="H1698" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1698" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1698" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="n">
+        <v>17</v>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>{12: 5}</t>
+        </is>
+      </c>
+      <c r="C1699" t="inlineStr"/>
+      <c r="D1699" t="inlineStr"/>
+      <c r="E1699" t="inlineStr"/>
+      <c r="F1699" t="inlineStr"/>
+      <c r="G1699" t="inlineStr"/>
+      <c r="H1699" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1699" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1699" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="n">
+        <v>13</v>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>{12: 6}</t>
+        </is>
+      </c>
+      <c r="C1700" t="inlineStr"/>
+      <c r="D1700" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E1700" t="inlineStr"/>
+      <c r="F1700" t="inlineStr"/>
+      <c r="G1700" t="inlineStr"/>
+      <c r="H1700" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1700" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1700" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1701" t="inlineStr"/>
+      <c r="D1701" t="inlineStr"/>
+      <c r="E1701" t="inlineStr"/>
+      <c r="F1701" t="inlineStr"/>
+      <c r="G1701" t="inlineStr"/>
+      <c r="H1701" t="inlineStr">
+        <is>
+          <t>{12: 6}</t>
+        </is>
+      </c>
+      <c r="I1701" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1701" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1702" t="inlineStr"/>
+      <c r="D1702" t="inlineStr"/>
+      <c r="E1702" t="inlineStr"/>
+      <c r="F1702" t="inlineStr"/>
+      <c r="G1702" t="inlineStr"/>
+      <c r="H1702" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1702" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1702" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="n">
+        <v>27</v>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1703" t="inlineStr"/>
+      <c r="D1703" t="inlineStr"/>
+      <c r="E1703" t="inlineStr"/>
+      <c r="F1703" t="inlineStr"/>
+      <c r="G1703" t="inlineStr"/>
+      <c r="H1703" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1703" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1703" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="n">
+        <v>17</v>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>{30: 0}</t>
+        </is>
+      </c>
+      <c r="C1704" t="inlineStr"/>
+      <c r="D1704" t="inlineStr"/>
+      <c r="E1704" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F1704" t="inlineStr"/>
+      <c r="G1704" t="inlineStr"/>
+      <c r="H1704" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1704" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1704" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="n">
+        <v>23</v>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1705" t="inlineStr"/>
+      <c r="D1705" t="inlineStr"/>
+      <c r="E1705" t="inlineStr"/>
+      <c r="F1705" t="inlineStr"/>
+      <c r="G1705" t="inlineStr"/>
+      <c r="H1705" t="inlineStr">
+        <is>
+          <t>{30: 0}</t>
+        </is>
+      </c>
+      <c r="I1705" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1705" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="n">
+        <v>21</v>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1706" t="inlineStr"/>
+      <c r="D1706" t="inlineStr"/>
+      <c r="E1706" t="inlineStr"/>
+      <c r="F1706" t="inlineStr"/>
+      <c r="G1706" t="inlineStr"/>
+      <c r="H1706" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1706" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1706" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1707" t="inlineStr"/>
+      <c r="D1707" t="inlineStr"/>
+      <c r="E1707" t="inlineStr"/>
+      <c r="F1707" t="inlineStr"/>
+      <c r="G1707" t="inlineStr"/>
+      <c r="H1707" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1707" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1707" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1708" t="inlineStr"/>
+      <c r="D1708" t="inlineStr"/>
+      <c r="E1708" t="inlineStr"/>
+      <c r="F1708" t="inlineStr"/>
+      <c r="G1708" t="inlineStr"/>
+      <c r="H1708" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1708" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1708" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="n">
+        <v>22</v>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1709" t="inlineStr"/>
+      <c r="D1709" t="inlineStr"/>
+      <c r="E1709" t="inlineStr"/>
+      <c r="F1709" t="inlineStr"/>
+      <c r="G1709" t="inlineStr"/>
+      <c r="H1709" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1709" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1709" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1710" t="inlineStr"/>
+      <c r="D1710" t="inlineStr"/>
+      <c r="E1710" t="inlineStr"/>
+      <c r="F1710" t="inlineStr"/>
+      <c r="G1710" t="inlineStr"/>
+      <c r="H1710" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1710" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1710" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1711" t="inlineStr"/>
+      <c r="D1711" t="inlineStr"/>
+      <c r="E1711" t="inlineStr"/>
+      <c r="F1711" t="inlineStr"/>
+      <c r="G1711" t="inlineStr"/>
+      <c r="H1711" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1711" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1711" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="n">
+        <v>32</v>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1712" t="inlineStr"/>
+      <c r="D1712" t="inlineStr"/>
+      <c r="E1712" t="inlineStr"/>
+      <c r="F1712" t="inlineStr"/>
+      <c r="G1712" t="inlineStr"/>
+      <c r="H1712" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1712" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1712" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="n">
+        <v>30</v>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>{23: 0}</t>
+        </is>
+      </c>
+      <c r="C1713" t="inlineStr"/>
+      <c r="D1713" t="inlineStr"/>
+      <c r="E1713" t="inlineStr"/>
+      <c r="F1713" t="inlineStr"/>
+      <c r="G1713" t="inlineStr"/>
+      <c r="H1713" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1713" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1713" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>{23: 1}</t>
+        </is>
+      </c>
+      <c r="C1714" t="inlineStr"/>
+      <c r="D1714" t="inlineStr"/>
+      <c r="E1714" t="inlineStr"/>
+      <c r="F1714" t="inlineStr"/>
+      <c r="G1714" t="inlineStr"/>
+      <c r="H1714" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1714" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1714" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>{23: 2}</t>
+        </is>
+      </c>
+      <c r="C1715" t="inlineStr"/>
+      <c r="D1715" t="inlineStr"/>
+      <c r="E1715" t="inlineStr"/>
+      <c r="F1715" t="inlineStr"/>
+      <c r="G1715" t="inlineStr"/>
+      <c r="H1715" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1715" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1715" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>{23: 3}</t>
+        </is>
+      </c>
+      <c r="C1716" t="inlineStr"/>
+      <c r="D1716" t="inlineStr"/>
+      <c r="E1716" t="inlineStr"/>
+      <c r="F1716" t="inlineStr"/>
+      <c r="G1716" t="inlineStr"/>
+      <c r="H1716" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1716" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1716" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="n">
+        <v>31</v>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>{23: 4}</t>
+        </is>
+      </c>
+      <c r="C1717" t="inlineStr"/>
+      <c r="D1717" t="inlineStr"/>
+      <c r="E1717" t="inlineStr"/>
+      <c r="F1717" t="inlineStr"/>
+      <c r="G1717" t="inlineStr"/>
+      <c r="H1717" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1717" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1717" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>{23: 5}</t>
+        </is>
+      </c>
+      <c r="C1718" t="inlineStr"/>
+      <c r="D1718" t="inlineStr"/>
+      <c r="E1718" t="inlineStr"/>
+      <c r="F1718" t="inlineStr"/>
+      <c r="G1718" t="inlineStr"/>
+      <c r="H1718" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1718" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1718" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="n">
+        <v>34</v>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>{23: 6}</t>
+        </is>
+      </c>
+      <c r="C1719" t="inlineStr"/>
+      <c r="D1719" t="inlineStr"/>
+      <c r="E1719" t="inlineStr"/>
+      <c r="F1719" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G1719" t="inlineStr"/>
+      <c r="H1719" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1719" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1719" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="n">
+        <v>24</v>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>{23: 7}</t>
+        </is>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1720" t="inlineStr"/>
+      <c r="E1720" t="inlineStr"/>
+      <c r="F1720" t="inlineStr"/>
+      <c r="G1720" t="inlineStr"/>
+      <c r="H1720" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1720" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1720" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="n">
+        <v>23</v>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>{23: 0}</t>
+        </is>
+      </c>
+      <c r="C1721" t="inlineStr"/>
+      <c r="D1721" t="inlineStr"/>
+      <c r="E1721" t="inlineStr"/>
+      <c r="F1721" t="inlineStr"/>
+      <c r="G1721" t="inlineStr"/>
+      <c r="H1721" t="inlineStr">
+        <is>
+          <t>{23: 7}</t>
+        </is>
+      </c>
+      <c r="I1721" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1721" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="n">
+        <v>29</v>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>{23: 1}</t>
+        </is>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1722" t="inlineStr"/>
+      <c r="E1722" t="inlineStr"/>
+      <c r="F1722" t="inlineStr"/>
+      <c r="G1722" t="inlineStr"/>
+      <c r="H1722" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1722" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1722" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="n">
+        <v>23</v>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1723" t="inlineStr"/>
+      <c r="D1723" t="inlineStr"/>
+      <c r="E1723" t="inlineStr"/>
+      <c r="F1723" t="inlineStr"/>
+      <c r="G1723" t="inlineStr"/>
+      <c r="H1723" t="inlineStr">
+        <is>
+          <t>{23: 1}</t>
+        </is>
+      </c>
+      <c r="I1723" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1723" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1724" t="inlineStr"/>
+      <c r="D1724" t="inlineStr"/>
+      <c r="E1724" t="inlineStr"/>
+      <c r="F1724" t="inlineStr"/>
+      <c r="G1724" t="inlineStr"/>
+      <c r="H1724" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1724" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1724" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="n">
+        <v>30</v>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1725" t="inlineStr"/>
+      <c r="D1725" t="inlineStr"/>
+      <c r="E1725" t="inlineStr"/>
+      <c r="F1725" t="inlineStr"/>
+      <c r="G1725" t="inlineStr"/>
+      <c r="H1725" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1725" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1725" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="n">
+        <v>16</v>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1726" t="inlineStr"/>
+      <c r="D1726" t="inlineStr"/>
+      <c r="E1726" t="inlineStr"/>
+      <c r="F1726" t="inlineStr"/>
+      <c r="G1726" t="inlineStr"/>
+      <c r="H1726" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1726" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1726" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="n">
+        <v>19</v>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1727" t="inlineStr"/>
+      <c r="D1727" t="inlineStr"/>
+      <c r="E1727" t="inlineStr"/>
+      <c r="F1727" t="inlineStr"/>
+      <c r="G1727" t="inlineStr"/>
+      <c r="H1727" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1727" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1727" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1728" t="inlineStr"/>
+      <c r="D1728" t="inlineStr"/>
+      <c r="E1728" t="inlineStr"/>
+      <c r="F1728" t="inlineStr"/>
+      <c r="G1728" t="inlineStr"/>
+      <c r="H1728" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1728" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1728" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="n">
+        <v>28</v>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1729" t="inlineStr"/>
+      <c r="D1729" t="inlineStr"/>
+      <c r="E1729" t="inlineStr"/>
+      <c r="F1729" t="inlineStr"/>
+      <c r="G1729" t="inlineStr"/>
+      <c r="H1729" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1729" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1729" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1730" t="inlineStr"/>
+      <c r="D1730" t="inlineStr"/>
+      <c r="E1730" t="inlineStr"/>
+      <c r="F1730" t="inlineStr"/>
+      <c r="G1730" t="inlineStr"/>
+      <c r="H1730" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1730" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1730" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1731" t="inlineStr"/>
+      <c r="D1731" t="inlineStr"/>
+      <c r="E1731" t="inlineStr"/>
+      <c r="F1731" t="inlineStr"/>
+      <c r="G1731" t="inlineStr"/>
+      <c r="H1731" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1731" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1731" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="n">
+        <v>24</v>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1732" t="inlineStr"/>
+      <c r="D1732" t="inlineStr"/>
+      <c r="E1732" t="inlineStr"/>
+      <c r="F1732" t="inlineStr"/>
+      <c r="G1732" t="inlineStr"/>
+      <c r="H1732" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1732" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1732" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="n">
+        <v>32</v>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1733" t="inlineStr"/>
+      <c r="D1733" t="inlineStr"/>
+      <c r="E1733" t="inlineStr"/>
+      <c r="F1733" t="inlineStr"/>
+      <c r="G1733" t="inlineStr"/>
+      <c r="H1733" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1733" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1733" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="n">
+        <v>21</v>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1734" t="inlineStr"/>
+      <c r="D1734" t="inlineStr"/>
+      <c r="E1734" t="inlineStr"/>
+      <c r="F1734" t="inlineStr"/>
+      <c r="G1734" t="inlineStr"/>
+      <c r="H1734" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1734" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1734" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="n">
+        <v>24</v>
+      </c>
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1735" t="inlineStr"/>
+      <c r="D1735" t="inlineStr"/>
+      <c r="E1735" t="inlineStr"/>
+      <c r="F1735" t="inlineStr"/>
+      <c r="G1735" t="inlineStr"/>
+      <c r="H1735" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1735" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1735" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1736" t="inlineStr"/>
+      <c r="D1736" t="inlineStr"/>
+      <c r="E1736" t="inlineStr"/>
+      <c r="F1736" t="inlineStr"/>
+      <c r="G1736" t="inlineStr"/>
+      <c r="H1736" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1736" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1736" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1737" t="inlineStr"/>
+      <c r="D1737" t="inlineStr"/>
+      <c r="E1737" t="inlineStr"/>
+      <c r="F1737" t="inlineStr"/>
+      <c r="G1737" t="inlineStr"/>
+      <c r="H1737" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1737" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1737" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1738" t="inlineStr"/>
+      <c r="D1738" t="inlineStr"/>
+      <c r="E1738" t="inlineStr"/>
+      <c r="F1738" t="inlineStr"/>
+      <c r="G1738" t="inlineStr"/>
+      <c r="H1738" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1738" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1738" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="n">
+        <v>19</v>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1739" t="inlineStr"/>
+      <c r="D1739" t="inlineStr"/>
+      <c r="E1739" t="inlineStr"/>
+      <c r="F1739" t="inlineStr"/>
+      <c r="G1739" t="inlineStr"/>
+      <c r="H1739" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1739" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1739" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1740" t="inlineStr"/>
+      <c r="D1740" t="inlineStr"/>
+      <c r="E1740" t="inlineStr"/>
+      <c r="F1740" t="inlineStr"/>
+      <c r="G1740" t="inlineStr"/>
+      <c r="H1740" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1740" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1740" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1741" t="inlineStr"/>
+      <c r="D1741" t="inlineStr"/>
+      <c r="E1741" t="inlineStr"/>
+      <c r="F1741" t="inlineStr"/>
+      <c r="G1741" t="inlineStr"/>
+      <c r="H1741" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1741" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1741" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1742" t="inlineStr"/>
+      <c r="D1742" t="inlineStr"/>
+      <c r="E1742" t="inlineStr"/>
+      <c r="F1742" t="inlineStr"/>
+      <c r="G1742" t="inlineStr"/>
+      <c r="H1742" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1742" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1742" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="n">
+        <v>17</v>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1743" t="inlineStr"/>
+      <c r="D1743" t="inlineStr"/>
+      <c r="E1743" t="inlineStr"/>
+      <c r="F1743" t="inlineStr"/>
+      <c r="G1743" t="inlineStr"/>
+      <c r="H1743" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1743" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1743" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="n">
+        <v>34</v>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1744" t="inlineStr"/>
+      <c r="D1744" t="inlineStr"/>
+      <c r="E1744" t="inlineStr"/>
+      <c r="F1744" t="inlineStr"/>
+      <c r="G1744" t="inlineStr"/>
+      <c r="H1744" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1744" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1744" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1745" t="inlineStr"/>
+      <c r="D1745" t="inlineStr"/>
+      <c r="E1745" t="inlineStr"/>
+      <c r="F1745" t="inlineStr"/>
+      <c r="G1745" t="inlineStr"/>
+      <c r="H1745" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1745" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1745" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>{17: 0}</t>
+        </is>
+      </c>
+      <c r="C1746" t="inlineStr"/>
+      <c r="D1746" t="inlineStr"/>
+      <c r="E1746" t="inlineStr"/>
+      <c r="F1746" t="inlineStr"/>
+      <c r="G1746" t="inlineStr"/>
+      <c r="H1746" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1746" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1746" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>{17: 1}</t>
+        </is>
+      </c>
+      <c r="C1747" t="inlineStr"/>
+      <c r="D1747" t="inlineStr"/>
+      <c r="E1747" t="inlineStr"/>
+      <c r="F1747" t="inlineStr"/>
+      <c r="G1747" t="inlineStr"/>
+      <c r="H1747" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1747" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1747" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="n">
+        <v>29</v>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>{17: 2}</t>
+        </is>
+      </c>
+      <c r="C1748" t="inlineStr"/>
+      <c r="D1748" t="inlineStr"/>
+      <c r="E1748" t="inlineStr"/>
+      <c r="F1748" t="inlineStr"/>
+      <c r="G1748" t="inlineStr"/>
+      <c r="H1748" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1748" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1748" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="n">
+        <v>30</v>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>{17: 3}</t>
+        </is>
+      </c>
+      <c r="C1749" t="inlineStr"/>
+      <c r="D1749" t="inlineStr"/>
+      <c r="E1749" t="inlineStr"/>
+      <c r="F1749" t="inlineStr"/>
+      <c r="G1749" t="inlineStr"/>
+      <c r="H1749" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1749" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1749" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>{17: 4}</t>
+        </is>
+      </c>
+      <c r="C1750" t="inlineStr"/>
+      <c r="D1750" t="inlineStr"/>
+      <c r="E1750" t="inlineStr"/>
+      <c r="F1750" t="inlineStr"/>
+      <c r="G1750" t="inlineStr"/>
+      <c r="H1750" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1750" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1750" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>{31: 0, 17: 5}</t>
+        </is>
+      </c>
+      <c r="C1751" t="inlineStr"/>
+      <c r="D1751" t="inlineStr"/>
+      <c r="E1751" t="inlineStr"/>
+      <c r="F1751" t="inlineStr"/>
+      <c r="G1751" t="inlineStr"/>
+      <c r="H1751" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1751" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1751" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>{23: 0, 31: 1, 17: 6}</t>
+        </is>
+      </c>
+      <c r="C1752" t="inlineStr"/>
+      <c r="D1752" t="inlineStr"/>
+      <c r="E1752" t="inlineStr"/>
+      <c r="F1752" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G1752" t="inlineStr"/>
+      <c r="H1752" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1752" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1752" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>{35: 0, 23: 1, 31: 2, 17: 7}</t>
+        </is>
+      </c>
+      <c r="C1753" t="inlineStr"/>
+      <c r="D1753" t="inlineStr"/>
+      <c r="E1753" t="inlineStr"/>
+      <c r="F1753" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G1753" t="inlineStr"/>
+      <c r="H1753" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1753" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1753" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>{36: 0, 35: 1, 23: 2, 31: 3, 17: 8}</t>
+        </is>
+      </c>
+      <c r="C1754" t="inlineStr"/>
+      <c r="D1754" t="inlineStr"/>
+      <c r="E1754" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F1754" t="inlineStr"/>
+      <c r="G1754" t="inlineStr"/>
+      <c r="H1754" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1754" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1754" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="n">
+        <v>22</v>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>{36: 1, 35: 2, 23: 3, 17: 9}</t>
+        </is>
+      </c>
+      <c r="C1755" t="inlineStr"/>
+      <c r="D1755" t="inlineStr"/>
+      <c r="E1755" t="inlineStr"/>
+      <c r="F1755" t="inlineStr"/>
+      <c r="G1755" t="inlineStr"/>
+      <c r="H1755" t="inlineStr">
+        <is>
+          <t>{31: 3}</t>
+        </is>
+      </c>
+      <c r="I1755" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1755" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="n">
+        <v>31</v>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>{36: 2, 35: 3, 23: 4}</t>
+        </is>
+      </c>
+      <c r="C1756" t="inlineStr"/>
+      <c r="D1756" t="inlineStr"/>
+      <c r="E1756" t="inlineStr"/>
+      <c r="F1756" t="inlineStr"/>
+      <c r="G1756" t="inlineStr"/>
+      <c r="H1756" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1756" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="J1756" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>{36: 3, 35: 4, 23: 5}</t>
+        </is>
+      </c>
+      <c r="C1757" t="inlineStr"/>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E1757" t="inlineStr"/>
+      <c r="F1757" t="inlineStr"/>
+      <c r="G1757" t="inlineStr"/>
+      <c r="H1757" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1757" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1757" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>{36: 4, 23: 6}</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr"/>
+      <c r="D1758" t="inlineStr"/>
+      <c r="E1758" t="inlineStr"/>
+      <c r="F1758" t="inlineStr"/>
+      <c r="G1758" t="inlineStr"/>
+      <c r="H1758" t="inlineStr">
+        <is>
+          <t>{35: 4}</t>
+        </is>
+      </c>
+      <c r="I1758" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1758" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>{36: 5, 23: 7}</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr"/>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E1759" t="inlineStr"/>
+      <c r="F1759" t="inlineStr"/>
+      <c r="G1759" t="inlineStr"/>
+      <c r="H1759" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1759" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1759" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>{36: 6}</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr"/>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E1760" t="inlineStr"/>
+      <c r="F1760" t="inlineStr"/>
+      <c r="G1760" t="inlineStr"/>
+      <c r="H1760" t="inlineStr">
+        <is>
+          <t>{23: 7}</t>
+        </is>
+      </c>
+      <c r="I1760" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1760" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>13</v>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr"/>
+      <c r="D1761" t="inlineStr"/>
+      <c r="E1761" t="inlineStr"/>
+      <c r="F1761" t="inlineStr"/>
+      <c r="G1761" t="inlineStr"/>
+      <c r="H1761" t="inlineStr">
+        <is>
+          <t>{36: 6}</t>
+        </is>
+      </c>
+      <c r="I1761" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1761" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr"/>
+      <c r="D1762" t="inlineStr"/>
+      <c r="E1762" t="inlineStr"/>
+      <c r="F1762" t="inlineStr"/>
+      <c r="G1762" t="inlineStr"/>
+      <c r="H1762" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1762" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1762" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>{17: 0}</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr"/>
+      <c r="D1763" t="inlineStr"/>
+      <c r="E1763" t="inlineStr"/>
+      <c r="F1763" t="inlineStr"/>
+      <c r="G1763" t="inlineStr"/>
+      <c r="H1763" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1763" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1763" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>28</v>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>{17: 1}</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr"/>
+      <c r="D1764" t="inlineStr"/>
+      <c r="E1764" t="inlineStr"/>
+      <c r="F1764" t="inlineStr"/>
+      <c r="G1764" t="inlineStr"/>
+      <c r="H1764" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1764" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1764" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>23</v>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>{17: 2}</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr"/>
+      <c r="D1765" t="inlineStr"/>
+      <c r="E1765" t="inlineStr"/>
+      <c r="F1765" t="inlineStr"/>
+      <c r="G1765" t="inlineStr"/>
+      <c r="H1765" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1765" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1765" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>{17: 3}</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr"/>
+      <c r="D1766" t="inlineStr"/>
+      <c r="E1766" t="inlineStr"/>
+      <c r="F1766" t="inlineStr"/>
+      <c r="G1766" t="inlineStr"/>
+      <c r="H1766" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1766" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1766" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>{17: 4}</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr"/>
+      <c r="D1767" t="inlineStr"/>
+      <c r="E1767" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F1767" t="inlineStr"/>
+      <c r="G1767" t="inlineStr"/>
+      <c r="H1767" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1767" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1767" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr"/>
+      <c r="D1768" t="inlineStr"/>
+      <c r="E1768" t="inlineStr"/>
+      <c r="F1768" t="inlineStr"/>
+      <c r="G1768" t="inlineStr"/>
+      <c r="H1768" t="inlineStr">
+        <is>
+          <t>{17: 4}</t>
+        </is>
+      </c>
+      <c r="I1768" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1768" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1769" t="inlineStr"/>
+      <c r="D1769" t="inlineStr"/>
+      <c r="E1769" t="inlineStr"/>
+      <c r="F1769" t="inlineStr"/>
+      <c r="G1769" t="inlineStr"/>
+      <c r="H1769" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1769" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1769" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>14</v>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1770" t="inlineStr"/>
+      <c r="D1770" t="inlineStr"/>
+      <c r="E1770" t="inlineStr"/>
+      <c r="F1770" t="inlineStr"/>
+      <c r="G1770" t="inlineStr"/>
+      <c r="H1770" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1770" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1770" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1771" t="inlineStr"/>
+      <c r="D1771" t="inlineStr"/>
+      <c r="E1771" t="inlineStr"/>
+      <c r="F1771" t="inlineStr"/>
+      <c r="G1771" t="inlineStr"/>
+      <c r="H1771" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1771" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1771" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>{10: 0}</t>
+        </is>
+      </c>
+      <c r="C1772" t="inlineStr"/>
+      <c r="D1772" t="inlineStr"/>
+      <c r="E1772" t="inlineStr"/>
+      <c r="F1772" t="inlineStr"/>
+      <c r="G1772" t="inlineStr"/>
+      <c r="H1772" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1772" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1772" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>27</v>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>{10: 1}</t>
+        </is>
+      </c>
+      <c r="C1773" t="inlineStr"/>
+      <c r="D1773" t="inlineStr"/>
+      <c r="E1773" t="inlineStr"/>
+      <c r="F1773" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G1773" t="inlineStr"/>
+      <c r="H1773" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1773" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1773" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="n">
+        <v>16</v>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>{20: 0, 10: 2}</t>
+        </is>
+      </c>
+      <c r="C1774" t="inlineStr"/>
+      <c r="D1774" t="inlineStr"/>
+      <c r="E1774" t="inlineStr"/>
+      <c r="F1774" t="inlineStr"/>
+      <c r="G1774" t="inlineStr"/>
+      <c r="H1774" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1774" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1774" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>{20: 1, 10: 3}</t>
+        </is>
+      </c>
+      <c r="C1775" t="inlineStr"/>
+      <c r="D1775" t="inlineStr"/>
+      <c r="E1775" t="inlineStr"/>
+      <c r="F1775" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G1775" t="inlineStr"/>
+      <c r="H1775" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1775" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1775" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="n">
+        <v>16</v>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>{20: 2, 10: 4}</t>
+        </is>
+      </c>
+      <c r="C1776" t="inlineStr"/>
+      <c r="D1776" t="inlineStr"/>
+      <c r="E1776" t="inlineStr"/>
+      <c r="F1776" t="inlineStr"/>
+      <c r="G1776" t="inlineStr"/>
+      <c r="H1776" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1776" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1776" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>{20: 3, 10: 5}</t>
+        </is>
+      </c>
+      <c r="C1777" t="inlineStr"/>
+      <c r="D1777" t="inlineStr"/>
+      <c r="E1777" t="inlineStr"/>
+      <c r="F1777" t="inlineStr"/>
+      <c r="G1777" t="inlineStr"/>
+      <c r="H1777" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1777" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1777" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>{20: 4, 10: 6}</t>
+        </is>
+      </c>
+      <c r="C1778" t="inlineStr"/>
+      <c r="D1778" t="inlineStr"/>
+      <c r="E1778" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F1778" t="inlineStr"/>
+      <c r="G1778" t="inlineStr"/>
+      <c r="H1778" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1778" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1778" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="n">
+        <v>31</v>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>{10: 7}</t>
+        </is>
+      </c>
+      <c r="C1779" t="inlineStr"/>
+      <c r="D1779" t="inlineStr"/>
+      <c r="E1779" t="inlineStr"/>
+      <c r="F1779" t="inlineStr"/>
+      <c r="G1779" t="inlineStr"/>
+      <c r="H1779" t="inlineStr">
+        <is>
+          <t>{20: 4}</t>
+        </is>
+      </c>
+      <c r="I1779" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1779" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>{10: 8}</t>
+        </is>
+      </c>
+      <c r="C1780" t="inlineStr"/>
+      <c r="D1780" t="inlineStr"/>
+      <c r="E1780" t="inlineStr"/>
+      <c r="F1780" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G1780" t="inlineStr"/>
+      <c r="H1780" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1780" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1780" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="n">
+        <v>30</v>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>{10: 9}</t>
+        </is>
+      </c>
+      <c r="C1781" t="inlineStr"/>
+      <c r="D1781" t="inlineStr"/>
+      <c r="E1781" t="inlineStr"/>
+      <c r="F1781" t="inlineStr"/>
+      <c r="G1781" t="inlineStr"/>
+      <c r="H1781" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1781" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1781" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="n">
+        <v>29</v>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1782" t="inlineStr"/>
+      <c r="D1782" t="inlineStr"/>
+      <c r="E1782" t="inlineStr"/>
+      <c r="F1782" t="inlineStr"/>
+      <c r="G1782" t="inlineStr"/>
+      <c r="H1782" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1782" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="J1782" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="n">
+        <v>15</v>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1783" t="inlineStr"/>
+      <c r="D1783" t="inlineStr"/>
+      <c r="E1783" t="inlineStr"/>
+      <c r="F1783" t="inlineStr"/>
+      <c r="G1783" t="inlineStr"/>
+      <c r="H1783" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1783" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1783" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="n">
+        <v>20</v>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>{4: 0}</t>
+        </is>
+      </c>
+      <c r="C1784" t="inlineStr"/>
+      <c r="D1784" t="inlineStr"/>
+      <c r="E1784" t="inlineStr"/>
+      <c r="F1784" t="inlineStr"/>
+      <c r="G1784" t="inlineStr"/>
+      <c r="H1784" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1784" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1784" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>{17: 0, 4: 1}</t>
+        </is>
+      </c>
+      <c r="C1785" t="inlineStr"/>
+      <c r="D1785" t="inlineStr"/>
+      <c r="E1785" t="inlineStr"/>
+      <c r="F1785" t="inlineStr"/>
+      <c r="G1785" t="inlineStr"/>
+      <c r="H1785" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1785" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1785" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="n">
+        <v>16</v>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>{17: 1, 4: 2}</t>
+        </is>
+      </c>
+      <c r="C1786" t="inlineStr"/>
+      <c r="D1786" t="inlineStr"/>
+      <c r="E1786" t="inlineStr"/>
+      <c r="F1786" t="inlineStr"/>
+      <c r="G1786" t="inlineStr"/>
+      <c r="H1786" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1786" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1786" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="n">
+        <v>24</v>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>{17: 2, 4: 3}</t>
+        </is>
+      </c>
+      <c r="C1787" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1787" t="inlineStr"/>
+      <c r="E1787" t="inlineStr"/>
+      <c r="F1787" t="inlineStr"/>
+      <c r="G1787" t="inlineStr"/>
+      <c r="H1787" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1787" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1787" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="n">
+        <v>4</v>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>{17: 3}</t>
+        </is>
+      </c>
+      <c r="C1788" t="inlineStr"/>
+      <c r="D1788" t="inlineStr"/>
+      <c r="E1788" t="inlineStr"/>
+      <c r="F1788" t="inlineStr"/>
+      <c r="G1788" t="inlineStr"/>
+      <c r="H1788" t="inlineStr">
+        <is>
+          <t>{4: 3}</t>
+        </is>
+      </c>
+      <c r="I1788" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1788" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>22</v>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>{17: 4}</t>
+        </is>
+      </c>
+      <c r="C1789" t="inlineStr"/>
+      <c r="D1789" t="inlineStr"/>
+      <c r="E1789" t="inlineStr"/>
+      <c r="F1789" t="inlineStr"/>
+      <c r="G1789" t="inlineStr"/>
+      <c r="H1789" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1789" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1789" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>{17: 5}</t>
+        </is>
+      </c>
+      <c r="C1790" t="inlineStr"/>
+      <c r="D1790" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E1790" t="inlineStr"/>
+      <c r="F1790" t="inlineStr"/>
+      <c r="G1790" t="inlineStr"/>
+      <c r="H1790" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1790" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1790" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>25</v>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1791" t="inlineStr"/>
+      <c r="D1791" t="inlineStr"/>
+      <c r="E1791" t="inlineStr"/>
+      <c r="F1791" t="inlineStr"/>
+      <c r="G1791" t="inlineStr"/>
+      <c r="H1791" t="inlineStr">
+        <is>
+          <t>{17: 5}</t>
+        </is>
+      </c>
+      <c r="I1791" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1791" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>21</v>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1792" t="inlineStr"/>
+      <c r="D1792" t="inlineStr"/>
+      <c r="E1792" t="inlineStr"/>
+      <c r="F1792" t="inlineStr"/>
+      <c r="G1792" t="inlineStr"/>
+      <c r="H1792" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1792" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1792" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>32</v>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1793" t="inlineStr"/>
+      <c r="D1793" t="inlineStr"/>
+      <c r="E1793" t="inlineStr"/>
+      <c r="F1793" t="inlineStr"/>
+      <c r="G1793" t="inlineStr"/>
+      <c r="H1793" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1793" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1793" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>29</v>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>{6: 0}</t>
+        </is>
+      </c>
+      <c r="C1794" t="inlineStr"/>
+      <c r="D1794" t="inlineStr"/>
+      <c r="E1794" t="inlineStr"/>
+      <c r="F1794" t="inlineStr"/>
+      <c r="G1794" t="inlineStr"/>
+      <c r="H1794" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1794" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1794" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>{6: 1}</t>
+        </is>
+      </c>
+      <c r="C1795" t="inlineStr"/>
+      <c r="D1795" t="inlineStr"/>
+      <c r="E1795" t="inlineStr"/>
+      <c r="F1795" t="inlineStr"/>
+      <c r="G1795" t="inlineStr"/>
+      <c r="H1795" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1795" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1795" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>20</v>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>{6: 2}</t>
+        </is>
+      </c>
+      <c r="C1796" t="inlineStr"/>
+      <c r="D1796" t="inlineStr"/>
+      <c r="E1796" t="inlineStr"/>
+      <c r="F1796" t="inlineStr"/>
+      <c r="G1796" t="inlineStr"/>
+      <c r="H1796" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1796" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1796" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>12</v>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>{6: 3}</t>
+        </is>
+      </c>
+      <c r="C1797" t="inlineStr"/>
+      <c r="D1797" t="inlineStr"/>
+      <c r="E1797" t="inlineStr"/>
+      <c r="F1797" t="inlineStr"/>
+      <c r="G1797" t="inlineStr"/>
+      <c r="H1797" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1797" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1797" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>{6: 4}</t>
+        </is>
+      </c>
+      <c r="C1798" t="inlineStr"/>
+      <c r="D1798" t="inlineStr"/>
+      <c r="E1798" t="inlineStr"/>
+      <c r="F1798" t="inlineStr"/>
+      <c r="G1798" t="inlineStr"/>
+      <c r="H1798" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1798" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1798" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>{6: 5}</t>
+        </is>
+      </c>
+      <c r="C1799" t="inlineStr"/>
+      <c r="D1799" t="inlineStr"/>
+      <c r="E1799" t="inlineStr"/>
+      <c r="F1799" t="inlineStr"/>
+      <c r="G1799" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H1799" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1799" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1799" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>11</v>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>{6: 6}</t>
+        </is>
+      </c>
+      <c r="C1800" t="inlineStr"/>
+      <c r="D1800" t="inlineStr"/>
+      <c r="E1800" t="inlineStr"/>
+      <c r="F1800" t="inlineStr"/>
+      <c r="G1800" t="inlineStr"/>
+      <c r="H1800" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1800" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1800" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>{6: 7}</t>
+        </is>
+      </c>
+      <c r="C1801" t="inlineStr"/>
+      <c r="D1801" t="inlineStr"/>
+      <c r="E1801" t="inlineStr"/>
+      <c r="F1801" t="inlineStr"/>
+      <c r="G1801" t="inlineStr"/>
+      <c r="H1801" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1801" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1801" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>{6: 8}</t>
+        </is>
+      </c>
+      <c r="C1802" t="inlineStr"/>
+      <c r="D1802" t="inlineStr"/>
+      <c r="E1802" t="inlineStr"/>
+      <c r="F1802" t="inlineStr"/>
+      <c r="G1802" t="inlineStr"/>
+      <c r="H1802" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1802" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1802" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>{6: 9}</t>
+        </is>
+      </c>
+      <c r="C1803" t="inlineStr"/>
+      <c r="D1803" t="inlineStr"/>
+      <c r="E1803" t="inlineStr"/>
+      <c r="F1803" t="inlineStr"/>
+      <c r="G1803" t="inlineStr"/>
+      <c r="H1803" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1803" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1803" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1804" t="inlineStr"/>
+      <c r="D1804" t="inlineStr"/>
+      <c r="E1804" t="inlineStr"/>
+      <c r="F1804" t="inlineStr"/>
+      <c r="G1804" t="inlineStr"/>
+      <c r="H1804" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1804" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="J1804" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="n">
+        <v>21</v>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>{30: 0}</t>
+        </is>
+      </c>
+      <c r="C1805" t="inlineStr"/>
+      <c r="D1805" t="inlineStr"/>
+      <c r="E1805" t="inlineStr"/>
+      <c r="F1805" t="inlineStr"/>
+      <c r="G1805" t="inlineStr"/>
+      <c r="H1805" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1805" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1805" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="n">
+        <v>33</v>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>{30: 1}</t>
+        </is>
+      </c>
+      <c r="C1806" t="inlineStr"/>
+      <c r="D1806" t="inlineStr"/>
+      <c r="E1806" t="inlineStr"/>
+      <c r="F1806" t="inlineStr"/>
+      <c r="G1806" t="inlineStr"/>
+      <c r="H1806" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1806" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1806" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="n">
+        <v>17</v>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>{30: 2}</t>
+        </is>
+      </c>
+      <c r="C1807" t="inlineStr"/>
+      <c r="D1807" t="inlineStr"/>
+      <c r="E1807" t="inlineStr"/>
+      <c r="F1807" t="inlineStr"/>
+      <c r="G1807" t="inlineStr"/>
+      <c r="H1807" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1807" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1807" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="n">
+        <v>24</v>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>{30: 3}</t>
+        </is>
+      </c>
+      <c r="C1808" t="inlineStr"/>
+      <c r="D1808" t="inlineStr"/>
+      <c r="E1808" t="inlineStr"/>
+      <c r="F1808" t="inlineStr"/>
+      <c r="G1808" t="inlineStr"/>
+      <c r="H1808" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1808" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1808" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="n">
+        <v>33</v>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>{30: 4}</t>
+        </is>
+      </c>
+      <c r="C1809" t="inlineStr"/>
+      <c r="D1809" t="inlineStr"/>
+      <c r="E1809" t="inlineStr"/>
+      <c r="F1809" t="inlineStr"/>
+      <c r="G1809" t="inlineStr"/>
+      <c r="H1809" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1809" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1809" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>{30: 5}</t>
+        </is>
+      </c>
+      <c r="C1810" t="inlineStr"/>
+      <c r="D1810" t="inlineStr"/>
+      <c r="E1810" t="inlineStr"/>
+      <c r="F1810" t="inlineStr"/>
+      <c r="G1810" t="inlineStr"/>
+      <c r="H1810" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1810" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1810" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>{30: 6}</t>
+        </is>
+      </c>
+      <c r="C1811" t="inlineStr"/>
+      <c r="D1811" t="inlineStr"/>
+      <c r="E1811" t="inlineStr"/>
+      <c r="F1811" t="inlineStr"/>
+      <c r="G1811" t="inlineStr"/>
+      <c r="H1811" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1811" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1811" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="n">
+        <v>32</v>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>{30: 7}</t>
+        </is>
+      </c>
+      <c r="C1812" t="inlineStr"/>
+      <c r="D1812" t="inlineStr"/>
+      <c r="E1812" t="inlineStr"/>
+      <c r="F1812" t="inlineStr"/>
+      <c r="G1812" t="inlineStr"/>
+      <c r="H1812" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1812" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1812" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>{30: 8}</t>
+        </is>
+      </c>
+      <c r="C1813" t="inlineStr"/>
+      <c r="D1813" t="inlineStr"/>
+      <c r="E1813" t="inlineStr"/>
+      <c r="F1813" t="inlineStr"/>
+      <c r="G1813" t="inlineStr"/>
+      <c r="H1813" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1813" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1813" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>{30: 9}</t>
+        </is>
+      </c>
+      <c r="C1814" t="inlineStr"/>
+      <c r="D1814" t="inlineStr"/>
+      <c r="E1814" t="inlineStr"/>
+      <c r="F1814" t="inlineStr"/>
+      <c r="G1814" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H1814" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1814" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1814" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="n">
+        <v>27</v>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1815" t="inlineStr"/>
+      <c r="D1815" t="inlineStr"/>
+      <c r="E1815" t="inlineStr"/>
+      <c r="F1815" t="inlineStr"/>
+      <c r="G1815" t="inlineStr"/>
+      <c r="H1815" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1815" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="J1815" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1816" t="inlineStr"/>
+      <c r="D1816" t="inlineStr"/>
+      <c r="E1816" t="inlineStr"/>
+      <c r="F1816" t="inlineStr"/>
+      <c r="G1816" t="inlineStr"/>
+      <c r="H1816" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1816" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1816" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="n">
+        <v>30</v>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1817" t="inlineStr"/>
+      <c r="D1817" t="inlineStr"/>
+      <c r="E1817" t="inlineStr"/>
+      <c r="F1817" t="inlineStr"/>
+      <c r="G1817" t="inlineStr"/>
+      <c r="H1817" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1817" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1817" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1818" t="inlineStr"/>
+      <c r="D1818" t="inlineStr"/>
+      <c r="E1818" t="inlineStr"/>
+      <c r="F1818" t="inlineStr"/>
+      <c r="G1818" t="inlineStr"/>
+      <c r="H1818" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1818" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1818" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1819" t="inlineStr"/>
+      <c r="D1819" t="inlineStr"/>
+      <c r="E1819" t="inlineStr"/>
+      <c r="F1819" t="inlineStr"/>
+      <c r="G1819" t="inlineStr"/>
+      <c r="H1819" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1819" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1819" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="n">
+        <v>13</v>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>{9: 0}</t>
+        </is>
+      </c>
+      <c r="C1820" t="inlineStr"/>
+      <c r="D1820" t="inlineStr"/>
+      <c r="E1820" t="inlineStr"/>
+      <c r="F1820" t="inlineStr"/>
+      <c r="G1820" t="inlineStr"/>
+      <c r="H1820" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1820" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1820" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>{9: 1}</t>
+        </is>
+      </c>
+      <c r="C1821" t="inlineStr"/>
+      <c r="D1821" t="inlineStr"/>
+      <c r="E1821" t="inlineStr"/>
+      <c r="F1821" t="inlineStr"/>
+      <c r="G1821" t="inlineStr"/>
+      <c r="H1821" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1821" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1821" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="n">
+        <v>25</v>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>{9: 2}</t>
+        </is>
+      </c>
+      <c r="C1822" t="inlineStr"/>
+      <c r="D1822" t="inlineStr"/>
+      <c r="E1822" t="inlineStr"/>
+      <c r="F1822" t="inlineStr"/>
+      <c r="G1822" t="inlineStr"/>
+      <c r="H1822" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1822" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1822" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="n">
+        <v>25</v>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>{9: 3}</t>
+        </is>
+      </c>
+      <c r="C1823" t="inlineStr"/>
+      <c r="D1823" t="inlineStr"/>
+      <c r="E1823" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F1823" t="inlineStr"/>
+      <c r="G1823" t="inlineStr"/>
+      <c r="H1823" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1823" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1823" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1824" t="inlineStr"/>
+      <c r="D1824" t="inlineStr"/>
+      <c r="E1824" t="inlineStr"/>
+      <c r="F1824" t="inlineStr"/>
+      <c r="G1824" t="inlineStr"/>
+      <c r="H1824" t="inlineStr">
+        <is>
+          <t>{9: 3}</t>
+        </is>
+      </c>
+      <c r="I1824" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1824" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="n">
+        <v>36</v>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1825" t="inlineStr"/>
+      <c r="D1825" t="inlineStr"/>
+      <c r="E1825" t="inlineStr"/>
+      <c r="F1825" t="inlineStr"/>
+      <c r="G1825" t="inlineStr"/>
+      <c r="H1825" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1825" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1825" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1826" t="inlineStr"/>
+      <c r="D1826" t="inlineStr"/>
+      <c r="E1826" t="inlineStr"/>
+      <c r="F1826" t="inlineStr"/>
+      <c r="G1826" t="inlineStr"/>
+      <c r="H1826" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1826" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1826" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="n">
+        <v>33</v>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1827" t="inlineStr"/>
+      <c r="D1827" t="inlineStr"/>
+      <c r="E1827" t="inlineStr"/>
+      <c r="F1827" t="inlineStr"/>
+      <c r="G1827" t="inlineStr"/>
+      <c r="H1827" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1827" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1827" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="n">
+        <v>33</v>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1828" t="inlineStr"/>
+      <c r="D1828" t="inlineStr"/>
+      <c r="E1828" t="inlineStr"/>
+      <c r="F1828" t="inlineStr"/>
+      <c r="G1828" t="inlineStr"/>
+      <c r="H1828" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1828" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1828" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="n">
+        <v>20</v>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1829" t="inlineStr"/>
+      <c r="D1829" t="inlineStr"/>
+      <c r="E1829" t="inlineStr"/>
+      <c r="F1829" t="inlineStr"/>
+      <c r="G1829" t="inlineStr"/>
+      <c r="H1829" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1829" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1829" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="n">
+        <v>8</v>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1830" t="inlineStr"/>
+      <c r="D1830" t="inlineStr"/>
+      <c r="E1830" t="inlineStr"/>
+      <c r="F1830" t="inlineStr"/>
+      <c r="G1830" t="inlineStr"/>
+      <c r="H1830" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1830" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1830" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="n">
+        <v>32</v>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1831" t="inlineStr"/>
+      <c r="D1831" t="inlineStr"/>
+      <c r="E1831" t="inlineStr"/>
+      <c r="F1831" t="inlineStr"/>
+      <c r="G1831" t="inlineStr"/>
+      <c r="H1831" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1831" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1831" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="n">
+        <v>23</v>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1832" t="inlineStr"/>
+      <c r="D1832" t="inlineStr"/>
+      <c r="E1832" t="inlineStr"/>
+      <c r="F1832" t="inlineStr"/>
+      <c r="G1832" t="inlineStr"/>
+      <c r="H1832" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1832" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1832" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1833" t="inlineStr"/>
+      <c r="D1833" t="inlineStr"/>
+      <c r="E1833" t="inlineStr"/>
+      <c r="F1833" t="inlineStr"/>
+      <c r="G1833" t="inlineStr"/>
+      <c r="H1833" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1833" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1833" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="n">
+        <v>23</v>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1834" t="inlineStr"/>
+      <c r="D1834" t="inlineStr"/>
+      <c r="E1834" t="inlineStr"/>
+      <c r="F1834" t="inlineStr"/>
+      <c r="G1834" t="inlineStr"/>
+      <c r="H1834" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1834" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1834" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1835" t="inlineStr"/>
+      <c r="D1835" t="inlineStr"/>
+      <c r="E1835" t="inlineStr"/>
+      <c r="F1835" t="inlineStr"/>
+      <c r="G1835" t="inlineStr"/>
+      <c r="H1835" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1835" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1835" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="n">
+        <v>32</v>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1836" t="inlineStr"/>
+      <c r="D1836" t="inlineStr"/>
+      <c r="E1836" t="inlineStr"/>
+      <c r="F1836" t="inlineStr"/>
+      <c r="G1836" t="inlineStr"/>
+      <c r="H1836" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1836" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1836" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="n">
+        <v>32</v>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1837" t="inlineStr"/>
+      <c r="D1837" t="inlineStr"/>
+      <c r="E1837" t="inlineStr"/>
+      <c r="F1837" t="inlineStr"/>
+      <c r="G1837" t="inlineStr"/>
+      <c r="H1837" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1837" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1837" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1838" t="inlineStr"/>
+      <c r="D1838" t="inlineStr"/>
+      <c r="E1838" t="inlineStr"/>
+      <c r="F1838" t="inlineStr"/>
+      <c r="G1838" t="inlineStr"/>
+      <c r="H1838" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1838" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1838" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="n">
+        <v>28</v>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1839" t="inlineStr"/>
+      <c r="D1839" t="inlineStr"/>
+      <c r="E1839" t="inlineStr"/>
+      <c r="F1839" t="inlineStr"/>
+      <c r="G1839" t="inlineStr"/>
+      <c r="H1839" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1839" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1839" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="n">
+        <v>17</v>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1840" t="inlineStr"/>
+      <c r="D1840" t="inlineStr"/>
+      <c r="E1840" t="inlineStr"/>
+      <c r="F1840" t="inlineStr"/>
+      <c r="G1840" t="inlineStr"/>
+      <c r="H1840" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1840" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1840" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="n">
+        <v>7</v>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1841" t="inlineStr"/>
+      <c r="D1841" t="inlineStr"/>
+      <c r="E1841" t="inlineStr"/>
+      <c r="F1841" t="inlineStr"/>
+      <c r="G1841" t="inlineStr"/>
+      <c r="H1841" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1841" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1841" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="n">
+        <v>31</v>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C1842" t="inlineStr"/>
+      <c r="D1842" t="inlineStr"/>
+      <c r="E1842" t="inlineStr"/>
+      <c r="F1842" t="inlineStr"/>
+      <c r="G1842" t="inlineStr"/>
+      <c r="H1842" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I1842" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J1842" t="n">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/bombayAuto.xlsx
+++ b/Data/bombayAuto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2455"/>
+  <dimension ref="A1:L2629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47583,10 +47583,8 @@
       <c r="C2349" t="inlineStr"/>
       <c r="D2349" t="inlineStr"/>
       <c r="E2349" t="inlineStr"/>
-      <c r="F2349" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2349" t="n">
+        <v>0</v>
       </c>
       <c r="G2349" t="inlineStr"/>
       <c r="H2349" t="inlineStr"/>
@@ -47605,10 +47603,8 @@
       <c r="C2350" t="inlineStr"/>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr"/>
-      <c r="F2350" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2350" t="n">
+        <v>0</v>
       </c>
       <c r="G2350" t="inlineStr"/>
       <c r="H2350" t="inlineStr"/>
@@ -47627,10 +47623,8 @@
       <c r="C2351" t="inlineStr"/>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr"/>
-      <c r="F2351" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2351" t="n">
+        <v>0</v>
       </c>
       <c r="G2351" t="inlineStr"/>
       <c r="H2351" t="inlineStr"/>
@@ -47649,10 +47643,8 @@
       <c r="C2352" t="inlineStr"/>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr"/>
-      <c r="F2352" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2352" t="n">
+        <v>0</v>
       </c>
       <c r="G2352" t="inlineStr"/>
       <c r="H2352" t="inlineStr"/>
@@ -47671,10 +47663,8 @@
       <c r="C2353" t="inlineStr"/>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr"/>
-      <c r="F2353" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2353" t="n">
+        <v>0</v>
       </c>
       <c r="G2353" t="inlineStr"/>
       <c r="H2353" t="inlineStr"/>
@@ -47693,10 +47683,8 @@
       <c r="C2354" t="inlineStr"/>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr"/>
-      <c r="F2354" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2354" t="n">
+        <v>0</v>
       </c>
       <c r="G2354" t="inlineStr"/>
       <c r="H2354" t="inlineStr"/>
@@ -47719,10 +47707,8 @@
       <c r="C2355" t="inlineStr"/>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr"/>
-      <c r="F2355" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2355" t="n">
+        <v>0</v>
       </c>
       <c r="G2355" t="inlineStr"/>
       <c r="H2355" t="inlineStr"/>
@@ -47745,10 +47731,8 @@
       <c r="C2356" t="inlineStr"/>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr"/>
-      <c r="F2356" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2356" t="n">
+        <v>0</v>
       </c>
       <c r="G2356" t="inlineStr"/>
       <c r="H2356" t="inlineStr"/>
@@ -47771,10 +47755,8 @@
       <c r="C2357" t="inlineStr"/>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr"/>
-      <c r="F2357" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2357" t="n">
+        <v>0</v>
       </c>
       <c r="G2357" t="inlineStr"/>
       <c r="H2357" t="inlineStr"/>
@@ -47797,10 +47779,8 @@
       <c r="C2358" t="inlineStr"/>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr"/>
-      <c r="F2358" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2358" t="n">
+        <v>0</v>
       </c>
       <c r="G2358" t="inlineStr"/>
       <c r="H2358" t="inlineStr"/>
@@ -47823,10 +47803,8 @@
       <c r="C2359" t="inlineStr"/>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr"/>
-      <c r="F2359" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2359" t="n">
+        <v>0</v>
       </c>
       <c r="G2359" t="inlineStr"/>
       <c r="H2359" t="inlineStr"/>
@@ -47849,10 +47827,8 @@
       <c r="C2360" t="inlineStr"/>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr"/>
-      <c r="F2360" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2360" t="n">
+        <v>0</v>
       </c>
       <c r="G2360" t="inlineStr"/>
       <c r="H2360" t="inlineStr"/>
@@ -47875,10 +47851,8 @@
       <c r="C2361" t="inlineStr"/>
       <c r="D2361" t="inlineStr"/>
       <c r="E2361" t="inlineStr"/>
-      <c r="F2361" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2361" t="n">
+        <v>0</v>
       </c>
       <c r="G2361" t="inlineStr"/>
       <c r="H2361" t="inlineStr"/>
@@ -47901,10 +47875,8 @@
       <c r="C2362" t="inlineStr"/>
       <c r="D2362" t="inlineStr"/>
       <c r="E2362" t="inlineStr"/>
-      <c r="F2362" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2362" t="n">
+        <v>0</v>
       </c>
       <c r="G2362" t="inlineStr"/>
       <c r="H2362" t="inlineStr"/>
@@ -47927,10 +47899,8 @@
       <c r="C2363" t="inlineStr"/>
       <c r="D2363" t="inlineStr"/>
       <c r="E2363" t="inlineStr"/>
-      <c r="F2363" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2363" t="n">
+        <v>0</v>
       </c>
       <c r="G2363" t="inlineStr"/>
       <c r="H2363" t="inlineStr"/>
@@ -47953,10 +47923,8 @@
       <c r="C2364" t="inlineStr"/>
       <c r="D2364" t="inlineStr"/>
       <c r="E2364" t="inlineStr"/>
-      <c r="F2364" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2364" t="n">
+        <v>0</v>
       </c>
       <c r="G2364" t="inlineStr"/>
       <c r="H2364" t="inlineStr"/>
@@ -47979,10 +47947,8 @@
       <c r="C2365" t="inlineStr"/>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr"/>
-      <c r="F2365" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2365" t="n">
+        <v>0</v>
       </c>
       <c r="G2365" t="inlineStr"/>
       <c r="H2365" t="inlineStr"/>
@@ -48005,10 +47971,8 @@
       <c r="C2366" t="inlineStr"/>
       <c r="D2366" t="inlineStr"/>
       <c r="E2366" t="inlineStr"/>
-      <c r="F2366" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2366" t="n">
+        <v>0</v>
       </c>
       <c r="G2366" t="inlineStr"/>
       <c r="H2366" t="inlineStr"/>
@@ -48031,10 +47995,8 @@
       <c r="C2367" t="inlineStr"/>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr"/>
-      <c r="F2367" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2367" t="n">
+        <v>0</v>
       </c>
       <c r="G2367" t="inlineStr"/>
       <c r="H2367" t="inlineStr"/>
@@ -48057,10 +48019,8 @@
       <c r="C2368" t="inlineStr"/>
       <c r="D2368" t="inlineStr"/>
       <c r="E2368" t="inlineStr"/>
-      <c r="F2368" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2368" t="n">
+        <v>0</v>
       </c>
       <c r="G2368" t="inlineStr"/>
       <c r="H2368" t="inlineStr"/>
@@ -48083,10 +48043,8 @@
       <c r="C2369" t="inlineStr"/>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr"/>
-      <c r="F2369" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2369" t="n">
+        <v>0</v>
       </c>
       <c r="G2369" t="inlineStr"/>
       <c r="H2369" t="inlineStr"/>
@@ -48109,10 +48067,8 @@
       <c r="C2370" t="inlineStr"/>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr"/>
-      <c r="F2370" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2370" t="n">
+        <v>0</v>
       </c>
       <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr"/>
@@ -48135,10 +48091,8 @@
       <c r="C2371" t="inlineStr"/>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr"/>
-      <c r="F2371" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2371" t="n">
+        <v>0</v>
       </c>
       <c r="G2371" t="inlineStr"/>
       <c r="H2371" t="inlineStr"/>
@@ -48161,10 +48115,8 @@
       <c r="C2372" t="inlineStr"/>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr"/>
-      <c r="F2372" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2372" t="n">
+        <v>0</v>
       </c>
       <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr"/>
@@ -48187,10 +48139,8 @@
       <c r="C2373" t="inlineStr"/>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr"/>
-      <c r="F2373" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2373" t="n">
+        <v>0</v>
       </c>
       <c r="G2373" t="inlineStr"/>
       <c r="H2373" t="inlineStr"/>
@@ -48213,10 +48163,8 @@
       <c r="C2374" t="inlineStr"/>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr"/>
-      <c r="F2374" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2374" t="n">
+        <v>0</v>
       </c>
       <c r="G2374" t="inlineStr"/>
       <c r="H2374" t="inlineStr"/>
@@ -48239,10 +48187,8 @@
       <c r="C2375" t="inlineStr"/>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr"/>
-      <c r="F2375" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2375" t="n">
+        <v>0</v>
       </c>
       <c r="G2375" t="inlineStr"/>
       <c r="H2375" t="inlineStr"/>
@@ -48265,10 +48211,8 @@
       <c r="C2376" t="inlineStr"/>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr"/>
-      <c r="F2376" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2376" t="n">
+        <v>0</v>
       </c>
       <c r="G2376" t="inlineStr"/>
       <c r="H2376" t="inlineStr"/>
@@ -48291,10 +48235,8 @@
       <c r="C2377" t="inlineStr"/>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr"/>
-      <c r="F2377" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2377" t="n">
+        <v>0</v>
       </c>
       <c r="G2377" t="inlineStr"/>
       <c r="H2377" t="inlineStr"/>
@@ -48317,10 +48259,8 @@
       <c r="C2378" t="inlineStr"/>
       <c r="D2378" t="inlineStr"/>
       <c r="E2378" t="inlineStr"/>
-      <c r="F2378" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2378" t="n">
+        <v>0</v>
       </c>
       <c r="G2378" t="inlineStr"/>
       <c r="H2378" t="inlineStr"/>
@@ -48343,10 +48283,8 @@
       <c r="C2379" t="inlineStr"/>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr"/>
-      <c r="F2379" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2379" t="n">
+        <v>0</v>
       </c>
       <c r="G2379" t="inlineStr"/>
       <c r="H2379" t="inlineStr"/>
@@ -48369,10 +48307,8 @@
       <c r="C2380" t="inlineStr"/>
       <c r="D2380" t="inlineStr"/>
       <c r="E2380" t="inlineStr"/>
-      <c r="F2380" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2380" t="n">
+        <v>0</v>
       </c>
       <c r="G2380" t="inlineStr"/>
       <c r="H2380" t="inlineStr"/>
@@ -48395,10 +48331,8 @@
       <c r="C2381" t="inlineStr"/>
       <c r="D2381" t="inlineStr"/>
       <c r="E2381" t="inlineStr"/>
-      <c r="F2381" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2381" t="n">
+        <v>0</v>
       </c>
       <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr"/>
@@ -48421,10 +48355,8 @@
       <c r="C2382" t="inlineStr"/>
       <c r="D2382" t="inlineStr"/>
       <c r="E2382" t="inlineStr"/>
-      <c r="F2382" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2382" t="n">
+        <v>0</v>
       </c>
       <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr"/>
@@ -48447,10 +48379,8 @@
       <c r="C2383" t="inlineStr"/>
       <c r="D2383" t="inlineStr"/>
       <c r="E2383" t="inlineStr"/>
-      <c r="F2383" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2383" t="n">
+        <v>0</v>
       </c>
       <c r="G2383" t="inlineStr"/>
       <c r="H2383" t="inlineStr"/>
@@ -48473,10 +48403,8 @@
       <c r="C2384" t="inlineStr"/>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr"/>
-      <c r="F2384" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2384" t="n">
+        <v>0</v>
       </c>
       <c r="G2384" t="inlineStr"/>
       <c r="H2384" t="inlineStr"/>
@@ -48499,10 +48427,8 @@
       <c r="C2385" t="inlineStr"/>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr"/>
-      <c r="F2385" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2385" t="n">
+        <v>0</v>
       </c>
       <c r="G2385" t="inlineStr"/>
       <c r="H2385" t="inlineStr"/>
@@ -48525,10 +48451,8 @@
       <c r="C2386" t="inlineStr"/>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr"/>
-      <c r="F2386" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2386" t="n">
+        <v>0</v>
       </c>
       <c r="G2386" t="inlineStr"/>
       <c r="H2386" t="inlineStr"/>
@@ -48551,10 +48475,8 @@
       <c r="C2387" t="inlineStr"/>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr"/>
-      <c r="F2387" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2387" t="n">
+        <v>0</v>
       </c>
       <c r="G2387" t="inlineStr"/>
       <c r="H2387" t="inlineStr"/>
@@ -48577,10 +48499,8 @@
       <c r="C2388" t="inlineStr"/>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr"/>
-      <c r="F2388" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2388" t="n">
+        <v>0</v>
       </c>
       <c r="G2388" t="inlineStr"/>
       <c r="H2388" t="inlineStr"/>
@@ -48603,10 +48523,8 @@
       <c r="C2389" t="inlineStr"/>
       <c r="D2389" t="inlineStr"/>
       <c r="E2389" t="inlineStr"/>
-      <c r="F2389" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2389" t="n">
+        <v>0</v>
       </c>
       <c r="G2389" t="inlineStr"/>
       <c r="H2389" t="inlineStr"/>
@@ -48629,10 +48547,8 @@
       <c r="C2390" t="inlineStr"/>
       <c r="D2390" t="inlineStr"/>
       <c r="E2390" t="inlineStr"/>
-      <c r="F2390" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2390" t="n">
+        <v>0</v>
       </c>
       <c r="G2390" t="inlineStr"/>
       <c r="H2390" t="inlineStr"/>
@@ -48655,10 +48571,8 @@
       <c r="C2391" t="inlineStr"/>
       <c r="D2391" t="inlineStr"/>
       <c r="E2391" t="inlineStr"/>
-      <c r="F2391" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2391" t="n">
+        <v>0</v>
       </c>
       <c r="G2391" t="inlineStr"/>
       <c r="H2391" t="inlineStr"/>
@@ -48681,10 +48595,8 @@
       <c r="C2392" t="inlineStr"/>
       <c r="D2392" t="inlineStr"/>
       <c r="E2392" t="inlineStr"/>
-      <c r="F2392" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2392" t="n">
+        <v>0</v>
       </c>
       <c r="G2392" t="inlineStr"/>
       <c r="H2392" t="inlineStr"/>
@@ -48707,10 +48619,8 @@
       <c r="C2393" t="inlineStr"/>
       <c r="D2393" t="inlineStr"/>
       <c r="E2393" t="inlineStr"/>
-      <c r="F2393" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2393" t="n">
+        <v>0</v>
       </c>
       <c r="G2393" t="inlineStr"/>
       <c r="H2393" t="inlineStr"/>
@@ -48733,10 +48643,8 @@
       <c r="C2394" t="inlineStr"/>
       <c r="D2394" t="inlineStr"/>
       <c r="E2394" t="inlineStr"/>
-      <c r="F2394" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2394" t="n">
+        <v>0</v>
       </c>
       <c r="G2394" t="inlineStr"/>
       <c r="H2394" t="inlineStr"/>
@@ -48759,10 +48667,8 @@
       <c r="C2395" t="inlineStr"/>
       <c r="D2395" t="inlineStr"/>
       <c r="E2395" t="inlineStr"/>
-      <c r="F2395" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2395" t="n">
+        <v>0</v>
       </c>
       <c r="G2395" t="inlineStr"/>
       <c r="H2395" t="inlineStr"/>
@@ -48785,10 +48691,8 @@
       <c r="C2396" t="inlineStr"/>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr"/>
-      <c r="F2396" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2396" t="n">
+        <v>0</v>
       </c>
       <c r="G2396" t="inlineStr"/>
       <c r="H2396" t="inlineStr"/>
@@ -48811,10 +48715,8 @@
       <c r="C2397" t="inlineStr"/>
       <c r="D2397" t="inlineStr"/>
       <c r="E2397" t="inlineStr"/>
-      <c r="F2397" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2397" t="n">
+        <v>0</v>
       </c>
       <c r="G2397" t="inlineStr"/>
       <c r="H2397" t="inlineStr"/>
@@ -48837,10 +48739,8 @@
       <c r="C2398" t="inlineStr"/>
       <c r="D2398" t="inlineStr"/>
       <c r="E2398" t="inlineStr"/>
-      <c r="F2398" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2398" t="n">
+        <v>0</v>
       </c>
       <c r="G2398" t="inlineStr"/>
       <c r="H2398" t="inlineStr"/>
@@ -48863,10 +48763,8 @@
       <c r="C2399" t="inlineStr"/>
       <c r="D2399" t="inlineStr"/>
       <c r="E2399" t="inlineStr"/>
-      <c r="F2399" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2399" t="n">
+        <v>0</v>
       </c>
       <c r="G2399" t="inlineStr"/>
       <c r="H2399" t="inlineStr"/>
@@ -48889,10 +48787,8 @@
       <c r="C2400" t="inlineStr"/>
       <c r="D2400" t="inlineStr"/>
       <c r="E2400" t="inlineStr"/>
-      <c r="F2400" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2400" t="n">
+        <v>0</v>
       </c>
       <c r="G2400" t="inlineStr"/>
       <c r="H2400" t="inlineStr"/>
@@ -48915,10 +48811,8 @@
       <c r="C2401" t="inlineStr"/>
       <c r="D2401" t="inlineStr"/>
       <c r="E2401" t="inlineStr"/>
-      <c r="F2401" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2401" t="n">
+        <v>0</v>
       </c>
       <c r="G2401" t="inlineStr"/>
       <c r="H2401" t="inlineStr"/>
@@ -48941,10 +48835,8 @@
       <c r="C2402" t="inlineStr"/>
       <c r="D2402" t="inlineStr"/>
       <c r="E2402" t="inlineStr"/>
-      <c r="F2402" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2402" t="n">
+        <v>0</v>
       </c>
       <c r="G2402" t="inlineStr"/>
       <c r="H2402" t="inlineStr"/>
@@ -48967,10 +48859,8 @@
       <c r="C2403" t="inlineStr"/>
       <c r="D2403" t="inlineStr"/>
       <c r="E2403" t="inlineStr"/>
-      <c r="F2403" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2403" t="n">
+        <v>0</v>
       </c>
       <c r="G2403" t="inlineStr"/>
       <c r="H2403" t="inlineStr"/>
@@ -48993,10 +48883,8 @@
       <c r="C2404" t="inlineStr"/>
       <c r="D2404" t="inlineStr"/>
       <c r="E2404" t="inlineStr"/>
-      <c r="F2404" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2404" t="n">
+        <v>0</v>
       </c>
       <c r="G2404" t="inlineStr"/>
       <c r="H2404" t="inlineStr"/>
@@ -49019,10 +48907,8 @@
       <c r="C2405" t="inlineStr"/>
       <c r="D2405" t="inlineStr"/>
       <c r="E2405" t="inlineStr"/>
-      <c r="F2405" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2405" t="n">
+        <v>0</v>
       </c>
       <c r="G2405" t="inlineStr"/>
       <c r="H2405" t="inlineStr"/>
@@ -49045,10 +48931,8 @@
       <c r="C2406" t="inlineStr"/>
       <c r="D2406" t="inlineStr"/>
       <c r="E2406" t="inlineStr"/>
-      <c r="F2406" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2406" t="n">
+        <v>0</v>
       </c>
       <c r="G2406" t="inlineStr"/>
       <c r="H2406" t="inlineStr"/>
@@ -49071,10 +48955,8 @@
       <c r="C2407" t="inlineStr"/>
       <c r="D2407" t="inlineStr"/>
       <c r="E2407" t="inlineStr"/>
-      <c r="F2407" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2407" t="n">
+        <v>0</v>
       </c>
       <c r="G2407" t="inlineStr"/>
       <c r="H2407" t="inlineStr"/>
@@ -49101,10 +48983,8 @@
       </c>
       <c r="D2408" t="inlineStr"/>
       <c r="E2408" t="inlineStr"/>
-      <c r="F2408" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2408" t="n">
+        <v>0</v>
       </c>
       <c r="G2408" t="inlineStr"/>
       <c r="H2408" t="inlineStr"/>
@@ -49131,10 +49011,8 @@
       </c>
       <c r="D2409" t="inlineStr"/>
       <c r="E2409" t="inlineStr"/>
-      <c r="F2409" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2409" t="n">
+        <v>0</v>
       </c>
       <c r="G2409" t="inlineStr"/>
       <c r="H2409" t="inlineStr"/>
@@ -49161,10 +49039,8 @@
       </c>
       <c r="D2410" t="inlineStr"/>
       <c r="E2410" t="inlineStr"/>
-      <c r="F2410" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2410" t="n">
+        <v>0</v>
       </c>
       <c r="G2410" t="inlineStr"/>
       <c r="H2410" t="inlineStr"/>
@@ -49191,10 +49067,8 @@
       </c>
       <c r="D2411" t="inlineStr"/>
       <c r="E2411" t="inlineStr"/>
-      <c r="F2411" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2411" t="n">
+        <v>0</v>
       </c>
       <c r="G2411" t="inlineStr"/>
       <c r="H2411" t="inlineStr"/>
@@ -49221,10 +49095,8 @@
           <t>(N:1,P:152,T:4,R:0,PL:4,J:30000)</t>
         </is>
       </c>
-      <c r="F2412" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2412" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2412" t="inlineStr"/>
       <c r="H2412" t="inlineStr"/>
@@ -49247,10 +49119,8 @@
       <c r="C2413" t="inlineStr"/>
       <c r="D2413" t="inlineStr"/>
       <c r="E2413" t="inlineStr"/>
-      <c r="F2413" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2413" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2413" t="inlineStr"/>
       <c r="H2413" t="inlineStr"/>
@@ -49273,10 +49143,8 @@
       <c r="C2414" t="inlineStr"/>
       <c r="D2414" t="inlineStr"/>
       <c r="E2414" t="inlineStr"/>
-      <c r="F2414" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2414" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2414" t="inlineStr"/>
       <c r="H2414" t="inlineStr"/>
@@ -49299,10 +49167,8 @@
       <c r="C2415" t="inlineStr"/>
       <c r="D2415" t="inlineStr"/>
       <c r="E2415" t="inlineStr"/>
-      <c r="F2415" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2415" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2415" t="inlineStr"/>
       <c r="H2415" t="inlineStr"/>
@@ -49325,10 +49191,8 @@
       <c r="C2416" t="inlineStr"/>
       <c r="D2416" t="inlineStr"/>
       <c r="E2416" t="inlineStr"/>
-      <c r="F2416" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2416" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2416" t="inlineStr"/>
       <c r="H2416" t="inlineStr"/>
@@ -49351,10 +49215,8 @@
       <c r="C2417" t="inlineStr"/>
       <c r="D2417" t="inlineStr"/>
       <c r="E2417" t="inlineStr"/>
-      <c r="F2417" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2417" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2417" t="inlineStr"/>
       <c r="H2417" t="inlineStr"/>
@@ -49377,10 +49239,8 @@
       <c r="C2418" t="inlineStr"/>
       <c r="D2418" t="inlineStr"/>
       <c r="E2418" t="inlineStr"/>
-      <c r="F2418" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2418" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2418" t="inlineStr"/>
       <c r="H2418" t="inlineStr"/>
@@ -49403,10 +49263,8 @@
       <c r="C2419" t="inlineStr"/>
       <c r="D2419" t="inlineStr"/>
       <c r="E2419" t="inlineStr"/>
-      <c r="F2419" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2419" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2419" t="inlineStr"/>
       <c r="H2419" t="inlineStr"/>
@@ -49429,10 +49287,8 @@
       <c r="C2420" t="inlineStr"/>
       <c r="D2420" t="inlineStr"/>
       <c r="E2420" t="inlineStr"/>
-      <c r="F2420" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2420" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2420" t="inlineStr"/>
       <c r="H2420" t="inlineStr"/>
@@ -49455,10 +49311,8 @@
       <c r="C2421" t="inlineStr"/>
       <c r="D2421" t="inlineStr"/>
       <c r="E2421" t="inlineStr"/>
-      <c r="F2421" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2421" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2421" t="inlineStr"/>
       <c r="H2421" t="inlineStr"/>
@@ -49481,10 +49335,8 @@
       <c r="C2422" t="inlineStr"/>
       <c r="D2422" t="inlineStr"/>
       <c r="E2422" t="inlineStr"/>
-      <c r="F2422" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2422" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2422" t="inlineStr"/>
       <c r="H2422" t="inlineStr"/>
@@ -49507,10 +49359,8 @@
       <c r="C2423" t="inlineStr"/>
       <c r="D2423" t="inlineStr"/>
       <c r="E2423" t="inlineStr"/>
-      <c r="F2423" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2423" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2423" t="inlineStr"/>
       <c r="H2423" t="inlineStr"/>
@@ -49533,10 +49383,8 @@
       <c r="C2424" t="inlineStr"/>
       <c r="D2424" t="inlineStr"/>
       <c r="E2424" t="inlineStr"/>
-      <c r="F2424" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2424" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2424" t="inlineStr"/>
       <c r="H2424" t="inlineStr"/>
@@ -49559,10 +49407,8 @@
       <c r="C2425" t="inlineStr"/>
       <c r="D2425" t="inlineStr"/>
       <c r="E2425" t="inlineStr"/>
-      <c r="F2425" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2425" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2425" t="inlineStr"/>
       <c r="H2425" t="inlineStr"/>
@@ -49585,10 +49431,8 @@
       <c r="C2426" t="inlineStr"/>
       <c r="D2426" t="inlineStr"/>
       <c r="E2426" t="inlineStr"/>
-      <c r="F2426" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2426" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2426" t="inlineStr"/>
       <c r="H2426" t="inlineStr"/>
@@ -49611,10 +49455,8 @@
       <c r="C2427" t="inlineStr"/>
       <c r="D2427" t="inlineStr"/>
       <c r="E2427" t="inlineStr"/>
-      <c r="F2427" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2427" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2427" t="inlineStr"/>
       <c r="H2427" t="inlineStr"/>
@@ -49637,10 +49479,8 @@
       <c r="C2428" t="inlineStr"/>
       <c r="D2428" t="inlineStr"/>
       <c r="E2428" t="inlineStr"/>
-      <c r="F2428" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2428" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2428" t="inlineStr"/>
       <c r="H2428" t="inlineStr"/>
@@ -49663,10 +49503,8 @@
       <c r="C2429" t="inlineStr"/>
       <c r="D2429" t="inlineStr"/>
       <c r="E2429" t="inlineStr"/>
-      <c r="F2429" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2429" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2429" t="inlineStr"/>
       <c r="H2429" t="inlineStr"/>
@@ -49689,10 +49527,8 @@
       <c r="C2430" t="inlineStr"/>
       <c r="D2430" t="inlineStr"/>
       <c r="E2430" t="inlineStr"/>
-      <c r="F2430" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2430" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2430" t="inlineStr"/>
       <c r="H2430" t="inlineStr"/>
@@ -49715,10 +49551,8 @@
       <c r="C2431" t="inlineStr"/>
       <c r="D2431" t="inlineStr"/>
       <c r="E2431" t="inlineStr"/>
-      <c r="F2431" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2431" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2431" t="inlineStr"/>
       <c r="H2431" t="inlineStr"/>
@@ -49741,10 +49575,8 @@
       <c r="C2432" t="inlineStr"/>
       <c r="D2432" t="inlineStr"/>
       <c r="E2432" t="inlineStr"/>
-      <c r="F2432" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2432" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2432" t="inlineStr"/>
       <c r="H2432" t="inlineStr"/>
@@ -49771,10 +49603,8 @@
       </c>
       <c r="D2433" t="inlineStr"/>
       <c r="E2433" t="inlineStr"/>
-      <c r="F2433" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2433" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2433" t="inlineStr"/>
       <c r="H2433" t="inlineStr"/>
@@ -49801,10 +49631,8 @@
       </c>
       <c r="D2434" t="inlineStr"/>
       <c r="E2434" t="inlineStr"/>
-      <c r="F2434" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2434" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2434" t="inlineStr"/>
       <c r="H2434" t="inlineStr"/>
@@ -49831,10 +49659,8 @@
       </c>
       <c r="D2435" t="inlineStr"/>
       <c r="E2435" t="inlineStr"/>
-      <c r="F2435" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2435" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2435" t="inlineStr"/>
       <c r="H2435" t="inlineStr"/>
@@ -49861,10 +49687,8 @@
       </c>
       <c r="D2436" t="inlineStr"/>
       <c r="E2436" t="inlineStr"/>
-      <c r="F2436" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2436" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2436" t="inlineStr"/>
       <c r="H2436" t="inlineStr"/>
@@ -49891,10 +49715,8 @@
       </c>
       <c r="D2437" t="inlineStr"/>
       <c r="E2437" t="inlineStr"/>
-      <c r="F2437" t="inlineStr">
-        <is>
-          <t>-30000</t>
-        </is>
+      <c r="F2437" t="n">
+        <v>-30000</v>
       </c>
       <c r="G2437" t="inlineStr"/>
       <c r="H2437" t="inlineStr"/>
@@ -49921,10 +49743,8 @@
           <t>(N:8,P:179,T:4,R:1,PL:6,J:51000)</t>
         </is>
       </c>
-      <c r="F2438" t="inlineStr">
-        <is>
-          <t>-81000</t>
-        </is>
+      <c r="F2438" t="n">
+        <v>-81000</v>
       </c>
       <c r="G2438" t="inlineStr"/>
       <c r="H2438" t="inlineStr"/>
@@ -49947,10 +49767,8 @@
       <c r="C2439" t="inlineStr"/>
       <c r="D2439" t="inlineStr"/>
       <c r="E2439" t="inlineStr"/>
-      <c r="F2439" t="inlineStr">
-        <is>
-          <t>-81000</t>
-        </is>
+      <c r="F2439" t="n">
+        <v>-81000</v>
       </c>
       <c r="G2439" t="inlineStr"/>
       <c r="H2439" t="inlineStr"/>
@@ -49973,10 +49791,8 @@
       <c r="C2440" t="inlineStr"/>
       <c r="D2440" t="inlineStr"/>
       <c r="E2440" t="inlineStr"/>
-      <c r="F2440" t="inlineStr">
-        <is>
-          <t>-81000</t>
-        </is>
+      <c r="F2440" t="n">
+        <v>-81000</v>
       </c>
       <c r="G2440" t="inlineStr"/>
       <c r="H2440" t="inlineStr"/>
@@ -49999,10 +49815,8 @@
       <c r="C2441" t="inlineStr"/>
       <c r="D2441" t="inlineStr"/>
       <c r="E2441" t="inlineStr"/>
-      <c r="F2441" t="inlineStr">
-        <is>
-          <t>-81000</t>
-        </is>
+      <c r="F2441" t="n">
+        <v>-81000</v>
       </c>
       <c r="G2441" t="inlineStr"/>
       <c r="H2441" t="inlineStr"/>
@@ -50025,10 +49839,8 @@
       <c r="C2442" t="inlineStr"/>
       <c r="D2442" t="inlineStr"/>
       <c r="E2442" t="inlineStr"/>
-      <c r="F2442" t="inlineStr">
-        <is>
-          <t>-81000</t>
-        </is>
+      <c r="F2442" t="n">
+        <v>-81000</v>
       </c>
       <c r="G2442" t="inlineStr"/>
       <c r="H2442" t="inlineStr"/>
@@ -50055,10 +49867,8 @@
       </c>
       <c r="D2443" t="inlineStr"/>
       <c r="E2443" t="inlineStr"/>
-      <c r="F2443" t="inlineStr">
-        <is>
-          <t>-81000</t>
-        </is>
+      <c r="F2443" t="n">
+        <v>-81000</v>
       </c>
       <c r="G2443" t="inlineStr"/>
       <c r="H2443" t="inlineStr"/>
@@ -50085,10 +49895,8 @@
       </c>
       <c r="D2444" t="inlineStr"/>
       <c r="E2444" t="inlineStr"/>
-      <c r="F2444" t="inlineStr">
-        <is>
-          <t>-81000</t>
-        </is>
+      <c r="F2444" t="n">
+        <v>-81000</v>
       </c>
       <c r="G2444" t="inlineStr"/>
       <c r="H2444" t="inlineStr"/>
@@ -50115,10 +49923,8 @@
       </c>
       <c r="D2445" t="inlineStr"/>
       <c r="E2445" t="inlineStr"/>
-      <c r="F2445" t="inlineStr">
-        <is>
-          <t>-81000</t>
-        </is>
+      <c r="F2445" t="n">
+        <v>-81000</v>
       </c>
       <c r="G2445" t="inlineStr"/>
       <c r="H2445" t="inlineStr"/>
@@ -50145,10 +49951,8 @@
       </c>
       <c r="D2446" t="inlineStr"/>
       <c r="E2446" t="inlineStr"/>
-      <c r="F2446" t="inlineStr">
-        <is>
-          <t>-81000</t>
-        </is>
+      <c r="F2446" t="n">
+        <v>-81000</v>
       </c>
       <c r="G2446" t="inlineStr"/>
       <c r="H2446" t="inlineStr"/>
@@ -50175,10 +49979,8 @@
           <t>(N:13,P:174,T:4,R:0,PL:4,J:30000)</t>
         </is>
       </c>
-      <c r="F2447" t="inlineStr">
-        <is>
-          <t>-111000</t>
-        </is>
+      <c r="F2447" t="n">
+        <v>-111000</v>
       </c>
       <c r="G2447" t="inlineStr"/>
       <c r="H2447" t="inlineStr"/>
@@ -50201,10 +50003,8 @@
       <c r="C2448" t="inlineStr"/>
       <c r="D2448" t="inlineStr"/>
       <c r="E2448" t="inlineStr"/>
-      <c r="F2448" t="inlineStr">
-        <is>
-          <t>-111000</t>
-        </is>
+      <c r="F2448" t="n">
+        <v>-111000</v>
       </c>
       <c r="G2448" t="inlineStr"/>
       <c r="H2448" t="inlineStr"/>
@@ -50227,10 +50027,8 @@
       <c r="C2449" t="inlineStr"/>
       <c r="D2449" t="inlineStr"/>
       <c r="E2449" t="inlineStr"/>
-      <c r="F2449" t="inlineStr">
-        <is>
-          <t>-111000</t>
-        </is>
+      <c r="F2449" t="n">
+        <v>-111000</v>
       </c>
       <c r="G2449" t="inlineStr"/>
       <c r="H2449" t="inlineStr"/>
@@ -50253,10 +50051,8 @@
       <c r="C2450" t="inlineStr"/>
       <c r="D2450" t="inlineStr"/>
       <c r="E2450" t="inlineStr"/>
-      <c r="F2450" t="inlineStr">
-        <is>
-          <t>-111000</t>
-        </is>
+      <c r="F2450" t="n">
+        <v>-111000</v>
       </c>
       <c r="G2450" t="inlineStr"/>
       <c r="H2450" t="inlineStr"/>
@@ -50279,10 +50075,8 @@
       <c r="C2451" t="inlineStr"/>
       <c r="D2451" t="inlineStr"/>
       <c r="E2451" t="inlineStr"/>
-      <c r="F2451" t="inlineStr">
-        <is>
-          <t>-111000</t>
-        </is>
+      <c r="F2451" t="n">
+        <v>-111000</v>
       </c>
       <c r="G2451" t="inlineStr"/>
       <c r="H2451" t="inlineStr"/>
@@ -50305,10 +50099,8 @@
       <c r="C2452" t="inlineStr"/>
       <c r="D2452" t="inlineStr"/>
       <c r="E2452" t="inlineStr"/>
-      <c r="F2452" t="inlineStr">
-        <is>
-          <t>-111000</t>
-        </is>
+      <c r="F2452" t="n">
+        <v>-111000</v>
       </c>
       <c r="G2452" t="inlineStr"/>
       <c r="H2452" t="inlineStr"/>
@@ -50331,10 +50123,8 @@
       <c r="C2453" t="inlineStr"/>
       <c r="D2453" t="inlineStr"/>
       <c r="E2453" t="inlineStr"/>
-      <c r="F2453" t="inlineStr">
-        <is>
-          <t>-111000</t>
-        </is>
+      <c r="F2453" t="n">
+        <v>-111000</v>
       </c>
       <c r="G2453" t="inlineStr"/>
       <c r="H2453" t="inlineStr"/>
@@ -50357,10 +50147,8 @@
       <c r="C2454" t="inlineStr"/>
       <c r="D2454" t="inlineStr"/>
       <c r="E2454" t="inlineStr"/>
-      <c r="F2454" t="inlineStr">
-        <is>
-          <t>-111000</t>
-        </is>
+      <c r="F2454" t="n">
+        <v>-111000</v>
       </c>
       <c r="G2454" t="inlineStr"/>
       <c r="H2454" t="inlineStr"/>
@@ -50383,10 +50171,8 @@
       <c r="C2455" t="inlineStr"/>
       <c r="D2455" t="inlineStr"/>
       <c r="E2455" t="inlineStr"/>
-      <c r="F2455" t="inlineStr">
-        <is>
-          <t>-111000</t>
-        </is>
+      <c r="F2455" t="n">
+        <v>-111000</v>
       </c>
       <c r="G2455" t="inlineStr"/>
       <c r="H2455" t="inlineStr"/>
@@ -50399,6 +50185,4646 @@
         </is>
       </c>
     </row>
+    <row r="2456">
+      <c r="A2456" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2456" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2456" t="inlineStr"/>
+      <c r="D2456" t="inlineStr"/>
+      <c r="E2456" t="inlineStr"/>
+      <c r="F2456" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2456" t="inlineStr"/>
+      <c r="H2456" t="inlineStr"/>
+      <c r="I2456" t="inlineStr"/>
+      <c r="J2456" t="inlineStr"/>
+      <c r="K2456" t="inlineStr"/>
+      <c r="L2456" t="inlineStr"/>
+    </row>
+    <row r="2457">
+      <c r="A2457" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2457" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2457" t="inlineStr"/>
+      <c r="D2457" t="inlineStr"/>
+      <c r="E2457" t="inlineStr"/>
+      <c r="F2457" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2457" t="inlineStr"/>
+      <c r="H2457" t="inlineStr"/>
+      <c r="I2457" t="inlineStr"/>
+      <c r="J2457" t="inlineStr"/>
+      <c r="K2457" t="inlineStr"/>
+      <c r="L2457" t="inlineStr"/>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2458" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2458" t="inlineStr"/>
+      <c r="D2458" t="inlineStr"/>
+      <c r="E2458" t="inlineStr"/>
+      <c r="F2458" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2458" t="inlineStr"/>
+      <c r="H2458" t="inlineStr"/>
+      <c r="I2458" t="inlineStr"/>
+      <c r="J2458" t="inlineStr"/>
+      <c r="K2458" t="inlineStr"/>
+      <c r="L2458" t="inlineStr"/>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2459" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2459" t="inlineStr"/>
+      <c r="D2459" t="inlineStr"/>
+      <c r="E2459" t="inlineStr"/>
+      <c r="F2459" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2459" t="inlineStr"/>
+      <c r="H2459" t="inlineStr"/>
+      <c r="I2459" t="inlineStr"/>
+      <c r="J2459" t="inlineStr"/>
+      <c r="K2459" t="inlineStr"/>
+      <c r="L2459" t="inlineStr"/>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2460" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2460" t="inlineStr"/>
+      <c r="D2460" t="inlineStr"/>
+      <c r="E2460" t="inlineStr"/>
+      <c r="F2460" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2460" t="inlineStr"/>
+      <c r="H2460" t="inlineStr"/>
+      <c r="I2460" t="inlineStr"/>
+      <c r="J2460" t="inlineStr"/>
+      <c r="K2460" t="inlineStr"/>
+      <c r="L2460" t="inlineStr"/>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2461" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2461" t="inlineStr"/>
+      <c r="D2461" t="inlineStr"/>
+      <c r="E2461" t="inlineStr"/>
+      <c r="F2461" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2461" t="inlineStr"/>
+      <c r="H2461" t="inlineStr"/>
+      <c r="I2461" t="inlineStr"/>
+      <c r="J2461" t="inlineStr"/>
+      <c r="K2461" t="inlineStr"/>
+      <c r="L2461" t="inlineStr">
+        <is>
+          <t>(N:8,P:46,T:1,R:0),(N:29,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2462" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2462" t="inlineStr"/>
+      <c r="D2462" t="inlineStr"/>
+      <c r="E2462" t="inlineStr"/>
+      <c r="F2462" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2462" t="inlineStr"/>
+      <c r="H2462" t="inlineStr"/>
+      <c r="I2462" t="inlineStr"/>
+      <c r="J2462" t="inlineStr"/>
+      <c r="K2462" t="inlineStr"/>
+      <c r="L2462" t="inlineStr">
+        <is>
+          <t>(N:8,P:58,T:1,R:1),(N:9,P:57,T:1,R:0),(N:29,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2463" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2463" t="inlineStr"/>
+      <c r="D2463" t="inlineStr"/>
+      <c r="E2463" t="inlineStr"/>
+      <c r="F2463" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2463" t="inlineStr"/>
+      <c r="H2463" t="inlineStr"/>
+      <c r="I2463" t="inlineStr"/>
+      <c r="J2463" t="inlineStr"/>
+      <c r="K2463" t="inlineStr"/>
+      <c r="L2463" t="inlineStr">
+        <is>
+          <t>(N:8,P:58,T:2,R:1),(N:9,P:57,T:2,R:0),(N:3,P:55,T:1,R:0),(N:29,P:12,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2464" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2464" t="inlineStr"/>
+      <c r="D2464" t="inlineStr"/>
+      <c r="E2464" t="inlineStr"/>
+      <c r="F2464" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2464" t="inlineStr"/>
+      <c r="H2464" t="inlineStr"/>
+      <c r="I2464" t="inlineStr"/>
+      <c r="J2464" t="inlineStr"/>
+      <c r="K2464" t="inlineStr"/>
+      <c r="L2464" t="inlineStr">
+        <is>
+          <t>(N:8,P:58,T:3,R:1),(N:9,P:57,T:3,R:0),(N:3,P:55,T:2,R:0),(N:25,P:28,T:1,R:0),(N:1,P:23,T:1,R:0),(N:29,P:12,T:4,R:0),(N:32,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2465" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2465" t="inlineStr"/>
+      <c r="D2465" t="inlineStr"/>
+      <c r="E2465" t="inlineStr"/>
+      <c r="F2465" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2465" t="inlineStr"/>
+      <c r="H2465" t="inlineStr"/>
+      <c r="I2465" t="inlineStr"/>
+      <c r="J2465" t="inlineStr"/>
+      <c r="K2465" t="inlineStr"/>
+      <c r="L2465" t="inlineStr">
+        <is>
+          <t>(N:8,P:58,T:4,R:1),(N:9,P:57,T:4,R:0),(N:3,P:55,T:3,R:0),(N:25,P:28,T:2,R:0),(N:32,P:27,T:1,R:1),(N:1,P:23,T:2,R:0),(N:6,P:18,T:1,R:0),(N:21,P:14,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2466" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2466" t="inlineStr"/>
+      <c r="D2466" t="inlineStr"/>
+      <c r="E2466" t="inlineStr"/>
+      <c r="F2466" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2466" t="inlineStr"/>
+      <c r="H2466" t="inlineStr"/>
+      <c r="I2466" t="inlineStr"/>
+      <c r="J2466" t="inlineStr"/>
+      <c r="K2466" t="inlineStr"/>
+      <c r="L2466" t="inlineStr">
+        <is>
+          <t>(N:3,P:55,T:4,R:0),(N:24,P:49,T:1,R:0),(N:25,P:28,T:3,R:0),(N:6,P:28,T:1,R:1),(N:32,P:27,T:2,R:1),(N:1,P:23,T:3,R:0),(N:21,P:14,T:2,R:0),(N:5,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2467" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2467" t="inlineStr"/>
+      <c r="D2467" t="inlineStr"/>
+      <c r="E2467" t="inlineStr"/>
+      <c r="F2467" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2467" t="inlineStr"/>
+      <c r="H2467" t="inlineStr"/>
+      <c r="I2467" t="inlineStr"/>
+      <c r="J2467" t="inlineStr"/>
+      <c r="K2467" t="inlineStr"/>
+      <c r="L2467" t="inlineStr">
+        <is>
+          <t>(N:25,P:56,T:3,R:1),(N:24,P:49,T:2,R:0),(N:13,P:49,T:1,R:0),(N:6,P:28,T:2,R:1),(N:32,P:27,T:3,R:1),(N:1,P:23,T:4,R:0),(N:21,P:14,T:3,R:0),(N:5,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2468" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2468" t="inlineStr"/>
+      <c r="D2468" t="inlineStr"/>
+      <c r="E2468" t="inlineStr"/>
+      <c r="F2468" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2468" t="inlineStr"/>
+      <c r="H2468" t="inlineStr"/>
+      <c r="I2468" t="inlineStr"/>
+      <c r="J2468" t="inlineStr"/>
+      <c r="K2468" t="inlineStr"/>
+      <c r="L2468" t="inlineStr">
+        <is>
+          <t>(N:24,P:60,T:2,R:1),(N:25,P:56,T:4,R:1),(N:13,P:49,T:2,R:0),(N:9,P:34,T:1,R:0),(N:6,P:28,T:3,R:1),(N:32,P:27,T:4,R:1),(N:23,P:21,T:1,R:0),(N:21,P:14,T:4,R:0),(N:5,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2469" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2469" t="inlineStr"/>
+      <c r="D2469" t="inlineStr"/>
+      <c r="E2469" t="inlineStr"/>
+      <c r="F2469" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2469" t="inlineStr"/>
+      <c r="H2469" t="inlineStr"/>
+      <c r="I2469" t="inlineStr"/>
+      <c r="J2469" t="inlineStr"/>
+      <c r="K2469" t="inlineStr"/>
+      <c r="L2469" t="inlineStr">
+        <is>
+          <t>(N:23,P:64,T:1,R:1),(N:24,P:60,T:3,R:1),(N:13,P:49,T:3,R:0),(N:9,P:34,T:2,R:0),(N:32,P:30,T:1,R:0),(N:6,P:28,T:4,R:1),(N:5,P:10,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2470" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2470" t="inlineStr"/>
+      <c r="D2470" t="inlineStr"/>
+      <c r="E2470" t="inlineStr"/>
+      <c r="F2470" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2470" t="inlineStr"/>
+      <c r="H2470" t="inlineStr"/>
+      <c r="I2470" t="inlineStr"/>
+      <c r="J2470" t="inlineStr"/>
+      <c r="K2470" t="inlineStr"/>
+      <c r="L2470" t="inlineStr">
+        <is>
+          <t>(N:25,P:79,T:1,R:0),(N:23,P:64,T:2,R:1),(N:24,P:60,T:4,R:1),(N:13,P:49,T:4,R:0),(N:9,P:34,T:3,R:0),(N:32,P:30,T:2,R:0),(N:10,P:15,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2471" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2471" t="inlineStr"/>
+      <c r="D2471" t="inlineStr"/>
+      <c r="E2471" t="inlineStr"/>
+      <c r="F2471" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2471" t="inlineStr"/>
+      <c r="H2471" t="inlineStr"/>
+      <c r="I2471" t="inlineStr"/>
+      <c r="J2471" t="inlineStr"/>
+      <c r="K2471" t="inlineStr"/>
+      <c r="L2471" t="inlineStr">
+        <is>
+          <t>(N:25,P:79,T:2,R:0),(N:23,P:64,T:3,R:1),(N:8,P:55,T:1,R:0),(N:9,P:34,T:4,R:0),(N:32,P:30,T:3,R:0),(N:3,P:21,T:1,R:0),(N:10,P:15,T:2,R:0),(N:34,P:15,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2472" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2472" t="inlineStr"/>
+      <c r="D2472" t="inlineStr"/>
+      <c r="E2472" t="inlineStr"/>
+      <c r="F2472" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2472" t="inlineStr"/>
+      <c r="H2472" t="inlineStr"/>
+      <c r="I2472" t="inlineStr"/>
+      <c r="J2472" t="inlineStr"/>
+      <c r="K2472" t="inlineStr"/>
+      <c r="L2472" t="inlineStr">
+        <is>
+          <t>(N:21,P:93,T:1,R:0),(N:25,P:79,T:3,R:0),(N:23,P:64,T:4,R:1),(N:8,P:55,T:2,R:0),(N:32,P:30,T:4,R:0),(N:3,P:21,T:2,R:0),(N:10,P:15,T:3,R:0),(N:34,P:15,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2473" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2473" t="inlineStr"/>
+      <c r="D2473" t="inlineStr"/>
+      <c r="E2473" t="inlineStr"/>
+      <c r="F2473" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2473" t="inlineStr"/>
+      <c r="H2473" t="inlineStr"/>
+      <c r="I2473" t="inlineStr"/>
+      <c r="J2473" t="inlineStr"/>
+      <c r="K2473" t="inlineStr"/>
+      <c r="L2473" t="inlineStr">
+        <is>
+          <t>(N:21,P:93,T:2,R:0),(N:25,P:79,T:4,R:0),(N:8,P:55,T:3,R:0),(N:18,P:28,T:1,R:0),(N:3,P:21,T:3,R:0),(N:9,P:18,T:1,R:0),(N:10,P:15,T:4,R:0),(N:34,P:15,T:3,R:0),(N:12,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2474" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>(N:21,P:105,T:1,R:0,PL:1,J:1400)</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr"/>
+      <c r="E2474" t="inlineStr"/>
+      <c r="F2474" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2474" t="inlineStr"/>
+      <c r="H2474" t="inlineStr"/>
+      <c r="I2474" t="inlineStr"/>
+      <c r="J2474" t="inlineStr"/>
+      <c r="K2474" t="inlineStr"/>
+      <c r="L2474" t="inlineStr">
+        <is>
+          <t>(N:8,P:78,T:3,R:1),(N:3,P:36,T:3,R:1),(N:18,P:28,T:2,R:0),(N:9,P:18,T:2,R:0),(N:34,P:15,T:4,R:0),(N:12,P:12,T:2,R:0),(N:28,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2475" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>(N:21,P:105,T:2,R:0,PL:2,J:4200)</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr"/>
+      <c r="E2475" t="inlineStr"/>
+      <c r="F2475" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2475" t="inlineStr"/>
+      <c r="H2475" t="inlineStr"/>
+      <c r="I2475" t="inlineStr"/>
+      <c r="J2475" t="inlineStr"/>
+      <c r="K2475" t="inlineStr"/>
+      <c r="L2475" t="inlineStr">
+        <is>
+          <t>(N:33,P:85,T:1,R:0),(N:8,P:78,T:4,R:1),(N:3,P:36,T:4,R:1),(N:18,P:28,T:3,R:0),(N:9,P:18,T:3,R:0),(N:12,P:12,T:3,R:0),(N:28,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2476" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>(N:21,P:105,T:3,R:0,PL:3,J:8400)</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr"/>
+      <c r="E2476" t="inlineStr"/>
+      <c r="F2476" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2476" t="inlineStr"/>
+      <c r="H2476" t="inlineStr"/>
+      <c r="I2476" t="inlineStr"/>
+      <c r="J2476" t="inlineStr"/>
+      <c r="K2476" t="inlineStr"/>
+      <c r="L2476" t="inlineStr">
+        <is>
+          <t>(N:33,P:85,T:2,R:0),(N:18,P:28,T:4,R:0),(N:31,P:28,T:1,R:0),(N:9,P:18,T:4,R:0),(N:12,P:12,T:4,R:0),(N:28,P:11,T:3,R:0),(N:3,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2477" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>(N:21,P:105,T:4,R:0,PL:4,J:14000)</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr"/>
+      <c r="E2477" t="inlineStr"/>
+      <c r="F2477" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2477" t="inlineStr"/>
+      <c r="H2477" t="inlineStr"/>
+      <c r="I2477" t="inlineStr"/>
+      <c r="J2477" t="inlineStr"/>
+      <c r="K2477" t="inlineStr"/>
+      <c r="L2477" t="inlineStr">
+        <is>
+          <t>(N:33,P:85,T:3,R:0),(N:31,P:28,T:2,R:0),(N:1,P:28,T:1,R:0),(N:0,P:15,T:1,R:0),(N:28,P:11,T:4,R:0),(N:3,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2478" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>(N:21,P:105,T:5,R:0,PL:5,J:21000)</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr"/>
+      <c r="E2478" t="inlineStr"/>
+      <c r="F2478" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2478" t="inlineStr"/>
+      <c r="H2478" t="inlineStr"/>
+      <c r="I2478" t="inlineStr"/>
+      <c r="J2478" t="inlineStr"/>
+      <c r="K2478" t="inlineStr"/>
+      <c r="L2478" t="inlineStr">
+        <is>
+          <t>(N:33,P:96,T:3,R:1),(N:31,P:28,T:3,R:0),(N:1,P:28,T:2,R:0),(N:0,P:15,T:2,R:0),(N:3,P:11,T:3,R:0),(N:25,P:11,T:1,R:0),(N:23,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2479" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>(N:21,P:105,T:6,R:0,PL:6,J:29400)</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr"/>
+      <c r="E2479" t="inlineStr"/>
+      <c r="F2479" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2479" t="inlineStr"/>
+      <c r="H2479" t="inlineStr"/>
+      <c r="I2479" t="inlineStr"/>
+      <c r="J2479" t="inlineStr"/>
+      <c r="K2479" t="inlineStr"/>
+      <c r="L2479" t="inlineStr">
+        <is>
+          <t>(N:33,P:96,T:4,R:1),(N:15,P:55,T:1,R:0),(N:20,P:31,T:1,R:0),(N:31,P:28,T:4,R:0),(N:1,P:28,T:3,R:0),(N:0,P:15,T:3,R:0),(N:3,P:11,T:4,R:0),(N:25,P:11,T:2,R:0),(N:23,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2480" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>(N:21,P:105,T:7,R:0,PL:7,J:39200)</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr"/>
+      <c r="E2480" t="inlineStr"/>
+      <c r="F2480" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2480" t="inlineStr"/>
+      <c r="H2480" t="inlineStr"/>
+      <c r="I2480" t="inlineStr"/>
+      <c r="J2480" t="inlineStr"/>
+      <c r="K2480" t="inlineStr"/>
+      <c r="L2480" t="inlineStr">
+        <is>
+          <t>(N:15,P:85,T:1,R:1),(N:10,P:33,T:1,R:0),(N:20,P:31,T:2,R:0),(N:1,P:28,T:4,R:0),(N:0,P:15,T:4,R:0),(N:25,P:11,T:3,R:0),(N:23,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2481" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>(N:21,P:105,T:8,R:0,PL:8,J:50400)</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr"/>
+      <c r="E2481" t="inlineStr"/>
+      <c r="F2481" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2481" t="inlineStr"/>
+      <c r="H2481" t="inlineStr"/>
+      <c r="I2481" t="inlineStr"/>
+      <c r="J2481" t="inlineStr"/>
+      <c r="K2481" t="inlineStr"/>
+      <c r="L2481" t="inlineStr">
+        <is>
+          <t>(N:15,P:85,T:2,R:1),(N:8,P:34,T:1,R:0),(N:10,P:33,T:2,R:0),(N:20,P:31,T:3,R:0),(N:22,P:28,T:1,R:0),(N:25,P:11,T:4,R:0),(N:23,P:10,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2482" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2482" t="inlineStr"/>
+      <c r="D2482" t="inlineStr"/>
+      <c r="E2482" t="inlineStr">
+        <is>
+          <t>(N:21,P:105,T:8,R:0,PL:8,J:50400)</t>
+        </is>
+      </c>
+      <c r="F2482" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2482" t="inlineStr"/>
+      <c r="H2482" t="inlineStr"/>
+      <c r="I2482" t="inlineStr"/>
+      <c r="J2482" t="inlineStr"/>
+      <c r="K2482" t="inlineStr"/>
+      <c r="L2482" t="inlineStr">
+        <is>
+          <t>(N:15,P:85,T:3,R:1),(N:20,P:67,T:3,R:1),(N:8,P:34,T:2,R:0),(N:10,P:33,T:3,R:0),(N:22,P:28,T:2,R:0),(N:30,P:15,T:1,R:0),(N:23,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2483" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2483" t="inlineStr"/>
+      <c r="D2483" t="inlineStr"/>
+      <c r="E2483" t="inlineStr"/>
+      <c r="F2483" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2483" t="inlineStr"/>
+      <c r="H2483" t="inlineStr"/>
+      <c r="I2483" t="inlineStr"/>
+      <c r="J2483" t="inlineStr"/>
+      <c r="K2483" t="inlineStr"/>
+      <c r="L2483" t="inlineStr">
+        <is>
+          <t>(N:36,P:87,T:1,R:0),(N:15,P:85,T:4,R:1),(N:20,P:67,T:4,R:1),(N:8,P:34,T:3,R:0),(N:10,P:33,T:4,R:0),(N:22,P:28,T:3,R:0),(N:30,P:15,T:2,R:0),(N:23,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2484" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2484" t="inlineStr"/>
+      <c r="D2484" t="inlineStr"/>
+      <c r="E2484" t="inlineStr"/>
+      <c r="F2484" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2484" t="inlineStr"/>
+      <c r="H2484" t="inlineStr"/>
+      <c r="I2484" t="inlineStr"/>
+      <c r="J2484" t="inlineStr"/>
+      <c r="K2484" t="inlineStr"/>
+      <c r="L2484" t="inlineStr">
+        <is>
+          <t>(N:36,P:87,T:2,R:0),(N:14,P:46,T:1,R:0),(N:8,P:34,T:4,R:0),(N:22,P:28,T:4,R:0),(N:16,P:20,T:1,R:0),(N:30,P:15,T:3,R:0),(N:23,P:12,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2485" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2485" t="inlineStr"/>
+      <c r="D2485" t="inlineStr"/>
+      <c r="E2485" t="inlineStr"/>
+      <c r="F2485" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2485" t="inlineStr"/>
+      <c r="H2485" t="inlineStr"/>
+      <c r="I2485" t="inlineStr"/>
+      <c r="J2485" t="inlineStr"/>
+      <c r="K2485" t="inlineStr"/>
+      <c r="L2485" t="inlineStr">
+        <is>
+          <t>(N:36,P:87,T:3,R:0),(N:14,P:46,T:2,R:0),(N:16,P:20,T:2,R:0),(N:4,P:18,T:1,R:0),(N:30,P:15,T:4,R:0),(N:18,P:15,T:1,R:0),(N:23,P:12,T:4,R:0),(N:22,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2486" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2486" t="inlineStr"/>
+      <c r="D2486" t="inlineStr"/>
+      <c r="E2486" t="inlineStr"/>
+      <c r="F2486" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2486" t="inlineStr"/>
+      <c r="H2486" t="inlineStr"/>
+      <c r="I2486" t="inlineStr"/>
+      <c r="J2486" t="inlineStr"/>
+      <c r="K2486" t="inlineStr"/>
+      <c r="L2486" t="inlineStr">
+        <is>
+          <t>(N:36,P:87,T:4,R:0),(N:14,P:46,T:3,R:0),(N:1,P:46,T:1,R:0),(N:7,P:43,T:1,R:0),(N:16,P:20,T:3,R:0),(N:4,P:18,T:2,R:0),(N:18,P:15,T:2,R:0),(N:22,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2487" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2487" t="inlineStr"/>
+      <c r="D2487" t="inlineStr"/>
+      <c r="E2487" t="inlineStr"/>
+      <c r="F2487" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2487" t="inlineStr"/>
+      <c r="H2487" t="inlineStr"/>
+      <c r="I2487" t="inlineStr"/>
+      <c r="J2487" t="inlineStr"/>
+      <c r="K2487" t="inlineStr"/>
+      <c r="L2487" t="inlineStr">
+        <is>
+          <t>(N:14,P:46,T:4,R:0),(N:1,P:46,T:2,R:0),(N:7,P:43,T:2,R:0),(N:36,P:21,T:1,R:0),(N:16,P:20,T:4,R:0),(N:4,P:18,T:3,R:0),(N:18,P:15,T:3,R:0),(N:24,P:15,T:1,R:0),(N:22,P:10,T:3,R:0),(N:11,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2488" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2488" t="inlineStr"/>
+      <c r="D2488" t="inlineStr"/>
+      <c r="E2488" t="inlineStr"/>
+      <c r="F2488" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2488" t="inlineStr"/>
+      <c r="H2488" t="inlineStr"/>
+      <c r="I2488" t="inlineStr"/>
+      <c r="J2488" t="inlineStr"/>
+      <c r="K2488" t="inlineStr"/>
+      <c r="L2488" t="inlineStr">
+        <is>
+          <t>(N:1,P:46,T:3,R:0),(N:7,P:43,T:3,R:0),(N:19,P:43,T:1,R:0),(N:36,P:21,T:2,R:0),(N:4,P:18,T:4,R:0),(N:18,P:15,T:4,R:0),(N:24,P:15,T:2,R:0),(N:26,P:14,T:1,R:0),(N:22,P:10,T:4,R:0),(N:11,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2489" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2489" t="inlineStr"/>
+      <c r="D2489" t="inlineStr"/>
+      <c r="E2489" t="inlineStr"/>
+      <c r="F2489" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2489" t="inlineStr"/>
+      <c r="H2489" t="inlineStr"/>
+      <c r="I2489" t="inlineStr"/>
+      <c r="J2489" t="inlineStr"/>
+      <c r="K2489" t="inlineStr"/>
+      <c r="L2489" t="inlineStr">
+        <is>
+          <t>(N:1,P:46,T:4,R:0),(N:7,P:43,T:4,R:0),(N:19,P:43,T:2,R:0),(N:23,P:33,T:1,R:0),(N:15,P:28,T:1,R:0),(N:25,P:23,T:1,R:0),(N:36,P:21,T:3,R:0),(N:24,P:15,T:3,R:0),(N:26,P:14,T:2,R:0),(N:11,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2490" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2490" t="inlineStr"/>
+      <c r="D2490" t="inlineStr"/>
+      <c r="E2490" t="inlineStr"/>
+      <c r="F2490" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2490" t="inlineStr"/>
+      <c r="H2490" t="inlineStr"/>
+      <c r="I2490" t="inlineStr"/>
+      <c r="J2490" t="inlineStr"/>
+      <c r="K2490" t="inlineStr"/>
+      <c r="L2490" t="inlineStr">
+        <is>
+          <t>(N:14,P:74,T:1,R:0),(N:19,P:43,T:3,R:0),(N:23,P:33,T:2,R:0),(N:15,P:28,T:2,R:0),(N:25,P:23,T:2,R:0),(N:36,P:21,T:4,R:0),(N:24,P:15,T:4,R:0),(N:26,P:14,T:3,R:0),(N:11,P:10,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2491" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2491" t="inlineStr"/>
+      <c r="D2491" t="inlineStr"/>
+      <c r="E2491" t="inlineStr"/>
+      <c r="F2491" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2491" t="inlineStr"/>
+      <c r="H2491" t="inlineStr"/>
+      <c r="I2491" t="inlineStr"/>
+      <c r="J2491" t="inlineStr"/>
+      <c r="K2491" t="inlineStr"/>
+      <c r="L2491" t="inlineStr">
+        <is>
+          <t>(N:24,P:80,T:1,R:1),(N:14,P:74,T:3,R:0),(N:9,P:55,T:1,R:1),(N:23,P:33,T:4,R:0),(N:15,P:28,T:4,R:0),(N:25,P:23,T:4,R:0),(N:10,P:18,T:2,R:0),(N:20,P:15,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="n">
+        <v>37</v>
+      </c>
+      <c r="B2492" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2492" t="inlineStr"/>
+      <c r="D2492" t="inlineStr"/>
+      <c r="E2492" t="inlineStr"/>
+      <c r="F2492" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2492" t="inlineStr"/>
+      <c r="H2492" t="inlineStr"/>
+      <c r="I2492" t="inlineStr"/>
+      <c r="J2492" t="inlineStr"/>
+      <c r="K2492" t="inlineStr"/>
+      <c r="L2492" t="inlineStr">
+        <is>
+          <t>(N:24,P:80,T:2,R:1),(N:14,P:74,T:4,R:0),(N:9,P:55,T:2,R:1),(N:21,P:23,T:1,R:0),(N:10,P:18,T:3,R:0),(N:20,P:15,T:2,R:0),(N:33,P:14,T:1,R:0),(N:32,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="n">
+        <v>38</v>
+      </c>
+      <c r="B2493" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2493" t="inlineStr"/>
+      <c r="D2493" t="inlineStr"/>
+      <c r="E2493" t="inlineStr"/>
+      <c r="F2493" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2493" t="inlineStr"/>
+      <c r="H2493" t="inlineStr"/>
+      <c r="I2493" t="inlineStr"/>
+      <c r="J2493" t="inlineStr"/>
+      <c r="K2493" t="inlineStr"/>
+      <c r="L2493" t="inlineStr">
+        <is>
+          <t>(N:24,P:80,T:3,R:1),(N:9,P:55,T:3,R:1),(N:36,P:25,T:1,R:0),(N:21,P:23,T:2,R:0),(N:16,P:20,T:1,R:0),(N:10,P:18,T:4,R:0),(N:20,P:15,T:3,R:0),(N:33,P:14,T:2,R:0),(N:29,P:14,T:1,R:0),(N:32,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="n">
+        <v>39</v>
+      </c>
+      <c r="B2494" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2494" t="inlineStr"/>
+      <c r="D2494" t="inlineStr"/>
+      <c r="E2494" t="inlineStr"/>
+      <c r="F2494" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2494" t="inlineStr"/>
+      <c r="H2494" t="inlineStr"/>
+      <c r="I2494" t="inlineStr"/>
+      <c r="J2494" t="inlineStr"/>
+      <c r="K2494" t="inlineStr"/>
+      <c r="L2494" t="inlineStr">
+        <is>
+          <t>(N:24,P:80,T:4,R:1),(N:32,P:61,T:2,R:1),(N:9,P:55,T:4,R:1),(N:36,P:25,T:2,R:0),(N:21,P:23,T:3,R:0),(N:35,P:21,T:1,R:0),(N:16,P:20,T:2,R:0),(N:20,P:15,T:4,R:0),(N:33,P:14,T:3,R:0),(N:29,P:14,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="n">
+        <v>40</v>
+      </c>
+      <c r="B2495" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2495" t="inlineStr"/>
+      <c r="D2495" t="inlineStr"/>
+      <c r="E2495" t="inlineStr"/>
+      <c r="F2495" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2495" t="inlineStr"/>
+      <c r="H2495" t="inlineStr"/>
+      <c r="I2495" t="inlineStr"/>
+      <c r="J2495" t="inlineStr"/>
+      <c r="K2495" t="inlineStr"/>
+      <c r="L2495" t="inlineStr">
+        <is>
+          <t>(N:32,P:61,T:3,R:1),(N:33,P:45,T:3,R:1),(N:36,P:25,T:3,R:0),(N:21,P:23,T:4,R:0),(N:7,P:23,T:1,R:0),(N:35,P:21,T:2,R:0),(N:16,P:20,T:3,R:0),(N:29,P:14,T:3,R:0),(N:24,P:14,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="n">
+        <v>41</v>
+      </c>
+      <c r="B2496" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2496" t="inlineStr"/>
+      <c r="D2496" t="inlineStr"/>
+      <c r="E2496" t="inlineStr"/>
+      <c r="F2496" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2496" t="inlineStr"/>
+      <c r="H2496" t="inlineStr"/>
+      <c r="I2496" t="inlineStr"/>
+      <c r="J2496" t="inlineStr"/>
+      <c r="K2496" t="inlineStr"/>
+      <c r="L2496" t="inlineStr">
+        <is>
+          <t>(N:32,P:61,T:4,R:1),(N:16,P:60,T:3,R:1),(N:33,P:45,T:4,R:1),(N:21,P:31,T:1,R:0),(N:36,P:25,T:4,R:0),(N:7,P:23,T:2,R:0),(N:25,P:23,T:1,R:0),(N:35,P:21,T:3,R:0),(N:29,P:14,T:4,R:0),(N:24,P:14,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2497" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2497" t="inlineStr"/>
+      <c r="D2497" t="inlineStr"/>
+      <c r="E2497" t="inlineStr"/>
+      <c r="F2497" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2497" t="inlineStr"/>
+      <c r="H2497" t="inlineStr"/>
+      <c r="I2497" t="inlineStr"/>
+      <c r="J2497" t="inlineStr"/>
+      <c r="K2497" t="inlineStr"/>
+      <c r="L2497" t="inlineStr">
+        <is>
+          <t>(N:16,P:85,T:3,R:2),(N:21,P:31,T:2,R:0),(N:29,P:27,T:1,R:0),(N:7,P:23,T:3,R:0),(N:25,P:23,T:2,R:0),(N:35,P:21,T:4,R:0),(N:24,P:14,T:3,R:0),(N:0,P:14,T:1,R:0),(N:11,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2498" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2498" t="inlineStr"/>
+      <c r="D2498" t="inlineStr"/>
+      <c r="E2498" t="inlineStr"/>
+      <c r="F2498" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2498" t="inlineStr"/>
+      <c r="H2498" t="inlineStr"/>
+      <c r="I2498" t="inlineStr"/>
+      <c r="J2498" t="inlineStr"/>
+      <c r="K2498" t="inlineStr"/>
+      <c r="L2498" t="inlineStr">
+        <is>
+          <t>(N:16,P:85,T:4,R:2),(N:1,P:68,T:1,R:0),(N:21,P:31,T:3,R:0),(N:29,P:27,T:2,R:0),(N:7,P:23,T:4,R:0),(N:25,P:23,T:3,R:0),(N:24,P:14,T:4,R:0),(N:0,P:14,T:2,R:0),(N:11,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="n">
+        <v>44</v>
+      </c>
+      <c r="B2499" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2499" t="inlineStr"/>
+      <c r="D2499" t="inlineStr"/>
+      <c r="E2499" t="inlineStr"/>
+      <c r="F2499" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2499" t="inlineStr"/>
+      <c r="H2499" t="inlineStr"/>
+      <c r="I2499" t="inlineStr"/>
+      <c r="J2499" t="inlineStr"/>
+      <c r="K2499" t="inlineStr"/>
+      <c r="L2499" t="inlineStr">
+        <is>
+          <t>(N:1,P:68,T:2,R:0),(N:18,P:34,T:1,R:0),(N:21,P:31,T:4,R:0),(N:29,P:27,T:3,R:0),(N:25,P:23,T:4,R:0),(N:0,P:14,T:3,R:0),(N:11,P:12,T:3,R:0),(N:16,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="n">
+        <v>45</v>
+      </c>
+      <c r="B2500" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2500" t="inlineStr"/>
+      <c r="D2500" t="inlineStr"/>
+      <c r="E2500" t="inlineStr"/>
+      <c r="F2500" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2500" t="inlineStr"/>
+      <c r="H2500" t="inlineStr"/>
+      <c r="I2500" t="inlineStr"/>
+      <c r="J2500" t="inlineStr"/>
+      <c r="K2500" t="inlineStr"/>
+      <c r="L2500" t="inlineStr">
+        <is>
+          <t>(N:1,P:68,T:3,R:0),(N:18,P:34,T:2,R:0),(N:24,P:31,T:1,R:0),(N:29,P:27,T:4,R:0),(N:27,P:18,T:1,R:0),(N:10,P:17,T:1,R:0),(N:0,P:14,T:4,R:0),(N:11,P:12,T:4,R:0),(N:16,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="n">
+        <v>46</v>
+      </c>
+      <c r="B2501" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2501" t="inlineStr"/>
+      <c r="D2501" t="inlineStr"/>
+      <c r="E2501" t="inlineStr"/>
+      <c r="F2501" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2501" t="inlineStr"/>
+      <c r="H2501" t="inlineStr"/>
+      <c r="I2501" t="inlineStr"/>
+      <c r="J2501" t="inlineStr"/>
+      <c r="K2501" t="inlineStr"/>
+      <c r="L2501" t="inlineStr">
+        <is>
+          <t>(N:1,P:68,T:4,R:0),(N:18,P:44,T:2,R:1),(N:24,P:31,T:2,R:0),(N:27,P:18,T:2,R:0),(N:34,P:18,T:1,R:0),(N:10,P:17,T:2,R:0),(N:36,P:17,T:1,R:0),(N:13,P:17,T:1,R:0),(N:21,P:11,T:1,R:0),(N:16,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="n">
+        <v>47</v>
+      </c>
+      <c r="B2502" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>(N:21,P:104,T:1,R:0,PL:1,J:1400)</t>
+        </is>
+      </c>
+      <c r="D2502" t="inlineStr"/>
+      <c r="E2502" t="inlineStr"/>
+      <c r="F2502" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2502" t="inlineStr"/>
+      <c r="H2502" t="inlineStr"/>
+      <c r="I2502" t="inlineStr"/>
+      <c r="J2502" t="inlineStr"/>
+      <c r="K2502" t="inlineStr"/>
+      <c r="L2502" t="inlineStr">
+        <is>
+          <t>(N:18,P:44,T:3,R:1),(N:24,P:31,T:3,R:0),(N:27,P:18,T:3,R:0),(N:34,P:18,T:2,R:0),(N:10,P:17,T:3,R:0),(N:36,P:17,T:2,R:0),(N:13,P:17,T:2,R:0),(N:16,P:10,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="n">
+        <v>48</v>
+      </c>
+      <c r="B2503" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>(N:21,P:104,T:2,R:0,PL:2,J:4200)</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr"/>
+      <c r="E2503" t="inlineStr"/>
+      <c r="F2503" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2503" t="inlineStr"/>
+      <c r="H2503" t="inlineStr"/>
+      <c r="I2503" t="inlineStr"/>
+      <c r="J2503" t="inlineStr"/>
+      <c r="K2503" t="inlineStr"/>
+      <c r="L2503" t="inlineStr">
+        <is>
+          <t>(N:19,P:81,T:1,R:0),(N:18,P:44,T:4,R:1),(N:24,P:31,T:4,R:0),(N:27,P:18,T:4,R:0),(N:34,P:18,T:3,R:0),(N:10,P:17,T:4,R:0),(N:36,P:17,T:3,R:0),(N:13,P:17,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="n">
+        <v>49</v>
+      </c>
+      <c r="B2504" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>(N:21,P:104,T:3,R:0,PL:3,J:8400)</t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr"/>
+      <c r="E2504" t="inlineStr"/>
+      <c r="F2504" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2504" t="inlineStr"/>
+      <c r="H2504" t="inlineStr"/>
+      <c r="I2504" t="inlineStr"/>
+      <c r="J2504" t="inlineStr"/>
+      <c r="K2504" t="inlineStr"/>
+      <c r="L2504" t="inlineStr">
+        <is>
+          <t>(N:19,P:81,T:2,R:0),(N:34,P:18,T:4,R:0),(N:36,P:17,T:4,R:0),(N:13,P:17,T:4,R:0),(N:18,P:17,T:1,R:0),(N:1,P:15,T:1,R:0),(N:25,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2505" t="n">
+        <v>36</v>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>(N:21,P:124,T:3,R:1,PL:5,J:14000)</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr"/>
+      <c r="E2505" t="inlineStr"/>
+      <c r="F2505" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2505" t="inlineStr"/>
+      <c r="H2505" t="inlineStr"/>
+      <c r="I2505" t="inlineStr"/>
+      <c r="J2505" t="inlineStr"/>
+      <c r="K2505" t="inlineStr"/>
+      <c r="L2505" t="inlineStr">
+        <is>
+          <t>(N:19,P:81,T:3,R:0),(N:2,P:18,T:1,R:0),(N:18,P:17,T:2,R:0),(N:1,P:15,T:2,R:0),(N:28,P:14,T:1,R:0),(N:25,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="n">
+        <v>51</v>
+      </c>
+      <c r="B2506" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>(N:21,P:124,T:4,R:1,PL:6,J:22400)</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr"/>
+      <c r="E2506" t="inlineStr"/>
+      <c r="F2506" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2506" t="inlineStr"/>
+      <c r="H2506" t="inlineStr"/>
+      <c r="I2506" t="inlineStr"/>
+      <c r="J2506" t="inlineStr"/>
+      <c r="K2506" t="inlineStr"/>
+      <c r="L2506" t="inlineStr">
+        <is>
+          <t>(N:19,P:81,T:4,R:0),(N:24,P:46,T:1,R:0),(N:2,P:18,T:2,R:0),(N:18,P:17,T:3,R:0),(N:1,P:15,T:3,R:0),(N:28,P:14,T:2,R:0),(N:25,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="n">
+        <v>52</v>
+      </c>
+      <c r="B2507" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>(N:21,P:124,T:5,R:1,PL:7,J:32200),(N:24,P:133,T:1,R:0,PL:1,J:1400)</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr"/>
+      <c r="E2507" t="inlineStr"/>
+      <c r="F2507" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2507" t="inlineStr"/>
+      <c r="H2507" t="inlineStr"/>
+      <c r="I2507" t="inlineStr"/>
+      <c r="J2507" t="inlineStr"/>
+      <c r="K2507" t="inlineStr"/>
+      <c r="L2507" t="inlineStr">
+        <is>
+          <t>(N:2,P:18,T:3,R:0),(N:18,P:17,T:4,R:0),(N:1,P:15,T:4,R:0),(N:28,P:14,T:3,R:0),(N:25,P:10,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="n">
+        <v>53</v>
+      </c>
+      <c r="B2508" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>(N:21,P:124,T:6,R:1,PL:8,J:43400),(N:24,P:133,T:2,R:0,PL:2,J:4200)</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr"/>
+      <c r="E2508" t="inlineStr"/>
+      <c r="F2508" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2508" t="inlineStr"/>
+      <c r="H2508" t="inlineStr"/>
+      <c r="I2508" t="inlineStr"/>
+      <c r="J2508" t="inlineStr"/>
+      <c r="K2508" t="inlineStr"/>
+      <c r="L2508" t="inlineStr">
+        <is>
+          <t>(N:17,P:36,T:1,R:0),(N:2,P:18,T:4,R:0),(N:14,P:18,T:1,R:0),(N:28,P:14,T:4,R:0),(N:4,P:14,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="n">
+        <v>54</v>
+      </c>
+      <c r="B2509" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>(N:21,P:144,T:6,R:2,PL:10,J:56000),(N:24,P:133,T:3,R:0,PL:3,J:8400)</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr"/>
+      <c r="E2509" t="inlineStr"/>
+      <c r="F2509" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2509" t="inlineStr"/>
+      <c r="H2509" t="inlineStr"/>
+      <c r="I2509" t="inlineStr"/>
+      <c r="J2509" t="inlineStr"/>
+      <c r="K2509" t="inlineStr"/>
+      <c r="L2509" t="inlineStr">
+        <is>
+          <t>(N:20,P:51,T:1,R:0),(N:17,P:36,T:2,R:0),(N:14,P:18,T:2,R:0),(N:4,P:14,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="n">
+        <v>55</v>
+      </c>
+      <c r="B2510" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>(N:21,P:144,T:7,R:2,PL:11,J:71400),(N:24,P:133,T:4,R:0,PL:4,J:14000)</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr"/>
+      <c r="E2510" t="inlineStr"/>
+      <c r="F2510" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2510" t="inlineStr"/>
+      <c r="H2510" t="inlineStr"/>
+      <c r="I2510" t="inlineStr"/>
+      <c r="J2510" t="inlineStr"/>
+      <c r="K2510" t="inlineStr"/>
+      <c r="L2510" t="inlineStr">
+        <is>
+          <t>(N:20,P:51,T:2,R:0),(N:12,P:37,T:1,R:0),(N:17,P:36,T:3,R:0),(N:3,P:20,T:1,R:0),(N:14,P:18,T:3,R:0),(N:4,P:14,T:3,R:0),(N:16,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="n">
+        <v>56</v>
+      </c>
+      <c r="B2511" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>(N:21,P:144,T:8,R:2,PL:12,J:88200),(N:24,P:133,T:5,R:0,PL:5,J:21000)</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr"/>
+      <c r="E2511" t="inlineStr"/>
+      <c r="F2511" t="n">
+        <v>-50400</v>
+      </c>
+      <c r="G2511" t="inlineStr"/>
+      <c r="H2511" t="inlineStr"/>
+      <c r="I2511" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="J2511" t="inlineStr"/>
+      <c r="K2511" t="inlineStr"/>
+      <c r="L2511" t="inlineStr">
+        <is>
+          <t>(N:20,P:51,T:3,R:0),(N:12,P:37,T:2,R:0),(N:17,P:36,T:4,R:0),(N:15,P:28,T:1,R:0),(N:23,P:23,T:1,R:0),(N:3,P:20,T:2,R:0),(N:14,P:18,T:4,R:0),(N:4,P:14,T:4,R:0),(N:16,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="n">
+        <v>57</v>
+      </c>
+      <c r="B2512" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>(N:24,P:133,T:6,R:0,PL:6,J:29400)</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>(N:21,P:144,T:8,R:2,PL:12,J:105000)</t>
+        </is>
+      </c>
+      <c r="E2512" t="inlineStr"/>
+      <c r="F2512" t="n">
+        <v>-69000</v>
+      </c>
+      <c r="G2512" t="inlineStr"/>
+      <c r="H2512" t="inlineStr"/>
+      <c r="I2512" t="inlineStr"/>
+      <c r="J2512" t="inlineStr"/>
+      <c r="K2512" t="inlineStr"/>
+      <c r="L2512" t="inlineStr">
+        <is>
+          <t>(N:27,P:76,T:1,R:0),(N:20,P:51,T:4,R:0),(N:12,P:37,T:3,R:0),(N:15,P:28,T:2,R:0),(N:23,P:23,T:2,R:0),(N:3,P:20,T:3,R:0),(N:16,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="n">
+        <v>58</v>
+      </c>
+      <c r="B2513" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>(N:24,P:133,T:7,R:0,PL:7,J:39200)</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr"/>
+      <c r="E2513" t="inlineStr"/>
+      <c r="F2513" t="n">
+        <v>-69000</v>
+      </c>
+      <c r="G2513" t="inlineStr"/>
+      <c r="H2513" t="inlineStr"/>
+      <c r="I2513" t="inlineStr"/>
+      <c r="J2513" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="K2513" t="inlineStr"/>
+      <c r="L2513" t="inlineStr">
+        <is>
+          <t>(N:27,P:76,T:2,R:0),(N:12,P:37,T:4,R:0),(N:33,P:33,T:1,R:0),(N:15,P:28,T:3,R:0),(N:23,P:23,T:3,R:0),(N:3,P:20,T:4,R:0),(N:16,P:10,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="n">
+        <v>59</v>
+      </c>
+      <c r="B2514" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>(N:27,P:138,T:1,R:0,PL:1,J:1400)</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>(N:24,P:133,T:7,R:0,PL:7,J:49000)</t>
+        </is>
+      </c>
+      <c r="E2514" t="inlineStr"/>
+      <c r="F2514" t="n">
+        <v>-67600</v>
+      </c>
+      <c r="G2514" t="inlineStr"/>
+      <c r="H2514" t="inlineStr"/>
+      <c r="I2514" t="inlineStr"/>
+      <c r="J2514" t="inlineStr"/>
+      <c r="K2514" t="inlineStr"/>
+      <c r="L2514" t="inlineStr">
+        <is>
+          <t>(N:33,P:33,T:2,R:0),(N:15,P:28,T:4,R:0),(N:23,P:23,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2515" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>(N:27,P:138,T:2,R:0,PL:2,J:4200)</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr"/>
+      <c r="E2515" t="inlineStr"/>
+      <c r="F2515" t="n">
+        <v>-67600</v>
+      </c>
+      <c r="G2515" t="inlineStr"/>
+      <c r="H2515" t="inlineStr"/>
+      <c r="I2515" t="inlineStr"/>
+      <c r="J2515" t="inlineStr"/>
+      <c r="K2515" t="inlineStr"/>
+      <c r="L2515" t="inlineStr">
+        <is>
+          <t>(N:33,P:47,T:2,R:1),(N:5,P:34,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2516" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2516" t="inlineStr"/>
+      <c r="D2516" t="inlineStr"/>
+      <c r="E2516" t="inlineStr"/>
+      <c r="F2516" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2516" t="inlineStr"/>
+      <c r="H2516" t="inlineStr"/>
+      <c r="I2516" t="inlineStr"/>
+      <c r="J2516" t="inlineStr"/>
+      <c r="K2516" t="inlineStr"/>
+      <c r="L2516" t="inlineStr"/>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2517" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2517" t="inlineStr"/>
+      <c r="D2517" t="inlineStr"/>
+      <c r="E2517" t="inlineStr"/>
+      <c r="F2517" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2517" t="inlineStr"/>
+      <c r="H2517" t="inlineStr"/>
+      <c r="I2517" t="inlineStr"/>
+      <c r="J2517" t="inlineStr"/>
+      <c r="K2517" t="inlineStr"/>
+      <c r="L2517" t="inlineStr"/>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2518" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2518" t="inlineStr"/>
+      <c r="D2518" t="inlineStr"/>
+      <c r="E2518" t="inlineStr"/>
+      <c r="F2518" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2518" t="inlineStr"/>
+      <c r="H2518" t="inlineStr"/>
+      <c r="I2518" t="inlineStr"/>
+      <c r="J2518" t="inlineStr"/>
+      <c r="K2518" t="inlineStr"/>
+      <c r="L2518" t="inlineStr"/>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2519" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2519" t="inlineStr"/>
+      <c r="D2519" t="inlineStr"/>
+      <c r="E2519" t="inlineStr"/>
+      <c r="F2519" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2519" t="inlineStr"/>
+      <c r="H2519" t="inlineStr"/>
+      <c r="I2519" t="inlineStr"/>
+      <c r="J2519" t="inlineStr"/>
+      <c r="K2519" t="inlineStr"/>
+      <c r="L2519" t="inlineStr"/>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2520" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2520" t="inlineStr"/>
+      <c r="D2520" t="inlineStr"/>
+      <c r="E2520" t="inlineStr"/>
+      <c r="F2520" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2520" t="inlineStr"/>
+      <c r="H2520" t="inlineStr"/>
+      <c r="I2520" t="inlineStr"/>
+      <c r="J2520" t="inlineStr"/>
+      <c r="K2520" t="inlineStr"/>
+      <c r="L2520" t="inlineStr"/>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2521" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2521" t="inlineStr"/>
+      <c r="D2521" t="inlineStr"/>
+      <c r="E2521" t="inlineStr"/>
+      <c r="F2521" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2521" t="inlineStr"/>
+      <c r="H2521" t="inlineStr"/>
+      <c r="I2521" t="inlineStr"/>
+      <c r="J2521" t="inlineStr"/>
+      <c r="K2521" t="inlineStr"/>
+      <c r="L2521" t="inlineStr">
+        <is>
+          <t>(N:7,P:70,T:1,R:0),(N:15,P:20,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2522" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2522" t="inlineStr"/>
+      <c r="D2522" t="inlineStr"/>
+      <c r="E2522" t="inlineStr"/>
+      <c r="F2522" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2522" t="inlineStr"/>
+      <c r="H2522" t="inlineStr"/>
+      <c r="I2522" t="inlineStr"/>
+      <c r="J2522" t="inlineStr"/>
+      <c r="K2522" t="inlineStr"/>
+      <c r="L2522" t="inlineStr">
+        <is>
+          <t>(N:7,P:70,T:2,R:0),(N:26,P:46,T:1,R:0),(N:15,P:20,T:2,R:0),(N:11,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2523" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2523" t="inlineStr"/>
+      <c r="D2523" t="inlineStr"/>
+      <c r="E2523" t="inlineStr"/>
+      <c r="F2523" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2523" t="inlineStr"/>
+      <c r="H2523" t="inlineStr"/>
+      <c r="I2523" t="inlineStr"/>
+      <c r="J2523" t="inlineStr"/>
+      <c r="K2523" t="inlineStr"/>
+      <c r="L2523" t="inlineStr">
+        <is>
+          <t>(N:7,P:70,T:3,R:0),(N:26,P:46,T:2,R:0),(N:34,P:37,T:1,R:0),(N:3,P:21,T:1,R:0),(N:15,P:20,T:3,R:0),(N:0,P:14,T:1,R:0),(N:11,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2524" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2524" t="inlineStr"/>
+      <c r="D2524" t="inlineStr"/>
+      <c r="E2524" t="inlineStr"/>
+      <c r="F2524" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2524" t="inlineStr"/>
+      <c r="H2524" t="inlineStr"/>
+      <c r="I2524" t="inlineStr"/>
+      <c r="J2524" t="inlineStr"/>
+      <c r="K2524" t="inlineStr"/>
+      <c r="L2524" t="inlineStr">
+        <is>
+          <t>(N:7,P:70,T:4,R:0),(N:31,P:67,T:1,R:0),(N:26,P:46,T:3,R:0),(N:34,P:37,T:2,R:0),(N:3,P:21,T:2,R:0),(N:15,P:20,T:4,R:0),(N:0,P:14,T:2,R:0),(N:11,P:10,T:3,R:0),(N:21,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2525" t="n">
+        <v>36</v>
+      </c>
+      <c r="C2525" t="inlineStr"/>
+      <c r="D2525" t="inlineStr"/>
+      <c r="E2525" t="inlineStr"/>
+      <c r="F2525" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2525" t="inlineStr"/>
+      <c r="H2525" t="inlineStr"/>
+      <c r="I2525" t="inlineStr"/>
+      <c r="J2525" t="inlineStr"/>
+      <c r="K2525" t="inlineStr"/>
+      <c r="L2525" t="inlineStr">
+        <is>
+          <t>(N:31,P:67,T:2,R:0),(N:26,P:56,T:3,R:1),(N:34,P:37,T:3,R:0),(N:7,P:28,T:1,R:0),(N:3,P:21,T:3,R:0),(N:23,P:18,T:1,R:0),(N:0,P:14,T:3,R:0),(N:12,P:11,T:1,R:0),(N:5,P:11,T:1,R:0),(N:11,P:10,T:4,R:0),(N:21,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2526" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2526" t="inlineStr"/>
+      <c r="D2526" t="inlineStr"/>
+      <c r="E2526" t="inlineStr"/>
+      <c r="F2526" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2526" t="inlineStr"/>
+      <c r="H2526" t="inlineStr"/>
+      <c r="I2526" t="inlineStr"/>
+      <c r="J2526" t="inlineStr"/>
+      <c r="K2526" t="inlineStr"/>
+      <c r="L2526" t="inlineStr">
+        <is>
+          <t>(N:31,P:67,T:3,R:0),(N:26,P:56,T:4,R:1),(N:15,P:51,T:1,R:0),(N:34,P:37,T:4,R:0),(N:7,P:28,T:2,R:0),(N:3,P:21,T:4,R:0),(N:23,P:18,T:2,R:0),(N:33,P:18,T:1,R:0),(N:0,P:14,T:4,R:0),(N:12,P:11,T:2,R:0),(N:5,P:11,T:2,R:0),(N:21,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2527" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2527" t="inlineStr"/>
+      <c r="D2527" t="inlineStr"/>
+      <c r="E2527" t="inlineStr"/>
+      <c r="F2527" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2527" t="inlineStr"/>
+      <c r="H2527" t="inlineStr"/>
+      <c r="I2527" t="inlineStr"/>
+      <c r="J2527" t="inlineStr"/>
+      <c r="K2527" t="inlineStr"/>
+      <c r="L2527" t="inlineStr">
+        <is>
+          <t>(N:31,P:67,T:4,R:0),(N:15,P:51,T:2,R:0),(N:12,P:47,T:2,R:1),(N:7,P:28,T:3,R:0),(N:23,P:18,T:3,R:0),(N:33,P:18,T:2,R:0),(N:29,P:18,T:1,R:0),(N:17,P:14,T:1,R:0),(N:2,P:12,T:1,R:0),(N:5,P:11,T:3,R:0),(N:21,P:10,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2528" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2528" t="inlineStr"/>
+      <c r="D2528" t="inlineStr"/>
+      <c r="E2528" t="inlineStr"/>
+      <c r="F2528" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2528" t="inlineStr"/>
+      <c r="H2528" t="inlineStr"/>
+      <c r="I2528" t="inlineStr"/>
+      <c r="J2528" t="inlineStr"/>
+      <c r="K2528" t="inlineStr"/>
+      <c r="L2528" t="inlineStr">
+        <is>
+          <t>(N:15,P:62,T:2,R:1),(N:12,P:47,T:3,R:1),(N:6,P:34,T:1,R:0),(N:7,P:28,T:4,R:0),(N:23,P:18,T:4,R:0),(N:33,P:18,T:3,R:0),(N:29,P:18,T:2,R:0),(N:17,P:14,T:2,R:0),(N:2,P:12,T:2,R:0),(N:5,P:11,T:4,R:0),(N:20,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2529" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2529" t="inlineStr"/>
+      <c r="D2529" t="inlineStr"/>
+      <c r="E2529" t="inlineStr"/>
+      <c r="F2529" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2529" t="inlineStr"/>
+      <c r="H2529" t="inlineStr"/>
+      <c r="I2529" t="inlineStr"/>
+      <c r="J2529" t="inlineStr"/>
+      <c r="K2529" t="inlineStr"/>
+      <c r="L2529" t="inlineStr">
+        <is>
+          <t>(N:12,P:72,T:3,R:2),(N:15,P:62,T:3,R:1),(N:6,P:34,T:2,R:0),(N:1,P:33,T:1,R:0),(N:33,P:18,T:4,R:0),(N:29,P:18,T:3,R:0),(N:17,P:14,T:3,R:0),(N:2,P:12,T:3,R:0),(N:20,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2530" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2530" t="inlineStr"/>
+      <c r="D2530" t="inlineStr"/>
+      <c r="E2530" t="inlineStr"/>
+      <c r="F2530" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2530" t="inlineStr"/>
+      <c r="H2530" t="inlineStr"/>
+      <c r="I2530" t="inlineStr"/>
+      <c r="J2530" t="inlineStr"/>
+      <c r="K2530" t="inlineStr"/>
+      <c r="L2530" t="inlineStr">
+        <is>
+          <t>(N:12,P:72,T:4,R:2),(N:15,P:62,T:4,R:1),(N:6,P:34,T:3,R:0),(N:1,P:33,T:2,R:0),(N:19,P:27,T:1,R:0),(N:16,P:20,T:1,R:0),(N:29,P:18,T:4,R:0),(N:27,P:17,T:1,R:0),(N:17,P:14,T:4,R:0),(N:2,P:12,T:4,R:0),(N:20,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2531" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2531" t="inlineStr"/>
+      <c r="D2531" t="inlineStr"/>
+      <c r="E2531" t="inlineStr"/>
+      <c r="F2531" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2531" t="inlineStr"/>
+      <c r="H2531" t="inlineStr"/>
+      <c r="I2531" t="inlineStr"/>
+      <c r="J2531" t="inlineStr"/>
+      <c r="K2531" t="inlineStr"/>
+      <c r="L2531" t="inlineStr">
+        <is>
+          <t>(N:21,P:56,T:1,R:0),(N:6,P:34,T:4,R:0),(N:1,P:33,T:3,R:0),(N:19,P:27,T:2,R:0),(N:16,P:20,T:2,R:0),(N:27,P:17,T:2,R:0),(N:5,P:15,T:1,R:0),(N:20,P:11,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2532" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2532" t="inlineStr"/>
+      <c r="D2532" t="inlineStr"/>
+      <c r="E2532" t="inlineStr"/>
+      <c r="F2532" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2532" t="inlineStr"/>
+      <c r="H2532" t="inlineStr"/>
+      <c r="I2532" t="inlineStr"/>
+      <c r="J2532" t="inlineStr"/>
+      <c r="K2532" t="inlineStr"/>
+      <c r="L2532" t="inlineStr">
+        <is>
+          <t>(N:21,P:56,T:2,R:0),(N:1,P:33,T:4,R:0),(N:7,P:30,T:1,R:0),(N:19,P:27,T:3,R:0),(N:16,P:20,T:3,R:0),(N:27,P:17,T:3,R:0),(N:5,P:15,T:2,R:0),(N:23,P:15,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2533" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2533" t="inlineStr"/>
+      <c r="D2533" t="inlineStr"/>
+      <c r="E2533" t="inlineStr"/>
+      <c r="F2533" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2533" t="inlineStr"/>
+      <c r="H2533" t="inlineStr"/>
+      <c r="I2533" t="inlineStr"/>
+      <c r="J2533" t="inlineStr"/>
+      <c r="K2533" t="inlineStr"/>
+      <c r="L2533" t="inlineStr">
+        <is>
+          <t>(N:21,P:56,T:3,R:0),(N:7,P:30,T:2,R:0),(N:19,P:27,T:4,R:0),(N:32,P:25,T:1,R:0),(N:16,P:20,T:4,R:0),(N:27,P:17,T:4,R:0),(N:5,P:15,T:3,R:0),(N:23,P:15,T:2,R:0),(N:6,P:14,T:1,R:0),(N:35,P:12,T:1,R:0),(N:34,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2534" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2534" t="inlineStr"/>
+      <c r="D2534" t="inlineStr"/>
+      <c r="E2534" t="inlineStr"/>
+      <c r="F2534" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2534" t="inlineStr"/>
+      <c r="H2534" t="inlineStr"/>
+      <c r="I2534" t="inlineStr"/>
+      <c r="J2534" t="inlineStr"/>
+      <c r="K2534" t="inlineStr"/>
+      <c r="L2534" t="inlineStr">
+        <is>
+          <t>(N:21,P:56,T:4,R:0),(N:16,P:49,T:1,R:0),(N:7,P:30,T:3,R:0),(N:32,P:25,T:2,R:0),(N:9,P:21,T:1,R:0),(N:5,P:15,T:4,R:0),(N:23,P:15,T:3,R:0),(N:6,P:14,T:2,R:0),(N:35,P:12,T:2,R:0),(N:34,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2535" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2535" t="inlineStr"/>
+      <c r="D2535" t="inlineStr"/>
+      <c r="E2535" t="inlineStr"/>
+      <c r="F2535" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2535" t="inlineStr"/>
+      <c r="H2535" t="inlineStr"/>
+      <c r="I2535" t="inlineStr"/>
+      <c r="J2535" t="inlineStr"/>
+      <c r="K2535" t="inlineStr"/>
+      <c r="L2535" t="inlineStr">
+        <is>
+          <t>(N:5,P:56,T:1,R:0),(N:16,P:49,T:2,R:0),(N:7,P:30,T:4,R:0),(N:32,P:25,T:3,R:0),(N:9,P:21,T:2,R:0),(N:23,P:15,T:4,R:0),(N:6,P:14,T:3,R:0),(N:35,P:12,T:3,R:0),(N:34,P:11,T:3,R:0),(N:20,P:11,T:1,R:0),(N:10,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2536" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2536" t="inlineStr"/>
+      <c r="D2536" t="inlineStr"/>
+      <c r="E2536" t="inlineStr"/>
+      <c r="F2536" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2536" t="inlineStr"/>
+      <c r="H2536" t="inlineStr"/>
+      <c r="I2536" t="inlineStr"/>
+      <c r="J2536" t="inlineStr"/>
+      <c r="K2536" t="inlineStr"/>
+      <c r="L2536" t="inlineStr">
+        <is>
+          <t>(N:5,P:56,T:2,R:0),(N:16,P:49,T:3,R:0),(N:10,P:47,T:1,R:1),(N:32,P:25,T:4,R:0),(N:9,P:21,T:3,R:0),(N:23,P:17,T:1,R:0),(N:11,P:15,T:1,R:0),(N:6,P:14,T:4,R:0),(N:35,P:12,T:4,R:0),(N:34,P:11,T:4,R:0),(N:20,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2537" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2537" t="inlineStr"/>
+      <c r="D2537" t="inlineStr"/>
+      <c r="E2537" t="inlineStr"/>
+      <c r="F2537" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2537" t="inlineStr"/>
+      <c r="H2537" t="inlineStr"/>
+      <c r="I2537" t="inlineStr"/>
+      <c r="J2537" t="inlineStr"/>
+      <c r="K2537" t="inlineStr"/>
+      <c r="L2537" t="inlineStr">
+        <is>
+          <t>(N:5,P:56,T:3,R:0),(N:16,P:49,T:4,R:0),(N:10,P:47,T:2,R:1),(N:4,P:23,T:1,R:0),(N:9,P:21,T:4,R:0),(N:0,P:20,T:1,R:0),(N:31,P:18,T:1,R:0),(N:23,P:17,T:2,R:0),(N:11,P:15,T:2,R:0),(N:20,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2538" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2538" t="inlineStr"/>
+      <c r="D2538" t="inlineStr"/>
+      <c r="E2538" t="inlineStr"/>
+      <c r="F2538" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2538" t="inlineStr"/>
+      <c r="H2538" t="inlineStr"/>
+      <c r="I2538" t="inlineStr"/>
+      <c r="J2538" t="inlineStr"/>
+      <c r="K2538" t="inlineStr"/>
+      <c r="L2538" t="inlineStr">
+        <is>
+          <t>(N:10,P:91,T:2,R:2),(N:5,P:56,T:4,R:0),(N:4,P:23,T:2,R:0),(N:0,P:20,T:2,R:0),(N:31,P:18,T:2,R:0),(N:23,P:17,T:3,R:0),(N:11,P:15,T:3,R:0),(N:14,P:12,T:1,R:0),(N:20,P:11,T:4,R:0),(N:16,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2539" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>(N:10,P:158,T:1,R:0,PL:1,J:1400)</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr"/>
+      <c r="E2539" t="inlineStr"/>
+      <c r="F2539" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2539" t="inlineStr"/>
+      <c r="H2539" t="inlineStr"/>
+      <c r="I2539" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="J2539" t="inlineStr"/>
+      <c r="K2539" t="inlineStr"/>
+      <c r="L2539" t="inlineStr">
+        <is>
+          <t>(N:4,P:23,T:3,R:0),(N:0,P:20,T:3,R:0),(N:31,P:18,T:3,R:0),(N:23,P:17,T:4,R:0),(N:11,P:15,T:4,R:0),(N:14,P:12,T:2,R:0),(N:16,P:10,T:2,R:0),(N:24,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2540" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2540" t="inlineStr"/>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>(N:10,P:158,T:1,R:0,PL:1,J:2800)</t>
+        </is>
+      </c>
+      <c r="E2540" t="inlineStr"/>
+      <c r="F2540" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2540" t="inlineStr"/>
+      <c r="H2540" t="inlineStr"/>
+      <c r="I2540" t="inlineStr"/>
+      <c r="J2540" t="inlineStr"/>
+      <c r="K2540" t="inlineStr"/>
+      <c r="L2540" t="inlineStr">
+        <is>
+          <t>(N:13,P:56,T:1,R:0),(N:27,P:31,T:1,R:0),(N:4,P:23,T:4,R:0),(N:0,P:20,T:4,R:0),(N:31,P:18,T:4,R:0),(N:14,P:12,T:3,R:0),(N:16,P:10,T:3,R:0),(N:24,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2541" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2541" t="inlineStr"/>
+      <c r="D2541" t="inlineStr"/>
+      <c r="E2541" t="inlineStr"/>
+      <c r="F2541" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2541" t="inlineStr"/>
+      <c r="H2541" t="inlineStr"/>
+      <c r="I2541" t="inlineStr"/>
+      <c r="J2541" t="inlineStr"/>
+      <c r="K2541" t="inlineStr"/>
+      <c r="L2541" t="inlineStr">
+        <is>
+          <t>(N:13,P:56,T:2,R:0),(N:30,P:37,T:1,R:0),(N:27,P:31,T:2,R:0),(N:24,P:24,T:2,R:1),(N:14,P:12,T:4,R:0),(N:16,P:10,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2542" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2542" t="inlineStr"/>
+      <c r="D2542" t="inlineStr"/>
+      <c r="E2542" t="inlineStr"/>
+      <c r="F2542" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2542" t="inlineStr"/>
+      <c r="H2542" t="inlineStr"/>
+      <c r="I2542" t="inlineStr"/>
+      <c r="J2542" t="inlineStr"/>
+      <c r="K2542" t="inlineStr"/>
+      <c r="L2542" t="inlineStr">
+        <is>
+          <t>(N:13,P:56,T:3,R:0),(N:30,P:37,T:2,R:0),(N:27,P:31,T:3,R:0),(N:2,P:25,T:1,R:0),(N:24,P:24,T:3,R:1),(N:33,P:15,T:1,R:0),(N:32,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2543" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2543" t="inlineStr"/>
+      <c r="D2543" t="inlineStr"/>
+      <c r="E2543" t="inlineStr"/>
+      <c r="F2543" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2543" t="inlineStr"/>
+      <c r="H2543" t="inlineStr"/>
+      <c r="I2543" t="inlineStr"/>
+      <c r="J2543" t="inlineStr"/>
+      <c r="K2543" t="inlineStr"/>
+      <c r="L2543" t="inlineStr">
+        <is>
+          <t>(N:14,P:75,T:1,R:0),(N:13,P:56,T:4,R:0),(N:24,P:39,T:3,R:2),(N:30,P:37,T:3,R:0),(N:27,P:31,T:4,R:0),(N:2,P:25,T:2,R:0),(N:33,P:15,T:2,R:0),(N:32,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2544" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2544" t="inlineStr"/>
+      <c r="D2544" t="inlineStr"/>
+      <c r="E2544" t="inlineStr"/>
+      <c r="F2544" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2544" t="inlineStr"/>
+      <c r="H2544" t="inlineStr"/>
+      <c r="I2544" t="inlineStr"/>
+      <c r="J2544" t="inlineStr"/>
+      <c r="K2544" t="inlineStr"/>
+      <c r="L2544" t="inlineStr">
+        <is>
+          <t>(N:14,P:75,T:2,R:0),(N:24,P:39,T:4,R:2),(N:30,P:37,T:4,R:0),(N:2,P:25,T:3,R:0),(N:10,P:23,T:1,R:0),(N:16,P:18,T:1,R:0),(N:33,P:15,T:3,R:0),(N:32,P:12,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2545" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2545" t="inlineStr"/>
+      <c r="D2545" t="inlineStr"/>
+      <c r="E2545" t="inlineStr"/>
+      <c r="F2545" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2545" t="inlineStr"/>
+      <c r="H2545" t="inlineStr"/>
+      <c r="I2545" t="inlineStr"/>
+      <c r="J2545" t="inlineStr"/>
+      <c r="K2545" t="inlineStr"/>
+      <c r="L2545" t="inlineStr">
+        <is>
+          <t>(N:14,P:75,T:3,R:0),(N:10,P:33,T:1,R:1),(N:2,P:25,T:4,R:0),(N:11,P:20,T:1,R:0),(N:16,P:18,T:2,R:0),(N:15,P:18,T:1,R:0),(N:33,P:15,T:4,R:0),(N:27,P:15,T:1,R:0),(N:32,P:12,T:4,R:0),(N:8,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2546" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2546" t="inlineStr"/>
+      <c r="D2546" t="inlineStr"/>
+      <c r="E2546" t="inlineStr"/>
+      <c r="F2546" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2546" t="inlineStr"/>
+      <c r="H2546" t="inlineStr"/>
+      <c r="I2546" t="inlineStr"/>
+      <c r="J2546" t="inlineStr"/>
+      <c r="K2546" t="inlineStr"/>
+      <c r="L2546" t="inlineStr">
+        <is>
+          <t>(N:14,P:75,T:4,R:0),(N:9,P:56,T:1,R:0),(N:10,P:33,T:2,R:1),(N:11,P:20,T:2,R:0),(N:16,P:18,T:3,R:0),(N:15,P:18,T:2,R:0),(N:27,P:15,T:2,R:0),(N:8,P:11,T:2,R:0),(N:3,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2547" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2547" t="inlineStr"/>
+      <c r="D2547" t="inlineStr"/>
+      <c r="E2547" t="inlineStr"/>
+      <c r="F2547" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2547" t="inlineStr"/>
+      <c r="H2547" t="inlineStr"/>
+      <c r="I2547" t="inlineStr"/>
+      <c r="J2547" t="inlineStr"/>
+      <c r="K2547" t="inlineStr"/>
+      <c r="L2547" t="inlineStr">
+        <is>
+          <t>(N:21,P:75,T:1,R:0),(N:9,P:56,T:2,R:0),(N:10,P:50,T:2,R:2),(N:11,P:20,T:3,R:0),(N:16,P:18,T:4,R:0),(N:15,P:18,T:3,R:0),(N:27,P:15,T:3,R:0),(N:8,P:11,T:3,R:0),(N:3,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2548" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2548" t="inlineStr">
+        <is>
+          <t>(N:21,P:158,T:1,R:0,PL:1,J:1400)</t>
+        </is>
+      </c>
+      <c r="D2548" t="inlineStr"/>
+      <c r="E2548" t="inlineStr"/>
+      <c r="F2548" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2548" t="inlineStr"/>
+      <c r="H2548" t="inlineStr"/>
+      <c r="I2548" t="inlineStr"/>
+      <c r="J2548" t="inlineStr"/>
+      <c r="K2548" t="inlineStr"/>
+      <c r="L2548" t="inlineStr">
+        <is>
+          <t>(N:9,P:56,T:3,R:0),(N:10,P:50,T:3,R:2),(N:11,P:20,T:4,R:0),(N:15,P:18,T:4,R:0),(N:27,P:15,T:4,R:0),(N:8,P:11,T:4,R:0),(N:3,P:10,T:3,R:0),(N:22,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2549" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t>(N:21,P:158,T:2,R:0,PL:2,J:4200)</t>
+        </is>
+      </c>
+      <c r="D2549" t="inlineStr"/>
+      <c r="E2549" t="inlineStr"/>
+      <c r="F2549" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2549" t="inlineStr"/>
+      <c r="H2549" t="inlineStr"/>
+      <c r="I2549" t="inlineStr"/>
+      <c r="J2549" t="inlineStr"/>
+      <c r="K2549" t="inlineStr"/>
+      <c r="L2549" t="inlineStr">
+        <is>
+          <t>(N:9,P:56,T:4,R:0),(N:10,P:50,T:4,R:2),(N:12,P:31,T:1,R:0),(N:3,P:10,T:4,R:0),(N:22,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2550" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t>(N:21,P:158,T:3,R:0,PL:3,J:8400)</t>
+        </is>
+      </c>
+      <c r="D2550" t="inlineStr"/>
+      <c r="E2550" t="inlineStr"/>
+      <c r="F2550" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2550" t="inlineStr"/>
+      <c r="H2550" t="inlineStr"/>
+      <c r="I2550" t="inlineStr"/>
+      <c r="J2550" t="inlineStr"/>
+      <c r="K2550" t="inlineStr"/>
+      <c r="L2550" t="inlineStr">
+        <is>
+          <t>(N:25,P:80,T:1,R:0),(N:12,P:31,T:2,R:0),(N:22,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2551" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>(N:21,P:158,T:4,R:0,PL:4,J:14000)</t>
+        </is>
+      </c>
+      <c r="D2551" t="inlineStr"/>
+      <c r="E2551" t="inlineStr"/>
+      <c r="F2551" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2551" t="inlineStr"/>
+      <c r="H2551" t="inlineStr"/>
+      <c r="I2551" t="inlineStr"/>
+      <c r="J2551" t="inlineStr"/>
+      <c r="K2551" t="inlineStr"/>
+      <c r="L2551" t="inlineStr">
+        <is>
+          <t>(N:25,P:94,T:1,R:1),(N:12,P:31,T:3,R:0),(N:3,P:15,T:1,R:0),(N:7,P:12,T:1,R:0),(N:22,P:10,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" t="n">
+        <v>37</v>
+      </c>
+      <c r="B2552" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>(N:21,P:158,T:5,R:0,PL:5,J:21000)</t>
+        </is>
+      </c>
+      <c r="D2552" t="inlineStr"/>
+      <c r="E2552" t="inlineStr"/>
+      <c r="F2552" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2552" t="inlineStr"/>
+      <c r="H2552" t="inlineStr"/>
+      <c r="I2552" t="inlineStr"/>
+      <c r="J2552" t="inlineStr"/>
+      <c r="K2552" t="inlineStr"/>
+      <c r="L2552" t="inlineStr">
+        <is>
+          <t>(N:25,P:94,T:2,R:1),(N:1,P:47,T:1,R:0),(N:12,P:31,T:4,R:0),(N:3,P:15,T:2,R:0),(N:7,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" t="n">
+        <v>38</v>
+      </c>
+      <c r="B2553" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t>(N:21,P:158,T:6,R:0,PL:6,J:29400)</t>
+        </is>
+      </c>
+      <c r="D2553" t="inlineStr"/>
+      <c r="E2553" t="inlineStr"/>
+      <c r="F2553" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2553" t="inlineStr"/>
+      <c r="H2553" t="inlineStr"/>
+      <c r="I2553" t="inlineStr"/>
+      <c r="J2553" t="inlineStr"/>
+      <c r="K2553" t="inlineStr"/>
+      <c r="L2553" t="inlineStr">
+        <is>
+          <t>(N:25,P:94,T:3,R:1),(N:7,P:62,T:2,R:1),(N:1,P:47,T:2,R:0),(N:11,P:28,T:1,R:0),(N:3,P:15,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" t="n">
+        <v>39</v>
+      </c>
+      <c r="B2554" t="n">
+        <v>36</v>
+      </c>
+      <c r="C2554" t="inlineStr">
+        <is>
+          <t>(N:21,P:189,T:6,R:1,PL:8,J:39200)</t>
+        </is>
+      </c>
+      <c r="D2554" t="inlineStr"/>
+      <c r="E2554" t="inlineStr"/>
+      <c r="F2554" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2554" t="inlineStr"/>
+      <c r="H2554" t="inlineStr"/>
+      <c r="I2554" t="inlineStr"/>
+      <c r="J2554" t="inlineStr"/>
+      <c r="K2554" t="inlineStr"/>
+      <c r="L2554" t="inlineStr">
+        <is>
+          <t>(N:25,P:94,T:4,R:1),(N:7,P:62,T:3,R:1),(N:1,P:47,T:3,R:0),(N:28,P:31,T:1,R:0),(N:11,P:28,T:2,R:0),(N:3,P:15,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" t="n">
+        <v>40</v>
+      </c>
+      <c r="B2555" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2555" t="inlineStr">
+        <is>
+          <t>(N:21,P:189,T:7,R:1,PL:9,J:51800)</t>
+        </is>
+      </c>
+      <c r="D2555" t="inlineStr"/>
+      <c r="E2555" t="inlineStr"/>
+      <c r="F2555" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="G2555" t="inlineStr"/>
+      <c r="H2555" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="I2555" t="inlineStr"/>
+      <c r="J2555" t="inlineStr"/>
+      <c r="K2555" t="inlineStr"/>
+      <c r="L2555" t="inlineStr">
+        <is>
+          <t>(N:1,P:72,T:3,R:1),(N:7,P:62,T:4,R:1),(N:35,P:41,T:1,R:0),(N:28,P:31,T:2,R:0),(N:11,P:28,T:3,R:0),(N:3,P:17,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="n">
+        <v>41</v>
+      </c>
+      <c r="B2556" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2556" t="inlineStr"/>
+      <c r="D2556" t="inlineStr">
+        <is>
+          <t>(N:21,P:189,T:7,R:1,PL:9,J:64400)</t>
+        </is>
+      </c>
+      <c r="E2556" t="inlineStr"/>
+      <c r="F2556" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2556" t="inlineStr"/>
+      <c r="H2556" t="inlineStr"/>
+      <c r="I2556" t="inlineStr"/>
+      <c r="J2556" t="inlineStr"/>
+      <c r="K2556" t="inlineStr"/>
+      <c r="L2556" t="inlineStr">
+        <is>
+          <t>(N:1,P:72,T:4,R:1),(N:11,P:42,T:3,R:1),(N:35,P:41,T:2,R:0),(N:28,P:31,T:3,R:0),(N:24,P:23,T:1,R:0),(N:3,P:17,T:2,R:0),(N:26,P:15,T:1,R:0),(N:23,P:15,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2557" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2557" t="inlineStr"/>
+      <c r="D2557" t="inlineStr"/>
+      <c r="E2557" t="inlineStr"/>
+      <c r="F2557" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2557" t="inlineStr"/>
+      <c r="H2557" t="inlineStr"/>
+      <c r="I2557" t="inlineStr"/>
+      <c r="J2557" t="inlineStr"/>
+      <c r="K2557" t="inlineStr"/>
+      <c r="L2557" t="inlineStr">
+        <is>
+          <t>(N:11,P:42,T:4,R:1),(N:35,P:41,T:3,R:0),(N:28,P:31,T:4,R:0),(N:29,P:28,T:1,R:0),(N:24,P:23,T:2,R:0),(N:6,P:21,T:1,R:0),(N:3,P:17,T:3,R:0),(N:26,P:15,T:2,R:0),(N:23,P:15,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2558" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2558" t="inlineStr"/>
+      <c r="D2558" t="inlineStr"/>
+      <c r="E2558" t="inlineStr"/>
+      <c r="F2558" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2558" t="inlineStr"/>
+      <c r="H2558" t="inlineStr"/>
+      <c r="I2558" t="inlineStr"/>
+      <c r="J2558" t="inlineStr"/>
+      <c r="K2558" t="inlineStr"/>
+      <c r="L2558" t="inlineStr">
+        <is>
+          <t>(N:15,P:93,T:1,R:0),(N:35,P:41,T:4,R:0),(N:29,P:28,T:2,R:0),(N:24,P:23,T:3,R:0),(N:6,P:21,T:2,R:0),(N:3,P:17,T:4,R:0),(N:26,P:15,T:3,R:0),(N:23,P:15,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="n">
+        <v>44</v>
+      </c>
+      <c r="B2559" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2559" t="inlineStr"/>
+      <c r="D2559" t="inlineStr"/>
+      <c r="E2559" t="inlineStr"/>
+      <c r="F2559" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2559" t="inlineStr"/>
+      <c r="H2559" t="inlineStr"/>
+      <c r="I2559" t="inlineStr"/>
+      <c r="J2559" t="inlineStr"/>
+      <c r="K2559" t="inlineStr"/>
+      <c r="L2559" t="inlineStr">
+        <is>
+          <t>(N:15,P:93,T:2,R:0),(N:19,P:70,T:1,R:0),(N:29,P:28,T:3,R:0),(N:24,P:23,T:4,R:0),(N:6,P:21,T:3,R:0),(N:26,P:15,T:4,R:0),(N:23,P:15,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" t="n">
+        <v>45</v>
+      </c>
+      <c r="B2560" t="n">
+        <v>36</v>
+      </c>
+      <c r="C2560" t="inlineStr"/>
+      <c r="D2560" t="inlineStr"/>
+      <c r="E2560" t="inlineStr"/>
+      <c r="F2560" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2560" t="inlineStr"/>
+      <c r="H2560" t="inlineStr"/>
+      <c r="I2560" t="inlineStr"/>
+      <c r="J2560" t="inlineStr"/>
+      <c r="K2560" t="inlineStr"/>
+      <c r="L2560" t="inlineStr">
+        <is>
+          <t>(N:15,P:93,T:3,R:0),(N:19,P:70,T:2,R:0),(N:22,P:47,T:1,R:0),(N:29,P:28,T:4,R:0),(N:21,P:27,T:1,R:0),(N:6,P:21,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="n">
+        <v>46</v>
+      </c>
+      <c r="B2561" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2561" t="inlineStr"/>
+      <c r="D2561" t="inlineStr"/>
+      <c r="E2561" t="inlineStr"/>
+      <c r="F2561" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2561" t="inlineStr"/>
+      <c r="H2561" t="inlineStr"/>
+      <c r="I2561" t="inlineStr"/>
+      <c r="J2561" t="inlineStr"/>
+      <c r="K2561" t="inlineStr"/>
+      <c r="L2561" t="inlineStr">
+        <is>
+          <t>(N:15,P:93,T:4,R:0),(N:19,P:70,T:3,R:0),(N:22,P:47,T:2,R:0),(N:21,P:27,T:2,R:0),(N:7,P:27,T:1,R:0),(N:28,P:18,T:1,R:0),(N:8,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" t="n">
+        <v>47</v>
+      </c>
+      <c r="B2562" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2562" t="inlineStr"/>
+      <c r="D2562" t="inlineStr"/>
+      <c r="E2562" t="inlineStr"/>
+      <c r="F2562" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2562" t="inlineStr"/>
+      <c r="H2562" t="inlineStr"/>
+      <c r="I2562" t="inlineStr"/>
+      <c r="J2562" t="inlineStr"/>
+      <c r="K2562" t="inlineStr"/>
+      <c r="L2562" t="inlineStr">
+        <is>
+          <t>(N:19,P:70,T:4,R:0),(N:22,P:47,T:3,R:0),(N:7,P:47,T:1,R:1),(N:23,P:43,T:1,R:0),(N:21,P:27,T:3,R:0),(N:28,P:18,T:2,R:0),(N:2,P:14,T:1,R:0),(N:8,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" t="n">
+        <v>48</v>
+      </c>
+      <c r="B2563" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2563" t="inlineStr"/>
+      <c r="D2563" t="inlineStr"/>
+      <c r="E2563" t="inlineStr"/>
+      <c r="F2563" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2563" t="inlineStr"/>
+      <c r="H2563" t="inlineStr"/>
+      <c r="I2563" t="inlineStr"/>
+      <c r="J2563" t="inlineStr"/>
+      <c r="K2563" t="inlineStr"/>
+      <c r="L2563" t="inlineStr">
+        <is>
+          <t>(N:14,P:70,T:1,R:0),(N:22,P:47,T:4,R:0),(N:7,P:47,T:2,R:1),(N:23,P:43,T:2,R:0),(N:21,P:27,T:4,R:0),(N:28,P:18,T:3,R:0),(N:2,P:14,T:2,R:0),(N:1,P:12,T:1,R:0),(N:8,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" t="n">
+        <v>49</v>
+      </c>
+      <c r="B2564" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2564" t="inlineStr"/>
+      <c r="D2564" t="inlineStr"/>
+      <c r="E2564" t="inlineStr"/>
+      <c r="F2564" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2564" t="inlineStr"/>
+      <c r="H2564" t="inlineStr"/>
+      <c r="I2564" t="inlineStr"/>
+      <c r="J2564" t="inlineStr"/>
+      <c r="K2564" t="inlineStr"/>
+      <c r="L2564" t="inlineStr">
+        <is>
+          <t>(N:14,P:70,T:2,R:0),(N:23,P:54,T:2,R:1),(N:3,P:50,T:1,R:0),(N:7,P:47,T:3,R:1),(N:28,P:18,T:4,R:0),(N:2,P:14,T:3,R:0),(N:1,P:12,T:2,R:0),(N:16,P:12,T:1,R:0),(N:8,P:10,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2565" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2565" t="inlineStr"/>
+      <c r="D2565" t="inlineStr"/>
+      <c r="E2565" t="inlineStr"/>
+      <c r="F2565" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2565" t="inlineStr"/>
+      <c r="H2565" t="inlineStr"/>
+      <c r="I2565" t="inlineStr"/>
+      <c r="J2565" t="inlineStr"/>
+      <c r="K2565" t="inlineStr"/>
+      <c r="L2565" t="inlineStr">
+        <is>
+          <t>(N:8,P:94,T:1,R:0),(N:14,P:70,T:3,R:0),(N:23,P:54,T:3,R:1),(N:3,P:50,T:2,R:0),(N:7,P:47,T:4,R:1),(N:2,P:14,T:4,R:0),(N:1,P:12,T:3,R:0),(N:16,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" t="n">
+        <v>51</v>
+      </c>
+      <c r="B2566" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2566" t="inlineStr"/>
+      <c r="D2566" t="inlineStr"/>
+      <c r="E2566" t="inlineStr"/>
+      <c r="F2566" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2566" t="inlineStr"/>
+      <c r="H2566" t="inlineStr"/>
+      <c r="I2566" t="inlineStr"/>
+      <c r="J2566" t="inlineStr"/>
+      <c r="K2566" t="inlineStr"/>
+      <c r="L2566" t="inlineStr">
+        <is>
+          <t>(N:8,P:94,T:2,R:0),(N:24,P:81,T:1,R:0),(N:14,P:70,T:4,R:0),(N:23,P:54,T:4,R:1),(N:3,P:50,T:3,R:0),(N:1,P:12,T:4,R:0),(N:16,P:12,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" t="n">
+        <v>52</v>
+      </c>
+      <c r="B2567" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2567" t="inlineStr"/>
+      <c r="D2567" t="inlineStr"/>
+      <c r="E2567" t="inlineStr"/>
+      <c r="F2567" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2567" t="inlineStr"/>
+      <c r="H2567" t="inlineStr"/>
+      <c r="I2567" t="inlineStr"/>
+      <c r="J2567" t="inlineStr"/>
+      <c r="K2567" t="inlineStr"/>
+      <c r="L2567" t="inlineStr">
+        <is>
+          <t>(N:8,P:94,T:3,R:0),(N:24,P:81,T:2,R:0),(N:3,P:50,T:4,R:0),(N:14,P:23,T:1,R:0),(N:23,P:15,T:1,R:0),(N:16,P:12,T:4,R:0),(N:29,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" t="n">
+        <v>53</v>
+      </c>
+      <c r="B2568" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2568" t="inlineStr"/>
+      <c r="D2568" t="inlineStr"/>
+      <c r="E2568" t="inlineStr"/>
+      <c r="F2568" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2568" t="inlineStr"/>
+      <c r="H2568" t="inlineStr"/>
+      <c r="I2568" t="inlineStr"/>
+      <c r="J2568" t="inlineStr"/>
+      <c r="K2568" t="inlineStr"/>
+      <c r="L2568" t="inlineStr">
+        <is>
+          <t>(N:8,P:94,T:4,R:0),(N:17,P:93,T:1,R:0),(N:24,P:81,T:3,R:0),(N:14,P:23,T:2,R:0),(N:23,P:15,T:2,R:0),(N:29,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" t="n">
+        <v>54</v>
+      </c>
+      <c r="B2569" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2569" t="inlineStr"/>
+      <c r="D2569" t="inlineStr"/>
+      <c r="E2569" t="inlineStr"/>
+      <c r="F2569" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2569" t="inlineStr"/>
+      <c r="H2569" t="inlineStr"/>
+      <c r="I2569" t="inlineStr"/>
+      <c r="J2569" t="inlineStr"/>
+      <c r="K2569" t="inlineStr"/>
+      <c r="L2569" t="inlineStr">
+        <is>
+          <t>(N:17,P:93,T:2,R:0),(N:24,P:81,T:4,R:0),(N:15,P:46,T:1,R:0),(N:14,P:23,T:3,R:0),(N:20,P:18,T:1,R:0),(N:23,P:15,T:3,R:0),(N:29,P:12,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" t="n">
+        <v>55</v>
+      </c>
+      <c r="B2570" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2570" t="inlineStr"/>
+      <c r="D2570" t="inlineStr"/>
+      <c r="E2570" t="inlineStr"/>
+      <c r="F2570" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2570" t="inlineStr"/>
+      <c r="H2570" t="inlineStr"/>
+      <c r="I2570" t="inlineStr"/>
+      <c r="J2570" t="inlineStr"/>
+      <c r="K2570" t="inlineStr"/>
+      <c r="L2570" t="inlineStr">
+        <is>
+          <t>(N:17,P:93,T:3,R:0),(N:27,P:66,T:1,R:0),(N:15,P:46,T:2,R:0),(N:14,P:23,T:4,R:0),(N:20,P:18,T:2,R:0),(N:23,P:15,T:4,R:0),(N:29,P:12,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2571">
+      <c r="A2571" t="n">
+        <v>56</v>
+      </c>
+      <c r="B2571" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2571" t="inlineStr"/>
+      <c r="D2571" t="inlineStr"/>
+      <c r="E2571" t="inlineStr"/>
+      <c r="F2571" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2571" t="inlineStr"/>
+      <c r="H2571" t="inlineStr"/>
+      <c r="I2571" t="inlineStr"/>
+      <c r="J2571" t="inlineStr"/>
+      <c r="K2571" t="inlineStr"/>
+      <c r="L2571" t="inlineStr">
+        <is>
+          <t>(N:17,P:93,T:4,R:0),(N:27,P:66,T:2,R:0),(N:15,P:46,T:3,R:0),(N:16,P:20,T:1,R:0),(N:20,P:18,T:3,R:0),(N:31,P:14,T:1,R:0),(N:34,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2572">
+      <c r="A2572" t="n">
+        <v>57</v>
+      </c>
+      <c r="B2572" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2572" t="inlineStr"/>
+      <c r="D2572" t="inlineStr"/>
+      <c r="E2572" t="inlineStr"/>
+      <c r="F2572" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2572" t="inlineStr"/>
+      <c r="H2572" t="inlineStr"/>
+      <c r="I2572" t="inlineStr"/>
+      <c r="J2572" t="inlineStr"/>
+      <c r="K2572" t="inlineStr"/>
+      <c r="L2572" t="inlineStr">
+        <is>
+          <t>(N:27,P:66,T:3,R:0),(N:15,P:46,T:4,R:0),(N:21,P:40,T:1,R:0),(N:16,P:20,T:2,R:0),(N:20,P:18,T:4,R:0),(N:10,P:15,T:1,R:0),(N:31,P:14,T:2,R:0),(N:34,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" t="n">
+        <v>58</v>
+      </c>
+      <c r="B2573" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2573" t="inlineStr"/>
+      <c r="D2573" t="inlineStr"/>
+      <c r="E2573" t="inlineStr"/>
+      <c r="F2573" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2573" t="inlineStr"/>
+      <c r="H2573" t="inlineStr"/>
+      <c r="I2573" t="inlineStr"/>
+      <c r="J2573" t="inlineStr"/>
+      <c r="K2573" t="inlineStr"/>
+      <c r="L2573" t="inlineStr">
+        <is>
+          <t>(N:27,P:66,T:4,R:0),(N:23,P:49,T:1,R:0),(N:21,P:40,T:2,R:0),(N:13,P:38,T:1,R:0),(N:16,P:20,T:3,R:0),(N:10,P:15,T:2,R:0),(N:31,P:14,T:3,R:0),(N:34,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" t="n">
+        <v>59</v>
+      </c>
+      <c r="B2574" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2574" t="inlineStr">
+        <is>
+          <t>(N:23,P:130,T:1,R:0,PL:1,J:1400)</t>
+        </is>
+      </c>
+      <c r="D2574" t="inlineStr"/>
+      <c r="E2574" t="inlineStr"/>
+      <c r="F2574" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2574" t="inlineStr"/>
+      <c r="H2574" t="inlineStr"/>
+      <c r="I2574" t="inlineStr"/>
+      <c r="J2574" t="inlineStr"/>
+      <c r="K2574" t="inlineStr"/>
+      <c r="L2574" t="inlineStr">
+        <is>
+          <t>(N:21,P:40,T:3,R:0),(N:13,P:38,T:2,R:0),(N:16,P:20,T:4,R:0),(N:10,P:15,T:3,R:0),(N:31,P:14,T:4,R:0),(N:34,P:11,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2575" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2575" t="inlineStr">
+        <is>
+          <t>(N:23,P:211,T:1,R:1,PL:3,J:4200)</t>
+        </is>
+      </c>
+      <c r="D2575" t="inlineStr"/>
+      <c r="E2575" t="inlineStr"/>
+      <c r="F2575" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2575" t="inlineStr"/>
+      <c r="H2575" t="inlineStr"/>
+      <c r="I2575" t="inlineStr"/>
+      <c r="J2575" t="inlineStr"/>
+      <c r="K2575" t="inlineStr"/>
+      <c r="L2575" t="inlineStr">
+        <is>
+          <t>(N:21,P:40,T:4,R:0),(N:13,P:38,T:3,R:0),(N:10,P:15,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" t="n">
+        <v>61</v>
+      </c>
+      <c r="B2576" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>(N:23,P:211,T:2,R:1,PL:4,J:9800)</t>
+        </is>
+      </c>
+      <c r="D2576" t="inlineStr"/>
+      <c r="E2576" t="inlineStr"/>
+      <c r="F2576" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2576" t="inlineStr"/>
+      <c r="H2576" t="inlineStr"/>
+      <c r="I2576" t="inlineStr"/>
+      <c r="J2576" t="inlineStr"/>
+      <c r="K2576" t="inlineStr"/>
+      <c r="L2576" t="inlineStr">
+        <is>
+          <t>(N:6,P:98,T:1,R:0),(N:13,P:38,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" t="n">
+        <v>62</v>
+      </c>
+      <c r="B2577" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2577" t="inlineStr">
+        <is>
+          <t>(N:23,P:211,T:3,R:1,PL:5,J:16800),(N:6,P:119,T:1,R:0,PL:1,J:1400)</t>
+        </is>
+      </c>
+      <c r="D2577" t="inlineStr"/>
+      <c r="E2577" t="inlineStr"/>
+      <c r="F2577" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2577" t="inlineStr"/>
+      <c r="H2577" t="inlineStr"/>
+      <c r="I2577" t="inlineStr"/>
+      <c r="J2577" t="inlineStr"/>
+      <c r="K2577" t="inlineStr"/>
+      <c r="L2577" t="inlineStr">
+        <is>
+          <t>(N:7,P:54,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" t="n">
+        <v>63</v>
+      </c>
+      <c r="B2578" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2578" t="inlineStr">
+        <is>
+          <t>(N:23,P:211,T:4,R:1,PL:6,J:25200),(N:6,P:119,T:2,R:0,PL:2,J:4200)</t>
+        </is>
+      </c>
+      <c r="D2578" t="inlineStr"/>
+      <c r="E2578" t="inlineStr"/>
+      <c r="F2578" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="G2578" t="inlineStr"/>
+      <c r="H2578" t="inlineStr"/>
+      <c r="I2578" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="J2578" t="inlineStr"/>
+      <c r="K2578" t="inlineStr"/>
+      <c r="L2578" t="inlineStr">
+        <is>
+          <t>(N:34,P:55,T:1,R:0),(N:7,P:54,T:2,R:0),(N:26,P:20,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" t="n">
+        <v>64</v>
+      </c>
+      <c r="B2579" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2579" t="inlineStr">
+        <is>
+          <t>(N:23,P:211,T:5,R:1,PL:7,J:35000)</t>
+        </is>
+      </c>
+      <c r="D2579" t="inlineStr">
+        <is>
+          <t>(N:6,P:119,T:2,R:0,PL:2,J:7000)</t>
+        </is>
+      </c>
+      <c r="E2579" t="inlineStr"/>
+      <c r="F2579" t="inlineStr">
+        <is>
+          <t>12200</t>
+        </is>
+      </c>
+      <c r="G2579" t="inlineStr"/>
+      <c r="H2579" t="inlineStr"/>
+      <c r="I2579" t="inlineStr"/>
+      <c r="J2579" t="inlineStr"/>
+      <c r="K2579" t="inlineStr"/>
+      <c r="L2579" t="inlineStr">
+        <is>
+          <t>(N:14,P:80,T:1,R:0),(N:34,P:55,T:2,R:0),(N:7,P:54,T:3,R:0),(N:26,P:20,T:2,R:0),(N:27,P:15,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2580">
+      <c r="A2580" t="n">
+        <v>65</v>
+      </c>
+      <c r="B2580" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2580" t="inlineStr">
+        <is>
+          <t>(N:23,P:211,T:6,R:1,PL:8,J:46200)</t>
+        </is>
+      </c>
+      <c r="D2580" t="inlineStr"/>
+      <c r="E2580" t="inlineStr"/>
+      <c r="F2580" t="inlineStr">
+        <is>
+          <t>12200</t>
+        </is>
+      </c>
+      <c r="G2580" t="inlineStr"/>
+      <c r="H2580" t="inlineStr"/>
+      <c r="I2580" t="inlineStr"/>
+      <c r="J2580" t="inlineStr"/>
+      <c r="K2580" t="inlineStr"/>
+      <c r="L2580" t="inlineStr">
+        <is>
+          <t>(N:14,P:80,T:2,R:0),(N:4,P:66,T:1,R:0),(N:34,P:55,T:3,R:0),(N:7,P:54,T:4,R:0),(N:26,P:20,T:3,R:0),(N:27,P:15,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" t="n">
+        <v>66</v>
+      </c>
+      <c r="B2581" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2581" t="inlineStr">
+        <is>
+          <t>(N:23,P:211,T:7,R:1,PL:9,J:58800)</t>
+        </is>
+      </c>
+      <c r="D2581" t="inlineStr"/>
+      <c r="E2581" t="inlineStr"/>
+      <c r="F2581" t="inlineStr">
+        <is>
+          <t>12200</t>
+        </is>
+      </c>
+      <c r="G2581" t="inlineStr"/>
+      <c r="H2581" t="inlineStr"/>
+      <c r="I2581" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="J2581" t="inlineStr"/>
+      <c r="K2581" t="inlineStr"/>
+      <c r="L2581" t="inlineStr">
+        <is>
+          <t>(N:14,P:80,T:3,R:0),(N:4,P:66,T:2,R:0),(N:34,P:55,T:4,R:0),(N:17,P:41,T:1,R:0),(N:2,P:25,T:1,R:0),(N:26,P:20,T:4,R:0),(N:27,P:15,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" t="n">
+        <v>67</v>
+      </c>
+      <c r="B2582" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2582" t="inlineStr"/>
+      <c r="D2582" t="inlineStr">
+        <is>
+          <t>(N:23,P:211,T:7,R:1,PL:9,J:71400)</t>
+        </is>
+      </c>
+      <c r="E2582" t="inlineStr"/>
+      <c r="F2582" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2582" t="inlineStr"/>
+      <c r="H2582" t="inlineStr"/>
+      <c r="I2582" t="inlineStr"/>
+      <c r="J2582" t="inlineStr"/>
+      <c r="K2582" t="inlineStr"/>
+      <c r="L2582" t="inlineStr">
+        <is>
+          <t>(N:14,P:80,T:4,R:0),(N:31,P:69,T:1,R:0),(N:4,P:66,T:3,R:0),(N:17,P:41,T:2,R:0),(N:2,P:25,T:2,R:0),(N:27,P:15,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" t="n">
+        <v>68</v>
+      </c>
+      <c r="B2583" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2583" t="inlineStr"/>
+      <c r="D2583" t="inlineStr"/>
+      <c r="E2583" t="inlineStr"/>
+      <c r="F2583" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2583" t="inlineStr"/>
+      <c r="H2583" t="inlineStr"/>
+      <c r="I2583" t="inlineStr"/>
+      <c r="J2583" t="inlineStr"/>
+      <c r="K2583" t="inlineStr"/>
+      <c r="L2583" t="inlineStr">
+        <is>
+          <t>(N:31,P:69,T:2,R:0),(N:4,P:66,T:4,R:0),(N:17,P:41,T:3,R:0),(N:28,P:27,T:1,R:0),(N:2,P:25,T:3,R:0),(N:8,P:20,T:1,R:0),(N:3,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="A2584" t="n">
+        <v>69</v>
+      </c>
+      <c r="B2584" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2584" t="inlineStr"/>
+      <c r="D2584" t="inlineStr"/>
+      <c r="E2584" t="inlineStr"/>
+      <c r="F2584" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2584" t="inlineStr"/>
+      <c r="H2584" t="inlineStr"/>
+      <c r="I2584" t="inlineStr"/>
+      <c r="J2584" t="inlineStr"/>
+      <c r="K2584" t="inlineStr"/>
+      <c r="L2584" t="inlineStr">
+        <is>
+          <t>(N:31,P:69,T:3,R:0),(N:17,P:41,T:4,R:0),(N:19,P:37,T:1,R:0),(N:28,P:27,T:2,R:0),(N:2,P:25,T:4,R:0),(N:8,P:20,T:2,R:0),(N:0,P:18,T:1,R:0),(N:3,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" t="n">
+        <v>70</v>
+      </c>
+      <c r="B2585" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2585" t="inlineStr"/>
+      <c r="D2585" t="inlineStr"/>
+      <c r="E2585" t="inlineStr"/>
+      <c r="F2585" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2585" t="inlineStr"/>
+      <c r="H2585" t="inlineStr"/>
+      <c r="I2585" t="inlineStr"/>
+      <c r="J2585" t="inlineStr"/>
+      <c r="K2585" t="inlineStr"/>
+      <c r="L2585" t="inlineStr">
+        <is>
+          <t>(N:16,P:88,T:1,R:0),(N:31,P:69,T:4,R:0),(N:19,P:37,T:2,R:0),(N:28,P:27,T:3,R:0),(N:8,P:20,T:3,R:0),(N:0,P:18,T:2,R:0),(N:3,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" t="n">
+        <v>71</v>
+      </c>
+      <c r="B2586" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2586" t="inlineStr"/>
+      <c r="D2586" t="inlineStr"/>
+      <c r="E2586" t="inlineStr"/>
+      <c r="F2586" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2586" t="inlineStr"/>
+      <c r="H2586" t="inlineStr"/>
+      <c r="I2586" t="inlineStr"/>
+      <c r="J2586" t="inlineStr"/>
+      <c r="K2586" t="inlineStr"/>
+      <c r="L2586" t="inlineStr">
+        <is>
+          <t>(N:17,P:94,T:1,R:0),(N:16,P:88,T:2,R:0),(N:19,P:37,T:3,R:0),(N:28,P:27,T:4,R:0),(N:8,P:20,T:4,R:0),(N:0,P:18,T:3,R:0),(N:3,P:10,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" t="n">
+        <v>72</v>
+      </c>
+      <c r="B2587" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2587" t="inlineStr"/>
+      <c r="D2587" t="inlineStr"/>
+      <c r="E2587" t="inlineStr"/>
+      <c r="F2587" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2587" t="inlineStr"/>
+      <c r="H2587" t="inlineStr"/>
+      <c r="I2587" t="inlineStr"/>
+      <c r="J2587" t="inlineStr"/>
+      <c r="K2587" t="inlineStr"/>
+      <c r="L2587" t="inlineStr">
+        <is>
+          <t>(N:17,P:94,T:2,R:0),(N:27,P:94,T:1,R:0),(N:16,P:88,T:3,R:0),(N:19,P:37,T:4,R:0),(N:0,P:18,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" t="n">
+        <v>73</v>
+      </c>
+      <c r="B2588" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2588" t="inlineStr"/>
+      <c r="D2588" t="inlineStr"/>
+      <c r="E2588" t="inlineStr"/>
+      <c r="F2588" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2588" t="inlineStr"/>
+      <c r="H2588" t="inlineStr"/>
+      <c r="I2588" t="inlineStr"/>
+      <c r="J2588" t="inlineStr"/>
+      <c r="K2588" t="inlineStr"/>
+      <c r="L2588" t="inlineStr">
+        <is>
+          <t>(N:17,P:94,T:3,R:0),(N:27,P:94,T:2,R:0),(N:16,P:88,T:4,R:0),(N:32,P:61,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" t="n">
+        <v>74</v>
+      </c>
+      <c r="B2589" t="n">
+        <v>36</v>
+      </c>
+      <c r="C2589" t="inlineStr"/>
+      <c r="D2589" t="inlineStr"/>
+      <c r="E2589" t="inlineStr"/>
+      <c r="F2589" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2589" t="inlineStr"/>
+      <c r="H2589" t="inlineStr"/>
+      <c r="I2589" t="inlineStr"/>
+      <c r="J2589" t="inlineStr"/>
+      <c r="K2589" t="inlineStr"/>
+      <c r="L2589" t="inlineStr">
+        <is>
+          <t>(N:17,P:94,T:4,R:0),(N:27,P:94,T:3,R:0),(N:32,P:61,T:2,R:0),(N:34,P:50,T:1,R:0),(N:21,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" t="n">
+        <v>75</v>
+      </c>
+      <c r="B2590" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2590" t="inlineStr"/>
+      <c r="D2590" t="inlineStr"/>
+      <c r="E2590" t="inlineStr"/>
+      <c r="F2590" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2590" t="inlineStr"/>
+      <c r="H2590" t="inlineStr"/>
+      <c r="I2590" t="inlineStr"/>
+      <c r="J2590" t="inlineStr"/>
+      <c r="K2590" t="inlineStr"/>
+      <c r="L2590" t="inlineStr">
+        <is>
+          <t>(N:27,P:94,T:4,R:0),(N:19,P:72,T:1,R:0),(N:32,P:61,T:3,R:0),(N:34,P:50,T:2,R:0),(N:21,P:10,T:2,R:0),(N:33,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" t="n">
+        <v>76</v>
+      </c>
+      <c r="B2591" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2591" t="inlineStr"/>
+      <c r="D2591" t="inlineStr"/>
+      <c r="E2591" t="inlineStr"/>
+      <c r="F2591" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2591" t="inlineStr"/>
+      <c r="H2591" t="inlineStr"/>
+      <c r="I2591" t="inlineStr"/>
+      <c r="J2591" t="inlineStr"/>
+      <c r="K2591" t="inlineStr"/>
+      <c r="L2591" t="inlineStr">
+        <is>
+          <t>(N:19,P:72,T:2,R:0),(N:32,P:61,T:4,R:0),(N:34,P:50,T:3,R:0),(N:6,P:28,T:1,R:0),(N:11,P:12,T:1,R:0),(N:21,P:10,T:3,R:0),(N:33,P:10,T:2,R:0),(N:1,P:10,T:1,R:0),(N:25,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" t="n">
+        <v>77</v>
+      </c>
+      <c r="B2592" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2592" t="inlineStr"/>
+      <c r="D2592" t="inlineStr"/>
+      <c r="E2592" t="inlineStr"/>
+      <c r="F2592" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2592" t="inlineStr"/>
+      <c r="H2592" t="inlineStr"/>
+      <c r="I2592" t="inlineStr"/>
+      <c r="J2592" t="inlineStr"/>
+      <c r="K2592" t="inlineStr"/>
+      <c r="L2592" t="inlineStr">
+        <is>
+          <t>(N:19,P:72,T:3,R:0),(N:6,P:59,T:1,R:1),(N:34,P:50,T:4,R:0),(N:14,P:25,T:1,R:0),(N:4,P:17,T:1,R:0),(N:11,P:12,T:2,R:0),(N:21,P:10,T:4,R:0),(N:33,P:10,T:3,R:0),(N:1,P:10,T:2,R:0),(N:25,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" t="n">
+        <v>78</v>
+      </c>
+      <c r="B2593" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2593" t="inlineStr"/>
+      <c r="D2593" t="inlineStr"/>
+      <c r="E2593" t="inlineStr"/>
+      <c r="F2593" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2593" t="inlineStr"/>
+      <c r="H2593" t="inlineStr"/>
+      <c r="I2593" t="inlineStr"/>
+      <c r="J2593" t="inlineStr"/>
+      <c r="K2593" t="inlineStr"/>
+      <c r="L2593" t="inlineStr">
+        <is>
+          <t>(N:19,P:72,T:4,R:0),(N:6,P:59,T:2,R:1),(N:21,P:51,T:1,R:0),(N:14,P:25,T:2,R:0),(N:4,P:17,T:2,R:0),(N:16,P:15,T:1,R:0),(N:11,P:12,T:3,R:0),(N:33,P:10,T:4,R:0),(N:1,P:10,T:3,R:0),(N:25,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" t="n">
+        <v>79</v>
+      </c>
+      <c r="B2594" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2594" t="inlineStr"/>
+      <c r="D2594" t="inlineStr"/>
+      <c r="E2594" t="inlineStr"/>
+      <c r="F2594" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2594" t="inlineStr"/>
+      <c r="H2594" t="inlineStr"/>
+      <c r="I2594" t="inlineStr"/>
+      <c r="J2594" t="inlineStr"/>
+      <c r="K2594" t="inlineStr"/>
+      <c r="L2594" t="inlineStr">
+        <is>
+          <t>(N:6,P:59,T:3,R:1),(N:21,P:51,T:2,R:0),(N:16,P:27,T:1,R:1),(N:14,P:25,T:3,R:0),(N:33,P:20,T:1,R:0),(N:4,P:17,T:3,R:0),(N:23,P:17,T:1,R:0),(N:11,P:12,T:4,R:0),(N:1,P:10,T:4,R:0),(N:25,P:10,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" t="n">
+        <v>80</v>
+      </c>
+      <c r="B2595" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2595" t="inlineStr"/>
+      <c r="D2595" t="inlineStr"/>
+      <c r="E2595" t="inlineStr"/>
+      <c r="F2595" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2595" t="inlineStr"/>
+      <c r="H2595" t="inlineStr"/>
+      <c r="I2595" t="inlineStr"/>
+      <c r="J2595" t="inlineStr"/>
+      <c r="K2595" t="inlineStr"/>
+      <c r="L2595" t="inlineStr">
+        <is>
+          <t>(N:6,P:59,T:4,R:1),(N:21,P:51,T:3,R:0),(N:23,P:35,T:1,R:1),(N:16,P:27,T:2,R:1),(N:14,P:25,T:4,R:0),(N:8,P:21,T:1,R:0),(N:33,P:20,T:2,R:0),(N:4,P:17,T:4,R:0),(N:30,P:17,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" t="n">
+        <v>81</v>
+      </c>
+      <c r="B2596" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2596" t="inlineStr"/>
+      <c r="D2596" t="inlineStr"/>
+      <c r="E2596" t="inlineStr"/>
+      <c r="F2596" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2596" t="inlineStr"/>
+      <c r="H2596" t="inlineStr"/>
+      <c r="I2596" t="inlineStr"/>
+      <c r="J2596" t="inlineStr"/>
+      <c r="K2596" t="inlineStr"/>
+      <c r="L2596" t="inlineStr">
+        <is>
+          <t>(N:29,P:68,T:1,R:0),(N:21,P:51,T:4,R:0),(N:23,P:35,T:2,R:1),(N:16,P:27,T:3,R:1),(N:8,P:21,T:2,R:0),(N:33,P:20,T:3,R:0),(N:30,P:17,T:2,R:0),(N:26,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" t="n">
+        <v>82</v>
+      </c>
+      <c r="B2597" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2597" t="inlineStr"/>
+      <c r="D2597" t="inlineStr"/>
+      <c r="E2597" t="inlineStr"/>
+      <c r="F2597" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2597" t="inlineStr"/>
+      <c r="H2597" t="inlineStr"/>
+      <c r="I2597" t="inlineStr"/>
+      <c r="J2597" t="inlineStr"/>
+      <c r="K2597" t="inlineStr"/>
+      <c r="L2597" t="inlineStr">
+        <is>
+          <t>(N:29,P:68,T:2,R:0),(N:23,P:35,T:3,R:1),(N:27,P:34,T:1,R:0),(N:16,P:27,T:4,R:1),(N:8,P:21,T:3,R:0),(N:33,P:20,T:4,R:0),(N:14,P:20,T:1,R:0),(N:30,P:17,T:3,R:0),(N:26,P:10,T:2,R:0),(N:0,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" t="n">
+        <v>83</v>
+      </c>
+      <c r="B2598" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2598" t="inlineStr"/>
+      <c r="D2598" t="inlineStr"/>
+      <c r="E2598" t="inlineStr"/>
+      <c r="F2598" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2598" t="inlineStr"/>
+      <c r="H2598" t="inlineStr"/>
+      <c r="I2598" t="inlineStr"/>
+      <c r="J2598" t="inlineStr"/>
+      <c r="K2598" t="inlineStr"/>
+      <c r="L2598" t="inlineStr">
+        <is>
+          <t>(N:29,P:68,T:3,R:0),(N:5,P:52,T:1,R:0),(N:23,P:35,T:4,R:1),(N:27,P:34,T:2,R:0),(N:8,P:21,T:4,R:0),(N:14,P:20,T:2,R:0),(N:30,P:17,T:4,R:0),(N:26,P:10,T:3,R:0),(N:0,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" t="n">
+        <v>84</v>
+      </c>
+      <c r="B2599" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2599" t="inlineStr"/>
+      <c r="D2599" t="inlineStr"/>
+      <c r="E2599" t="inlineStr"/>
+      <c r="F2599" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2599" t="inlineStr"/>
+      <c r="H2599" t="inlineStr"/>
+      <c r="I2599" t="inlineStr"/>
+      <c r="J2599" t="inlineStr"/>
+      <c r="K2599" t="inlineStr"/>
+      <c r="L2599" t="inlineStr">
+        <is>
+          <t>(N:29,P:68,T:4,R:0),(N:5,P:52,T:2,R:0),(N:27,P:34,T:3,R:0),(N:16,P:27,T:1,R:0),(N:14,P:20,T:3,R:0),(N:21,P:18,T:1,R:0),(N:32,P:18,T:1,R:0),(N:26,P:10,T:4,R:0),(N:0,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" t="n">
+        <v>85</v>
+      </c>
+      <c r="B2600" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2600" t="inlineStr"/>
+      <c r="D2600" t="inlineStr"/>
+      <c r="E2600" t="inlineStr"/>
+      <c r="F2600" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2600" t="inlineStr"/>
+      <c r="H2600" t="inlineStr"/>
+      <c r="I2600" t="inlineStr"/>
+      <c r="J2600" t="inlineStr"/>
+      <c r="K2600" t="inlineStr"/>
+      <c r="L2600" t="inlineStr">
+        <is>
+          <t>(N:23,P:83,T:1,R:0),(N:5,P:52,T:3,R:0),(N:27,P:34,T:4,R:0),(N:16,P:27,T:2,R:0),(N:14,P:20,T:4,R:0),(N:21,P:18,T:2,R:0),(N:32,P:18,T:2,R:0),(N:0,P:10,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" t="n">
+        <v>86</v>
+      </c>
+      <c r="B2601" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2601" t="inlineStr"/>
+      <c r="D2601" t="inlineStr"/>
+      <c r="E2601" t="inlineStr"/>
+      <c r="F2601" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2601" t="inlineStr"/>
+      <c r="H2601" t="inlineStr"/>
+      <c r="I2601" t="inlineStr"/>
+      <c r="J2601" t="inlineStr"/>
+      <c r="K2601" t="inlineStr"/>
+      <c r="L2601" t="inlineStr">
+        <is>
+          <t>(N:23,P:83,T:2,R:0),(N:5,P:52,T:4,R:0),(N:16,P:44,T:2,R:1),(N:19,P:34,T:1,R:0),(N:21,P:18,T:3,R:0),(N:32,P:18,T:3,R:0),(N:3,P:18,T:1,R:0),(N:1,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" t="n">
+        <v>87</v>
+      </c>
+      <c r="B2602" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2602" t="inlineStr"/>
+      <c r="D2602" t="inlineStr"/>
+      <c r="E2602" t="inlineStr"/>
+      <c r="F2602" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2602" t="inlineStr"/>
+      <c r="H2602" t="inlineStr"/>
+      <c r="I2602" t="inlineStr"/>
+      <c r="J2602" t="inlineStr"/>
+      <c r="K2602" t="inlineStr"/>
+      <c r="L2602" t="inlineStr">
+        <is>
+          <t>(N:23,P:83,T:3,R:0),(N:19,P:64,T:1,R:1),(N:16,P:44,T:3,R:1),(N:9,P:23,T:1,R:0),(N:21,P:18,T:4,R:0),(N:32,P:18,T:4,R:0),(N:3,P:18,T:2,R:0),(N:1,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" t="n">
+        <v>88</v>
+      </c>
+      <c r="B2603" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2603" t="inlineStr"/>
+      <c r="D2603" t="inlineStr"/>
+      <c r="E2603" t="inlineStr"/>
+      <c r="F2603" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2603" t="inlineStr"/>
+      <c r="H2603" t="inlineStr"/>
+      <c r="I2603" t="inlineStr"/>
+      <c r="J2603" t="inlineStr"/>
+      <c r="K2603" t="inlineStr"/>
+      <c r="L2603" t="inlineStr">
+        <is>
+          <t>(N:23,P:83,T:4,R:0),(N:19,P:64,T:2,R:1),(N:16,P:44,T:4,R:1),(N:15,P:28,T:1,R:0),(N:5,P:25,T:1,R:0),(N:9,P:23,T:2,R:0),(N:3,P:18,T:3,R:0),(N:6,P:17,T:1,R:0),(N:1,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="n">
+        <v>89</v>
+      </c>
+      <c r="B2604" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2604" t="inlineStr"/>
+      <c r="D2604" t="inlineStr"/>
+      <c r="E2604" t="inlineStr"/>
+      <c r="F2604" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2604" t="inlineStr"/>
+      <c r="H2604" t="inlineStr"/>
+      <c r="I2604" t="inlineStr"/>
+      <c r="J2604" t="inlineStr"/>
+      <c r="K2604" t="inlineStr"/>
+      <c r="L2604" t="inlineStr">
+        <is>
+          <t>(N:19,P:64,T:3,R:1),(N:6,P:29,T:1,R:1),(N:15,P:28,T:2,R:0),(N:1,P:28,T:3,R:1),(N:5,P:25,T:2,R:0),(N:9,P:23,T:3,R:0),(N:14,P:21,T:1,R:0),(N:3,P:18,T:4,R:0),(N:20,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" t="n">
+        <v>90</v>
+      </c>
+      <c r="B2605" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2605" t="inlineStr"/>
+      <c r="D2605" t="inlineStr"/>
+      <c r="E2605" t="inlineStr"/>
+      <c r="F2605" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2605" t="inlineStr"/>
+      <c r="H2605" t="inlineStr"/>
+      <c r="I2605" t="inlineStr"/>
+      <c r="J2605" t="inlineStr"/>
+      <c r="K2605" t="inlineStr"/>
+      <c r="L2605" t="inlineStr">
+        <is>
+          <t>(N:19,P:64,T:4,R:1),(N:36,P:54,T:1,R:0),(N:6,P:29,T:2,R:1),(N:15,P:28,T:3,R:0),(N:1,P:28,T:4,R:1),(N:5,P:25,T:3,R:0),(N:9,P:23,T:4,R:0),(N:14,P:21,T:2,R:0),(N:34,P:18,T:1,R:0),(N:20,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" t="n">
+        <v>91</v>
+      </c>
+      <c r="B2606" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2606" t="inlineStr">
+        <is>
+          <t>(N:36,P:135,T:1,R:0,PL:1,J:1400)</t>
+        </is>
+      </c>
+      <c r="D2606" t="inlineStr"/>
+      <c r="E2606" t="inlineStr"/>
+      <c r="F2606" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2606" t="inlineStr"/>
+      <c r="H2606" t="inlineStr"/>
+      <c r="I2606" t="inlineStr"/>
+      <c r="J2606" t="inlineStr"/>
+      <c r="K2606" t="inlineStr"/>
+      <c r="L2606" t="inlineStr">
+        <is>
+          <t>(N:6,P:29,T:3,R:1),(N:15,P:28,T:4,R:0),(N:5,P:25,T:4,R:0),(N:14,P:21,T:3,R:0),(N:34,P:18,T:2,R:0),(N:20,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" t="n">
+        <v>92</v>
+      </c>
+      <c r="B2607" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2607" t="inlineStr">
+        <is>
+          <t>(N:36,P:135,T:2,R:0,PL:2,J:4200)</t>
+        </is>
+      </c>
+      <c r="D2607" t="inlineStr"/>
+      <c r="E2607" t="inlineStr"/>
+      <c r="F2607" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2607" t="inlineStr"/>
+      <c r="H2607" t="inlineStr"/>
+      <c r="I2607" t="inlineStr"/>
+      <c r="J2607" t="inlineStr"/>
+      <c r="K2607" t="inlineStr"/>
+      <c r="L2607" t="inlineStr">
+        <is>
+          <t>(N:34,P:41,T:2,R:1),(N:6,P:29,T:4,R:1),(N:14,P:21,T:4,R:0),(N:12,P:14,T:1,R:0),(N:25,P:12,T:1,R:0),(N:20,P:10,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" t="n">
+        <v>93</v>
+      </c>
+      <c r="B2608" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2608" t="inlineStr">
+        <is>
+          <t>(N:36,P:135,T:3,R:0,PL:3,J:8400)</t>
+        </is>
+      </c>
+      <c r="D2608" t="inlineStr"/>
+      <c r="E2608" t="inlineStr"/>
+      <c r="F2608" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2608" t="inlineStr"/>
+      <c r="H2608" t="inlineStr"/>
+      <c r="I2608" t="inlineStr"/>
+      <c r="J2608" t="inlineStr"/>
+      <c r="K2608" t="inlineStr"/>
+      <c r="L2608" t="inlineStr">
+        <is>
+          <t>(N:34,P:41,T:3,R:1),(N:14,P:37,T:1,R:0),(N:13,P:27,T:1,R:0),(N:12,P:14,T:2,R:0),(N:25,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="n">
+        <v>94</v>
+      </c>
+      <c r="B2609" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2609" t="inlineStr">
+        <is>
+          <t>(N:36,P:135,T:4,R:0,PL:4,J:14000)</t>
+        </is>
+      </c>
+      <c r="D2609" t="inlineStr"/>
+      <c r="E2609" t="inlineStr"/>
+      <c r="F2609" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2609" t="inlineStr"/>
+      <c r="H2609" t="inlineStr"/>
+      <c r="I2609" t="inlineStr"/>
+      <c r="J2609" t="inlineStr"/>
+      <c r="K2609" t="inlineStr"/>
+      <c r="L2609" t="inlineStr">
+        <is>
+          <t>(N:20,P:62,T:1,R:0),(N:34,P:41,T:4,R:1),(N:14,P:37,T:2,R:0),(N:13,P:27,T:2,R:0),(N:12,P:14,T:3,R:0),(N:30,P:14,T:1,R:0),(N:25,P:12,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" t="n">
+        <v>95</v>
+      </c>
+      <c r="B2610" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2610" t="inlineStr">
+        <is>
+          <t>(N:36,P:135,T:5,R:0,PL:5,J:21000)</t>
+        </is>
+      </c>
+      <c r="D2610" t="inlineStr"/>
+      <c r="E2610" t="inlineStr"/>
+      <c r="F2610" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="G2610" t="inlineStr"/>
+      <c r="H2610" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="I2610" t="inlineStr"/>
+      <c r="J2610" t="inlineStr"/>
+      <c r="K2610" t="inlineStr"/>
+      <c r="L2610" t="inlineStr">
+        <is>
+          <t>(N:20,P:62,T:2,R:0),(N:27,P:61,T:1,R:0),(N:14,P:37,T:3,R:0),(N:13,P:27,T:3,R:0),(N:23,P:20,T:1,R:0),(N:12,P:14,T:4,R:0),(N:30,P:14,T:2,R:0),(N:25,P:12,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" t="n">
+        <v>96</v>
+      </c>
+      <c r="B2611" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2611" t="inlineStr"/>
+      <c r="D2611" t="inlineStr">
+        <is>
+          <t>(N:36,P:135,T:5,R:0,PL:5,J:28000)</t>
+        </is>
+      </c>
+      <c r="E2611" t="inlineStr"/>
+      <c r="F2611" t="inlineStr">
+        <is>
+          <t>13600</t>
+        </is>
+      </c>
+      <c r="G2611" t="inlineStr"/>
+      <c r="H2611" t="inlineStr"/>
+      <c r="I2611" t="inlineStr"/>
+      <c r="J2611" t="inlineStr"/>
+      <c r="K2611" t="inlineStr"/>
+      <c r="L2611" t="inlineStr">
+        <is>
+          <t>(N:20,P:62,T:3,R:0),(N:27,P:61,T:2,R:0),(N:14,P:37,T:4,R:0),(N:19,P:36,T:1,R:0),(N:16,P:36,T:1,R:0),(N:13,P:27,T:4,R:0),(N:23,P:20,T:2,R:0),(N:30,P:14,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" t="n">
+        <v>97</v>
+      </c>
+      <c r="B2612" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2612" t="inlineStr"/>
+      <c r="D2612" t="inlineStr"/>
+      <c r="E2612" t="inlineStr"/>
+      <c r="F2612" t="inlineStr">
+        <is>
+          <t>13600</t>
+        </is>
+      </c>
+      <c r="G2612" t="inlineStr"/>
+      <c r="H2612" t="inlineStr"/>
+      <c r="I2612" t="inlineStr"/>
+      <c r="J2612" t="inlineStr"/>
+      <c r="K2612" t="inlineStr"/>
+      <c r="L2612" t="inlineStr">
+        <is>
+          <t>(N:20,P:82,T:3,R:1),(N:27,P:61,T:3,R:0),(N:10,P:40,T:1,R:0),(N:19,P:36,T:2,R:0),(N:16,P:36,T:2,R:0),(N:23,P:20,T:3,R:0),(N:30,P:14,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" t="n">
+        <v>98</v>
+      </c>
+      <c r="B2613" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2613" t="inlineStr"/>
+      <c r="D2613" t="inlineStr"/>
+      <c r="E2613" t="inlineStr"/>
+      <c r="F2613" t="inlineStr">
+        <is>
+          <t>13600</t>
+        </is>
+      </c>
+      <c r="G2613" t="inlineStr"/>
+      <c r="H2613" t="inlineStr"/>
+      <c r="I2613" t="inlineStr"/>
+      <c r="J2613" t="inlineStr"/>
+      <c r="K2613" t="inlineStr"/>
+      <c r="L2613" t="inlineStr">
+        <is>
+          <t>(N:20,P:82,T:4,R:1),(N:32,P:72,T:1,R:0),(N:27,P:61,T:4,R:0),(N:10,P:40,T:2,R:0),(N:19,P:36,T:3,R:0),(N:16,P:36,T:3,R:0),(N:23,P:20,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" t="n">
+        <v>99</v>
+      </c>
+      <c r="B2614" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2614" t="inlineStr">
+        <is>
+          <t>(N:32,P:102,T:1,R:0,PL:1,J:1400)</t>
+        </is>
+      </c>
+      <c r="D2614" t="inlineStr"/>
+      <c r="E2614" t="inlineStr"/>
+      <c r="F2614" t="inlineStr">
+        <is>
+          <t>13600</t>
+        </is>
+      </c>
+      <c r="G2614" t="inlineStr"/>
+      <c r="H2614" t="inlineStr"/>
+      <c r="I2614" t="inlineStr"/>
+      <c r="J2614" t="inlineStr"/>
+      <c r="K2614" t="inlineStr"/>
+      <c r="L2614" t="inlineStr">
+        <is>
+          <t>(N:10,P:40,T:3,R:0),(N:19,P:36,T:4,R:0),(N:16,P:36,T:4,R:0),(N:20,P:18,T:1,R:0),(N:9,P:18,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2615" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2615" t="inlineStr">
+        <is>
+          <t>(N:32,P:102,T:2,R:0,PL:2,J:4200)</t>
+        </is>
+      </c>
+      <c r="D2615" t="inlineStr"/>
+      <c r="E2615" t="inlineStr"/>
+      <c r="F2615" t="inlineStr">
+        <is>
+          <t>13600</t>
+        </is>
+      </c>
+      <c r="G2615" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H2615" t="inlineStr"/>
+      <c r="I2615" t="inlineStr"/>
+      <c r="J2615" t="inlineStr"/>
+      <c r="K2615" t="inlineStr"/>
+      <c r="L2615" t="inlineStr">
+        <is>
+          <t>(N:9,P:43,T:1,R:1),(N:10,P:40,T:4,R:0),(N:20,P:18,T:2,R:0),(N:12,P:15,T:1,R:0),(N:25,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" t="n">
+        <v>101</v>
+      </c>
+      <c r="B2616" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2616" t="inlineStr"/>
+      <c r="D2616" t="inlineStr">
+        <is>
+          <t>(N:32,P:102,T:2,R:0,PL:2,J:7000)</t>
+        </is>
+      </c>
+      <c r="E2616" t="inlineStr"/>
+      <c r="F2616" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="G2616" t="inlineStr"/>
+      <c r="H2616" t="inlineStr"/>
+      <c r="I2616" t="inlineStr"/>
+      <c r="J2616" t="inlineStr"/>
+      <c r="K2616" t="inlineStr"/>
+      <c r="L2616" t="inlineStr">
+        <is>
+          <t>(N:9,P:43,T:2,R:1),(N:21,P:33,T:1,R:0),(N:22,P:28,T:1,R:0),(N:20,P:18,T:3,R:0),(N:12,P:15,T:2,R:0),(N:6,P:12,T:1,R:0),(N:25,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" t="n">
+        <v>102</v>
+      </c>
+      <c r="B2617" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2617" t="inlineStr"/>
+      <c r="D2617" t="inlineStr"/>
+      <c r="E2617" t="inlineStr"/>
+      <c r="F2617" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="G2617" t="inlineStr"/>
+      <c r="H2617" t="inlineStr"/>
+      <c r="I2617" t="inlineStr"/>
+      <c r="J2617" t="inlineStr"/>
+      <c r="K2617" t="inlineStr"/>
+      <c r="L2617" t="inlineStr">
+        <is>
+          <t>(N:7,P:63,T:1,R:0),(N:9,P:43,T:3,R:1),(N:21,P:33,T:2,R:0),(N:22,P:28,T:2,R:0),(N:20,P:18,T:4,R:0),(N:12,P:15,T:3,R:0),(N:6,P:12,T:2,R:0),(N:25,P:11,T:3,R:0),(N:4,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="n">
+        <v>103</v>
+      </c>
+      <c r="B2618" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2618" t="inlineStr"/>
+      <c r="D2618" t="inlineStr"/>
+      <c r="E2618" t="inlineStr"/>
+      <c r="F2618" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="G2618" t="inlineStr"/>
+      <c r="H2618" t="inlineStr"/>
+      <c r="I2618" t="inlineStr"/>
+      <c r="J2618" t="inlineStr"/>
+      <c r="K2618" t="inlineStr"/>
+      <c r="L2618" t="inlineStr">
+        <is>
+          <t>(N:21,P:67,T:2,R:1),(N:7,P:63,T:2,R:0),(N:8,P:58,T:1,R:0),(N:9,P:43,T:4,R:1),(N:22,P:28,T:3,R:0),(N:12,P:15,T:4,R:0),(N:6,P:12,T:3,R:0),(N:25,P:11,T:4,R:0),(N:4,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="n">
+        <v>104</v>
+      </c>
+      <c r="B2619" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2619" t="inlineStr"/>
+      <c r="D2619" t="inlineStr"/>
+      <c r="E2619" t="inlineStr"/>
+      <c r="F2619" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="G2619" t="inlineStr"/>
+      <c r="H2619" t="inlineStr"/>
+      <c r="I2619" t="inlineStr"/>
+      <c r="J2619" t="inlineStr"/>
+      <c r="K2619" t="inlineStr"/>
+      <c r="L2619" t="inlineStr">
+        <is>
+          <t>(N:21,P:67,T:3,R:1),(N:7,P:63,T:3,R:0),(N:8,P:58,T:2,R:0),(N:11,P:33,T:1,R:0),(N:22,P:28,T:4,R:0),(N:18,P:28,T:1,R:0),(N:6,P:12,T:4,R:0),(N:25,P:12,T:1,R:0),(N:4,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="n">
+        <v>105</v>
+      </c>
+      <c r="B2620" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2620" t="inlineStr"/>
+      <c r="D2620" t="inlineStr"/>
+      <c r="E2620" t="inlineStr"/>
+      <c r="F2620" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="G2620" t="inlineStr"/>
+      <c r="H2620" t="inlineStr"/>
+      <c r="I2620" t="inlineStr"/>
+      <c r="J2620" t="inlineStr"/>
+      <c r="K2620" t="inlineStr"/>
+      <c r="L2620" t="inlineStr">
+        <is>
+          <t>(N:15,P:70,T:1,R:0),(N:21,P:67,T:4,R:1),(N:7,P:63,T:4,R:0),(N:8,P:58,T:3,R:0),(N:11,P:33,T:2,R:0),(N:18,P:28,T:2,R:0),(N:25,P:12,T:2,R:0),(N:4,P:11,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="n">
+        <v>106</v>
+      </c>
+      <c r="B2621" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2621" t="inlineStr"/>
+      <c r="D2621" t="inlineStr"/>
+      <c r="E2621" t="inlineStr"/>
+      <c r="F2621" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="G2621" t="inlineStr"/>
+      <c r="H2621" t="inlineStr"/>
+      <c r="I2621" t="inlineStr"/>
+      <c r="J2621" t="inlineStr"/>
+      <c r="K2621" t="inlineStr"/>
+      <c r="L2621" t="inlineStr">
+        <is>
+          <t>(N:15,P:70,T:2,R:0),(N:8,P:58,T:4,R:0),(N:11,P:33,T:3,R:0),(N:18,P:28,T:3,R:0),(N:32,P:27,T:1,R:0),(N:16,P:20,T:1,R:0),(N:25,P:12,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" t="n">
+        <v>107</v>
+      </c>
+      <c r="B2622" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2622" t="inlineStr"/>
+      <c r="D2622" t="inlineStr"/>
+      <c r="E2622" t="inlineStr"/>
+      <c r="F2622" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="G2622" t="inlineStr"/>
+      <c r="H2622" t="inlineStr"/>
+      <c r="I2622" t="inlineStr"/>
+      <c r="J2622" t="inlineStr"/>
+      <c r="K2622" t="inlineStr"/>
+      <c r="L2622" t="inlineStr">
+        <is>
+          <t>(N:15,P:70,T:3,R:0),(N:16,P:57,T:1,R:1),(N:11,P:33,T:4,R:0),(N:18,P:28,T:4,R:0),(N:32,P:27,T:2,R:0),(N:19,P:25,T:1,R:0),(N:22,P:18,T:1,R:0),(N:25,P:12,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="n">
+        <v>108</v>
+      </c>
+      <c r="B2623" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2623" t="inlineStr"/>
+      <c r="D2623" t="inlineStr"/>
+      <c r="E2623" t="inlineStr"/>
+      <c r="F2623" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="G2623" t="inlineStr"/>
+      <c r="H2623" t="inlineStr"/>
+      <c r="I2623" t="inlineStr"/>
+      <c r="J2623" t="inlineStr"/>
+      <c r="K2623" t="inlineStr"/>
+      <c r="L2623" t="inlineStr">
+        <is>
+          <t>(N:15,P:70,T:4,R:0),(N:14,P:62,T:1,R:0),(N:16,P:57,T:2,R:1),(N:13,P:30,T:1,R:0),(N:32,P:27,T:3,R:0),(N:19,P:25,T:2,R:0),(N:22,P:18,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="n">
+        <v>109</v>
+      </c>
+      <c r="B2624" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2624" t="inlineStr">
+        <is>
+          <t>(N:32,P:108,T:1,R:0,PL:1,J:1400)</t>
+        </is>
+      </c>
+      <c r="D2624" t="inlineStr"/>
+      <c r="E2624" t="inlineStr"/>
+      <c r="F2624" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="G2624" t="inlineStr"/>
+      <c r="H2624" t="inlineStr"/>
+      <c r="I2624" t="inlineStr"/>
+      <c r="J2624" t="inlineStr"/>
+      <c r="K2624" t="inlineStr"/>
+      <c r="L2624" t="inlineStr">
+        <is>
+          <t>(N:14,P:62,T:2,R:0),(N:16,P:57,T:3,R:1),(N:13,P:30,T:2,R:0),(N:19,P:25,T:3,R:0),(N:22,P:18,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" t="n">
+        <v>110</v>
+      </c>
+      <c r="B2625" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2625" t="inlineStr">
+        <is>
+          <t>(N:32,P:108,T:2,R:0,PL:2,J:4200)</t>
+        </is>
+      </c>
+      <c r="D2625" t="inlineStr"/>
+      <c r="E2625" t="inlineStr"/>
+      <c r="F2625" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="G2625" t="inlineStr"/>
+      <c r="H2625" t="inlineStr"/>
+      <c r="I2625" t="inlineStr"/>
+      <c r="J2625" t="inlineStr"/>
+      <c r="K2625" t="inlineStr"/>
+      <c r="L2625" t="inlineStr">
+        <is>
+          <t>(N:9,P:70,T:1,R:0),(N:14,P:62,T:3,R:0),(N:16,P:57,T:4,R:1),(N:13,P:30,T:3,R:0),(N:19,P:25,T:4,R:0),(N:22,P:18,T:4,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" t="n">
+        <v>111</v>
+      </c>
+      <c r="B2626" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2626" t="inlineStr">
+        <is>
+          <t>(N:32,P:108,T:3,R:0,PL:3,J:8400)</t>
+        </is>
+      </c>
+      <c r="D2626" t="inlineStr"/>
+      <c r="E2626" t="inlineStr"/>
+      <c r="F2626" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="G2626" t="inlineStr"/>
+      <c r="H2626" t="inlineStr"/>
+      <c r="I2626" t="inlineStr"/>
+      <c r="J2626" t="inlineStr"/>
+      <c r="K2626" t="inlineStr"/>
+      <c r="L2626" t="inlineStr">
+        <is>
+          <t>(N:14,P:72,T:3,R:1),(N:9,P:70,T:2,R:0),(N:7,P:34,T:1,R:0),(N:13,P:30,T:4,R:0),(N:5,P:11,T:1,R:0),(N:6,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" t="n">
+        <v>112</v>
+      </c>
+      <c r="B2627" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2627" t="inlineStr">
+        <is>
+          <t>(N:32,P:108,T:4,R:0,PL:4,J:14000)</t>
+        </is>
+      </c>
+      <c r="D2627" t="inlineStr"/>
+      <c r="E2627" t="inlineStr"/>
+      <c r="F2627" t="inlineStr">
+        <is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="G2627" t="inlineStr"/>
+      <c r="H2627" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="I2627" t="inlineStr"/>
+      <c r="J2627" t="inlineStr"/>
+      <c r="K2627" t="inlineStr"/>
+      <c r="L2627" t="inlineStr">
+        <is>
+          <t>(N:14,P:72,T:4,R:1),(N:9,P:70,T:3,R:0),(N:7,P:34,T:2,R:0),(N:35,P:27,T:1,R:0),(N:27,P:15,T:1,R:0),(N:5,P:11,T:2,R:0),(N:6,P:10,T:2,R:0),(N:3,P:10,T:1,R:0),(N:24,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" t="n">
+        <v>113</v>
+      </c>
+      <c r="B2628" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2628" t="inlineStr"/>
+      <c r="D2628" t="inlineStr">
+        <is>
+          <t>(N:32,P:108,T:4,R:0,PL:4,J:19600)</t>
+        </is>
+      </c>
+      <c r="E2628" t="inlineStr"/>
+      <c r="F2628" t="inlineStr">
+        <is>
+          <t>30200</t>
+        </is>
+      </c>
+      <c r="G2628" t="inlineStr"/>
+      <c r="H2628" t="inlineStr"/>
+      <c r="I2628" t="inlineStr"/>
+      <c r="J2628" t="inlineStr"/>
+      <c r="K2628" t="inlineStr"/>
+      <c r="L2628" t="inlineStr">
+        <is>
+          <t>(N:9,P:70,T:4,R:0),(N:10,P:49,T:1,R:0),(N:7,P:34,T:3,R:0),(N:35,P:27,T:2,R:0),(N:27,P:15,T:2,R:0),(N:5,P:11,T:3,R:0),(N:6,P:10,T:3,R:0),(N:3,P:10,T:2,R:0),(N:24,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" t="n">
+        <v>114</v>
+      </c>
+      <c r="B2629" t="n">
+        <v>36</v>
+      </c>
+      <c r="C2629" t="inlineStr"/>
+      <c r="D2629" t="inlineStr"/>
+      <c r="E2629" t="inlineStr"/>
+      <c r="F2629" t="inlineStr">
+        <is>
+          <t>30200</t>
+        </is>
+      </c>
+      <c r="G2629" t="inlineStr"/>
+      <c r="H2629" t="inlineStr"/>
+      <c r="I2629" t="inlineStr"/>
+      <c r="J2629" t="inlineStr"/>
+      <c r="K2629" t="inlineStr"/>
+      <c r="L2629" t="inlineStr">
+        <is>
+          <t>(N:10,P:49,T:2,R:0),(N:7,P:34,T:4,R:0),(N:8,P:28,T:1,R:0),(N:35,P:27,T:3,R:0),(N:34,P:25,T:1,R:0),(N:3,P:24,T:2,R:1),(N:27,P:15,T:3,R:0),(N:5,P:11,T:4,R:0),(N:6,P:10,T:4,R:0),(N:24,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/bombayAuto.xlsx
+++ b/Data/bombayAuto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2629"/>
+  <dimension ref="A1:L2891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51723,10 +51723,8 @@
       <c r="C2516" t="inlineStr"/>
       <c r="D2516" t="inlineStr"/>
       <c r="E2516" t="inlineStr"/>
-      <c r="F2516" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2516" t="n">
+        <v>0</v>
       </c>
       <c r="G2516" t="inlineStr"/>
       <c r="H2516" t="inlineStr"/>
@@ -51745,10 +51743,8 @@
       <c r="C2517" t="inlineStr"/>
       <c r="D2517" t="inlineStr"/>
       <c r="E2517" t="inlineStr"/>
-      <c r="F2517" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2517" t="n">
+        <v>0</v>
       </c>
       <c r="G2517" t="inlineStr"/>
       <c r="H2517" t="inlineStr"/>
@@ -51767,10 +51763,8 @@
       <c r="C2518" t="inlineStr"/>
       <c r="D2518" t="inlineStr"/>
       <c r="E2518" t="inlineStr"/>
-      <c r="F2518" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2518" t="n">
+        <v>0</v>
       </c>
       <c r="G2518" t="inlineStr"/>
       <c r="H2518" t="inlineStr"/>
@@ -51789,10 +51783,8 @@
       <c r="C2519" t="inlineStr"/>
       <c r="D2519" t="inlineStr"/>
       <c r="E2519" t="inlineStr"/>
-      <c r="F2519" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2519" t="n">
+        <v>0</v>
       </c>
       <c r="G2519" t="inlineStr"/>
       <c r="H2519" t="inlineStr"/>
@@ -51811,10 +51803,8 @@
       <c r="C2520" t="inlineStr"/>
       <c r="D2520" t="inlineStr"/>
       <c r="E2520" t="inlineStr"/>
-      <c r="F2520" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2520" t="n">
+        <v>0</v>
       </c>
       <c r="G2520" t="inlineStr"/>
       <c r="H2520" t="inlineStr"/>
@@ -51833,10 +51823,8 @@
       <c r="C2521" t="inlineStr"/>
       <c r="D2521" t="inlineStr"/>
       <c r="E2521" t="inlineStr"/>
-      <c r="F2521" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2521" t="n">
+        <v>0</v>
       </c>
       <c r="G2521" t="inlineStr"/>
       <c r="H2521" t="inlineStr"/>
@@ -51859,10 +51847,8 @@
       <c r="C2522" t="inlineStr"/>
       <c r="D2522" t="inlineStr"/>
       <c r="E2522" t="inlineStr"/>
-      <c r="F2522" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2522" t="n">
+        <v>0</v>
       </c>
       <c r="G2522" t="inlineStr"/>
       <c r="H2522" t="inlineStr"/>
@@ -51885,10 +51871,8 @@
       <c r="C2523" t="inlineStr"/>
       <c r="D2523" t="inlineStr"/>
       <c r="E2523" t="inlineStr"/>
-      <c r="F2523" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2523" t="n">
+        <v>0</v>
       </c>
       <c r="G2523" t="inlineStr"/>
       <c r="H2523" t="inlineStr"/>
@@ -51911,10 +51895,8 @@
       <c r="C2524" t="inlineStr"/>
       <c r="D2524" t="inlineStr"/>
       <c r="E2524" t="inlineStr"/>
-      <c r="F2524" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2524" t="n">
+        <v>0</v>
       </c>
       <c r="G2524" t="inlineStr"/>
       <c r="H2524" t="inlineStr"/>
@@ -51937,10 +51919,8 @@
       <c r="C2525" t="inlineStr"/>
       <c r="D2525" t="inlineStr"/>
       <c r="E2525" t="inlineStr"/>
-      <c r="F2525" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2525" t="n">
+        <v>0</v>
       </c>
       <c r="G2525" t="inlineStr"/>
       <c r="H2525" t="inlineStr"/>
@@ -51963,10 +51943,8 @@
       <c r="C2526" t="inlineStr"/>
       <c r="D2526" t="inlineStr"/>
       <c r="E2526" t="inlineStr"/>
-      <c r="F2526" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2526" t="n">
+        <v>0</v>
       </c>
       <c r="G2526" t="inlineStr"/>
       <c r="H2526" t="inlineStr"/>
@@ -51989,10 +51967,8 @@
       <c r="C2527" t="inlineStr"/>
       <c r="D2527" t="inlineStr"/>
       <c r="E2527" t="inlineStr"/>
-      <c r="F2527" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2527" t="n">
+        <v>0</v>
       </c>
       <c r="G2527" t="inlineStr"/>
       <c r="H2527" t="inlineStr"/>
@@ -52015,10 +51991,8 @@
       <c r="C2528" t="inlineStr"/>
       <c r="D2528" t="inlineStr"/>
       <c r="E2528" t="inlineStr"/>
-      <c r="F2528" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2528" t="n">
+        <v>0</v>
       </c>
       <c r="G2528" t="inlineStr"/>
       <c r="H2528" t="inlineStr"/>
@@ -52041,10 +52015,8 @@
       <c r="C2529" t="inlineStr"/>
       <c r="D2529" t="inlineStr"/>
       <c r="E2529" t="inlineStr"/>
-      <c r="F2529" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2529" t="n">
+        <v>0</v>
       </c>
       <c r="G2529" t="inlineStr"/>
       <c r="H2529" t="inlineStr"/>
@@ -52067,10 +52039,8 @@
       <c r="C2530" t="inlineStr"/>
       <c r="D2530" t="inlineStr"/>
       <c r="E2530" t="inlineStr"/>
-      <c r="F2530" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2530" t="n">
+        <v>0</v>
       </c>
       <c r="G2530" t="inlineStr"/>
       <c r="H2530" t="inlineStr"/>
@@ -52093,10 +52063,8 @@
       <c r="C2531" t="inlineStr"/>
       <c r="D2531" t="inlineStr"/>
       <c r="E2531" t="inlineStr"/>
-      <c r="F2531" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2531" t="n">
+        <v>0</v>
       </c>
       <c r="G2531" t="inlineStr"/>
       <c r="H2531" t="inlineStr"/>
@@ -52119,10 +52087,8 @@
       <c r="C2532" t="inlineStr"/>
       <c r="D2532" t="inlineStr"/>
       <c r="E2532" t="inlineStr"/>
-      <c r="F2532" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2532" t="n">
+        <v>0</v>
       </c>
       <c r="G2532" t="inlineStr"/>
       <c r="H2532" t="inlineStr"/>
@@ -52145,10 +52111,8 @@
       <c r="C2533" t="inlineStr"/>
       <c r="D2533" t="inlineStr"/>
       <c r="E2533" t="inlineStr"/>
-      <c r="F2533" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2533" t="n">
+        <v>0</v>
       </c>
       <c r="G2533" t="inlineStr"/>
       <c r="H2533" t="inlineStr"/>
@@ -52171,10 +52135,8 @@
       <c r="C2534" t="inlineStr"/>
       <c r="D2534" t="inlineStr"/>
       <c r="E2534" t="inlineStr"/>
-      <c r="F2534" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2534" t="n">
+        <v>0</v>
       </c>
       <c r="G2534" t="inlineStr"/>
       <c r="H2534" t="inlineStr"/>
@@ -52197,10 +52159,8 @@
       <c r="C2535" t="inlineStr"/>
       <c r="D2535" t="inlineStr"/>
       <c r="E2535" t="inlineStr"/>
-      <c r="F2535" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2535" t="n">
+        <v>0</v>
       </c>
       <c r="G2535" t="inlineStr"/>
       <c r="H2535" t="inlineStr"/>
@@ -52223,10 +52183,8 @@
       <c r="C2536" t="inlineStr"/>
       <c r="D2536" t="inlineStr"/>
       <c r="E2536" t="inlineStr"/>
-      <c r="F2536" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2536" t="n">
+        <v>0</v>
       </c>
       <c r="G2536" t="inlineStr"/>
       <c r="H2536" t="inlineStr"/>
@@ -52249,10 +52207,8 @@
       <c r="C2537" t="inlineStr"/>
       <c r="D2537" t="inlineStr"/>
       <c r="E2537" t="inlineStr"/>
-      <c r="F2537" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2537" t="n">
+        <v>0</v>
       </c>
       <c r="G2537" t="inlineStr"/>
       <c r="H2537" t="inlineStr"/>
@@ -52275,10 +52231,8 @@
       <c r="C2538" t="inlineStr"/>
       <c r="D2538" t="inlineStr"/>
       <c r="E2538" t="inlineStr"/>
-      <c r="F2538" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2538" t="n">
+        <v>0</v>
       </c>
       <c r="G2538" t="inlineStr"/>
       <c r="H2538" t="inlineStr"/>
@@ -52305,10 +52259,8 @@
       </c>
       <c r="D2539" t="inlineStr"/>
       <c r="E2539" t="inlineStr"/>
-      <c r="F2539" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F2539" t="n">
+        <v>0</v>
       </c>
       <c r="G2539" t="inlineStr"/>
       <c r="H2539" t="inlineStr"/>
@@ -52339,10 +52291,8 @@
         </is>
       </c>
       <c r="E2540" t="inlineStr"/>
-      <c r="F2540" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2540" t="n">
+        <v>4400</v>
       </c>
       <c r="G2540" t="inlineStr"/>
       <c r="H2540" t="inlineStr"/>
@@ -52365,10 +52315,8 @@
       <c r="C2541" t="inlineStr"/>
       <c r="D2541" t="inlineStr"/>
       <c r="E2541" t="inlineStr"/>
-      <c r="F2541" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2541" t="n">
+        <v>4400</v>
       </c>
       <c r="G2541" t="inlineStr"/>
       <c r="H2541" t="inlineStr"/>
@@ -52391,10 +52339,8 @@
       <c r="C2542" t="inlineStr"/>
       <c r="D2542" t="inlineStr"/>
       <c r="E2542" t="inlineStr"/>
-      <c r="F2542" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2542" t="n">
+        <v>4400</v>
       </c>
       <c r="G2542" t="inlineStr"/>
       <c r="H2542" t="inlineStr"/>
@@ -52417,10 +52363,8 @@
       <c r="C2543" t="inlineStr"/>
       <c r="D2543" t="inlineStr"/>
       <c r="E2543" t="inlineStr"/>
-      <c r="F2543" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2543" t="n">
+        <v>4400</v>
       </c>
       <c r="G2543" t="inlineStr"/>
       <c r="H2543" t="inlineStr"/>
@@ -52443,10 +52387,8 @@
       <c r="C2544" t="inlineStr"/>
       <c r="D2544" t="inlineStr"/>
       <c r="E2544" t="inlineStr"/>
-      <c r="F2544" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2544" t="n">
+        <v>4400</v>
       </c>
       <c r="G2544" t="inlineStr"/>
       <c r="H2544" t="inlineStr"/>
@@ -52469,10 +52411,8 @@
       <c r="C2545" t="inlineStr"/>
       <c r="D2545" t="inlineStr"/>
       <c r="E2545" t="inlineStr"/>
-      <c r="F2545" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2545" t="n">
+        <v>4400</v>
       </c>
       <c r="G2545" t="inlineStr"/>
       <c r="H2545" t="inlineStr"/>
@@ -52495,10 +52435,8 @@
       <c r="C2546" t="inlineStr"/>
       <c r="D2546" t="inlineStr"/>
       <c r="E2546" t="inlineStr"/>
-      <c r="F2546" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2546" t="n">
+        <v>4400</v>
       </c>
       <c r="G2546" t="inlineStr"/>
       <c r="H2546" t="inlineStr"/>
@@ -52521,10 +52459,8 @@
       <c r="C2547" t="inlineStr"/>
       <c r="D2547" t="inlineStr"/>
       <c r="E2547" t="inlineStr"/>
-      <c r="F2547" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2547" t="n">
+        <v>4400</v>
       </c>
       <c r="G2547" t="inlineStr"/>
       <c r="H2547" t="inlineStr"/>
@@ -52551,10 +52487,8 @@
       </c>
       <c r="D2548" t="inlineStr"/>
       <c r="E2548" t="inlineStr"/>
-      <c r="F2548" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2548" t="n">
+        <v>4400</v>
       </c>
       <c r="G2548" t="inlineStr"/>
       <c r="H2548" t="inlineStr"/>
@@ -52581,10 +52515,8 @@
       </c>
       <c r="D2549" t="inlineStr"/>
       <c r="E2549" t="inlineStr"/>
-      <c r="F2549" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2549" t="n">
+        <v>4400</v>
       </c>
       <c r="G2549" t="inlineStr"/>
       <c r="H2549" t="inlineStr"/>
@@ -52611,10 +52543,8 @@
       </c>
       <c r="D2550" t="inlineStr"/>
       <c r="E2550" t="inlineStr"/>
-      <c r="F2550" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2550" t="n">
+        <v>4400</v>
       </c>
       <c r="G2550" t="inlineStr"/>
       <c r="H2550" t="inlineStr"/>
@@ -52641,10 +52571,8 @@
       </c>
       <c r="D2551" t="inlineStr"/>
       <c r="E2551" t="inlineStr"/>
-      <c r="F2551" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2551" t="n">
+        <v>4400</v>
       </c>
       <c r="G2551" t="inlineStr"/>
       <c r="H2551" t="inlineStr"/>
@@ -52671,10 +52599,8 @@
       </c>
       <c r="D2552" t="inlineStr"/>
       <c r="E2552" t="inlineStr"/>
-      <c r="F2552" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2552" t="n">
+        <v>4400</v>
       </c>
       <c r="G2552" t="inlineStr"/>
       <c r="H2552" t="inlineStr"/>
@@ -52701,10 +52627,8 @@
       </c>
       <c r="D2553" t="inlineStr"/>
       <c r="E2553" t="inlineStr"/>
-      <c r="F2553" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2553" t="n">
+        <v>4400</v>
       </c>
       <c r="G2553" t="inlineStr"/>
       <c r="H2553" t="inlineStr"/>
@@ -52731,10 +52655,8 @@
       </c>
       <c r="D2554" t="inlineStr"/>
       <c r="E2554" t="inlineStr"/>
-      <c r="F2554" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2554" t="n">
+        <v>4400</v>
       </c>
       <c r="G2554" t="inlineStr"/>
       <c r="H2554" t="inlineStr"/>
@@ -52761,10 +52683,8 @@
       </c>
       <c r="D2555" t="inlineStr"/>
       <c r="E2555" t="inlineStr"/>
-      <c r="F2555" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
+      <c r="F2555" t="n">
+        <v>4400</v>
       </c>
       <c r="G2555" t="inlineStr"/>
       <c r="H2555" t="inlineStr">
@@ -52795,10 +52715,8 @@
         </is>
       </c>
       <c r="E2556" t="inlineStr"/>
-      <c r="F2556" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2556" t="n">
+        <v>4800</v>
       </c>
       <c r="G2556" t="inlineStr"/>
       <c r="H2556" t="inlineStr"/>
@@ -52821,10 +52739,8 @@
       <c r="C2557" t="inlineStr"/>
       <c r="D2557" t="inlineStr"/>
       <c r="E2557" t="inlineStr"/>
-      <c r="F2557" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2557" t="n">
+        <v>4800</v>
       </c>
       <c r="G2557" t="inlineStr"/>
       <c r="H2557" t="inlineStr"/>
@@ -52847,10 +52763,8 @@
       <c r="C2558" t="inlineStr"/>
       <c r="D2558" t="inlineStr"/>
       <c r="E2558" t="inlineStr"/>
-      <c r="F2558" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2558" t="n">
+        <v>4800</v>
       </c>
       <c r="G2558" t="inlineStr"/>
       <c r="H2558" t="inlineStr"/>
@@ -52873,10 +52787,8 @@
       <c r="C2559" t="inlineStr"/>
       <c r="D2559" t="inlineStr"/>
       <c r="E2559" t="inlineStr"/>
-      <c r="F2559" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2559" t="n">
+        <v>4800</v>
       </c>
       <c r="G2559" t="inlineStr"/>
       <c r="H2559" t="inlineStr"/>
@@ -52899,10 +52811,8 @@
       <c r="C2560" t="inlineStr"/>
       <c r="D2560" t="inlineStr"/>
       <c r="E2560" t="inlineStr"/>
-      <c r="F2560" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2560" t="n">
+        <v>4800</v>
       </c>
       <c r="G2560" t="inlineStr"/>
       <c r="H2560" t="inlineStr"/>
@@ -52925,10 +52835,8 @@
       <c r="C2561" t="inlineStr"/>
       <c r="D2561" t="inlineStr"/>
       <c r="E2561" t="inlineStr"/>
-      <c r="F2561" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2561" t="n">
+        <v>4800</v>
       </c>
       <c r="G2561" t="inlineStr"/>
       <c r="H2561" t="inlineStr"/>
@@ -52951,10 +52859,8 @@
       <c r="C2562" t="inlineStr"/>
       <c r="D2562" t="inlineStr"/>
       <c r="E2562" t="inlineStr"/>
-      <c r="F2562" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2562" t="n">
+        <v>4800</v>
       </c>
       <c r="G2562" t="inlineStr"/>
       <c r="H2562" t="inlineStr"/>
@@ -52977,10 +52883,8 @@
       <c r="C2563" t="inlineStr"/>
       <c r="D2563" t="inlineStr"/>
       <c r="E2563" t="inlineStr"/>
-      <c r="F2563" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2563" t="n">
+        <v>4800</v>
       </c>
       <c r="G2563" t="inlineStr"/>
       <c r="H2563" t="inlineStr"/>
@@ -53003,10 +52907,8 @@
       <c r="C2564" t="inlineStr"/>
       <c r="D2564" t="inlineStr"/>
       <c r="E2564" t="inlineStr"/>
-      <c r="F2564" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2564" t="n">
+        <v>4800</v>
       </c>
       <c r="G2564" t="inlineStr"/>
       <c r="H2564" t="inlineStr"/>
@@ -53029,10 +52931,8 @@
       <c r="C2565" t="inlineStr"/>
       <c r="D2565" t="inlineStr"/>
       <c r="E2565" t="inlineStr"/>
-      <c r="F2565" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2565" t="n">
+        <v>4800</v>
       </c>
       <c r="G2565" t="inlineStr"/>
       <c r="H2565" t="inlineStr"/>
@@ -53055,10 +52955,8 @@
       <c r="C2566" t="inlineStr"/>
       <c r="D2566" t="inlineStr"/>
       <c r="E2566" t="inlineStr"/>
-      <c r="F2566" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2566" t="n">
+        <v>4800</v>
       </c>
       <c r="G2566" t="inlineStr"/>
       <c r="H2566" t="inlineStr"/>
@@ -53081,10 +52979,8 @@
       <c r="C2567" t="inlineStr"/>
       <c r="D2567" t="inlineStr"/>
       <c r="E2567" t="inlineStr"/>
-      <c r="F2567" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2567" t="n">
+        <v>4800</v>
       </c>
       <c r="G2567" t="inlineStr"/>
       <c r="H2567" t="inlineStr"/>
@@ -53107,10 +53003,8 @@
       <c r="C2568" t="inlineStr"/>
       <c r="D2568" t="inlineStr"/>
       <c r="E2568" t="inlineStr"/>
-      <c r="F2568" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2568" t="n">
+        <v>4800</v>
       </c>
       <c r="G2568" t="inlineStr"/>
       <c r="H2568" t="inlineStr"/>
@@ -53133,10 +53027,8 @@
       <c r="C2569" t="inlineStr"/>
       <c r="D2569" t="inlineStr"/>
       <c r="E2569" t="inlineStr"/>
-      <c r="F2569" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2569" t="n">
+        <v>4800</v>
       </c>
       <c r="G2569" t="inlineStr"/>
       <c r="H2569" t="inlineStr"/>
@@ -53159,10 +53051,8 @@
       <c r="C2570" t="inlineStr"/>
       <c r="D2570" t="inlineStr"/>
       <c r="E2570" t="inlineStr"/>
-      <c r="F2570" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2570" t="n">
+        <v>4800</v>
       </c>
       <c r="G2570" t="inlineStr"/>
       <c r="H2570" t="inlineStr"/>
@@ -53185,10 +53075,8 @@
       <c r="C2571" t="inlineStr"/>
       <c r="D2571" t="inlineStr"/>
       <c r="E2571" t="inlineStr"/>
-      <c r="F2571" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2571" t="n">
+        <v>4800</v>
       </c>
       <c r="G2571" t="inlineStr"/>
       <c r="H2571" t="inlineStr"/>
@@ -53211,10 +53099,8 @@
       <c r="C2572" t="inlineStr"/>
       <c r="D2572" t="inlineStr"/>
       <c r="E2572" t="inlineStr"/>
-      <c r="F2572" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2572" t="n">
+        <v>4800</v>
       </c>
       <c r="G2572" t="inlineStr"/>
       <c r="H2572" t="inlineStr"/>
@@ -53237,10 +53123,8 @@
       <c r="C2573" t="inlineStr"/>
       <c r="D2573" t="inlineStr"/>
       <c r="E2573" t="inlineStr"/>
-      <c r="F2573" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2573" t="n">
+        <v>4800</v>
       </c>
       <c r="G2573" t="inlineStr"/>
       <c r="H2573" t="inlineStr"/>
@@ -53267,10 +53151,8 @@
       </c>
       <c r="D2574" t="inlineStr"/>
       <c r="E2574" t="inlineStr"/>
-      <c r="F2574" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2574" t="n">
+        <v>4800</v>
       </c>
       <c r="G2574" t="inlineStr"/>
       <c r="H2574" t="inlineStr"/>
@@ -53297,10 +53179,8 @@
       </c>
       <c r="D2575" t="inlineStr"/>
       <c r="E2575" t="inlineStr"/>
-      <c r="F2575" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2575" t="n">
+        <v>4800</v>
       </c>
       <c r="G2575" t="inlineStr"/>
       <c r="H2575" t="inlineStr"/>
@@ -53327,10 +53207,8 @@
       </c>
       <c r="D2576" t="inlineStr"/>
       <c r="E2576" t="inlineStr"/>
-      <c r="F2576" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2576" t="n">
+        <v>4800</v>
       </c>
       <c r="G2576" t="inlineStr"/>
       <c r="H2576" t="inlineStr"/>
@@ -53357,10 +53235,8 @@
       </c>
       <c r="D2577" t="inlineStr"/>
       <c r="E2577" t="inlineStr"/>
-      <c r="F2577" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2577" t="n">
+        <v>4800</v>
       </c>
       <c r="G2577" t="inlineStr"/>
       <c r="H2577" t="inlineStr"/>
@@ -53387,10 +53263,8 @@
       </c>
       <c r="D2578" t="inlineStr"/>
       <c r="E2578" t="inlineStr"/>
-      <c r="F2578" t="inlineStr">
-        <is>
-          <t>4800</t>
-        </is>
+      <c r="F2578" t="n">
+        <v>4800</v>
       </c>
       <c r="G2578" t="inlineStr"/>
       <c r="H2578" t="inlineStr"/>
@@ -53425,10 +53299,8 @@
         </is>
       </c>
       <c r="E2579" t="inlineStr"/>
-      <c r="F2579" t="inlineStr">
-        <is>
-          <t>12200</t>
-        </is>
+      <c r="F2579" t="n">
+        <v>12200</v>
       </c>
       <c r="G2579" t="inlineStr"/>
       <c r="H2579" t="inlineStr"/>
@@ -53455,10 +53327,8 @@
       </c>
       <c r="D2580" t="inlineStr"/>
       <c r="E2580" t="inlineStr"/>
-      <c r="F2580" t="inlineStr">
-        <is>
-          <t>12200</t>
-        </is>
+      <c r="F2580" t="n">
+        <v>12200</v>
       </c>
       <c r="G2580" t="inlineStr"/>
       <c r="H2580" t="inlineStr"/>
@@ -53485,10 +53355,8 @@
       </c>
       <c r="D2581" t="inlineStr"/>
       <c r="E2581" t="inlineStr"/>
-      <c r="F2581" t="inlineStr">
-        <is>
-          <t>12200</t>
-        </is>
+      <c r="F2581" t="n">
+        <v>12200</v>
       </c>
       <c r="G2581" t="inlineStr"/>
       <c r="H2581" t="inlineStr"/>
@@ -53519,10 +53387,8 @@
         </is>
       </c>
       <c r="E2582" t="inlineStr"/>
-      <c r="F2582" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2582" t="n">
+        <v>5600</v>
       </c>
       <c r="G2582" t="inlineStr"/>
       <c r="H2582" t="inlineStr"/>
@@ -53545,10 +53411,8 @@
       <c r="C2583" t="inlineStr"/>
       <c r="D2583" t="inlineStr"/>
       <c r="E2583" t="inlineStr"/>
-      <c r="F2583" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2583" t="n">
+        <v>5600</v>
       </c>
       <c r="G2583" t="inlineStr"/>
       <c r="H2583" t="inlineStr"/>
@@ -53571,10 +53435,8 @@
       <c r="C2584" t="inlineStr"/>
       <c r="D2584" t="inlineStr"/>
       <c r="E2584" t="inlineStr"/>
-      <c r="F2584" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2584" t="n">
+        <v>5600</v>
       </c>
       <c r="G2584" t="inlineStr"/>
       <c r="H2584" t="inlineStr"/>
@@ -53597,10 +53459,8 @@
       <c r="C2585" t="inlineStr"/>
       <c r="D2585" t="inlineStr"/>
       <c r="E2585" t="inlineStr"/>
-      <c r="F2585" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2585" t="n">
+        <v>5600</v>
       </c>
       <c r="G2585" t="inlineStr"/>
       <c r="H2585" t="inlineStr"/>
@@ -53623,10 +53483,8 @@
       <c r="C2586" t="inlineStr"/>
       <c r="D2586" t="inlineStr"/>
       <c r="E2586" t="inlineStr"/>
-      <c r="F2586" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2586" t="n">
+        <v>5600</v>
       </c>
       <c r="G2586" t="inlineStr"/>
       <c r="H2586" t="inlineStr"/>
@@ -53649,10 +53507,8 @@
       <c r="C2587" t="inlineStr"/>
       <c r="D2587" t="inlineStr"/>
       <c r="E2587" t="inlineStr"/>
-      <c r="F2587" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2587" t="n">
+        <v>5600</v>
       </c>
       <c r="G2587" t="inlineStr"/>
       <c r="H2587" t="inlineStr"/>
@@ -53675,10 +53531,8 @@
       <c r="C2588" t="inlineStr"/>
       <c r="D2588" t="inlineStr"/>
       <c r="E2588" t="inlineStr"/>
-      <c r="F2588" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2588" t="n">
+        <v>5600</v>
       </c>
       <c r="G2588" t="inlineStr"/>
       <c r="H2588" t="inlineStr"/>
@@ -53701,10 +53555,8 @@
       <c r="C2589" t="inlineStr"/>
       <c r="D2589" t="inlineStr"/>
       <c r="E2589" t="inlineStr"/>
-      <c r="F2589" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2589" t="n">
+        <v>5600</v>
       </c>
       <c r="G2589" t="inlineStr"/>
       <c r="H2589" t="inlineStr"/>
@@ -53727,10 +53579,8 @@
       <c r="C2590" t="inlineStr"/>
       <c r="D2590" t="inlineStr"/>
       <c r="E2590" t="inlineStr"/>
-      <c r="F2590" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2590" t="n">
+        <v>5600</v>
       </c>
       <c r="G2590" t="inlineStr"/>
       <c r="H2590" t="inlineStr"/>
@@ -53753,10 +53603,8 @@
       <c r="C2591" t="inlineStr"/>
       <c r="D2591" t="inlineStr"/>
       <c r="E2591" t="inlineStr"/>
-      <c r="F2591" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2591" t="n">
+        <v>5600</v>
       </c>
       <c r="G2591" t="inlineStr"/>
       <c r="H2591" t="inlineStr"/>
@@ -53779,10 +53627,8 @@
       <c r="C2592" t="inlineStr"/>
       <c r="D2592" t="inlineStr"/>
       <c r="E2592" t="inlineStr"/>
-      <c r="F2592" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2592" t="n">
+        <v>5600</v>
       </c>
       <c r="G2592" t="inlineStr"/>
       <c r="H2592" t="inlineStr"/>
@@ -53805,10 +53651,8 @@
       <c r="C2593" t="inlineStr"/>
       <c r="D2593" t="inlineStr"/>
       <c r="E2593" t="inlineStr"/>
-      <c r="F2593" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2593" t="n">
+        <v>5600</v>
       </c>
       <c r="G2593" t="inlineStr"/>
       <c r="H2593" t="inlineStr"/>
@@ -53831,10 +53675,8 @@
       <c r="C2594" t="inlineStr"/>
       <c r="D2594" t="inlineStr"/>
       <c r="E2594" t="inlineStr"/>
-      <c r="F2594" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2594" t="n">
+        <v>5600</v>
       </c>
       <c r="G2594" t="inlineStr"/>
       <c r="H2594" t="inlineStr"/>
@@ -53857,10 +53699,8 @@
       <c r="C2595" t="inlineStr"/>
       <c r="D2595" t="inlineStr"/>
       <c r="E2595" t="inlineStr"/>
-      <c r="F2595" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2595" t="n">
+        <v>5600</v>
       </c>
       <c r="G2595" t="inlineStr"/>
       <c r="H2595" t="inlineStr"/>
@@ -53883,10 +53723,8 @@
       <c r="C2596" t="inlineStr"/>
       <c r="D2596" t="inlineStr"/>
       <c r="E2596" t="inlineStr"/>
-      <c r="F2596" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2596" t="n">
+        <v>5600</v>
       </c>
       <c r="G2596" t="inlineStr"/>
       <c r="H2596" t="inlineStr"/>
@@ -53909,10 +53747,8 @@
       <c r="C2597" t="inlineStr"/>
       <c r="D2597" t="inlineStr"/>
       <c r="E2597" t="inlineStr"/>
-      <c r="F2597" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2597" t="n">
+        <v>5600</v>
       </c>
       <c r="G2597" t="inlineStr"/>
       <c r="H2597" t="inlineStr"/>
@@ -53935,10 +53771,8 @@
       <c r="C2598" t="inlineStr"/>
       <c r="D2598" t="inlineStr"/>
       <c r="E2598" t="inlineStr"/>
-      <c r="F2598" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2598" t="n">
+        <v>5600</v>
       </c>
       <c r="G2598" t="inlineStr"/>
       <c r="H2598" t="inlineStr"/>
@@ -53961,10 +53795,8 @@
       <c r="C2599" t="inlineStr"/>
       <c r="D2599" t="inlineStr"/>
       <c r="E2599" t="inlineStr"/>
-      <c r="F2599" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2599" t="n">
+        <v>5600</v>
       </c>
       <c r="G2599" t="inlineStr"/>
       <c r="H2599" t="inlineStr"/>
@@ -53987,10 +53819,8 @@
       <c r="C2600" t="inlineStr"/>
       <c r="D2600" t="inlineStr"/>
       <c r="E2600" t="inlineStr"/>
-      <c r="F2600" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2600" t="n">
+        <v>5600</v>
       </c>
       <c r="G2600" t="inlineStr"/>
       <c r="H2600" t="inlineStr"/>
@@ -54013,10 +53843,8 @@
       <c r="C2601" t="inlineStr"/>
       <c r="D2601" t="inlineStr"/>
       <c r="E2601" t="inlineStr"/>
-      <c r="F2601" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2601" t="n">
+        <v>5600</v>
       </c>
       <c r="G2601" t="inlineStr"/>
       <c r="H2601" t="inlineStr"/>
@@ -54039,10 +53867,8 @@
       <c r="C2602" t="inlineStr"/>
       <c r="D2602" t="inlineStr"/>
       <c r="E2602" t="inlineStr"/>
-      <c r="F2602" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2602" t="n">
+        <v>5600</v>
       </c>
       <c r="G2602" t="inlineStr"/>
       <c r="H2602" t="inlineStr"/>
@@ -54065,10 +53891,8 @@
       <c r="C2603" t="inlineStr"/>
       <c r="D2603" t="inlineStr"/>
       <c r="E2603" t="inlineStr"/>
-      <c r="F2603" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2603" t="n">
+        <v>5600</v>
       </c>
       <c r="G2603" t="inlineStr"/>
       <c r="H2603" t="inlineStr"/>
@@ -54091,10 +53915,8 @@
       <c r="C2604" t="inlineStr"/>
       <c r="D2604" t="inlineStr"/>
       <c r="E2604" t="inlineStr"/>
-      <c r="F2604" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2604" t="n">
+        <v>5600</v>
       </c>
       <c r="G2604" t="inlineStr"/>
       <c r="H2604" t="inlineStr"/>
@@ -54117,10 +53939,8 @@
       <c r="C2605" t="inlineStr"/>
       <c r="D2605" t="inlineStr"/>
       <c r="E2605" t="inlineStr"/>
-      <c r="F2605" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2605" t="n">
+        <v>5600</v>
       </c>
       <c r="G2605" t="inlineStr"/>
       <c r="H2605" t="inlineStr"/>
@@ -54147,10 +53967,8 @@
       </c>
       <c r="D2606" t="inlineStr"/>
       <c r="E2606" t="inlineStr"/>
-      <c r="F2606" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2606" t="n">
+        <v>5600</v>
       </c>
       <c r="G2606" t="inlineStr"/>
       <c r="H2606" t="inlineStr"/>
@@ -54177,10 +53995,8 @@
       </c>
       <c r="D2607" t="inlineStr"/>
       <c r="E2607" t="inlineStr"/>
-      <c r="F2607" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2607" t="n">
+        <v>5600</v>
       </c>
       <c r="G2607" t="inlineStr"/>
       <c r="H2607" t="inlineStr"/>
@@ -54207,10 +54023,8 @@
       </c>
       <c r="D2608" t="inlineStr"/>
       <c r="E2608" t="inlineStr"/>
-      <c r="F2608" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2608" t="n">
+        <v>5600</v>
       </c>
       <c r="G2608" t="inlineStr"/>
       <c r="H2608" t="inlineStr"/>
@@ -54237,10 +54051,8 @@
       </c>
       <c r="D2609" t="inlineStr"/>
       <c r="E2609" t="inlineStr"/>
-      <c r="F2609" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2609" t="n">
+        <v>5600</v>
       </c>
       <c r="G2609" t="inlineStr"/>
       <c r="H2609" t="inlineStr"/>
@@ -54267,10 +54079,8 @@
       </c>
       <c r="D2610" t="inlineStr"/>
       <c r="E2610" t="inlineStr"/>
-      <c r="F2610" t="inlineStr">
-        <is>
-          <t>5600</t>
-        </is>
+      <c r="F2610" t="n">
+        <v>5600</v>
       </c>
       <c r="G2610" t="inlineStr"/>
       <c r="H2610" t="inlineStr">
@@ -54301,10 +54111,8 @@
         </is>
       </c>
       <c r="E2611" t="inlineStr"/>
-      <c r="F2611" t="inlineStr">
-        <is>
-          <t>13600</t>
-        </is>
+      <c r="F2611" t="n">
+        <v>13600</v>
       </c>
       <c r="G2611" t="inlineStr"/>
       <c r="H2611" t="inlineStr"/>
@@ -54327,10 +54135,8 @@
       <c r="C2612" t="inlineStr"/>
       <c r="D2612" t="inlineStr"/>
       <c r="E2612" t="inlineStr"/>
-      <c r="F2612" t="inlineStr">
-        <is>
-          <t>13600</t>
-        </is>
+      <c r="F2612" t="n">
+        <v>13600</v>
       </c>
       <c r="G2612" t="inlineStr"/>
       <c r="H2612" t="inlineStr"/>
@@ -54353,10 +54159,8 @@
       <c r="C2613" t="inlineStr"/>
       <c r="D2613" t="inlineStr"/>
       <c r="E2613" t="inlineStr"/>
-      <c r="F2613" t="inlineStr">
-        <is>
-          <t>13600</t>
-        </is>
+      <c r="F2613" t="n">
+        <v>13600</v>
       </c>
       <c r="G2613" t="inlineStr"/>
       <c r="H2613" t="inlineStr"/>
@@ -54383,10 +54187,8 @@
       </c>
       <c r="D2614" t="inlineStr"/>
       <c r="E2614" t="inlineStr"/>
-      <c r="F2614" t="inlineStr">
-        <is>
-          <t>13600</t>
-        </is>
+      <c r="F2614" t="n">
+        <v>13600</v>
       </c>
       <c r="G2614" t="inlineStr"/>
       <c r="H2614" t="inlineStr"/>
@@ -54413,10 +54215,8 @@
       </c>
       <c r="D2615" t="inlineStr"/>
       <c r="E2615" t="inlineStr"/>
-      <c r="F2615" t="inlineStr">
-        <is>
-          <t>13600</t>
-        </is>
+      <c r="F2615" t="n">
+        <v>13600</v>
       </c>
       <c r="G2615" t="inlineStr">
         <is>
@@ -54447,10 +54247,8 @@
         </is>
       </c>
       <c r="E2616" t="inlineStr"/>
-      <c r="F2616" t="inlineStr">
-        <is>
-          <t>21000</t>
-        </is>
+      <c r="F2616" t="n">
+        <v>21000</v>
       </c>
       <c r="G2616" t="inlineStr"/>
       <c r="H2616" t="inlineStr"/>
@@ -54473,10 +54271,8 @@
       <c r="C2617" t="inlineStr"/>
       <c r="D2617" t="inlineStr"/>
       <c r="E2617" t="inlineStr"/>
-      <c r="F2617" t="inlineStr">
-        <is>
-          <t>21000</t>
-        </is>
+      <c r="F2617" t="n">
+        <v>21000</v>
       </c>
       <c r="G2617" t="inlineStr"/>
       <c r="H2617" t="inlineStr"/>
@@ -54499,10 +54295,8 @@
       <c r="C2618" t="inlineStr"/>
       <c r="D2618" t="inlineStr"/>
       <c r="E2618" t="inlineStr"/>
-      <c r="F2618" t="inlineStr">
-        <is>
-          <t>21000</t>
-        </is>
+      <c r="F2618" t="n">
+        <v>21000</v>
       </c>
       <c r="G2618" t="inlineStr"/>
       <c r="H2618" t="inlineStr"/>
@@ -54525,10 +54319,8 @@
       <c r="C2619" t="inlineStr"/>
       <c r="D2619" t="inlineStr"/>
       <c r="E2619" t="inlineStr"/>
-      <c r="F2619" t="inlineStr">
-        <is>
-          <t>21000</t>
-        </is>
+      <c r="F2619" t="n">
+        <v>21000</v>
       </c>
       <c r="G2619" t="inlineStr"/>
       <c r="H2619" t="inlineStr"/>
@@ -54551,10 +54343,8 @@
       <c r="C2620" t="inlineStr"/>
       <c r="D2620" t="inlineStr"/>
       <c r="E2620" t="inlineStr"/>
-      <c r="F2620" t="inlineStr">
-        <is>
-          <t>21000</t>
-        </is>
+      <c r="F2620" t="n">
+        <v>21000</v>
       </c>
       <c r="G2620" t="inlineStr"/>
       <c r="H2620" t="inlineStr"/>
@@ -54577,10 +54367,8 @@
       <c r="C2621" t="inlineStr"/>
       <c r="D2621" t="inlineStr"/>
       <c r="E2621" t="inlineStr"/>
-      <c r="F2621" t="inlineStr">
-        <is>
-          <t>21000</t>
-        </is>
+      <c r="F2621" t="n">
+        <v>21000</v>
       </c>
       <c r="G2621" t="inlineStr"/>
       <c r="H2621" t="inlineStr"/>
@@ -54603,10 +54391,8 @@
       <c r="C2622" t="inlineStr"/>
       <c r="D2622" t="inlineStr"/>
       <c r="E2622" t="inlineStr"/>
-      <c r="F2622" t="inlineStr">
-        <is>
-          <t>21000</t>
-        </is>
+      <c r="F2622" t="n">
+        <v>21000</v>
       </c>
       <c r="G2622" t="inlineStr"/>
       <c r="H2622" t="inlineStr"/>
@@ -54629,10 +54415,8 @@
       <c r="C2623" t="inlineStr"/>
       <c r="D2623" t="inlineStr"/>
       <c r="E2623" t="inlineStr"/>
-      <c r="F2623" t="inlineStr">
-        <is>
-          <t>21000</t>
-        </is>
+      <c r="F2623" t="n">
+        <v>21000</v>
       </c>
       <c r="G2623" t="inlineStr"/>
       <c r="H2623" t="inlineStr"/>
@@ -54659,10 +54443,8 @@
       </c>
       <c r="D2624" t="inlineStr"/>
       <c r="E2624" t="inlineStr"/>
-      <c r="F2624" t="inlineStr">
-        <is>
-          <t>21000</t>
-        </is>
+      <c r="F2624" t="n">
+        <v>21000</v>
       </c>
       <c r="G2624" t="inlineStr"/>
       <c r="H2624" t="inlineStr"/>
@@ -54689,10 +54471,8 @@
       </c>
       <c r="D2625" t="inlineStr"/>
       <c r="E2625" t="inlineStr"/>
-      <c r="F2625" t="inlineStr">
-        <is>
-          <t>21000</t>
-        </is>
+      <c r="F2625" t="n">
+        <v>21000</v>
       </c>
       <c r="G2625" t="inlineStr"/>
       <c r="H2625" t="inlineStr"/>
@@ -54719,10 +54499,8 @@
       </c>
       <c r="D2626" t="inlineStr"/>
       <c r="E2626" t="inlineStr"/>
-      <c r="F2626" t="inlineStr">
-        <is>
-          <t>21000</t>
-        </is>
+      <c r="F2626" t="n">
+        <v>21000</v>
       </c>
       <c r="G2626" t="inlineStr"/>
       <c r="H2626" t="inlineStr"/>
@@ -54749,10 +54527,8 @@
       </c>
       <c r="D2627" t="inlineStr"/>
       <c r="E2627" t="inlineStr"/>
-      <c r="F2627" t="inlineStr">
-        <is>
-          <t>21000</t>
-        </is>
+      <c r="F2627" t="n">
+        <v>21000</v>
       </c>
       <c r="G2627" t="inlineStr"/>
       <c r="H2627" t="inlineStr">
@@ -54783,10 +54559,8 @@
         </is>
       </c>
       <c r="E2628" t="inlineStr"/>
-      <c r="F2628" t="inlineStr">
-        <is>
-          <t>30200</t>
-        </is>
+      <c r="F2628" t="n">
+        <v>30200</v>
       </c>
       <c r="G2628" t="inlineStr"/>
       <c r="H2628" t="inlineStr"/>
@@ -54809,10 +54583,8 @@
       <c r="C2629" t="inlineStr"/>
       <c r="D2629" t="inlineStr"/>
       <c r="E2629" t="inlineStr"/>
-      <c r="F2629" t="inlineStr">
-        <is>
-          <t>30200</t>
-        </is>
+      <c r="F2629" t="n">
+        <v>30200</v>
       </c>
       <c r="G2629" t="inlineStr"/>
       <c r="H2629" t="inlineStr"/>
@@ -54825,6 +54597,6712 @@
         </is>
       </c>
     </row>
+    <row r="2630">
+      <c r="A2630" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2630" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2630" t="inlineStr"/>
+      <c r="D2630" t="inlineStr"/>
+      <c r="E2630" t="inlineStr"/>
+      <c r="F2630" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2630" t="inlineStr"/>
+      <c r="H2630" t="inlineStr"/>
+      <c r="I2630" t="inlineStr"/>
+      <c r="J2630" t="inlineStr"/>
+      <c r="K2630" t="inlineStr"/>
+      <c r="L2630" t="inlineStr"/>
+    </row>
+    <row r="2631">
+      <c r="A2631" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2631" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2631" t="inlineStr"/>
+      <c r="D2631" t="inlineStr"/>
+      <c r="E2631" t="inlineStr"/>
+      <c r="F2631" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2631" t="inlineStr"/>
+      <c r="H2631" t="inlineStr"/>
+      <c r="I2631" t="inlineStr"/>
+      <c r="J2631" t="inlineStr"/>
+      <c r="K2631" t="inlineStr"/>
+      <c r="L2631" t="inlineStr"/>
+    </row>
+    <row r="2632">
+      <c r="A2632" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2632" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2632" t="inlineStr"/>
+      <c r="D2632" t="inlineStr"/>
+      <c r="E2632" t="inlineStr"/>
+      <c r="F2632" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2632" t="inlineStr"/>
+      <c r="H2632" t="inlineStr"/>
+      <c r="I2632" t="inlineStr"/>
+      <c r="J2632" t="inlineStr"/>
+      <c r="K2632" t="inlineStr"/>
+      <c r="L2632" t="inlineStr"/>
+    </row>
+    <row r="2633">
+      <c r="A2633" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2633" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2633" t="inlineStr"/>
+      <c r="D2633" t="inlineStr"/>
+      <c r="E2633" t="inlineStr"/>
+      <c r="F2633" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2633" t="inlineStr"/>
+      <c r="H2633" t="inlineStr"/>
+      <c r="I2633" t="inlineStr"/>
+      <c r="J2633" t="inlineStr"/>
+      <c r="K2633" t="inlineStr"/>
+      <c r="L2633" t="inlineStr"/>
+    </row>
+    <row r="2634">
+      <c r="A2634" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2634" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2634" t="inlineStr"/>
+      <c r="D2634" t="inlineStr"/>
+      <c r="E2634" t="inlineStr"/>
+      <c r="F2634" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2634" t="inlineStr"/>
+      <c r="H2634" t="inlineStr"/>
+      <c r="I2634" t="inlineStr"/>
+      <c r="J2634" t="inlineStr"/>
+      <c r="K2634" t="inlineStr"/>
+      <c r="L2634" t="inlineStr"/>
+    </row>
+    <row r="2635">
+      <c r="A2635" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2635" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2635" t="inlineStr"/>
+      <c r="D2635" t="inlineStr"/>
+      <c r="E2635" t="inlineStr"/>
+      <c r="F2635" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2635" t="inlineStr"/>
+      <c r="H2635" t="inlineStr"/>
+      <c r="I2635" t="inlineStr"/>
+      <c r="J2635" t="inlineStr"/>
+      <c r="K2635" t="inlineStr"/>
+      <c r="L2635" t="inlineStr">
+        <is>
+          <t>(N:8,P:50,T:1,R:0),(N:33,P:15,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2636" t="n">
+        <v>36</v>
+      </c>
+      <c r="C2636" t="inlineStr"/>
+      <c r="D2636" t="inlineStr"/>
+      <c r="E2636" t="inlineStr"/>
+      <c r="F2636" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2636" t="inlineStr"/>
+      <c r="H2636" t="inlineStr"/>
+      <c r="I2636" t="inlineStr"/>
+      <c r="J2636" t="inlineStr"/>
+      <c r="K2636" t="inlineStr"/>
+      <c r="L2636" t="inlineStr">
+        <is>
+          <t>(N:17,P:67,T:1,R:0),(N:8,P:50,T:2,R:0),(N:33,P:43,T:1,R:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2637" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2637" t="inlineStr"/>
+      <c r="D2637" t="inlineStr"/>
+      <c r="E2637" t="inlineStr"/>
+      <c r="F2637" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2637" t="inlineStr"/>
+      <c r="H2637" t="inlineStr"/>
+      <c r="I2637" t="inlineStr"/>
+      <c r="J2637" t="inlineStr"/>
+      <c r="K2637" t="inlineStr"/>
+      <c r="L2637" t="inlineStr">
+        <is>
+          <t>(N:17,P:67,T:2,R:0),(N:4,P:54,T:1,R:0),(N:8,P:50,T:3,R:0),(N:33,P:43,T:2,R:1),(N:14,P:30,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2638" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2638" t="inlineStr"/>
+      <c r="D2638" t="inlineStr"/>
+      <c r="E2638" t="inlineStr"/>
+      <c r="F2638" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2638" t="inlineStr"/>
+      <c r="H2638" t="inlineStr"/>
+      <c r="I2638" t="inlineStr"/>
+      <c r="J2638" t="inlineStr"/>
+      <c r="K2638" t="inlineStr"/>
+      <c r="L2638" t="inlineStr">
+        <is>
+          <t>(N:17,P:67,T:3,R:0),(N:4,P:54,T:2,R:0),(N:19,P:50,T:1,R:0),(N:33,P:43,T:3,R:1),(N:14,P:30,T:2,R:0),(N:21,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2639" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2639" t="inlineStr"/>
+      <c r="D2639" t="inlineStr"/>
+      <c r="E2639" t="inlineStr"/>
+      <c r="F2639" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2639" t="inlineStr"/>
+      <c r="H2639" t="inlineStr"/>
+      <c r="I2639" t="inlineStr"/>
+      <c r="J2639" t="inlineStr"/>
+      <c r="K2639" t="inlineStr"/>
+      <c r="L2639" t="inlineStr">
+        <is>
+          <t>(N:14,P:90,T:2,R:1),(N:4,P:54,T:3,R:0),(N:19,P:50,T:2,R:0),(N:17,P:15,T:1,R:0),(N:21,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2640" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2640" t="inlineStr">
+        <is>
+          <t>(N:19,P:102,T:1,R:0,PL:1,J:3500)</t>
+        </is>
+      </c>
+      <c r="D2640" t="inlineStr"/>
+      <c r="E2640" t="inlineStr"/>
+      <c r="F2640" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2640" t="inlineStr"/>
+      <c r="H2640" t="inlineStr"/>
+      <c r="I2640" t="inlineStr"/>
+      <c r="J2640" t="inlineStr"/>
+      <c r="K2640" t="inlineStr"/>
+      <c r="L2640" t="inlineStr">
+        <is>
+          <t>(N:14,P:90,T:3,R:1),(N:17,P:15,T:2,R:0),(N:21,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2641" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2641" t="inlineStr">
+        <is>
+          <t>(N:19,P:102,T:2,R:0,PL:2,J:10500)</t>
+        </is>
+      </c>
+      <c r="D2641" t="inlineStr"/>
+      <c r="E2641" t="inlineStr"/>
+      <c r="F2641" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2641" t="inlineStr"/>
+      <c r="H2641" t="inlineStr"/>
+      <c r="I2641" t="inlineStr"/>
+      <c r="J2641" t="inlineStr"/>
+      <c r="K2641" t="inlineStr"/>
+      <c r="L2641" t="inlineStr">
+        <is>
+          <t>(N:8,P:17,T:1,R:0),(N:21,P:17,T:1,R:0),(N:17,P:15,T:3,R:0),(N:20,P:10,T:1,R:0),(N:7,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2642" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2642" t="inlineStr">
+        <is>
+          <t>(N:19,P:133,T:2,R:1,PL:4,J:21000)</t>
+        </is>
+      </c>
+      <c r="D2642" t="inlineStr"/>
+      <c r="E2642" t="inlineStr"/>
+      <c r="F2642" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2642" t="inlineStr"/>
+      <c r="H2642" t="inlineStr"/>
+      <c r="I2642" t="inlineStr"/>
+      <c r="J2642" t="inlineStr"/>
+      <c r="K2642" t="inlineStr"/>
+      <c r="L2642" t="inlineStr">
+        <is>
+          <t>(N:1,P:34,T:1,R:0),(N:8,P:17,T:2,R:0),(N:21,P:17,T:2,R:0),(N:20,P:10,T:2,R:0),(N:7,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2643" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2643" t="inlineStr">
+        <is>
+          <t>(N:19,P:133,T:3,R:1,PL:5,J:38500)</t>
+        </is>
+      </c>
+      <c r="D2643" t="inlineStr"/>
+      <c r="E2643" t="inlineStr"/>
+      <c r="F2643" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2643" t="inlineStr"/>
+      <c r="H2643" t="inlineStr"/>
+      <c r="I2643" t="inlineStr"/>
+      <c r="J2643" t="inlineStr"/>
+      <c r="K2643" t="inlineStr"/>
+      <c r="L2643" t="inlineStr">
+        <is>
+          <t>(N:8,P:51,T:2,R:1),(N:1,P:34,T:2,R:0),(N:21,P:17,T:3,R:0),(N:6,P:14,T:1,R:0),(N:20,P:10,T:3,R:0),(N:7,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2644" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2644" t="inlineStr">
+        <is>
+          <t>(N:19,P:133,T:4,R:1,PL:6,J:59500)</t>
+        </is>
+      </c>
+      <c r="D2644" t="inlineStr"/>
+      <c r="E2644" t="inlineStr"/>
+      <c r="F2644" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2644" t="inlineStr"/>
+      <c r="H2644" t="inlineStr"/>
+      <c r="I2644" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="J2644" t="inlineStr"/>
+      <c r="K2644" t="inlineStr"/>
+      <c r="L2644" t="inlineStr">
+        <is>
+          <t>(N:8,P:51,T:3,R:1),(N:1,P:34,T:3,R:0),(N:31,P:30,T:1,R:0),(N:34,P:21,T:1,R:0),(N:6,P:14,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2645" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2645" t="inlineStr"/>
+      <c r="D2645" t="inlineStr">
+        <is>
+          <t>(N:19,P:133,T:4,R:1,PL:6,J:80500)</t>
+        </is>
+      </c>
+      <c r="E2645" t="inlineStr"/>
+      <c r="F2645" t="n">
+        <v>27500</v>
+      </c>
+      <c r="G2645" t="inlineStr"/>
+      <c r="H2645" t="inlineStr"/>
+      <c r="I2645" t="inlineStr"/>
+      <c r="J2645" t="inlineStr"/>
+      <c r="K2645" t="inlineStr"/>
+      <c r="L2645" t="inlineStr">
+        <is>
+          <t>(N:31,P:30,T:2,R:0),(N:23,P:25,T:1,R:0),(N:24,P:25,T:1,R:0),(N:34,P:21,T:2,R:0),(N:6,P:14,T:3,R:0),(N:12,P:14,T:1,R:0),(N:17,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2646" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2646" t="inlineStr"/>
+      <c r="D2646" t="inlineStr"/>
+      <c r="E2646" t="inlineStr"/>
+      <c r="F2646" t="n">
+        <v>27500</v>
+      </c>
+      <c r="G2646" t="inlineStr"/>
+      <c r="H2646" t="inlineStr"/>
+      <c r="I2646" t="inlineStr"/>
+      <c r="J2646" t="inlineStr"/>
+      <c r="K2646" t="inlineStr"/>
+      <c r="L2646" t="inlineStr">
+        <is>
+          <t>(N:31,P:30,T:3,R:0),(N:23,P:25,T:2,R:0),(N:24,P:25,T:2,R:0),(N:28,P:23,T:1,R:0),(N:34,P:21,T:3,R:0),(N:10,P:20,T:1,R:0),(N:5,P:18,T:1,R:0),(N:12,P:14,T:2,R:0),(N:17,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2647" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2647" t="inlineStr"/>
+      <c r="D2647" t="inlineStr"/>
+      <c r="E2647" t="inlineStr"/>
+      <c r="F2647" t="n">
+        <v>27500</v>
+      </c>
+      <c r="G2647" t="inlineStr"/>
+      <c r="H2647" t="inlineStr"/>
+      <c r="I2647" t="inlineStr"/>
+      <c r="J2647" t="inlineStr"/>
+      <c r="K2647" t="inlineStr"/>
+      <c r="L2647" t="inlineStr">
+        <is>
+          <t>(N:23,P:69,T:2,R:1),(N:24,P:25,T:3,R:0),(N:28,P:23,T:2,R:0),(N:10,P:20,T:2,R:0),(N:5,P:18,T:2,R:0),(N:25,P:17,T:1,R:0),(N:15,P:15,T:1,R:0),(N:12,P:14,T:3,R:0),(N:17,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2648" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2648" t="inlineStr">
+        <is>
+          <t>(N:23,P:162,T:1,R:0,PL:1,J:3500)</t>
+        </is>
+      </c>
+      <c r="D2648" t="inlineStr"/>
+      <c r="E2648" t="inlineStr"/>
+      <c r="F2648" t="n">
+        <v>27500</v>
+      </c>
+      <c r="G2648" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H2648" t="inlineStr"/>
+      <c r="I2648" t="inlineStr"/>
+      <c r="J2648" t="inlineStr"/>
+      <c r="K2648" t="inlineStr"/>
+      <c r="L2648" t="inlineStr">
+        <is>
+          <t>(N:28,P:23,T:3,R:0),(N:10,P:20,T:3,R:0),(N:5,P:18,T:3,R:0),(N:25,P:17,T:2,R:0),(N:15,P:15,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2649" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2649" t="inlineStr"/>
+      <c r="D2649" t="inlineStr">
+        <is>
+          <t>(N:23,P:162,T:1,R:0,PL:1,J:7000)</t>
+        </is>
+      </c>
+      <c r="E2649" t="inlineStr"/>
+      <c r="F2649" t="n">
+        <v>38500</v>
+      </c>
+      <c r="G2649" t="inlineStr"/>
+      <c r="H2649" t="inlineStr"/>
+      <c r="I2649" t="inlineStr"/>
+      <c r="J2649" t="inlineStr"/>
+      <c r="K2649" t="inlineStr"/>
+      <c r="L2649" t="inlineStr">
+        <is>
+          <t>(N:34,P:40,T:1,R:0),(N:36,P:34,T:1,R:0),(N:25,P:17,T:3,R:0),(N:15,P:15,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2650" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2650" t="inlineStr"/>
+      <c r="D2650" t="inlineStr"/>
+      <c r="E2650" t="inlineStr"/>
+      <c r="F2650" t="n">
+        <v>38500</v>
+      </c>
+      <c r="G2650" t="inlineStr"/>
+      <c r="H2650" t="inlineStr"/>
+      <c r="I2650" t="inlineStr"/>
+      <c r="J2650" t="inlineStr"/>
+      <c r="K2650" t="inlineStr"/>
+      <c r="L2650" t="inlineStr">
+        <is>
+          <t>(N:34,P:40,T:2,R:0),(N:29,P:40,T:1,R:0),(N:26,P:38,T:1,R:0),(N:36,P:34,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2651" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t>(N:29,P:132,T:1,R:0,PL:1,J:3500)</t>
+        </is>
+      </c>
+      <c r="D2651" t="inlineStr"/>
+      <c r="E2651" t="inlineStr"/>
+      <c r="F2651" t="n">
+        <v>38500</v>
+      </c>
+      <c r="G2651" t="inlineStr"/>
+      <c r="H2651" t="inlineStr"/>
+      <c r="I2651" t="inlineStr"/>
+      <c r="J2651" t="inlineStr"/>
+      <c r="K2651" t="inlineStr"/>
+      <c r="L2651" t="inlineStr">
+        <is>
+          <t>(N:34,P:40,T:3,R:0),(N:26,P:38,T:2,R:0),(N:36,P:34,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2652" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t>(N:29,P:132,T:2,R:0,PL:2,J:10500)</t>
+        </is>
+      </c>
+      <c r="D2652" t="inlineStr"/>
+      <c r="E2652" t="inlineStr"/>
+      <c r="F2652" t="n">
+        <v>38500</v>
+      </c>
+      <c r="G2652" t="inlineStr"/>
+      <c r="H2652" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="I2652" t="inlineStr"/>
+      <c r="J2652" t="inlineStr"/>
+      <c r="K2652" t="inlineStr"/>
+      <c r="L2652" t="inlineStr">
+        <is>
+          <t>(N:17,P:85,T:1,R:0),(N:26,P:38,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2653" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2653" t="inlineStr"/>
+      <c r="D2653" t="inlineStr">
+        <is>
+          <t>(N:29,P:132,T:2,R:0,PL:2,J:17500)</t>
+        </is>
+      </c>
+      <c r="E2653" t="inlineStr"/>
+      <c r="F2653" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G2653" t="inlineStr"/>
+      <c r="H2653" t="inlineStr"/>
+      <c r="I2653" t="inlineStr"/>
+      <c r="J2653" t="inlineStr"/>
+      <c r="K2653" t="inlineStr"/>
+      <c r="L2653" t="inlineStr">
+        <is>
+          <t>(N:17,P:85,T:2,R:0),(N:12,P:23,T:1,R:0),(N:9,P:14,T:1,R:0),(N:29,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2654" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2654" t="inlineStr"/>
+      <c r="D2654" t="inlineStr"/>
+      <c r="E2654" t="inlineStr"/>
+      <c r="F2654" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G2654" t="inlineStr"/>
+      <c r="H2654" t="inlineStr"/>
+      <c r="I2654" t="inlineStr"/>
+      <c r="J2654" t="inlineStr"/>
+      <c r="K2654" t="inlineStr"/>
+      <c r="L2654" t="inlineStr">
+        <is>
+          <t>(N:17,P:85,T:3,R:0),(N:12,P:23,T:2,R:0),(N:35,P:21,T:1,R:0),(N:20,P:20,T:1,R:0),(N:27,P:17,T:1,R:0),(N:9,P:14,T:2,R:0),(N:29,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2655" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2655" t="inlineStr"/>
+      <c r="D2655" t="inlineStr"/>
+      <c r="E2655" t="inlineStr"/>
+      <c r="F2655" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G2655" t="inlineStr"/>
+      <c r="H2655" t="inlineStr"/>
+      <c r="I2655" t="inlineStr"/>
+      <c r="J2655" t="inlineStr"/>
+      <c r="K2655" t="inlineStr"/>
+      <c r="L2655" t="inlineStr">
+        <is>
+          <t>(N:7,P:47,T:1,R:0),(N:12,P:23,T:3,R:0),(N:35,P:21,T:2,R:0),(N:20,P:20,T:2,R:0),(N:27,P:17,T:2,R:0),(N:8,P:15,T:1,R:0),(N:9,P:14,T:3,R:0),(N:29,P:12,T:3,R:0),(N:15,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2656" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2656" t="inlineStr"/>
+      <c r="D2656" t="inlineStr"/>
+      <c r="E2656" t="inlineStr"/>
+      <c r="F2656" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G2656" t="inlineStr"/>
+      <c r="H2656" t="inlineStr"/>
+      <c r="I2656" t="inlineStr"/>
+      <c r="J2656" t="inlineStr"/>
+      <c r="K2656" t="inlineStr"/>
+      <c r="L2656" t="inlineStr">
+        <is>
+          <t>(N:8,P:76,T:1,R:1),(N:7,P:47,T:2,R:0),(N:19,P:30,T:1,R:0),(N:35,P:21,T:3,R:0),(N:20,P:20,T:3,R:0),(N:27,P:17,T:3,R:0),(N:15,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2657" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2657" t="inlineStr"/>
+      <c r="D2657" t="inlineStr"/>
+      <c r="E2657" t="inlineStr"/>
+      <c r="F2657" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G2657" t="inlineStr"/>
+      <c r="H2657" t="inlineStr"/>
+      <c r="I2657" t="inlineStr"/>
+      <c r="J2657" t="inlineStr"/>
+      <c r="K2657" t="inlineStr"/>
+      <c r="L2657" t="inlineStr">
+        <is>
+          <t>(N:8,P:76,T:2,R:1),(N:7,P:47,T:3,R:0),(N:4,P:31,T:1,R:0),(N:19,P:30,T:2,R:0),(N:31,P:18,T:1,R:0),(N:15,P:10,T:3,R:0),(N:20,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2658" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2658" t="inlineStr"/>
+      <c r="D2658" t="inlineStr"/>
+      <c r="E2658" t="inlineStr"/>
+      <c r="F2658" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G2658" t="inlineStr"/>
+      <c r="H2658" t="inlineStr"/>
+      <c r="I2658" t="inlineStr"/>
+      <c r="J2658" t="inlineStr"/>
+      <c r="K2658" t="inlineStr"/>
+      <c r="L2658" t="inlineStr">
+        <is>
+          <t>(N:8,P:76,T:3,R:1),(N:4,P:31,T:2,R:0),(N:19,P:30,T:3,R:0),(N:0,P:25,T:1,R:0),(N:7,P:21,T:1,R:0),(N:31,P:18,T:2,R:0),(N:27,P:14,T:1,R:0),(N:20,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2659" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2659" t="inlineStr"/>
+      <c r="D2659" t="inlineStr"/>
+      <c r="E2659" t="inlineStr"/>
+      <c r="F2659" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G2659" t="inlineStr"/>
+      <c r="H2659" t="inlineStr"/>
+      <c r="I2659" t="inlineStr"/>
+      <c r="J2659" t="inlineStr"/>
+      <c r="K2659" t="inlineStr"/>
+      <c r="L2659" t="inlineStr">
+        <is>
+          <t>(N:7,P:55,T:1,R:1),(N:17,P:36,T:1,R:0),(N:4,P:31,T:3,R:0),(N:0,P:25,T:2,R:0),(N:31,P:18,T:3,R:0),(N:27,P:14,T:2,R:0),(N:20,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2660" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2660" t="inlineStr"/>
+      <c r="D2660" t="inlineStr"/>
+      <c r="E2660" t="inlineStr"/>
+      <c r="F2660" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G2660" t="inlineStr"/>
+      <c r="H2660" t="inlineStr"/>
+      <c r="I2660" t="inlineStr"/>
+      <c r="J2660" t="inlineStr"/>
+      <c r="K2660" t="inlineStr"/>
+      <c r="L2660" t="inlineStr">
+        <is>
+          <t>(N:19,P:66,T:1,R:0),(N:7,P:55,T:2,R:1),(N:17,P:36,T:2,R:0),(N:0,P:25,T:3,R:0),(N:27,P:14,T:3,R:0),(N:6,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2661" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2661" t="inlineStr"/>
+      <c r="D2661" t="inlineStr"/>
+      <c r="E2661" t="inlineStr"/>
+      <c r="F2661" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G2661" t="inlineStr"/>
+      <c r="H2661" t="inlineStr"/>
+      <c r="I2661" t="inlineStr"/>
+      <c r="J2661" t="inlineStr"/>
+      <c r="K2661" t="inlineStr"/>
+      <c r="L2661" t="inlineStr">
+        <is>
+          <t>(N:19,P:66,T:2,R:0),(N:7,P:55,T:3,R:1),(N:17,P:36,T:3,R:0),(N:25,P:21,T:1,R:0),(N:8,P:17,T:1,R:0),(N:6,P:11,T:2,R:0),(N:32,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2662" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2662" t="inlineStr"/>
+      <c r="D2662" t="inlineStr"/>
+      <c r="E2662" t="inlineStr"/>
+      <c r="F2662" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G2662" t="inlineStr"/>
+      <c r="H2662" t="inlineStr"/>
+      <c r="I2662" t="inlineStr"/>
+      <c r="J2662" t="inlineStr"/>
+      <c r="K2662" t="inlineStr"/>
+      <c r="L2662" t="inlineStr">
+        <is>
+          <t>(N:19,P:66,T:3,R:0),(N:10,P:28,T:1,R:0),(N:25,P:21,T:2,R:0),(N:1,P:20,T:1,R:0),(N:8,P:17,T:2,R:0),(N:36,P:17,T:1,R:0),(N:6,P:11,T:3,R:0),(N:32,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2663" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2663" t="inlineStr">
+        <is>
+          <t>(N:8,P:103,T:1,R:0,PL:1,J:3500)</t>
+        </is>
+      </c>
+      <c r="D2663" t="inlineStr"/>
+      <c r="E2663" t="inlineStr"/>
+      <c r="F2663" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G2663" t="inlineStr"/>
+      <c r="H2663" t="inlineStr"/>
+      <c r="I2663" t="inlineStr"/>
+      <c r="J2663" t="inlineStr"/>
+      <c r="K2663" t="inlineStr"/>
+      <c r="L2663" t="inlineStr">
+        <is>
+          <t>(N:10,P:28,T:2,R:0),(N:25,P:21,T:3,R:0),(N:1,P:20,T:2,R:0),(N:36,P:17,T:2,R:0),(N:32,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2664" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2664" t="inlineStr">
+        <is>
+          <t>(N:8,P:103,T:2,R:0,PL:2,J:10500)</t>
+        </is>
+      </c>
+      <c r="D2664" t="inlineStr"/>
+      <c r="E2664" t="inlineStr"/>
+      <c r="F2664" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G2664" t="inlineStr"/>
+      <c r="H2664" t="inlineStr"/>
+      <c r="I2664" t="inlineStr"/>
+      <c r="J2664" t="inlineStr"/>
+      <c r="K2664" t="inlineStr"/>
+      <c r="L2664" t="inlineStr">
+        <is>
+          <t>(N:33,P:89,T:1,R:0),(N:10,P:28,T:3,R:0),(N:1,P:20,T:3,R:0),(N:36,P:17,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2665" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2665" t="inlineStr">
+        <is>
+          <t>(N:8,P:103,T:3,R:0,PL:3,J:21000)</t>
+        </is>
+      </c>
+      <c r="D2665" t="inlineStr"/>
+      <c r="E2665" t="inlineStr"/>
+      <c r="F2665" t="n">
+        <v>57000</v>
+      </c>
+      <c r="G2665" t="inlineStr"/>
+      <c r="H2665" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="I2665" t="inlineStr"/>
+      <c r="J2665" t="inlineStr"/>
+      <c r="K2665" t="inlineStr"/>
+      <c r="L2665" t="inlineStr">
+        <is>
+          <t>(N:33,P:89,T:2,R:0),(N:24,P:38,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="n">
+        <v>37</v>
+      </c>
+      <c r="B2666" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2666" t="inlineStr"/>
+      <c r="D2666" t="inlineStr">
+        <is>
+          <t>(N:8,P:103,T:3,R:0,PL:3,J:31500)</t>
+        </is>
+      </c>
+      <c r="E2666" t="inlineStr"/>
+      <c r="F2666" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2666" t="inlineStr"/>
+      <c r="H2666" t="inlineStr"/>
+      <c r="I2666" t="inlineStr"/>
+      <c r="J2666" t="inlineStr"/>
+      <c r="K2666" t="inlineStr"/>
+      <c r="L2666" t="inlineStr">
+        <is>
+          <t>(N:33,P:89,T:3,R:0),(N:24,P:38,T:2,R:0),(N:8,P:38,T:1,R:0),(N:35,P:20,T:1,R:0),(N:7,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="n">
+        <v>38</v>
+      </c>
+      <c r="B2667" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2667" t="inlineStr"/>
+      <c r="D2667" t="inlineStr"/>
+      <c r="E2667" t="inlineStr"/>
+      <c r="F2667" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2667" t="inlineStr"/>
+      <c r="H2667" t="inlineStr"/>
+      <c r="I2667" t="inlineStr"/>
+      <c r="J2667" t="inlineStr"/>
+      <c r="K2667" t="inlineStr"/>
+      <c r="L2667" t="inlineStr">
+        <is>
+          <t>(N:24,P:38,T:3,R:0),(N:8,P:38,T:2,R:0),(N:33,P:31,T:1,R:0),(N:35,P:20,T:2,R:0),(N:7,P:11,T:2,R:0),(N:21,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="n">
+        <v>39</v>
+      </c>
+      <c r="B2668" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2668" t="inlineStr"/>
+      <c r="D2668" t="inlineStr"/>
+      <c r="E2668" t="inlineStr"/>
+      <c r="F2668" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2668" t="inlineStr"/>
+      <c r="H2668" t="inlineStr"/>
+      <c r="I2668" t="inlineStr"/>
+      <c r="J2668" t="inlineStr"/>
+      <c r="K2668" t="inlineStr"/>
+      <c r="L2668" t="inlineStr">
+        <is>
+          <t>(N:8,P:38,T:3,R:0),(N:24,P:33,T:1,R:0),(N:33,P:31,T:2,R:0),(N:35,P:20,T:3,R:0),(N:4,P:17,T:1,R:0),(N:2,P:17,T:1,R:0),(N:7,P:11,T:3,R:0),(N:21,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" t="n">
+        <v>40</v>
+      </c>
+      <c r="B2669" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2669" t="inlineStr"/>
+      <c r="D2669" t="inlineStr"/>
+      <c r="E2669" t="inlineStr"/>
+      <c r="F2669" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2669" t="inlineStr"/>
+      <c r="H2669" t="inlineStr"/>
+      <c r="I2669" t="inlineStr"/>
+      <c r="J2669" t="inlineStr"/>
+      <c r="K2669" t="inlineStr"/>
+      <c r="L2669" t="inlineStr">
+        <is>
+          <t>(N:24,P:33,T:2,R:0),(N:33,P:31,T:3,R:0),(N:20,P:28,T:1,R:0),(N:14,P:25,T:1,R:0),(N:4,P:17,T:2,R:0),(N:2,P:17,T:2,R:0),(N:34,P:12,T:1,R:0),(N:21,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="n">
+        <v>41</v>
+      </c>
+      <c r="B2670" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2670" t="inlineStr"/>
+      <c r="D2670" t="inlineStr"/>
+      <c r="E2670" t="inlineStr"/>
+      <c r="F2670" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2670" t="inlineStr"/>
+      <c r="H2670" t="inlineStr"/>
+      <c r="I2670" t="inlineStr"/>
+      <c r="J2670" t="inlineStr"/>
+      <c r="K2670" t="inlineStr"/>
+      <c r="L2670" t="inlineStr">
+        <is>
+          <t>(N:24,P:87,T:2,R:1),(N:20,P:38,T:1,R:1),(N:14,P:25,T:2,R:0),(N:4,P:17,T:3,R:0),(N:2,P:17,T:3,R:0),(N:3,P:15,T:1,R:0),(N:34,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2671" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2671" t="inlineStr"/>
+      <c r="D2671" t="inlineStr"/>
+      <c r="E2671" t="inlineStr"/>
+      <c r="F2671" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2671" t="inlineStr"/>
+      <c r="H2671" t="inlineStr"/>
+      <c r="I2671" t="inlineStr"/>
+      <c r="J2671" t="inlineStr"/>
+      <c r="K2671" t="inlineStr"/>
+      <c r="L2671" t="inlineStr">
+        <is>
+          <t>(N:24,P:87,T:3,R:1),(N:20,P:38,T:2,R:1),(N:14,P:25,T:3,R:0),(N:31,P:17,T:1,R:0),(N:3,P:15,T:2,R:0),(N:9,P:15,T:1,R:0),(N:34,P:12,T:3,R:0),(N:33,P:10,T:1,R:0),(N:4,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2672" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2672" t="inlineStr"/>
+      <c r="D2672" t="inlineStr"/>
+      <c r="E2672" t="inlineStr"/>
+      <c r="F2672" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2672" t="inlineStr"/>
+      <c r="H2672" t="inlineStr"/>
+      <c r="I2672" t="inlineStr"/>
+      <c r="J2672" t="inlineStr"/>
+      <c r="K2672" t="inlineStr"/>
+      <c r="L2672" t="inlineStr">
+        <is>
+          <t>(N:17,P:72,T:1,R:0),(N:20,P:38,T:3,R:1),(N:31,P:17,T:2,R:0),(N:3,P:15,T:3,R:0),(N:9,P:15,T:2,R:0),(N:33,P:10,T:2,R:0),(N:4,P:10,T:2,R:0),(N:14,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" t="n">
+        <v>44</v>
+      </c>
+      <c r="B2673" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2673" t="inlineStr"/>
+      <c r="D2673" t="inlineStr"/>
+      <c r="E2673" t="inlineStr"/>
+      <c r="F2673" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2673" t="inlineStr"/>
+      <c r="H2673" t="inlineStr"/>
+      <c r="I2673" t="inlineStr"/>
+      <c r="J2673" t="inlineStr"/>
+      <c r="K2673" t="inlineStr"/>
+      <c r="L2673" t="inlineStr">
+        <is>
+          <t>(N:17,P:72,T:2,R:0),(N:31,P:17,T:3,R:0),(N:8,P:17,T:1,R:0),(N:9,P:15,T:3,R:0),(N:6,P:14,T:1,R:0),(N:33,P:10,T:3,R:0),(N:4,P:10,T:3,R:0),(N:14,P:10,T:2,R:0),(N:28,P:10,T:1,R:0),(N:19,P:10,T:1,R:0),(N:21,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" t="n">
+        <v>45</v>
+      </c>
+      <c r="B2674" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2674" t="inlineStr"/>
+      <c r="D2674" t="inlineStr"/>
+      <c r="E2674" t="inlineStr"/>
+      <c r="F2674" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2674" t="inlineStr"/>
+      <c r="H2674" t="inlineStr"/>
+      <c r="I2674" t="inlineStr"/>
+      <c r="J2674" t="inlineStr"/>
+      <c r="K2674" t="inlineStr"/>
+      <c r="L2674" t="inlineStr">
+        <is>
+          <t>(N:17,P:72,T:3,R:0),(N:14,P:70,T:2,R:1),(N:7,P:20,T:1,R:0),(N:8,P:17,T:2,R:0),(N:6,P:14,T:2,R:0),(N:28,P:10,T:2,R:0),(N:19,P:10,T:2,R:0),(N:21,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="n">
+        <v>46</v>
+      </c>
+      <c r="B2675" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2675" t="inlineStr"/>
+      <c r="D2675" t="inlineStr"/>
+      <c r="E2675" t="inlineStr"/>
+      <c r="F2675" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2675" t="inlineStr"/>
+      <c r="H2675" t="inlineStr"/>
+      <c r="I2675" t="inlineStr"/>
+      <c r="J2675" t="inlineStr"/>
+      <c r="K2675" t="inlineStr"/>
+      <c r="L2675" t="inlineStr">
+        <is>
+          <t>(N:14,P:70,T:3,R:1),(N:7,P:20,T:2,R:0),(N:28,P:20,T:2,R:1),(N:33,P:20,T:1,R:0),(N:36,P:18,T:1,R:0),(N:8,P:17,T:3,R:0),(N:22,P:15,T:1,R:0),(N:6,P:14,T:3,R:0),(N:19,P:10,T:3,R:0),(N:21,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="n">
+        <v>47</v>
+      </c>
+      <c r="B2676" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2676" t="inlineStr"/>
+      <c r="D2676" t="inlineStr"/>
+      <c r="E2676" t="inlineStr"/>
+      <c r="F2676" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2676" t="inlineStr"/>
+      <c r="H2676" t="inlineStr"/>
+      <c r="I2676" t="inlineStr"/>
+      <c r="J2676" t="inlineStr"/>
+      <c r="K2676" t="inlineStr"/>
+      <c r="L2676" t="inlineStr">
+        <is>
+          <t>(N:21,P:34,T:1,R:0),(N:7,P:20,T:3,R:0),(N:28,P:20,T:3,R:1),(N:33,P:20,T:2,R:0),(N:36,P:18,T:2,R:0),(N:22,P:15,T:2,R:0),(N:34,P:12,T:1,R:0),(N:29,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="n">
+        <v>48</v>
+      </c>
+      <c r="B2677" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2677" t="inlineStr"/>
+      <c r="D2677" t="inlineStr"/>
+      <c r="E2677" t="inlineStr"/>
+      <c r="F2677" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2677" t="inlineStr"/>
+      <c r="H2677" t="inlineStr"/>
+      <c r="I2677" t="inlineStr"/>
+      <c r="J2677" t="inlineStr"/>
+      <c r="K2677" t="inlineStr"/>
+      <c r="L2677" t="inlineStr">
+        <is>
+          <t>(N:13,P:56,T:1,R:0),(N:21,P:34,T:2,R:0),(N:33,P:20,T:3,R:0),(N:36,P:18,T:3,R:0),(N:22,P:15,T:3,R:0),(N:34,P:12,T:2,R:0),(N:32,P:12,T:1,R:0),(N:29,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="n">
+        <v>49</v>
+      </c>
+      <c r="B2678" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2678" t="inlineStr"/>
+      <c r="D2678" t="inlineStr"/>
+      <c r="E2678" t="inlineStr"/>
+      <c r="F2678" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2678" t="inlineStr"/>
+      <c r="H2678" t="inlineStr"/>
+      <c r="I2678" t="inlineStr"/>
+      <c r="J2678" t="inlineStr"/>
+      <c r="K2678" t="inlineStr"/>
+      <c r="L2678" t="inlineStr">
+        <is>
+          <t>(N:13,P:56,T:2,R:0),(N:15,P:36,T:1,R:0),(N:21,P:34,T:3,R:0),(N:29,P:28,T:2,R:1),(N:14,P:15,T:1,R:0),(N:34,P:12,T:3,R:0),(N:32,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2679" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2679" t="inlineStr"/>
+      <c r="D2679" t="inlineStr"/>
+      <c r="E2679" t="inlineStr"/>
+      <c r="F2679" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2679" t="inlineStr"/>
+      <c r="H2679" t="inlineStr"/>
+      <c r="I2679" t="inlineStr"/>
+      <c r="J2679" t="inlineStr"/>
+      <c r="K2679" t="inlineStr"/>
+      <c r="L2679" t="inlineStr">
+        <is>
+          <t>(N:23,P:75,T:1,R:0),(N:13,P:56,T:3,R:0),(N:15,P:36,T:2,R:0),(N:29,P:28,T:3,R:1),(N:14,P:15,T:2,R:0),(N:32,P:12,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" t="n">
+        <v>51</v>
+      </c>
+      <c r="B2680" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2680" t="inlineStr"/>
+      <c r="D2680" t="inlineStr"/>
+      <c r="E2680" t="inlineStr"/>
+      <c r="F2680" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2680" t="inlineStr"/>
+      <c r="H2680" t="inlineStr"/>
+      <c r="I2680" t="inlineStr"/>
+      <c r="J2680" t="inlineStr"/>
+      <c r="K2680" t="inlineStr"/>
+      <c r="L2680" t="inlineStr">
+        <is>
+          <t>(N:23,P:75,T:2,R:0),(N:29,P:37,T:1,R:0),(N:15,P:36,T:3,R:0),(N:2,P:20,T:1,R:0),(N:7,P:17,T:1,R:0),(N:14,P:15,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" t="n">
+        <v>52</v>
+      </c>
+      <c r="B2681" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2681" t="inlineStr"/>
+      <c r="D2681" t="inlineStr"/>
+      <c r="E2681" t="inlineStr"/>
+      <c r="F2681" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2681" t="inlineStr"/>
+      <c r="H2681" t="inlineStr"/>
+      <c r="I2681" t="inlineStr"/>
+      <c r="J2681" t="inlineStr"/>
+      <c r="K2681" t="inlineStr"/>
+      <c r="L2681" t="inlineStr">
+        <is>
+          <t>(N:23,P:75,T:3,R:0),(N:29,P:37,T:2,R:0),(N:2,P:20,T:2,R:0),(N:30,P:20,T:1,R:0),(N:7,P:17,T:2,R:0),(N:20,P:17,T:1,R:0),(N:27,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" t="n">
+        <v>53</v>
+      </c>
+      <c r="B2682" t="n">
+        <v>36</v>
+      </c>
+      <c r="C2682" t="inlineStr"/>
+      <c r="D2682" t="inlineStr"/>
+      <c r="E2682" t="inlineStr"/>
+      <c r="F2682" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2682" t="inlineStr"/>
+      <c r="H2682" t="inlineStr"/>
+      <c r="I2682" t="inlineStr"/>
+      <c r="J2682" t="inlineStr"/>
+      <c r="K2682" t="inlineStr"/>
+      <c r="L2682" t="inlineStr">
+        <is>
+          <t>(N:18,P:43,T:1,R:0),(N:29,P:37,T:3,R:0),(N:16,P:27,T:1,R:0),(N:2,P:20,T:3,R:0),(N:30,P:20,T:2,R:0),(N:7,P:17,T:3,R:0),(N:20,P:17,T:2,R:0),(N:27,P:10,T:2,R:0),(N:12,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" t="n">
+        <v>54</v>
+      </c>
+      <c r="B2683" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2683" t="inlineStr"/>
+      <c r="D2683" t="inlineStr"/>
+      <c r="E2683" t="inlineStr"/>
+      <c r="F2683" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2683" t="inlineStr"/>
+      <c r="H2683" t="inlineStr"/>
+      <c r="I2683" t="inlineStr"/>
+      <c r="J2683" t="inlineStr"/>
+      <c r="K2683" t="inlineStr"/>
+      <c r="L2683" t="inlineStr">
+        <is>
+          <t>(N:18,P:95,T:1,R:1),(N:16,P:27,T:2,R:0),(N:30,P:20,T:3,R:0),(N:20,P:17,T:3,R:0),(N:34,P:11,T:1,R:0),(N:27,P:10,T:3,R:0),(N:12,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" t="n">
+        <v>55</v>
+      </c>
+      <c r="B2684" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2684" t="inlineStr"/>
+      <c r="D2684" t="inlineStr"/>
+      <c r="E2684" t="inlineStr"/>
+      <c r="F2684" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2684" t="inlineStr"/>
+      <c r="H2684" t="inlineStr"/>
+      <c r="I2684" t="inlineStr"/>
+      <c r="J2684" t="inlineStr"/>
+      <c r="K2684" t="inlineStr"/>
+      <c r="L2684" t="inlineStr">
+        <is>
+          <t>(N:18,P:95,T:2,R:1),(N:16,P:27,T:3,R:0),(N:26,P:17,T:1,R:0),(N:8,P:17,T:1,R:0),(N:25,P:15,T:1,R:0),(N:21,P:12,T:1,R:0),(N:34,P:11,T:2,R:0),(N:12,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" t="n">
+        <v>56</v>
+      </c>
+      <c r="B2685" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2685" t="inlineStr"/>
+      <c r="D2685" t="inlineStr"/>
+      <c r="E2685" t="inlineStr"/>
+      <c r="F2685" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2685" t="inlineStr"/>
+      <c r="H2685" t="inlineStr"/>
+      <c r="I2685" t="inlineStr"/>
+      <c r="J2685" t="inlineStr"/>
+      <c r="K2685" t="inlineStr"/>
+      <c r="L2685" t="inlineStr">
+        <is>
+          <t>(N:18,P:95,T:3,R:1),(N:25,P:26,T:1,R:1),(N:6,P:20,T:1,R:0),(N:19,P:18,T:1,R:0),(N:26,P:17,T:2,R:0),(N:8,P:17,T:2,R:0),(N:23,P:15,T:1,R:0),(N:21,P:12,T:2,R:0),(N:34,P:11,T:3,R:0),(N:20,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" t="n">
+        <v>57</v>
+      </c>
+      <c r="B2686" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2686" t="inlineStr"/>
+      <c r="D2686" t="inlineStr"/>
+      <c r="E2686" t="inlineStr"/>
+      <c r="F2686" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2686" t="inlineStr"/>
+      <c r="H2686" t="inlineStr"/>
+      <c r="I2686" t="inlineStr"/>
+      <c r="J2686" t="inlineStr"/>
+      <c r="K2686" t="inlineStr"/>
+      <c r="L2686" t="inlineStr">
+        <is>
+          <t>(N:33,P:47,T:1,R:0),(N:25,P:26,T:2,R:1),(N:6,P:20,T:2,R:0),(N:19,P:18,T:2,R:0),(N:26,P:17,T:3,R:0),(N:8,P:17,T:3,R:0),(N:23,P:15,T:2,R:0),(N:29,P:15,T:1,R:0),(N:21,P:12,T:3,R:0),(N:20,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" t="n">
+        <v>58</v>
+      </c>
+      <c r="B2687" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2687" t="inlineStr"/>
+      <c r="D2687" t="inlineStr"/>
+      <c r="E2687" t="inlineStr"/>
+      <c r="F2687" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2687" t="inlineStr"/>
+      <c r="H2687" t="inlineStr"/>
+      <c r="I2687" t="inlineStr"/>
+      <c r="J2687" t="inlineStr"/>
+      <c r="K2687" t="inlineStr"/>
+      <c r="L2687" t="inlineStr">
+        <is>
+          <t>(N:33,P:47,T:2,R:0),(N:32,P:38,T:1,R:0),(N:4,P:34,T:1,R:0),(N:25,P:26,T:3,R:1),(N:6,P:20,T:3,R:0),(N:19,P:18,T:3,R:0),(N:23,P:15,T:3,R:0),(N:29,P:15,T:2,R:0),(N:24,P:11,T:1,R:0),(N:20,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" t="n">
+        <v>59</v>
+      </c>
+      <c r="B2688" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2688" t="inlineStr"/>
+      <c r="D2688" t="inlineStr"/>
+      <c r="E2688" t="inlineStr"/>
+      <c r="F2688" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2688" t="inlineStr"/>
+      <c r="H2688" t="inlineStr"/>
+      <c r="I2688" t="inlineStr"/>
+      <c r="J2688" t="inlineStr"/>
+      <c r="K2688" t="inlineStr"/>
+      <c r="L2688" t="inlineStr">
+        <is>
+          <t>(N:33,P:47,T:3,R:0),(N:25,P:44,T:1,R:0),(N:32,P:38,T:2,R:0),(N:4,P:34,T:2,R:0),(N:7,P:28,T:1,R:0),(N:29,P:15,T:3,R:0),(N:24,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2689" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2689" t="inlineStr"/>
+      <c r="D2689" t="inlineStr"/>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2689" t="inlineStr"/>
+      <c r="H2689" t="inlineStr"/>
+      <c r="I2689" t="inlineStr"/>
+      <c r="J2689" t="inlineStr"/>
+      <c r="K2689" t="inlineStr"/>
+      <c r="L2689" t="inlineStr">
+        <is>
+          <t>(N:25,P:44,T:2,R:0),(N:20,P:40,T:1,R:0),(N:32,P:38,T:3,R:0),(N:4,P:34,T:3,R:0),(N:7,P:28,T:2,R:0),(N:23,P:18,T:1,R:0),(N:24,P:11,T:3,R:0),(N:27,P:11,T:1,R:0),(N:13,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" t="n">
+        <v>61</v>
+      </c>
+      <c r="B2690" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2690" t="inlineStr"/>
+      <c r="D2690" t="inlineStr"/>
+      <c r="E2690" t="inlineStr"/>
+      <c r="F2690" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2690" t="inlineStr"/>
+      <c r="H2690" t="inlineStr"/>
+      <c r="I2690" t="inlineStr"/>
+      <c r="J2690" t="inlineStr"/>
+      <c r="K2690" t="inlineStr"/>
+      <c r="L2690" t="inlineStr">
+        <is>
+          <t>(N:7,P:51,T:2,R:1),(N:25,P:44,T:3,R:0),(N:20,P:40,T:2,R:0),(N:13,P:38,T:1,R:1),(N:23,P:18,T:2,R:0),(N:34,P:17,T:1,R:0),(N:27,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" t="n">
+        <v>62</v>
+      </c>
+      <c r="B2691" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2691" t="inlineStr"/>
+      <c r="D2691" t="inlineStr"/>
+      <c r="E2691" t="inlineStr"/>
+      <c r="F2691" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2691" t="inlineStr"/>
+      <c r="H2691" t="inlineStr"/>
+      <c r="I2691" t="inlineStr"/>
+      <c r="J2691" t="inlineStr"/>
+      <c r="K2691" t="inlineStr"/>
+      <c r="L2691" t="inlineStr">
+        <is>
+          <t>(N:6,P:70,T:1,R:0),(N:7,P:51,T:3,R:1),(N:20,P:40,T:3,R:0),(N:13,P:38,T:2,R:1),(N:23,P:18,T:3,R:0),(N:34,P:17,T:2,R:0),(N:27,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" t="n">
+        <v>63</v>
+      </c>
+      <c r="B2692" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2692" t="inlineStr"/>
+      <c r="D2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr"/>
+      <c r="F2692" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2692" t="inlineStr"/>
+      <c r="H2692" t="inlineStr"/>
+      <c r="I2692" t="inlineStr"/>
+      <c r="J2692" t="inlineStr"/>
+      <c r="K2692" t="inlineStr"/>
+      <c r="L2692" t="inlineStr">
+        <is>
+          <t>(N:6,P:70,T:2,R:0),(N:34,P:40,T:2,R:1),(N:13,P:38,T:3,R:1),(N:3,P:21,T:1,R:0),(N:8,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" t="n">
+        <v>64</v>
+      </c>
+      <c r="B2693" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2693" t="inlineStr"/>
+      <c r="D2693" t="inlineStr"/>
+      <c r="E2693" t="inlineStr"/>
+      <c r="F2693" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2693" t="inlineStr"/>
+      <c r="H2693" t="inlineStr"/>
+      <c r="I2693" t="inlineStr"/>
+      <c r="J2693" t="inlineStr"/>
+      <c r="K2693" t="inlineStr"/>
+      <c r="L2693" t="inlineStr">
+        <is>
+          <t>(N:14,P:94,T:1,R:0),(N:6,P:70,T:3,R:0),(N:34,P:40,T:3,R:1),(N:3,P:21,T:2,R:0),(N:8,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" t="n">
+        <v>65</v>
+      </c>
+      <c r="B2694" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2694" t="inlineStr"/>
+      <c r="D2694" t="inlineStr"/>
+      <c r="E2694" t="inlineStr"/>
+      <c r="F2694" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2694" t="inlineStr"/>
+      <c r="H2694" t="inlineStr"/>
+      <c r="I2694" t="inlineStr"/>
+      <c r="J2694" t="inlineStr"/>
+      <c r="K2694" t="inlineStr"/>
+      <c r="L2694" t="inlineStr">
+        <is>
+          <t>(N:14,P:94,T:2,R:0),(N:23,P:25,T:1,R:0),(N:3,P:21,T:3,R:0),(N:9,P:20,T:1,R:0),(N:20,P:14,T:1,R:0),(N:8,P:12,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" t="n">
+        <v>66</v>
+      </c>
+      <c r="B2695" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2695" t="inlineStr"/>
+      <c r="D2695" t="inlineStr"/>
+      <c r="E2695" t="inlineStr"/>
+      <c r="F2695" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2695" t="inlineStr"/>
+      <c r="H2695" t="inlineStr"/>
+      <c r="I2695" t="inlineStr"/>
+      <c r="J2695" t="inlineStr"/>
+      <c r="K2695" t="inlineStr"/>
+      <c r="L2695" t="inlineStr">
+        <is>
+          <t>(N:14,P:94,T:3,R:0),(N:8,P:86,T:1,R:0),(N:23,P:25,T:2,R:0),(N:9,P:20,T:2,R:0),(N:20,P:14,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" t="n">
+        <v>67</v>
+      </c>
+      <c r="B2696" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2696" t="inlineStr"/>
+      <c r="D2696" t="inlineStr"/>
+      <c r="E2696" t="inlineStr"/>
+      <c r="F2696" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2696" t="inlineStr"/>
+      <c r="H2696" t="inlineStr"/>
+      <c r="I2696" t="inlineStr"/>
+      <c r="J2696" t="inlineStr"/>
+      <c r="K2696" t="inlineStr"/>
+      <c r="L2696" t="inlineStr">
+        <is>
+          <t>(N:8,P:86,T:2,R:0),(N:2,P:76,T:1,R:0),(N:23,P:25,T:3,R:0),(N:9,P:20,T:3,R:0),(N:20,P:14,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" t="n">
+        <v>68</v>
+      </c>
+      <c r="B2697" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2697" t="inlineStr"/>
+      <c r="D2697" t="inlineStr"/>
+      <c r="E2697" t="inlineStr"/>
+      <c r="F2697" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2697" t="inlineStr"/>
+      <c r="H2697" t="inlineStr"/>
+      <c r="I2697" t="inlineStr"/>
+      <c r="J2697" t="inlineStr"/>
+      <c r="K2697" t="inlineStr"/>
+      <c r="L2697" t="inlineStr">
+        <is>
+          <t>(N:4,P:91,T:1,R:0),(N:8,P:86,T:3,R:0),(N:2,P:76,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" t="n">
+        <v>69</v>
+      </c>
+      <c r="B2698" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2698" t="inlineStr"/>
+      <c r="D2698" t="inlineStr"/>
+      <c r="E2698" t="inlineStr"/>
+      <c r="F2698" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2698" t="inlineStr"/>
+      <c r="H2698" t="inlineStr"/>
+      <c r="I2698" t="inlineStr"/>
+      <c r="J2698" t="inlineStr"/>
+      <c r="K2698" t="inlineStr"/>
+      <c r="L2698" t="inlineStr">
+        <is>
+          <t>(N:4,P:91,T:2,R:0),(N:2,P:76,T:3,R:0),(N:32,P:23,T:1,R:0),(N:17,P:12,T:1,R:0),(N:12,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" t="n">
+        <v>70</v>
+      </c>
+      <c r="B2699" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2699" t="inlineStr"/>
+      <c r="D2699" t="inlineStr"/>
+      <c r="E2699" t="inlineStr"/>
+      <c r="F2699" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2699" t="inlineStr"/>
+      <c r="H2699" t="inlineStr"/>
+      <c r="I2699" t="inlineStr"/>
+      <c r="J2699" t="inlineStr"/>
+      <c r="K2699" t="inlineStr"/>
+      <c r="L2699" t="inlineStr">
+        <is>
+          <t>(N:4,P:91,T:3,R:0),(N:26,P:36,T:1,R:0),(N:32,P:23,T:2,R:0),(N:17,P:12,T:2,R:0),(N:7,P:12,T:1,R:0),(N:12,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" t="n">
+        <v>71</v>
+      </c>
+      <c r="B2700" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2700" t="inlineStr"/>
+      <c r="D2700" t="inlineStr"/>
+      <c r="E2700" t="inlineStr"/>
+      <c r="F2700" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2700" t="inlineStr"/>
+      <c r="H2700" t="inlineStr"/>
+      <c r="I2700" t="inlineStr"/>
+      <c r="J2700" t="inlineStr"/>
+      <c r="K2700" t="inlineStr"/>
+      <c r="L2700" t="inlineStr">
+        <is>
+          <t>(N:26,P:36,T:2,R:0),(N:1,P:34,T:1,R:0),(N:32,P:23,T:3,R:0),(N:15,P:18,T:1,R:0),(N:17,P:12,T:3,R:0),(N:7,P:12,T:2,R:0),(N:27,P:11,T:1,R:0),(N:23,P:11,T:1,R:0),(N:12,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" t="n">
+        <v>72</v>
+      </c>
+      <c r="B2701" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2701" t="inlineStr"/>
+      <c r="D2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr"/>
+      <c r="F2701" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2701" t="inlineStr"/>
+      <c r="H2701" t="inlineStr"/>
+      <c r="I2701" t="inlineStr"/>
+      <c r="J2701" t="inlineStr"/>
+      <c r="K2701" t="inlineStr"/>
+      <c r="L2701" t="inlineStr">
+        <is>
+          <t>(N:21,P:77,T:1,R:0),(N:26,P:36,T:3,R:0),(N:1,P:34,T:2,R:0),(N:15,P:18,T:2,R:0),(N:7,P:12,T:3,R:0),(N:27,P:11,T:2,R:0),(N:23,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" t="n">
+        <v>73</v>
+      </c>
+      <c r="B2702" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2702" t="inlineStr"/>
+      <c r="D2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr"/>
+      <c r="F2702" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2702" t="inlineStr"/>
+      <c r="H2702" t="inlineStr"/>
+      <c r="I2702" t="inlineStr"/>
+      <c r="J2702" t="inlineStr"/>
+      <c r="K2702" t="inlineStr"/>
+      <c r="L2702" t="inlineStr">
+        <is>
+          <t>(N:21,P:77,T:2,R:0),(N:1,P:34,T:3,R:0),(N:27,P:26,T:2,R:1),(N:35,P:23,T:1,R:0),(N:15,P:18,T:3,R:0),(N:22,P:18,T:1,R:0),(N:23,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" t="n">
+        <v>74</v>
+      </c>
+      <c r="B2703" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2703" t="inlineStr"/>
+      <c r="D2703" t="inlineStr"/>
+      <c r="E2703" t="inlineStr"/>
+      <c r="F2703" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2703" t="inlineStr"/>
+      <c r="H2703" t="inlineStr"/>
+      <c r="I2703" t="inlineStr"/>
+      <c r="J2703" t="inlineStr"/>
+      <c r="K2703" t="inlineStr"/>
+      <c r="L2703" t="inlineStr">
+        <is>
+          <t>(N:21,P:77,T:3,R:0),(N:27,P:26,T:3,R:1),(N:35,P:23,T:2,R:0),(N:22,P:18,T:2,R:0),(N:10,P:18,T:1,R:0),(N:17,P:18,T:1,R:0),(N:19,P:11,T:1,R:0),(N:24,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" t="n">
+        <v>75</v>
+      </c>
+      <c r="B2704" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2704" t="inlineStr"/>
+      <c r="D2704" t="inlineStr"/>
+      <c r="E2704" t="inlineStr"/>
+      <c r="F2704" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2704" t="inlineStr"/>
+      <c r="H2704" t="inlineStr"/>
+      <c r="I2704" t="inlineStr"/>
+      <c r="J2704" t="inlineStr"/>
+      <c r="K2704" t="inlineStr"/>
+      <c r="L2704" t="inlineStr">
+        <is>
+          <t>(N:2,P:51,T:1,R:0),(N:35,P:23,T:3,R:0),(N:22,P:18,T:3,R:0),(N:10,P:18,T:2,R:0),(N:17,P:18,T:2,R:0),(N:5,P:15,T:1,R:0),(N:19,P:11,T:2,R:0),(N:24,P:10,T:2,R:0),(N:26,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" t="n">
+        <v>76</v>
+      </c>
+      <c r="B2705" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2705" t="inlineStr"/>
+      <c r="D2705" t="inlineStr"/>
+      <c r="E2705" t="inlineStr"/>
+      <c r="F2705" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2705" t="inlineStr"/>
+      <c r="H2705" t="inlineStr"/>
+      <c r="I2705" t="inlineStr"/>
+      <c r="J2705" t="inlineStr"/>
+      <c r="K2705" t="inlineStr"/>
+      <c r="L2705" t="inlineStr">
+        <is>
+          <t>(N:9,P:83,T:1,R:0),(N:2,P:51,T:2,R:0),(N:10,P:18,T:3,R:0),(N:17,P:18,T:3,R:0),(N:5,P:15,T:2,R:0),(N:19,P:11,T:3,R:0),(N:24,P:10,T:3,R:0),(N:26,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" t="n">
+        <v>77</v>
+      </c>
+      <c r="B2706" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2706" t="inlineStr"/>
+      <c r="D2706" t="inlineStr"/>
+      <c r="E2706" t="inlineStr"/>
+      <c r="F2706" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2706" t="inlineStr"/>
+      <c r="H2706" t="inlineStr"/>
+      <c r="I2706" t="inlineStr"/>
+      <c r="J2706" t="inlineStr"/>
+      <c r="K2706" t="inlineStr"/>
+      <c r="L2706" t="inlineStr">
+        <is>
+          <t>(N:9,P:83,T:2,R:0),(N:2,P:51,T:3,R:0),(N:20,P:33,T:1,R:0),(N:23,P:28,T:1,R:0),(N:5,P:15,T:3,R:0),(N:36,P:15,T:1,R:0),(N:26,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" t="n">
+        <v>78</v>
+      </c>
+      <c r="B2707" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2707" t="inlineStr"/>
+      <c r="D2707" t="inlineStr"/>
+      <c r="E2707" t="inlineStr"/>
+      <c r="F2707" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2707" t="inlineStr"/>
+      <c r="H2707" t="inlineStr"/>
+      <c r="I2707" t="inlineStr"/>
+      <c r="J2707" t="inlineStr"/>
+      <c r="K2707" t="inlineStr"/>
+      <c r="L2707" t="inlineStr">
+        <is>
+          <t>(N:9,P:83,T:3,R:0),(N:24,P:51,T:1,R:0),(N:20,P:33,T:2,R:0),(N:23,P:28,T:2,R:0),(N:19,P:23,T:1,R:0),(N:36,P:15,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="A2708" t="n">
+        <v>79</v>
+      </c>
+      <c r="B2708" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2708" t="inlineStr"/>
+      <c r="D2708" t="inlineStr"/>
+      <c r="E2708" t="inlineStr"/>
+      <c r="F2708" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2708" t="inlineStr"/>
+      <c r="H2708" t="inlineStr"/>
+      <c r="I2708" t="inlineStr"/>
+      <c r="J2708" t="inlineStr"/>
+      <c r="K2708" t="inlineStr"/>
+      <c r="L2708" t="inlineStr">
+        <is>
+          <t>(N:2,P:62,T:1,R:0),(N:24,P:51,T:2,R:0),(N:20,P:33,T:3,R:0),(N:23,P:28,T:3,R:0),(N:19,P:23,T:2,R:0),(N:36,P:15,T:3,R:0),(N:13,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" t="n">
+        <v>80</v>
+      </c>
+      <c r="B2709" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2709" t="inlineStr"/>
+      <c r="D2709" t="inlineStr"/>
+      <c r="E2709" t="inlineStr"/>
+      <c r="F2709" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2709" t="inlineStr"/>
+      <c r="H2709" t="inlineStr"/>
+      <c r="I2709" t="inlineStr"/>
+      <c r="J2709" t="inlineStr"/>
+      <c r="K2709" t="inlineStr"/>
+      <c r="L2709" t="inlineStr">
+        <is>
+          <t>(N:2,P:62,T:2,R:0),(N:24,P:51,T:3,R:0),(N:26,P:25,T:1,R:0),(N:19,P:23,T:3,R:0),(N:23,P:18,T:1,R:0),(N:7,P:17,T:1,R:0),(N:13,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" t="n">
+        <v>81</v>
+      </c>
+      <c r="B2710" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2710" t="inlineStr"/>
+      <c r="D2710" t="inlineStr"/>
+      <c r="E2710" t="inlineStr"/>
+      <c r="F2710" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2710" t="inlineStr"/>
+      <c r="H2710" t="inlineStr"/>
+      <c r="I2710" t="inlineStr"/>
+      <c r="J2710" t="inlineStr"/>
+      <c r="K2710" t="inlineStr"/>
+      <c r="L2710" t="inlineStr">
+        <is>
+          <t>(N:2,P:62,T:3,R:0),(N:26,P:25,T:2,R:0),(N:23,P:18,T:2,R:0),(N:7,P:17,T:2,R:0),(N:21,P:15,T:1,R:0),(N:13,P:11,T:3,R:0),(N:32,P:11,T:1,R:0),(N:17,P:11,T:1,R:0),(N:20,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" t="n">
+        <v>82</v>
+      </c>
+      <c r="B2711" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2711" t="inlineStr"/>
+      <c r="D2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr"/>
+      <c r="F2711" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2711" t="inlineStr"/>
+      <c r="H2711" t="inlineStr"/>
+      <c r="I2711" t="inlineStr"/>
+      <c r="J2711" t="inlineStr"/>
+      <c r="K2711" t="inlineStr"/>
+      <c r="L2711" t="inlineStr">
+        <is>
+          <t>(N:26,P:25,T:3,R:0),(N:25,P:25,T:1,R:0),(N:23,P:18,T:3,R:0),(N:7,P:17,T:3,R:0),(N:21,P:15,T:2,R:0),(N:32,P:11,T:2,R:0),(N:17,P:11,T:2,R:0),(N:20,P:10,T:2,R:0),(N:29,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" t="n">
+        <v>83</v>
+      </c>
+      <c r="B2712" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2712" t="inlineStr"/>
+      <c r="D2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr"/>
+      <c r="F2712" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2712" t="inlineStr"/>
+      <c r="H2712" t="inlineStr"/>
+      <c r="I2712" t="inlineStr"/>
+      <c r="J2712" t="inlineStr"/>
+      <c r="K2712" t="inlineStr"/>
+      <c r="L2712" t="inlineStr">
+        <is>
+          <t>(N:15,P:37,T:1,R:0),(N:22,P:30,T:1,R:0),(N:25,P:25,T:2,R:0),(N:21,P:15,T:3,R:0),(N:13,P:12,T:1,R:0),(N:32,P:11,T:3,R:0),(N:17,P:11,T:3,R:0),(N:20,P:10,T:3,R:0),(N:29,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" t="n">
+        <v>84</v>
+      </c>
+      <c r="B2713" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2713" t="inlineStr"/>
+      <c r="D2713" t="inlineStr"/>
+      <c r="E2713" t="inlineStr"/>
+      <c r="F2713" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2713" t="inlineStr"/>
+      <c r="H2713" t="inlineStr"/>
+      <c r="I2713" t="inlineStr"/>
+      <c r="J2713" t="inlineStr"/>
+      <c r="K2713" t="inlineStr"/>
+      <c r="L2713" t="inlineStr">
+        <is>
+          <t>(N:28,P:51,T:1,R:0),(N:15,P:37,T:2,R:0),(N:22,P:30,T:2,R:0),(N:25,P:25,T:3,R:0),(N:29,P:22,T:2,R:1),(N:19,P:15,T:1,R:0),(N:13,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" t="n">
+        <v>85</v>
+      </c>
+      <c r="B2714" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2714" t="inlineStr"/>
+      <c r="D2714" t="inlineStr"/>
+      <c r="E2714" t="inlineStr"/>
+      <c r="F2714" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2714" t="inlineStr"/>
+      <c r="H2714" t="inlineStr"/>
+      <c r="I2714" t="inlineStr"/>
+      <c r="J2714" t="inlineStr"/>
+      <c r="K2714" t="inlineStr"/>
+      <c r="L2714" t="inlineStr">
+        <is>
+          <t>(N:28,P:51,T:2,R:0),(N:7,P:38,T:1,R:0),(N:15,P:37,T:3,R:0),(N:22,P:30,T:3,R:0),(N:6,P:28,T:1,R:0),(N:29,P:22,T:3,R:1),(N:5,P:21,T:1,R:0),(N:19,P:15,T:2,R:0),(N:13,P:12,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" t="n">
+        <v>86</v>
+      </c>
+      <c r="B2715" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2715" t="inlineStr"/>
+      <c r="D2715" t="inlineStr"/>
+      <c r="E2715" t="inlineStr"/>
+      <c r="F2715" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr"/>
+      <c r="I2715" t="inlineStr"/>
+      <c r="J2715" t="inlineStr"/>
+      <c r="K2715" t="inlineStr"/>
+      <c r="L2715" t="inlineStr">
+        <is>
+          <t>(N:4,P:69,T:1,R:0),(N:28,P:51,T:3,R:0),(N:7,P:38,T:2,R:0),(N:6,P:38,T:1,R:1),(N:5,P:21,T:2,R:0),(N:19,P:15,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" t="n">
+        <v>87</v>
+      </c>
+      <c r="B2716" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2716" t="inlineStr"/>
+      <c r="D2716" t="inlineStr"/>
+      <c r="E2716" t="inlineStr"/>
+      <c r="F2716" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2716" t="inlineStr"/>
+      <c r="H2716" t="inlineStr"/>
+      <c r="I2716" t="inlineStr"/>
+      <c r="J2716" t="inlineStr"/>
+      <c r="K2716" t="inlineStr"/>
+      <c r="L2716" t="inlineStr">
+        <is>
+          <t>(N:4,P:69,T:2,R:0),(N:22,P:60,T:1,R:0),(N:7,P:38,T:3,R:0),(N:6,P:38,T:2,R:1),(N:5,P:21,T:3,R:0),(N:16,P:15,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" t="n">
+        <v>88</v>
+      </c>
+      <c r="B2717" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2717" t="inlineStr"/>
+      <c r="D2717" t="inlineStr"/>
+      <c r="E2717" t="inlineStr"/>
+      <c r="F2717" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2717" t="inlineStr"/>
+      <c r="H2717" t="inlineStr"/>
+      <c r="I2717" t="inlineStr"/>
+      <c r="J2717" t="inlineStr"/>
+      <c r="K2717" t="inlineStr"/>
+      <c r="L2717" t="inlineStr">
+        <is>
+          <t>(N:4,P:69,T:3,R:0),(N:22,P:60,T:2,R:0),(N:17,P:40,T:1,R:0),(N:6,P:38,T:3,R:1),(N:23,P:23,T:1,R:0),(N:16,P:15,T:2,R:0),(N:27,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" t="n">
+        <v>89</v>
+      </c>
+      <c r="B2718" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2718" t="inlineStr"/>
+      <c r="D2718" t="inlineStr"/>
+      <c r="E2718" t="inlineStr"/>
+      <c r="F2718" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2718" t="inlineStr"/>
+      <c r="H2718" t="inlineStr"/>
+      <c r="I2718" t="inlineStr"/>
+      <c r="J2718" t="inlineStr"/>
+      <c r="K2718" t="inlineStr"/>
+      <c r="L2718" t="inlineStr">
+        <is>
+          <t>(N:22,P:60,T:3,R:0),(N:17,P:40,T:2,R:0),(N:23,P:23,T:2,R:0),(N:25,P:23,T:1,R:0),(N:29,P:17,T:1,R:0),(N:16,P:15,T:3,R:0),(N:0,P:15,T:1,R:0),(N:1,P:12,T:1,R:0),(N:27,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" t="n">
+        <v>90</v>
+      </c>
+      <c r="B2719" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2719" t="inlineStr"/>
+      <c r="D2719" t="inlineStr"/>
+      <c r="E2719" t="inlineStr"/>
+      <c r="F2719" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2719" t="inlineStr"/>
+      <c r="H2719" t="inlineStr"/>
+      <c r="I2719" t="inlineStr"/>
+      <c r="J2719" t="inlineStr"/>
+      <c r="K2719" t="inlineStr"/>
+      <c r="L2719" t="inlineStr">
+        <is>
+          <t>(N:17,P:40,T:3,R:0),(N:27,P:25,T:2,R:1),(N:23,P:23,T:3,R:0),(N:25,P:23,T:2,R:0),(N:29,P:17,T:2,R:0),(N:0,P:15,T:2,R:0),(N:1,P:12,T:2,R:0),(N:10,P:12,T:1,R:0),(N:26,P:11,T:1,R:0),(N:28,P:11,T:1,R:0),(N:2,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" t="n">
+        <v>91</v>
+      </c>
+      <c r="B2720" t="n">
+        <v>36</v>
+      </c>
+      <c r="C2720" t="inlineStr"/>
+      <c r="D2720" t="inlineStr"/>
+      <c r="E2720" t="inlineStr"/>
+      <c r="F2720" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2720" t="inlineStr"/>
+      <c r="H2720" t="inlineStr"/>
+      <c r="I2720" t="inlineStr"/>
+      <c r="J2720" t="inlineStr"/>
+      <c r="K2720" t="inlineStr"/>
+      <c r="L2720" t="inlineStr">
+        <is>
+          <t>(N:27,P:25,T:3,R:1),(N:25,P:23,T:3,R:0),(N:29,P:17,T:3,R:0),(N:0,P:15,T:3,R:0),(N:7,P:14,T:1,R:0),(N:1,P:12,T:3,R:0),(N:10,P:12,T:2,R:0),(N:26,P:11,T:2,R:0),(N:28,P:11,T:2,R:0),(N:13,P:11,T:1,R:0),(N:2,P:10,T:2,R:0),(N:23,P:10,T:1,R:0),(N:21,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" t="n">
+        <v>92</v>
+      </c>
+      <c r="B2721" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2721" t="inlineStr"/>
+      <c r="D2721" t="inlineStr"/>
+      <c r="E2721" t="inlineStr"/>
+      <c r="F2721" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2721" t="inlineStr"/>
+      <c r="H2721" t="inlineStr"/>
+      <c r="I2721" t="inlineStr"/>
+      <c r="J2721" t="inlineStr"/>
+      <c r="K2721" t="inlineStr"/>
+      <c r="L2721" t="inlineStr">
+        <is>
+          <t>(N:11,P:43,T:1,R:0),(N:8,P:18,T:1,R:0),(N:7,P:14,T:2,R:0),(N:10,P:12,T:3,R:0),(N:26,P:11,T:3,R:0),(N:28,P:11,T:3,R:0),(N:13,P:11,T:2,R:0),(N:2,P:10,T:3,R:0),(N:23,P:10,T:2,R:0),(N:21,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" t="n">
+        <v>93</v>
+      </c>
+      <c r="B2722" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2722" t="inlineStr">
+        <is>
+          <t>(N:23,P:103,T:1,R:0,PL:1,J:3500)</t>
+        </is>
+      </c>
+      <c r="D2722" t="inlineStr"/>
+      <c r="E2722" t="inlineStr"/>
+      <c r="F2722" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2722" t="inlineStr"/>
+      <c r="H2722" t="inlineStr"/>
+      <c r="I2722" t="inlineStr"/>
+      <c r="J2722" t="inlineStr"/>
+      <c r="K2722" t="inlineStr"/>
+      <c r="L2722" t="inlineStr">
+        <is>
+          <t>(N:11,P:43,T:2,R:0),(N:8,P:18,T:2,R:0),(N:7,P:14,T:3,R:0),(N:13,P:11,T:3,R:0),(N:21,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" t="n">
+        <v>94</v>
+      </c>
+      <c r="B2723" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2723" t="inlineStr">
+        <is>
+          <t>(N:23,P:103,T:2,R:0,PL:2,J:10500)</t>
+        </is>
+      </c>
+      <c r="D2723" t="inlineStr"/>
+      <c r="E2723" t="inlineStr"/>
+      <c r="F2723" t="n">
+        <v>79500</v>
+      </c>
+      <c r="G2723" t="inlineStr"/>
+      <c r="H2723" t="inlineStr"/>
+      <c r="I2723" t="inlineStr"/>
+      <c r="J2723" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="K2723" t="inlineStr"/>
+      <c r="L2723" t="inlineStr">
+        <is>
+          <t>(N:7,P:86,T:1,R:0),(N:11,P:43,T:3,R:0),(N:8,P:18,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" t="n">
+        <v>95</v>
+      </c>
+      <c r="B2724" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2724" t="inlineStr"/>
+      <c r="D2724" t="inlineStr">
+        <is>
+          <t>(N:23,P:103,T:2,R:0,PL:2,J:17500)</t>
+        </is>
+      </c>
+      <c r="E2724" t="inlineStr"/>
+      <c r="F2724" t="n">
+        <v>98000</v>
+      </c>
+      <c r="G2724" t="inlineStr"/>
+      <c r="H2724" t="inlineStr"/>
+      <c r="I2724" t="inlineStr"/>
+      <c r="J2724" t="inlineStr"/>
+      <c r="K2724" t="inlineStr"/>
+      <c r="L2724" t="inlineStr">
+        <is>
+          <t>(N:7,P:86,T:2,R:0),(N:14,P:51,T:1,R:0),(N:20,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" t="n">
+        <v>96</v>
+      </c>
+      <c r="B2725" t="n">
+        <v>36</v>
+      </c>
+      <c r="C2725" t="inlineStr"/>
+      <c r="D2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr"/>
+      <c r="F2725" t="n">
+        <v>98000</v>
+      </c>
+      <c r="G2725" t="inlineStr"/>
+      <c r="H2725" t="inlineStr"/>
+      <c r="I2725" t="inlineStr"/>
+      <c r="J2725" t="inlineStr"/>
+      <c r="K2725" t="inlineStr"/>
+      <c r="L2725" t="inlineStr">
+        <is>
+          <t>(N:7,P:86,T:3,R:0),(N:14,P:51,T:2,R:0),(N:23,P:33,T:1,R:0),(N:20,P:10,T:2,R:0),(N:34,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" t="n">
+        <v>97</v>
+      </c>
+      <c r="B2726" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2726" t="inlineStr"/>
+      <c r="D2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr"/>
+      <c r="F2726" t="n">
+        <v>98000</v>
+      </c>
+      <c r="G2726" t="inlineStr"/>
+      <c r="H2726" t="inlineStr"/>
+      <c r="I2726" t="inlineStr"/>
+      <c r="J2726" t="inlineStr"/>
+      <c r="K2726" t="inlineStr"/>
+      <c r="L2726" t="inlineStr">
+        <is>
+          <t>(N:14,P:51,T:3,R:0),(N:23,P:33,T:2,R:0),(N:21,P:28,T:1,R:0),(N:10,P:20,T:1,R:0),(N:20,P:10,T:3,R:0),(N:34,P:10,T:2,R:0),(N:19,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" t="n">
+        <v>98</v>
+      </c>
+      <c r="B2727" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2727" t="inlineStr"/>
+      <c r="D2727" t="inlineStr"/>
+      <c r="E2727" t="inlineStr"/>
+      <c r="F2727" t="n">
+        <v>98000</v>
+      </c>
+      <c r="G2727" t="inlineStr"/>
+      <c r="H2727" t="inlineStr"/>
+      <c r="I2727" t="inlineStr"/>
+      <c r="J2727" t="inlineStr"/>
+      <c r="K2727" t="inlineStr"/>
+      <c r="L2727" t="inlineStr">
+        <is>
+          <t>(N:23,P:33,T:3,R:0),(N:28,P:30,T:1,R:0),(N:21,P:28,T:2,R:0),(N:10,P:20,T:2,R:0),(N:5,P:14,T:1,R:0),(N:9,P:14,T:1,R:0),(N:34,P:10,T:3,R:0),(N:19,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2728">
+      <c r="A2728" t="n">
+        <v>99</v>
+      </c>
+      <c r="B2728" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2728" t="inlineStr"/>
+      <c r="D2728" t="inlineStr"/>
+      <c r="E2728" t="inlineStr"/>
+      <c r="F2728" t="n">
+        <v>98000</v>
+      </c>
+      <c r="G2728" t="inlineStr"/>
+      <c r="H2728" t="inlineStr"/>
+      <c r="I2728" t="inlineStr"/>
+      <c r="J2728" t="inlineStr"/>
+      <c r="K2728" t="inlineStr"/>
+      <c r="L2728" t="inlineStr">
+        <is>
+          <t>(N:7,P:37,T:1,R:0),(N:28,P:30,T:2,R:0),(N:21,P:28,T:3,R:0),(N:10,P:20,T:3,R:0),(N:5,P:14,T:2,R:0),(N:9,P:14,T:2,R:0),(N:3,P:14,T:1,R:0),(N:19,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2729" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2729" t="inlineStr"/>
+      <c r="D2729" t="inlineStr"/>
+      <c r="E2729" t="inlineStr"/>
+      <c r="F2729" t="n">
+        <v>98000</v>
+      </c>
+      <c r="G2729" t="inlineStr"/>
+      <c r="H2729" t="inlineStr"/>
+      <c r="I2729" t="inlineStr"/>
+      <c r="J2729" t="inlineStr"/>
+      <c r="K2729" t="inlineStr"/>
+      <c r="L2729" t="inlineStr">
+        <is>
+          <t>(N:25,P:56,T:1,R:0),(N:7,P:37,T:2,R:0),(N:28,P:30,T:3,R:0),(N:14,P:23,T:1,R:0),(N:5,P:14,T:3,R:0),(N:9,P:14,T:3,R:0),(N:3,P:14,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" t="n">
+        <v>101</v>
+      </c>
+      <c r="B2730" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2730" t="inlineStr"/>
+      <c r="D2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr"/>
+      <c r="F2730" t="n">
+        <v>98000</v>
+      </c>
+      <c r="G2730" t="inlineStr"/>
+      <c r="H2730" t="inlineStr"/>
+      <c r="I2730" t="inlineStr"/>
+      <c r="J2730" t="inlineStr"/>
+      <c r="K2730" t="inlineStr"/>
+      <c r="L2730" t="inlineStr">
+        <is>
+          <t>(N:25,P:56,T:2,R:0),(N:14,P:54,T:1,R:1),(N:7,P:37,T:3,R:0),(N:24,P:28,T:1,R:0),(N:23,P:20,T:1,R:0),(N:3,P:14,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" t="n">
+        <v>102</v>
+      </c>
+      <c r="B2731" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2731" t="inlineStr"/>
+      <c r="D2731" t="inlineStr"/>
+      <c r="E2731" t="inlineStr"/>
+      <c r="F2731" t="n">
+        <v>98000</v>
+      </c>
+      <c r="G2731" t="inlineStr"/>
+      <c r="H2731" t="inlineStr"/>
+      <c r="I2731" t="inlineStr"/>
+      <c r="J2731" t="inlineStr"/>
+      <c r="K2731" t="inlineStr"/>
+      <c r="L2731" t="inlineStr">
+        <is>
+          <t>(N:8,P:87,T:1,R:0),(N:25,P:56,T:3,R:0),(N:14,P:54,T:2,R:1),(N:24,P:28,T:2,R:0),(N:23,P:20,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" t="n">
+        <v>103</v>
+      </c>
+      <c r="B2732" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2732" t="inlineStr"/>
+      <c r="D2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr"/>
+      <c r="F2732" t="n">
+        <v>98000</v>
+      </c>
+      <c r="G2732" t="inlineStr"/>
+      <c r="H2732" t="inlineStr"/>
+      <c r="I2732" t="inlineStr"/>
+      <c r="J2732" t="inlineStr"/>
+      <c r="K2732" t="inlineStr"/>
+      <c r="L2732" t="inlineStr">
+        <is>
+          <t>(N:8,P:87,T:2,R:0),(N:14,P:54,T:3,R:1),(N:24,P:28,T:3,R:0),(N:7,P:23,T:1,R:0),(N:23,P:20,T:3,R:0),(N:12,P:18,T:1,R:0),(N:3,P:18,T:1,R:0),(N:11,P:14,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2733" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2733" t="inlineStr"/>
+      <c r="D2733" t="inlineStr"/>
+      <c r="E2733" t="inlineStr"/>
+      <c r="F2733" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2733" t="inlineStr"/>
+      <c r="H2733" t="inlineStr"/>
+      <c r="I2733" t="inlineStr"/>
+      <c r="J2733" t="inlineStr"/>
+      <c r="K2733" t="inlineStr"/>
+      <c r="L2733" t="inlineStr"/>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2734" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2734" t="inlineStr"/>
+      <c r="D2734" t="inlineStr"/>
+      <c r="E2734" t="inlineStr"/>
+      <c r="F2734" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2734" t="inlineStr"/>
+      <c r="H2734" t="inlineStr"/>
+      <c r="I2734" t="inlineStr"/>
+      <c r="J2734" t="inlineStr"/>
+      <c r="K2734" t="inlineStr"/>
+      <c r="L2734" t="inlineStr"/>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2735" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2735" t="inlineStr"/>
+      <c r="D2735" t="inlineStr"/>
+      <c r="E2735" t="inlineStr"/>
+      <c r="F2735" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2735" t="inlineStr"/>
+      <c r="H2735" t="inlineStr"/>
+      <c r="I2735" t="inlineStr"/>
+      <c r="J2735" t="inlineStr"/>
+      <c r="K2735" t="inlineStr"/>
+      <c r="L2735" t="inlineStr"/>
+    </row>
+    <row r="2736">
+      <c r="A2736" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2736" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2736" t="inlineStr"/>
+      <c r="D2736" t="inlineStr"/>
+      <c r="E2736" t="inlineStr"/>
+      <c r="F2736" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2736" t="inlineStr"/>
+      <c r="H2736" t="inlineStr"/>
+      <c r="I2736" t="inlineStr"/>
+      <c r="J2736" t="inlineStr"/>
+      <c r="K2736" t="inlineStr"/>
+      <c r="L2736" t="inlineStr"/>
+    </row>
+    <row r="2737">
+      <c r="A2737" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2737" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2737" t="inlineStr"/>
+      <c r="D2737" t="inlineStr"/>
+      <c r="E2737" t="inlineStr"/>
+      <c r="F2737" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2737" t="inlineStr"/>
+      <c r="H2737" t="inlineStr"/>
+      <c r="I2737" t="inlineStr"/>
+      <c r="J2737" t="inlineStr"/>
+      <c r="K2737" t="inlineStr"/>
+      <c r="L2737" t="inlineStr"/>
+    </row>
+    <row r="2738">
+      <c r="A2738" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2738" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2738" t="inlineStr"/>
+      <c r="D2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr"/>
+      <c r="F2738" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2738" t="inlineStr"/>
+      <c r="H2738" t="inlineStr"/>
+      <c r="I2738" t="inlineStr"/>
+      <c r="J2738" t="inlineStr"/>
+      <c r="K2738" t="inlineStr"/>
+      <c r="L2738" t="inlineStr">
+        <is>
+          <t>(N:5,P:50,T:1,R:0),(N:33,P:18,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2739" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2739" t="inlineStr"/>
+      <c r="D2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr"/>
+      <c r="F2739" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2739" t="inlineStr"/>
+      <c r="H2739" t="inlineStr"/>
+      <c r="I2739" t="inlineStr"/>
+      <c r="J2739" t="inlineStr"/>
+      <c r="K2739" t="inlineStr"/>
+      <c r="L2739" t="inlineStr">
+        <is>
+          <t>(N:5,P:50,T:2,R:0),(N:15,P:41,T:1,R:0),(N:21,P:25,T:1,R:0),(N:33,P:18,T:2,R:0),(N:0,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2740" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2740" t="inlineStr"/>
+      <c r="D2740" t="inlineStr"/>
+      <c r="E2740" t="inlineStr"/>
+      <c r="F2740" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2740" t="inlineStr"/>
+      <c r="H2740" t="inlineStr"/>
+      <c r="I2740" t="inlineStr"/>
+      <c r="J2740" t="inlineStr"/>
+      <c r="K2740" t="inlineStr"/>
+      <c r="L2740" t="inlineStr">
+        <is>
+          <t>(N:5,P:50,T:3,R:0),(N:29,P:43,T:1,R:0),(N:15,P:41,T:2,R:0),(N:21,P:25,T:2,R:0),(N:33,P:18,T:3,R:0),(N:0,P:12,T:2,R:0),(N:3,P:10,T:1,R:0),(N:22,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2741" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2741" t="inlineStr"/>
+      <c r="D2741" t="inlineStr"/>
+      <c r="E2741" t="inlineStr"/>
+      <c r="F2741" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2741" t="inlineStr"/>
+      <c r="H2741" t="inlineStr"/>
+      <c r="I2741" t="inlineStr"/>
+      <c r="J2741" t="inlineStr"/>
+      <c r="K2741" t="inlineStr"/>
+      <c r="L2741" t="inlineStr">
+        <is>
+          <t>(N:33,P:46,T:1,R:0),(N:29,P:43,T:2,R:0),(N:15,P:41,T:3,R:0),(N:21,P:25,T:3,R:0),(N:0,P:12,T:3,R:0),(N:3,P:10,T:2,R:0),(N:22,P:10,T:2,R:0),(N:17,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2742" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2742" t="inlineStr"/>
+      <c r="D2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr"/>
+      <c r="F2742" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2742" t="inlineStr"/>
+      <c r="H2742" t="inlineStr"/>
+      <c r="I2742" t="inlineStr"/>
+      <c r="J2742" t="inlineStr"/>
+      <c r="K2742" t="inlineStr"/>
+      <c r="L2742" t="inlineStr">
+        <is>
+          <t>(N:10,P:57,T:1,R:0),(N:33,P:46,T:2,R:0),(N:29,P:43,T:3,R:0),(N:17,P:24,T:1,R:1),(N:3,P:10,T:3,R:0),(N:22,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2743">
+      <c r="A2743" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2743" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2743" t="inlineStr"/>
+      <c r="D2743" t="inlineStr"/>
+      <c r="E2743" t="inlineStr"/>
+      <c r="F2743" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2743" t="inlineStr"/>
+      <c r="H2743" t="inlineStr"/>
+      <c r="I2743" t="inlineStr"/>
+      <c r="J2743" t="inlineStr"/>
+      <c r="K2743" t="inlineStr"/>
+      <c r="L2743" t="inlineStr">
+        <is>
+          <t>(N:7,P:61,T:1,R:0),(N:10,P:57,T:2,R:0),(N:33,P:46,T:3,R:0),(N:21,P:25,T:1,R:0),(N:17,P:24,T:2,R:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2744" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2744" t="inlineStr"/>
+      <c r="D2744" t="inlineStr"/>
+      <c r="E2744" t="inlineStr"/>
+      <c r="F2744" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2744" t="inlineStr"/>
+      <c r="H2744" t="inlineStr"/>
+      <c r="I2744" t="inlineStr"/>
+      <c r="J2744" t="inlineStr"/>
+      <c r="K2744" t="inlineStr"/>
+      <c r="L2744" t="inlineStr">
+        <is>
+          <t>(N:7,P:61,T:2,R:0),(N:10,P:57,T:3,R:0),(N:25,P:33,T:1,R:0),(N:13,P:27,T:1,R:0),(N:21,P:25,T:2,R:0),(N:17,P:24,T:3,R:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2745" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2745" t="inlineStr"/>
+      <c r="D2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr"/>
+      <c r="F2745" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2745" t="inlineStr"/>
+      <c r="H2745" t="inlineStr"/>
+      <c r="I2745" t="inlineStr"/>
+      <c r="J2745" t="inlineStr"/>
+      <c r="K2745" t="inlineStr"/>
+      <c r="L2745" t="inlineStr">
+        <is>
+          <t>(N:18,P:75,T:1,R:0),(N:7,P:61,T:3,R:0),(N:25,P:33,T:2,R:0),(N:13,P:27,T:2,R:0),(N:21,P:25,T:3,R:0),(N:17,P:15,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2746" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2746" t="inlineStr"/>
+      <c r="D2746" t="inlineStr"/>
+      <c r="E2746" t="inlineStr"/>
+      <c r="F2746" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2746" t="inlineStr"/>
+      <c r="H2746" t="inlineStr"/>
+      <c r="I2746" t="inlineStr"/>
+      <c r="J2746" t="inlineStr"/>
+      <c r="K2746" t="inlineStr"/>
+      <c r="L2746" t="inlineStr">
+        <is>
+          <t>(N:18,P:75,T:2,R:0),(N:21,P:34,T:1,R:0),(N:25,P:33,T:3,R:0),(N:32,P:31,T:1,R:0),(N:13,P:27,T:3,R:0),(N:17,P:15,T:2,R:0),(N:2,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2747" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2747" t="inlineStr"/>
+      <c r="D2747" t="inlineStr"/>
+      <c r="E2747" t="inlineStr"/>
+      <c r="F2747" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2747" t="inlineStr"/>
+      <c r="H2747" t="inlineStr"/>
+      <c r="I2747" t="inlineStr"/>
+      <c r="J2747" t="inlineStr"/>
+      <c r="K2747" t="inlineStr"/>
+      <c r="L2747" t="inlineStr">
+        <is>
+          <t>(N:25,P:85,T:1,R:0),(N:18,P:75,T:3,R:0),(N:21,P:34,T:2,R:0),(N:32,P:31,T:2,R:0),(N:17,P:15,T:3,R:0),(N:2,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2748" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2748" t="inlineStr"/>
+      <c r="D2748" t="inlineStr"/>
+      <c r="E2748" t="inlineStr"/>
+      <c r="F2748" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2748" t="inlineStr"/>
+      <c r="H2748" t="inlineStr"/>
+      <c r="I2748" t="inlineStr"/>
+      <c r="J2748" t="inlineStr"/>
+      <c r="K2748" t="inlineStr"/>
+      <c r="L2748" t="inlineStr">
+        <is>
+          <t>(N:25,P:85,T:2,R:0),(N:27,P:50,T:1,R:0),(N:21,P:34,T:3,R:0),(N:32,P:31,T:3,R:0),(N:6,P:20,T:1,R:0),(N:2,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2749" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2749" t="inlineStr"/>
+      <c r="D2749" t="inlineStr"/>
+      <c r="E2749" t="inlineStr"/>
+      <c r="F2749" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2749" t="inlineStr"/>
+      <c r="H2749" t="inlineStr"/>
+      <c r="I2749" t="inlineStr"/>
+      <c r="J2749" t="inlineStr"/>
+      <c r="K2749" t="inlineStr"/>
+      <c r="L2749" t="inlineStr">
+        <is>
+          <t>(N:25,P:85,T:3,R:0),(N:27,P:50,T:2,R:0),(N:15,P:23,T:1,R:0),(N:6,P:20,T:2,R:0),(N:20,P:18,T:1,R:0),(N:23,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2750" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2750" t="inlineStr"/>
+      <c r="D2750" t="inlineStr"/>
+      <c r="E2750" t="inlineStr"/>
+      <c r="F2750" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2750" t="inlineStr"/>
+      <c r="H2750" t="inlineStr"/>
+      <c r="I2750" t="inlineStr"/>
+      <c r="J2750" t="inlineStr"/>
+      <c r="K2750" t="inlineStr"/>
+      <c r="L2750" t="inlineStr">
+        <is>
+          <t>(N:27,P:50,T:3,R:0),(N:5,P:27,T:1,R:0),(N:33,P:25,T:1,R:0),(N:15,P:23,T:2,R:0),(N:6,P:20,T:3,R:0),(N:20,P:18,T:2,R:0),(N:23,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2751" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2751" t="inlineStr"/>
+      <c r="D2751" t="inlineStr"/>
+      <c r="E2751" t="inlineStr"/>
+      <c r="F2751" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2751" t="inlineStr"/>
+      <c r="H2751" t="inlineStr"/>
+      <c r="I2751" t="inlineStr"/>
+      <c r="J2751" t="inlineStr"/>
+      <c r="K2751" t="inlineStr"/>
+      <c r="L2751" t="inlineStr">
+        <is>
+          <t>(N:16,P:38,T:1,R:0),(N:5,P:27,T:2,R:0),(N:33,P:25,T:2,R:0),(N:15,P:23,T:3,R:0),(N:1,P:20,T:1,R:0),(N:20,P:18,T:3,R:0),(N:23,P:11,T:3,R:0),(N:30,P:10,T:1,R:0),(N:3,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2752" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2752" t="inlineStr"/>
+      <c r="D2752" t="inlineStr"/>
+      <c r="E2752" t="inlineStr"/>
+      <c r="F2752" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2752" t="inlineStr"/>
+      <c r="H2752" t="inlineStr"/>
+      <c r="I2752" t="inlineStr"/>
+      <c r="J2752" t="inlineStr"/>
+      <c r="K2752" t="inlineStr"/>
+      <c r="L2752" t="inlineStr">
+        <is>
+          <t>(N:16,P:38,T:2,R:0),(N:27,P:36,T:1,R:0),(N:12,P:28,T:1,R:0),(N:5,P:27,T:3,R:0),(N:33,P:25,T:3,R:0),(N:1,P:20,T:2,R:0),(N:17,P:12,T:1,R:0),(N:30,P:10,T:2,R:0),(N:3,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2753" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2753" t="inlineStr"/>
+      <c r="D2753" t="inlineStr"/>
+      <c r="E2753" t="inlineStr"/>
+      <c r="F2753" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2753" t="inlineStr"/>
+      <c r="H2753" t="inlineStr"/>
+      <c r="I2753" t="inlineStr"/>
+      <c r="J2753" t="inlineStr"/>
+      <c r="K2753" t="inlineStr"/>
+      <c r="L2753" t="inlineStr">
+        <is>
+          <t>(N:35,P:68,T:1,R:0),(N:16,P:38,T:3,R:0),(N:27,P:36,T:2,R:0),(N:12,P:28,T:2,R:0),(N:1,P:20,T:3,R:0),(N:17,P:12,T:2,R:0),(N:30,P:10,T:3,R:0),(N:3,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2754" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2754" t="inlineStr"/>
+      <c r="D2754" t="inlineStr"/>
+      <c r="E2754" t="inlineStr"/>
+      <c r="F2754" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2754" t="inlineStr"/>
+      <c r="H2754" t="inlineStr"/>
+      <c r="I2754" t="inlineStr"/>
+      <c r="J2754" t="inlineStr"/>
+      <c r="K2754" t="inlineStr"/>
+      <c r="L2754" t="inlineStr">
+        <is>
+          <t>(N:0,P:86,T:1,R:0),(N:35,P:68,T:2,R:0),(N:27,P:36,T:3,R:0),(N:12,P:28,T:3,R:0),(N:17,P:12,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2755" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2755" t="inlineStr">
+        <is>
+          <t>(N:0,P:104,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2755" t="inlineStr"/>
+      <c r="E2755" t="inlineStr"/>
+      <c r="F2755" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2755" t="inlineStr"/>
+      <c r="H2755" t="inlineStr"/>
+      <c r="I2755" t="inlineStr"/>
+      <c r="J2755" t="inlineStr"/>
+      <c r="K2755" t="inlineStr"/>
+      <c r="L2755" t="inlineStr">
+        <is>
+          <t>(N:35,P:68,T:3,R:0),(N:22,P:17,T:1,R:0),(N:16,P:15,T:1,R:0),(N:34,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2756" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2756" t="inlineStr">
+        <is>
+          <t>(N:0,P:104,T:2,R:0,PL:2,J:3000)</t>
+        </is>
+      </c>
+      <c r="D2756" t="inlineStr"/>
+      <c r="E2756" t="inlineStr"/>
+      <c r="F2756" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2756" t="inlineStr"/>
+      <c r="H2756" t="inlineStr"/>
+      <c r="I2756" t="inlineStr"/>
+      <c r="J2756" t="inlineStr"/>
+      <c r="K2756" t="inlineStr"/>
+      <c r="L2756" t="inlineStr">
+        <is>
+          <t>(N:27,P:46,T:1,R:0),(N:1,P:18,T:1,R:0),(N:22,P:17,T:2,R:0),(N:16,P:15,T:2,R:0),(N:34,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2757" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2757" t="inlineStr">
+        <is>
+          <t>(N:0,P:104,T:3,R:0,PL:3,J:6000)</t>
+        </is>
+      </c>
+      <c r="D2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr"/>
+      <c r="F2757" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2757" t="inlineStr"/>
+      <c r="H2757" t="inlineStr"/>
+      <c r="I2757" t="inlineStr"/>
+      <c r="J2757" t="inlineStr"/>
+      <c r="K2757" t="inlineStr"/>
+      <c r="L2757" t="inlineStr">
+        <is>
+          <t>(N:22,P:78,T:2,R:1),(N:27,P:46,T:2,R:0),(N:29,P:21,T:1,R:0),(N:1,P:18,T:2,R:0),(N:16,P:15,T:3,R:0),(N:34,P:12,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2758" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2758" t="inlineStr">
+        <is>
+          <t>(N:0,P:104,T:4,R:0,PL:4,J:10000)</t>
+        </is>
+      </c>
+      <c r="D2758" t="inlineStr"/>
+      <c r="E2758" t="inlineStr"/>
+      <c r="F2758" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2758" t="inlineStr"/>
+      <c r="H2758" t="inlineStr"/>
+      <c r="I2758" t="inlineStr"/>
+      <c r="J2758" t="inlineStr"/>
+      <c r="K2758" t="inlineStr"/>
+      <c r="L2758" t="inlineStr">
+        <is>
+          <t>(N:22,P:78,T:3,R:1),(N:27,P:46,T:3,R:0),(N:14,P:40,T:1,R:0),(N:16,P:37,T:1,R:0),(N:29,P:21,T:2,R:0),(N:1,P:18,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2759" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2759" t="inlineStr">
+        <is>
+          <t>(N:0,P:104,T:5,R:0,PL:5,J:15000)</t>
+        </is>
+      </c>
+      <c r="D2759" t="inlineStr"/>
+      <c r="E2759" t="inlineStr"/>
+      <c r="F2759" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2759" t="inlineStr"/>
+      <c r="H2759" t="inlineStr"/>
+      <c r="I2759" t="inlineStr"/>
+      <c r="J2759" t="inlineStr"/>
+      <c r="K2759" t="inlineStr"/>
+      <c r="L2759" t="inlineStr">
+        <is>
+          <t>(N:32,P:55,T:1,R:0),(N:14,P:40,T:2,R:0),(N:16,P:37,T:2,R:0),(N:29,P:21,T:3,R:0),(N:12,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2760" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2760" t="inlineStr">
+        <is>
+          <t>(N:0,P:104,T:6,R:0,PL:6,J:21000)</t>
+        </is>
+      </c>
+      <c r="D2760" t="inlineStr"/>
+      <c r="E2760" t="inlineStr"/>
+      <c r="F2760" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2760" t="inlineStr"/>
+      <c r="H2760" t="inlineStr"/>
+      <c r="I2760" t="inlineStr"/>
+      <c r="J2760" t="inlineStr"/>
+      <c r="K2760" t="inlineStr"/>
+      <c r="L2760" t="inlineStr">
+        <is>
+          <t>(N:14,P:86,T:2,R:1),(N:32,P:55,T:2,R:0),(N:16,P:37,T:3,R:0),(N:12,P:12,T:2,R:0),(N:7,P:12,T:1,R:0),(N:20,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2761" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2761" t="inlineStr">
+        <is>
+          <t>(N:0,P:104,T:7,R:0,PL:7,J:28000)</t>
+        </is>
+      </c>
+      <c r="D2761" t="inlineStr"/>
+      <c r="E2761" t="inlineStr"/>
+      <c r="F2761" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2761" t="inlineStr"/>
+      <c r="H2761" t="inlineStr"/>
+      <c r="I2761" t="inlineStr"/>
+      <c r="J2761" t="inlineStr"/>
+      <c r="K2761" t="inlineStr"/>
+      <c r="L2761" t="inlineStr">
+        <is>
+          <t>(N:14,P:86,T:3,R:1),(N:27,P:70,T:1,R:0),(N:32,P:55,T:3,R:0),(N:12,P:12,T:3,R:0),(N:7,P:12,T:2,R:0),(N:20,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2762">
+      <c r="A2762" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2762" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2762" t="inlineStr">
+        <is>
+          <t>(N:0,P:104,T:8,R:0,PL:8,J:36000)</t>
+        </is>
+      </c>
+      <c r="D2762" t="inlineStr"/>
+      <c r="E2762" t="inlineStr"/>
+      <c r="F2762" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2762" t="inlineStr"/>
+      <c r="H2762" t="inlineStr"/>
+      <c r="I2762" t="inlineStr"/>
+      <c r="J2762" t="inlineStr"/>
+      <c r="K2762" t="inlineStr"/>
+      <c r="L2762" t="inlineStr">
+        <is>
+          <t>(N:27,P:70,T:2,R:0),(N:33,P:31,T:1,R:0),(N:30,P:14,T:1,R:0),(N:7,P:12,T:3,R:0),(N:20,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2763" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2763" t="inlineStr"/>
+      <c r="D2763" t="inlineStr"/>
+      <c r="E2763" t="inlineStr">
+        <is>
+          <t>(N:0,P:104,T:8,R:0,PL:8,J:36000)</t>
+        </is>
+      </c>
+      <c r="F2763" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2763" t="inlineStr"/>
+      <c r="H2763" t="inlineStr"/>
+      <c r="I2763" t="inlineStr"/>
+      <c r="J2763" t="inlineStr"/>
+      <c r="K2763" t="inlineStr"/>
+      <c r="L2763" t="inlineStr">
+        <is>
+          <t>(N:27,P:70,T:3,R:0),(N:16,P:62,T:1,R:0),(N:33,P:31,T:2,R:0),(N:1,P:23,T:1,R:0),(N:30,P:14,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2764" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2764" t="inlineStr"/>
+      <c r="D2764" t="inlineStr"/>
+      <c r="E2764" t="inlineStr"/>
+      <c r="F2764" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2764" t="inlineStr"/>
+      <c r="H2764" t="inlineStr"/>
+      <c r="I2764" t="inlineStr"/>
+      <c r="J2764" t="inlineStr"/>
+      <c r="K2764" t="inlineStr"/>
+      <c r="L2764" t="inlineStr">
+        <is>
+          <t>(N:14,P:70,T:1,R:0),(N:16,P:62,T:2,R:0),(N:33,P:31,T:3,R:0),(N:1,P:23,T:2,R:0),(N:30,P:14,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2765" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2765" t="inlineStr"/>
+      <c r="D2765" t="inlineStr"/>
+      <c r="E2765" t="inlineStr"/>
+      <c r="F2765" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2765" t="inlineStr"/>
+      <c r="H2765" t="inlineStr"/>
+      <c r="I2765" t="inlineStr"/>
+      <c r="J2765" t="inlineStr"/>
+      <c r="K2765" t="inlineStr"/>
+      <c r="L2765" t="inlineStr">
+        <is>
+          <t>(N:11,P:81,T:1,R:0),(N:14,P:70,T:2,R:0),(N:16,P:62,T:3,R:0),(N:1,P:23,T:3,R:0),(N:10,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2766" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2766" t="inlineStr"/>
+      <c r="D2766" t="inlineStr"/>
+      <c r="E2766" t="inlineStr"/>
+      <c r="F2766" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2766" t="inlineStr"/>
+      <c r="H2766" t="inlineStr"/>
+      <c r="I2766" t="inlineStr"/>
+      <c r="J2766" t="inlineStr"/>
+      <c r="K2766" t="inlineStr"/>
+      <c r="L2766" t="inlineStr">
+        <is>
+          <t>(N:11,P:81,T:2,R:0),(N:14,P:70,T:3,R:0),(N:7,P:50,T:1,R:0),(N:32,P:18,T:1,R:0),(N:10,P:12,T:2,R:0),(N:9,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2767" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2767" t="inlineStr"/>
+      <c r="D2767" t="inlineStr"/>
+      <c r="E2767" t="inlineStr"/>
+      <c r="F2767" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2767" t="inlineStr"/>
+      <c r="H2767" t="inlineStr"/>
+      <c r="I2767" t="inlineStr"/>
+      <c r="J2767" t="inlineStr"/>
+      <c r="K2767" t="inlineStr"/>
+      <c r="L2767" t="inlineStr">
+        <is>
+          <t>(N:11,P:81,T:3,R:0),(N:7,P:50,T:2,R:0),(N:19,P:21,T:1,R:0),(N:5,P:20,T:1,R:0),(N:32,P:18,T:2,R:0),(N:10,P:12,T:3,R:0),(N:36,P:11,T:1,R:0),(N:9,P:10,T:2,R:0),(N:26,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2768" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2768" t="inlineStr"/>
+      <c r="D2768" t="inlineStr"/>
+      <c r="E2768" t="inlineStr"/>
+      <c r="F2768" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2768" t="inlineStr"/>
+      <c r="H2768" t="inlineStr"/>
+      <c r="I2768" t="inlineStr"/>
+      <c r="J2768" t="inlineStr"/>
+      <c r="K2768" t="inlineStr"/>
+      <c r="L2768" t="inlineStr">
+        <is>
+          <t>(N:7,P:50,T:3,R:0),(N:19,P:42,T:1,R:1),(N:26,P:25,T:1,R:1),(N:5,P:20,T:2,R:0),(N:21,P:20,T:1,R:0),(N:32,P:18,T:3,R:0),(N:36,P:11,T:2,R:0),(N:9,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" t="n">
+        <v>37</v>
+      </c>
+      <c r="B2769" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2769" t="inlineStr"/>
+      <c r="D2769" t="inlineStr"/>
+      <c r="E2769" t="inlineStr"/>
+      <c r="F2769" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2769" t="inlineStr"/>
+      <c r="H2769" t="inlineStr"/>
+      <c r="I2769" t="inlineStr"/>
+      <c r="J2769" t="inlineStr"/>
+      <c r="K2769" t="inlineStr"/>
+      <c r="L2769" t="inlineStr">
+        <is>
+          <t>(N:2,P:75,T:1,R:0),(N:19,P:42,T:2,R:1),(N:26,P:25,T:2,R:1),(N:5,P:20,T:3,R:0),(N:21,P:20,T:2,R:0),(N:36,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" t="n">
+        <v>38</v>
+      </c>
+      <c r="B2770" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2770" t="inlineStr"/>
+      <c r="D2770" t="inlineStr"/>
+      <c r="E2770" t="inlineStr"/>
+      <c r="F2770" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2770" t="inlineStr"/>
+      <c r="H2770" t="inlineStr"/>
+      <c r="I2770" t="inlineStr"/>
+      <c r="J2770" t="inlineStr"/>
+      <c r="K2770" t="inlineStr"/>
+      <c r="L2770" t="inlineStr">
+        <is>
+          <t>(N:2,P:75,T:2,R:0),(N:14,P:58,T:1,R:0),(N:19,P:42,T:3,R:1),(N:26,P:25,T:3,R:1),(N:21,P:20,T:3,R:0),(N:23,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" t="n">
+        <v>39</v>
+      </c>
+      <c r="B2771" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2771" t="inlineStr"/>
+      <c r="D2771" t="inlineStr"/>
+      <c r="E2771" t="inlineStr"/>
+      <c r="F2771" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2771" t="inlineStr"/>
+      <c r="H2771" t="inlineStr"/>
+      <c r="I2771" t="inlineStr"/>
+      <c r="J2771" t="inlineStr"/>
+      <c r="K2771" t="inlineStr"/>
+      <c r="L2771" t="inlineStr">
+        <is>
+          <t>(N:2,P:75,T:3,R:0),(N:14,P:58,T:2,R:0),(N:11,P:23,T:1,R:0),(N:36,P:18,T:1,R:0),(N:23,P:11,T:2,R:0),(N:10,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" t="n">
+        <v>40</v>
+      </c>
+      <c r="B2772" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2772" t="inlineStr"/>
+      <c r="D2772" t="inlineStr"/>
+      <c r="E2772" t="inlineStr"/>
+      <c r="F2772" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2772" t="inlineStr"/>
+      <c r="H2772" t="inlineStr"/>
+      <c r="I2772" t="inlineStr"/>
+      <c r="J2772" t="inlineStr"/>
+      <c r="K2772" t="inlineStr"/>
+      <c r="L2772" t="inlineStr">
+        <is>
+          <t>(N:14,P:58,T:3,R:0),(N:16,P:38,T:1,R:0),(N:11,P:23,T:2,R:0),(N:36,P:18,T:2,R:0),(N:23,P:11,T:3,R:0),(N:10,P:10,T:2,R:0),(N:28,P:10,T:1,R:0),(N:0,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" t="n">
+        <v>41</v>
+      </c>
+      <c r="B2773" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2773" t="inlineStr"/>
+      <c r="D2773" t="inlineStr"/>
+      <c r="E2773" t="inlineStr"/>
+      <c r="F2773" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2773" t="inlineStr"/>
+      <c r="H2773" t="inlineStr"/>
+      <c r="I2773" t="inlineStr"/>
+      <c r="J2773" t="inlineStr"/>
+      <c r="K2773" t="inlineStr"/>
+      <c r="L2773" t="inlineStr">
+        <is>
+          <t>(N:21,P:43,T:1,R:0),(N:16,P:38,T:2,R:0),(N:11,P:23,T:3,R:0),(N:36,P:18,T:3,R:0),(N:22,P:11,T:1,R:0),(N:10,P:10,T:3,R:0),(N:28,P:10,T:2,R:0),(N:0,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2774" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2774" t="inlineStr"/>
+      <c r="D2774" t="inlineStr"/>
+      <c r="E2774" t="inlineStr"/>
+      <c r="F2774" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2774" t="inlineStr"/>
+      <c r="H2774" t="inlineStr"/>
+      <c r="I2774" t="inlineStr"/>
+      <c r="J2774" t="inlineStr"/>
+      <c r="K2774" t="inlineStr"/>
+      <c r="L2774" t="inlineStr">
+        <is>
+          <t>(N:21,P:43,T:2,R:0),(N:5,P:41,T:1,R:0),(N:16,P:38,T:3,R:0),(N:22,P:28,T:1,R:1),(N:6,P:18,T:1,R:0),(N:28,P:10,T:3,R:0),(N:0,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2775" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2775" t="inlineStr"/>
+      <c r="D2775" t="inlineStr"/>
+      <c r="E2775" t="inlineStr"/>
+      <c r="F2775" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2775" t="inlineStr"/>
+      <c r="H2775" t="inlineStr"/>
+      <c r="I2775" t="inlineStr"/>
+      <c r="J2775" t="inlineStr"/>
+      <c r="K2775" t="inlineStr"/>
+      <c r="L2775" t="inlineStr">
+        <is>
+          <t>(N:22,P:90,T:1,R:2),(N:21,P:43,T:3,R:0),(N:5,P:41,T:2,R:0),(N:6,P:18,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" t="n">
+        <v>44</v>
+      </c>
+      <c r="B2776" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2776" t="inlineStr"/>
+      <c r="D2776" t="inlineStr"/>
+      <c r="E2776" t="inlineStr"/>
+      <c r="F2776" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2776" t="inlineStr"/>
+      <c r="H2776" t="inlineStr"/>
+      <c r="I2776" t="inlineStr"/>
+      <c r="J2776" t="inlineStr"/>
+      <c r="K2776" t="inlineStr"/>
+      <c r="L2776" t="inlineStr">
+        <is>
+          <t>(N:22,P:90,T:2,R:2),(N:13,P:52,T:1,R:0),(N:5,P:41,T:3,R:0),(N:23,P:36,T:1,R:0),(N:6,P:18,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" t="n">
+        <v>45</v>
+      </c>
+      <c r="B2777" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2777" t="inlineStr"/>
+      <c r="D2777" t="inlineStr"/>
+      <c r="E2777" t="inlineStr"/>
+      <c r="F2777" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2777" t="inlineStr"/>
+      <c r="H2777" t="inlineStr"/>
+      <c r="I2777" t="inlineStr"/>
+      <c r="J2777" t="inlineStr"/>
+      <c r="K2777" t="inlineStr"/>
+      <c r="L2777" t="inlineStr">
+        <is>
+          <t>(N:22,P:90,T:3,R:2),(N:23,P:77,T:1,R:1),(N:13,P:52,T:2,R:0),(N:15,P:34,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" t="n">
+        <v>46</v>
+      </c>
+      <c r="B2778" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2778" t="inlineStr">
+        <is>
+          <t>(N:23,P:168,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2778" t="inlineStr"/>
+      <c r="E2778" t="inlineStr"/>
+      <c r="F2778" t="n">
+        <v>-36000</v>
+      </c>
+      <c r="G2778" t="inlineStr"/>
+      <c r="H2778" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="I2778" t="inlineStr"/>
+      <c r="J2778" t="inlineStr"/>
+      <c r="K2778" t="inlineStr"/>
+      <c r="L2778" t="inlineStr">
+        <is>
+          <t>(N:13,P:52,T:3,R:0),(N:15,P:34,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" t="n">
+        <v>47</v>
+      </c>
+      <c r="B2779" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2779" t="inlineStr"/>
+      <c r="D2779" t="inlineStr">
+        <is>
+          <t>(N:23,P:168,T:1,R:0,PL:1,J:2000)</t>
+        </is>
+      </c>
+      <c r="E2779" t="inlineStr"/>
+      <c r="F2779" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2779" t="inlineStr"/>
+      <c r="H2779" t="inlineStr"/>
+      <c r="I2779" t="inlineStr"/>
+      <c r="J2779" t="inlineStr"/>
+      <c r="K2779" t="inlineStr"/>
+      <c r="L2779" t="inlineStr">
+        <is>
+          <t>(N:25,P:81,T:1,R:0),(N:15,P:34,T:3,R:0),(N:10,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2780">
+      <c r="A2780" t="n">
+        <v>48</v>
+      </c>
+      <c r="B2780" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2780" t="inlineStr"/>
+      <c r="D2780" t="inlineStr"/>
+      <c r="E2780" t="inlineStr"/>
+      <c r="F2780" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2780" t="inlineStr"/>
+      <c r="H2780" t="inlineStr"/>
+      <c r="I2780" t="inlineStr"/>
+      <c r="J2780" t="inlineStr"/>
+      <c r="K2780" t="inlineStr"/>
+      <c r="L2780" t="inlineStr">
+        <is>
+          <t>(N:25,P:81,T:2,R:0),(N:15,P:51,T:1,R:0),(N:3,P:14,T:1,R:0),(N:8,P:11,T:1,R:0),(N:10,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" t="n">
+        <v>49</v>
+      </c>
+      <c r="B2781" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2781" t="inlineStr"/>
+      <c r="D2781" t="inlineStr"/>
+      <c r="E2781" t="inlineStr"/>
+      <c r="F2781" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2781" t="inlineStr"/>
+      <c r="H2781" t="inlineStr"/>
+      <c r="I2781" t="inlineStr"/>
+      <c r="J2781" t="inlineStr"/>
+      <c r="K2781" t="inlineStr"/>
+      <c r="L2781" t="inlineStr">
+        <is>
+          <t>(N:25,P:81,T:3,R:0),(N:14,P:81,T:1,R:0),(N:15,P:51,T:2,R:0),(N:3,P:14,T:2,R:0),(N:8,P:11,T:2,R:0),(N:10,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2782" t="n">
+        <v>36</v>
+      </c>
+      <c r="C2782" t="inlineStr"/>
+      <c r="D2782" t="inlineStr"/>
+      <c r="E2782" t="inlineStr"/>
+      <c r="F2782" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2782" t="inlineStr"/>
+      <c r="H2782" t="inlineStr"/>
+      <c r="I2782" t="inlineStr"/>
+      <c r="J2782" t="inlineStr"/>
+      <c r="K2782" t="inlineStr"/>
+      <c r="L2782" t="inlineStr">
+        <is>
+          <t>(N:14,P:81,T:2,R:0),(N:16,P:54,T:1,R:0),(N:15,P:51,T:3,R:0),(N:3,P:14,T:3,R:0),(N:8,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" t="n">
+        <v>51</v>
+      </c>
+      <c r="B2783" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2783" t="inlineStr"/>
+      <c r="D2783" t="inlineStr"/>
+      <c r="E2783" t="inlineStr"/>
+      <c r="F2783" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2783" t="inlineStr"/>
+      <c r="H2783" t="inlineStr"/>
+      <c r="I2783" t="inlineStr"/>
+      <c r="J2783" t="inlineStr"/>
+      <c r="K2783" t="inlineStr"/>
+      <c r="L2783" t="inlineStr">
+        <is>
+          <t>(N:14,P:81,T:3,R:0),(N:16,P:54,T:2,R:0),(N:33,P:36,T:1,R:0),(N:6,P:15,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" t="n">
+        <v>52</v>
+      </c>
+      <c r="B2784" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2784" t="inlineStr"/>
+      <c r="D2784" t="inlineStr"/>
+      <c r="E2784" t="inlineStr"/>
+      <c r="F2784" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2784" t="inlineStr"/>
+      <c r="H2784" t="inlineStr"/>
+      <c r="I2784" t="inlineStr"/>
+      <c r="J2784" t="inlineStr"/>
+      <c r="K2784" t="inlineStr"/>
+      <c r="L2784" t="inlineStr">
+        <is>
+          <t>(N:16,P:54,T:3,R:0),(N:28,P:38,T:1,R:0),(N:33,P:36,T:2,R:0),(N:11,P:18,T:1,R:0),(N:6,P:15,T:2,R:0),(N:23,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" t="n">
+        <v>53</v>
+      </c>
+      <c r="B2785" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2785" t="inlineStr"/>
+      <c r="D2785" t="inlineStr"/>
+      <c r="E2785" t="inlineStr"/>
+      <c r="F2785" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2785" t="inlineStr"/>
+      <c r="H2785" t="inlineStr"/>
+      <c r="I2785" t="inlineStr"/>
+      <c r="J2785" t="inlineStr"/>
+      <c r="K2785" t="inlineStr"/>
+      <c r="L2785" t="inlineStr">
+        <is>
+          <t>(N:6,P:83,T:2,R:1),(N:28,P:38,T:2,R:0),(N:33,P:36,T:3,R:0),(N:15,P:28,T:1,R:0),(N:11,P:18,T:2,R:0),(N:23,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" t="n">
+        <v>54</v>
+      </c>
+      <c r="B2786" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2786" t="inlineStr"/>
+      <c r="D2786" t="inlineStr"/>
+      <c r="E2786" t="inlineStr"/>
+      <c r="F2786" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2786" t="inlineStr"/>
+      <c r="H2786" t="inlineStr"/>
+      <c r="I2786" t="inlineStr"/>
+      <c r="J2786" t="inlineStr"/>
+      <c r="K2786" t="inlineStr"/>
+      <c r="L2786" t="inlineStr">
+        <is>
+          <t>(N:6,P:83,T:3,R:1),(N:23,P:78,T:2,R:1),(N:15,P:43,T:1,R:1),(N:28,P:38,T:3,R:0),(N:11,P:18,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" t="n">
+        <v>55</v>
+      </c>
+      <c r="B2787" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2787" t="inlineStr"/>
+      <c r="D2787" t="inlineStr"/>
+      <c r="E2787" t="inlineStr"/>
+      <c r="F2787" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2787" t="inlineStr"/>
+      <c r="H2787" t="inlineStr"/>
+      <c r="I2787" t="inlineStr"/>
+      <c r="J2787" t="inlineStr"/>
+      <c r="K2787" t="inlineStr"/>
+      <c r="L2787" t="inlineStr">
+        <is>
+          <t>(N:23,P:78,T:3,R:1),(N:10,P:75,T:1,R:0),(N:15,P:43,T:2,R:1),(N:14,P:15,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" t="n">
+        <v>56</v>
+      </c>
+      <c r="B2788" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2788" t="inlineStr"/>
+      <c r="D2788" t="inlineStr"/>
+      <c r="E2788" t="inlineStr"/>
+      <c r="F2788" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2788" t="inlineStr"/>
+      <c r="H2788" t="inlineStr"/>
+      <c r="I2788" t="inlineStr"/>
+      <c r="J2788" t="inlineStr"/>
+      <c r="K2788" t="inlineStr"/>
+      <c r="L2788" t="inlineStr">
+        <is>
+          <t>(N:10,P:75,T:2,R:0),(N:15,P:43,T:3,R:1),(N:32,P:21,T:1,R:0),(N:0,P:18,T:1,R:0),(N:14,P:15,T:2,R:0),(N:16,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" t="n">
+        <v>57</v>
+      </c>
+      <c r="B2789" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2789" t="inlineStr"/>
+      <c r="D2789" t="inlineStr"/>
+      <c r="E2789" t="inlineStr"/>
+      <c r="F2789" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2789" t="inlineStr"/>
+      <c r="H2789" t="inlineStr"/>
+      <c r="I2789" t="inlineStr"/>
+      <c r="J2789" t="inlineStr"/>
+      <c r="K2789" t="inlineStr"/>
+      <c r="L2789" t="inlineStr">
+        <is>
+          <t>(N:10,P:75,T:3,R:0),(N:34,P:28,T:1,R:0),(N:1,P:23,T:1,R:0),(N:32,P:21,T:2,R:0),(N:0,P:18,T:2,R:0),(N:14,P:15,T:3,R:0),(N:26,P:11,T:1,R:0),(N:16,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" t="n">
+        <v>58</v>
+      </c>
+      <c r="B2790" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2790" t="inlineStr"/>
+      <c r="D2790" t="inlineStr"/>
+      <c r="E2790" t="inlineStr"/>
+      <c r="F2790" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2790" t="inlineStr"/>
+      <c r="H2790" t="inlineStr"/>
+      <c r="I2790" t="inlineStr"/>
+      <c r="J2790" t="inlineStr"/>
+      <c r="K2790" t="inlineStr"/>
+      <c r="L2790" t="inlineStr">
+        <is>
+          <t>(N:15,P:68,T:1,R:0),(N:34,P:28,T:2,R:0),(N:1,P:23,T:2,R:0),(N:32,P:21,T:3,R:0),(N:0,P:18,T:3,R:0),(N:25,P:14,T:1,R:0),(N:26,P:11,T:2,R:0),(N:16,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" t="n">
+        <v>59</v>
+      </c>
+      <c r="B2791" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2791" t="inlineStr"/>
+      <c r="D2791" t="inlineStr"/>
+      <c r="E2791" t="inlineStr"/>
+      <c r="F2791" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2791" t="inlineStr"/>
+      <c r="H2791" t="inlineStr"/>
+      <c r="I2791" t="inlineStr"/>
+      <c r="J2791" t="inlineStr"/>
+      <c r="K2791" t="inlineStr"/>
+      <c r="L2791" t="inlineStr">
+        <is>
+          <t>(N:15,P:68,T:2,R:0),(N:34,P:28,T:3,R:0),(N:1,P:23,T:3,R:0),(N:4,P:20,T:1,R:0),(N:31,P:20,T:1,R:0),(N:8,P:17,T:1,R:0),(N:25,P:14,T:2,R:0),(N:26,P:11,T:3,R:0),(N:3,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2792" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2792" t="inlineStr"/>
+      <c r="D2792" t="inlineStr"/>
+      <c r="E2792" t="inlineStr"/>
+      <c r="F2792" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2792" t="inlineStr"/>
+      <c r="H2792" t="inlineStr"/>
+      <c r="I2792" t="inlineStr"/>
+      <c r="J2792" t="inlineStr"/>
+      <c r="K2792" t="inlineStr"/>
+      <c r="L2792" t="inlineStr">
+        <is>
+          <t>(N:15,P:68,T:3,R:0),(N:2,P:37,T:1,R:0),(N:25,P:34,T:2,R:1),(N:4,P:20,T:2,R:0),(N:31,P:20,T:2,R:0),(N:8,P:17,T:2,R:0),(N:3,P:10,T:2,R:0),(N:12,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" t="n">
+        <v>61</v>
+      </c>
+      <c r="B2793" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2793" t="inlineStr"/>
+      <c r="D2793" t="inlineStr"/>
+      <c r="E2793" t="inlineStr"/>
+      <c r="F2793" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2793" t="inlineStr"/>
+      <c r="H2793" t="inlineStr"/>
+      <c r="I2793" t="inlineStr"/>
+      <c r="J2793" t="inlineStr"/>
+      <c r="K2793" t="inlineStr"/>
+      <c r="L2793" t="inlineStr">
+        <is>
+          <t>(N:2,P:37,T:2,R:0),(N:28,P:37,T:1,R:0),(N:25,P:34,T:3,R:1),(N:4,P:20,T:3,R:0),(N:31,P:20,T:3,R:0),(N:8,P:17,T:3,R:0),(N:27,P:15,T:1,R:0),(N:3,P:10,T:3,R:0),(N:12,P:10,T:2,R:0),(N:14,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" t="n">
+        <v>62</v>
+      </c>
+      <c r="B2794" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2794" t="inlineStr"/>
+      <c r="D2794" t="inlineStr"/>
+      <c r="E2794" t="inlineStr"/>
+      <c r="F2794" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2794" t="inlineStr"/>
+      <c r="H2794" t="inlineStr"/>
+      <c r="I2794" t="inlineStr"/>
+      <c r="J2794" t="inlineStr"/>
+      <c r="K2794" t="inlineStr"/>
+      <c r="L2794" t="inlineStr">
+        <is>
+          <t>(N:6,P:74,T:1,R:0),(N:2,P:37,T:3,R:0),(N:28,P:37,T:2,R:0),(N:27,P:15,T:2,R:0),(N:12,P:10,T:3,R:0),(N:14,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" t="n">
+        <v>63</v>
+      </c>
+      <c r="B2795" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2795" t="inlineStr"/>
+      <c r="D2795" t="inlineStr"/>
+      <c r="E2795" t="inlineStr"/>
+      <c r="F2795" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2795" t="inlineStr"/>
+      <c r="H2795" t="inlineStr"/>
+      <c r="I2795" t="inlineStr"/>
+      <c r="J2795" t="inlineStr"/>
+      <c r="K2795" t="inlineStr"/>
+      <c r="L2795" t="inlineStr">
+        <is>
+          <t>(N:6,P:99,T:1,R:1),(N:5,P:49,T:1,R:0),(N:28,P:37,T:3,R:0),(N:27,P:15,T:3,R:0),(N:14,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" t="n">
+        <v>64</v>
+      </c>
+      <c r="B2796" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2796" t="inlineStr"/>
+      <c r="D2796" t="inlineStr"/>
+      <c r="E2796" t="inlineStr"/>
+      <c r="F2796" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2796" t="inlineStr"/>
+      <c r="H2796" t="inlineStr"/>
+      <c r="I2796" t="inlineStr"/>
+      <c r="J2796" t="inlineStr"/>
+      <c r="K2796" t="inlineStr"/>
+      <c r="L2796" t="inlineStr">
+        <is>
+          <t>(N:6,P:99,T:2,R:1),(N:5,P:49,T:2,R:0),(N:25,P:18,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" t="n">
+        <v>65</v>
+      </c>
+      <c r="B2797" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2797" t="inlineStr"/>
+      <c r="D2797" t="inlineStr"/>
+      <c r="E2797" t="inlineStr"/>
+      <c r="F2797" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2797" t="inlineStr"/>
+      <c r="H2797" t="inlineStr"/>
+      <c r="I2797" t="inlineStr"/>
+      <c r="J2797" t="inlineStr"/>
+      <c r="K2797" t="inlineStr"/>
+      <c r="L2797" t="inlineStr">
+        <is>
+          <t>(N:5,P:63,T:3,R:1),(N:1,P:55,T:1,R:1),(N:36,P:43,T:1,R:1),(N:16,P:28,T:2,R:0),(N:25,P:18,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" t="n">
+        <v>66</v>
+      </c>
+      <c r="B2798" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2798" t="inlineStr"/>
+      <c r="D2798" t="inlineStr"/>
+      <c r="E2798" t="inlineStr"/>
+      <c r="F2798" t="n">
+        <v>-30800</v>
+      </c>
+      <c r="G2798" t="inlineStr"/>
+      <c r="H2798" t="inlineStr"/>
+      <c r="I2798" t="inlineStr"/>
+      <c r="J2798" t="inlineStr"/>
+      <c r="K2798" t="inlineStr"/>
+      <c r="L2798" t="inlineStr">
+        <is>
+          <t>(N:1,P:55,T:2,R:1),(N:13,P:55,T:1,R:0),(N:36,P:43,T:2,R:1),(N:16,P:28,T:3,R:0),(N:5,P:15,T:1,R:0),(N:17,P:14,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2799" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2799" t="inlineStr"/>
+      <c r="D2799" t="inlineStr"/>
+      <c r="E2799" t="inlineStr"/>
+      <c r="F2799" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2799" t="inlineStr"/>
+      <c r="H2799" t="inlineStr"/>
+      <c r="I2799" t="inlineStr"/>
+      <c r="J2799" t="inlineStr"/>
+      <c r="K2799" t="inlineStr"/>
+      <c r="L2799" t="inlineStr"/>
+    </row>
+    <row r="2800">
+      <c r="A2800" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2800" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2800" t="inlineStr"/>
+      <c r="D2800" t="inlineStr"/>
+      <c r="E2800" t="inlineStr"/>
+      <c r="F2800" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2800" t="inlineStr"/>
+      <c r="H2800" t="inlineStr"/>
+      <c r="I2800" t="inlineStr"/>
+      <c r="J2800" t="inlineStr"/>
+      <c r="K2800" t="inlineStr"/>
+      <c r="L2800" t="inlineStr"/>
+    </row>
+    <row r="2801">
+      <c r="A2801" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2801" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2801" t="inlineStr"/>
+      <c r="D2801" t="inlineStr"/>
+      <c r="E2801" t="inlineStr"/>
+      <c r="F2801" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2801" t="inlineStr"/>
+      <c r="H2801" t="inlineStr"/>
+      <c r="I2801" t="inlineStr"/>
+      <c r="J2801" t="inlineStr"/>
+      <c r="K2801" t="inlineStr"/>
+      <c r="L2801" t="inlineStr"/>
+    </row>
+    <row r="2802">
+      <c r="A2802" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2802" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2802" t="inlineStr"/>
+      <c r="D2802" t="inlineStr"/>
+      <c r="E2802" t="inlineStr"/>
+      <c r="F2802" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2802" t="inlineStr"/>
+      <c r="H2802" t="inlineStr"/>
+      <c r="I2802" t="inlineStr"/>
+      <c r="J2802" t="inlineStr"/>
+      <c r="K2802" t="inlineStr"/>
+      <c r="L2802" t="inlineStr"/>
+    </row>
+    <row r="2803">
+      <c r="A2803" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2803" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2803" t="inlineStr"/>
+      <c r="D2803" t="inlineStr"/>
+      <c r="E2803" t="inlineStr"/>
+      <c r="F2803" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2803" t="inlineStr"/>
+      <c r="H2803" t="inlineStr"/>
+      <c r="I2803" t="inlineStr"/>
+      <c r="J2803" t="inlineStr"/>
+      <c r="K2803" t="inlineStr"/>
+      <c r="L2803" t="inlineStr"/>
+    </row>
+    <row r="2804">
+      <c r="A2804" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2804" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2804" t="inlineStr"/>
+      <c r="D2804" t="inlineStr"/>
+      <c r="E2804" t="inlineStr"/>
+      <c r="F2804" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2804" t="inlineStr"/>
+      <c r="H2804" t="inlineStr"/>
+      <c r="I2804" t="inlineStr"/>
+      <c r="J2804" t="inlineStr"/>
+      <c r="K2804" t="inlineStr"/>
+      <c r="L2804" t="inlineStr">
+        <is>
+          <t>(N:12,P:33,T:1,R:0),(N:11,P:25,T:1,R:0),(N:22,P:15,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2805" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2805" t="inlineStr"/>
+      <c r="D2805" t="inlineStr"/>
+      <c r="E2805" t="inlineStr"/>
+      <c r="F2805" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2805" t="inlineStr"/>
+      <c r="H2805" t="inlineStr"/>
+      <c r="I2805" t="inlineStr"/>
+      <c r="J2805" t="inlineStr"/>
+      <c r="K2805" t="inlineStr"/>
+      <c r="L2805" t="inlineStr">
+        <is>
+          <t>(N:2,P:81,T:1,R:0),(N:12,P:33,T:2,R:0),(N:11,P:25,T:2,R:0),(N:22,P:15,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2806" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2806" t="inlineStr"/>
+      <c r="D2806" t="inlineStr"/>
+      <c r="E2806" t="inlineStr"/>
+      <c r="F2806" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2806" t="inlineStr"/>
+      <c r="H2806" t="inlineStr"/>
+      <c r="I2806" t="inlineStr"/>
+      <c r="J2806" t="inlineStr"/>
+      <c r="K2806" t="inlineStr"/>
+      <c r="L2806" t="inlineStr">
+        <is>
+          <t>(N:2,P:81,T:2,R:0),(N:7,P:34,T:1,R:0),(N:12,P:33,T:3,R:0),(N:11,P:25,T:3,R:0),(N:14,P:20,T:1,R:0),(N:22,P:15,T:3,R:0),(N:29,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2807" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2807" t="inlineStr"/>
+      <c r="D2807" t="inlineStr"/>
+      <c r="E2807" t="inlineStr"/>
+      <c r="F2807" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2807" t="inlineStr"/>
+      <c r="H2807" t="inlineStr"/>
+      <c r="I2807" t="inlineStr"/>
+      <c r="J2807" t="inlineStr"/>
+      <c r="K2807" t="inlineStr"/>
+      <c r="L2807" t="inlineStr">
+        <is>
+          <t>(N:2,P:81,T:3,R:0),(N:30,P:37,T:1,R:0),(N:7,P:34,T:2,R:0),(N:14,P:20,T:2,R:0),(N:29,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2808" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2808" t="inlineStr"/>
+      <c r="D2808" t="inlineStr"/>
+      <c r="E2808" t="inlineStr"/>
+      <c r="F2808" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2808" t="inlineStr"/>
+      <c r="H2808" t="inlineStr"/>
+      <c r="I2808" t="inlineStr"/>
+      <c r="J2808" t="inlineStr"/>
+      <c r="K2808" t="inlineStr"/>
+      <c r="L2808" t="inlineStr">
+        <is>
+          <t>(N:14,P:71,T:2,R:1),(N:30,P:37,T:2,R:0),(N:7,P:34,T:3,R:0),(N:17,P:23,T:1,R:0),(N:29,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2809" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2809" t="inlineStr"/>
+      <c r="D2809" t="inlineStr"/>
+      <c r="E2809" t="inlineStr"/>
+      <c r="F2809" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2809" t="inlineStr"/>
+      <c r="H2809" t="inlineStr"/>
+      <c r="I2809" t="inlineStr"/>
+      <c r="J2809" t="inlineStr"/>
+      <c r="K2809" t="inlineStr"/>
+      <c r="L2809" t="inlineStr">
+        <is>
+          <t>(N:14,P:71,T:3,R:1),(N:17,P:51,T:1,R:1),(N:30,P:37,T:3,R:0),(N:9,P:23,T:1,R:0),(N:27,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2810" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2810" t="inlineStr"/>
+      <c r="D2810" t="inlineStr"/>
+      <c r="E2810" t="inlineStr"/>
+      <c r="F2810" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2810" t="inlineStr"/>
+      <c r="H2810" t="inlineStr"/>
+      <c r="I2810" t="inlineStr"/>
+      <c r="J2810" t="inlineStr"/>
+      <c r="K2810" t="inlineStr"/>
+      <c r="L2810" t="inlineStr">
+        <is>
+          <t>(N:20,P:62,T:1,R:0),(N:17,P:51,T:2,R:1),(N:9,P:23,T:2,R:0),(N:27,P:12,T:2,R:0),(N:33,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2811" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2811" t="inlineStr"/>
+      <c r="D2811" t="inlineStr"/>
+      <c r="E2811" t="inlineStr"/>
+      <c r="F2811" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2811" t="inlineStr"/>
+      <c r="H2811" t="inlineStr"/>
+      <c r="I2811" t="inlineStr"/>
+      <c r="J2811" t="inlineStr"/>
+      <c r="K2811" t="inlineStr"/>
+      <c r="L2811" t="inlineStr">
+        <is>
+          <t>(N:8,P:83,T:1,R:0),(N:20,P:62,T:2,R:0),(N:17,P:51,T:3,R:1),(N:9,P:23,T:3,R:0),(N:27,P:12,T:3,R:0),(N:33,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2812" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2812" t="inlineStr"/>
+      <c r="D2812" t="inlineStr"/>
+      <c r="E2812" t="inlineStr"/>
+      <c r="F2812" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2812" t="inlineStr"/>
+      <c r="H2812" t="inlineStr"/>
+      <c r="I2812" t="inlineStr"/>
+      <c r="J2812" t="inlineStr"/>
+      <c r="K2812" t="inlineStr"/>
+      <c r="L2812" t="inlineStr">
+        <is>
+          <t>(N:8,P:83,T:2,R:0),(N:21,P:69,T:1,R:0),(N:20,P:62,T:3,R:0),(N:14,P:21,T:1,R:0),(N:33,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2813" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2813" t="inlineStr"/>
+      <c r="D2813" t="inlineStr"/>
+      <c r="E2813" t="inlineStr"/>
+      <c r="F2813" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2813" t="inlineStr"/>
+      <c r="H2813" t="inlineStr"/>
+      <c r="I2813" t="inlineStr"/>
+      <c r="J2813" t="inlineStr"/>
+      <c r="K2813" t="inlineStr"/>
+      <c r="L2813" t="inlineStr">
+        <is>
+          <t>(N:8,P:83,T:3,R:0),(N:21,P:69,T:2,R:0),(N:31,P:68,T:1,R:0),(N:14,P:21,T:2,R:0),(N:27,P:17,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="A2814" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2814" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2814" t="inlineStr"/>
+      <c r="D2814" t="inlineStr"/>
+      <c r="E2814" t="inlineStr"/>
+      <c r="F2814" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2814" t="inlineStr"/>
+      <c r="H2814" t="inlineStr"/>
+      <c r="I2814" t="inlineStr"/>
+      <c r="J2814" t="inlineStr"/>
+      <c r="K2814" t="inlineStr"/>
+      <c r="L2814" t="inlineStr">
+        <is>
+          <t>(N:21,P:69,T:3,R:0),(N:31,P:68,T:2,R:0),(N:35,P:50,T:1,R:0),(N:27,P:31,T:1,R:1),(N:14,P:21,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2815" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2815" t="inlineStr"/>
+      <c r="D2815" t="inlineStr"/>
+      <c r="E2815" t="inlineStr"/>
+      <c r="F2815" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2815" t="inlineStr"/>
+      <c r="H2815" t="inlineStr"/>
+      <c r="I2815" t="inlineStr"/>
+      <c r="J2815" t="inlineStr"/>
+      <c r="K2815" t="inlineStr"/>
+      <c r="L2815" t="inlineStr">
+        <is>
+          <t>(N:10,P:98,T:1,R:0),(N:31,P:68,T:3,R:0),(N:35,P:50,T:2,R:0),(N:27,P:31,T:2,R:1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2816" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2816" t="inlineStr"/>
+      <c r="D2816" t="inlineStr"/>
+      <c r="E2816" t="inlineStr"/>
+      <c r="F2816" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2816" t="inlineStr"/>
+      <c r="H2816" t="inlineStr"/>
+      <c r="I2816" t="inlineStr"/>
+      <c r="J2816" t="inlineStr"/>
+      <c r="K2816" t="inlineStr"/>
+      <c r="L2816" t="inlineStr">
+        <is>
+          <t>(N:10,P:98,T:2,R:0),(N:27,P:54,T:2,R:2),(N:35,P:50,T:3,R:0),(N:15,P:41,T:1,R:0),(N:36,P:28,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2817" t="n">
+        <v>36</v>
+      </c>
+      <c r="C2817" t="inlineStr">
+        <is>
+          <t>(N:27,P:100,T:1,R:0,PL:1,J:2500)</t>
+        </is>
+      </c>
+      <c r="D2817" t="inlineStr"/>
+      <c r="E2817" t="inlineStr"/>
+      <c r="F2817" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2817" t="inlineStr"/>
+      <c r="H2817" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="I2817" t="inlineStr"/>
+      <c r="J2817" t="inlineStr"/>
+      <c r="K2817" t="inlineStr"/>
+      <c r="L2817" t="inlineStr">
+        <is>
+          <t>(N:10,P:98,T:3,R:0),(N:15,P:41,T:2,R:0),(N:36,P:28,T:2,R:0),(N:3,P:20,T:1,R:0),(N:5,P:15,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="A2818" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2818" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2818" t="inlineStr"/>
+      <c r="D2818" t="inlineStr">
+        <is>
+          <t>(N:27,P:100,T:1,R:0,PL:1,J:5000)</t>
+        </is>
+      </c>
+      <c r="E2818" t="inlineStr"/>
+      <c r="F2818" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2818" t="inlineStr"/>
+      <c r="H2818" t="inlineStr"/>
+      <c r="I2818" t="inlineStr"/>
+      <c r="J2818" t="inlineStr"/>
+      <c r="K2818" t="inlineStr"/>
+      <c r="L2818" t="inlineStr">
+        <is>
+          <t>(N:15,P:41,T:3,R:0),(N:3,P:37,T:1,R:1),(N:36,P:28,T:3,R:0),(N:5,P:15,T:2,R:0),(N:14,P:10,T:1,R:0),(N:28,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2819" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2819" t="inlineStr"/>
+      <c r="D2819" t="inlineStr"/>
+      <c r="E2819" t="inlineStr"/>
+      <c r="F2819" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2819" t="inlineStr"/>
+      <c r="H2819" t="inlineStr"/>
+      <c r="I2819" t="inlineStr"/>
+      <c r="J2819" t="inlineStr"/>
+      <c r="K2819" t="inlineStr"/>
+      <c r="L2819" t="inlineStr">
+        <is>
+          <t>(N:8,P:46,T:1,R:0),(N:3,P:37,T:2,R:1),(N:30,P:17,T:1,R:0),(N:5,P:15,T:3,R:0),(N:14,P:10,T:2,R:0),(N:28,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2820" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2820" t="inlineStr"/>
+      <c r="D2820" t="inlineStr"/>
+      <c r="E2820" t="inlineStr"/>
+      <c r="F2820" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2820" t="inlineStr"/>
+      <c r="H2820" t="inlineStr"/>
+      <c r="I2820" t="inlineStr"/>
+      <c r="J2820" t="inlineStr"/>
+      <c r="K2820" t="inlineStr"/>
+      <c r="L2820" t="inlineStr">
+        <is>
+          <t>(N:8,P:46,T:2,R:0),(N:3,P:37,T:3,R:1),(N:1,P:25,T:1,R:0),(N:32,P:25,T:1,R:0),(N:30,P:17,T:2,R:0),(N:33,P:11,T:1,R:0),(N:14,P:10,T:3,R:0),(N:28,P:10,T:3,R:0),(N:25,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2821" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2821" t="inlineStr"/>
+      <c r="D2821" t="inlineStr"/>
+      <c r="E2821" t="inlineStr"/>
+      <c r="F2821" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2821" t="inlineStr"/>
+      <c r="H2821" t="inlineStr"/>
+      <c r="I2821" t="inlineStr"/>
+      <c r="J2821" t="inlineStr"/>
+      <c r="K2821" t="inlineStr"/>
+      <c r="L2821" t="inlineStr">
+        <is>
+          <t>(N:8,P:46,T:3,R:0),(N:26,P:28,T:1,R:0),(N:1,P:25,T:2,R:0),(N:32,P:25,T:2,R:0),(N:23,P:21,T:1,R:0),(N:30,P:17,T:3,R:0),(N:33,P:11,T:2,R:0),(N:25,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2822">
+      <c r="A2822" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2822" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2822" t="inlineStr"/>
+      <c r="D2822" t="inlineStr"/>
+      <c r="E2822" t="inlineStr"/>
+      <c r="F2822" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2822" t="inlineStr"/>
+      <c r="H2822" t="inlineStr"/>
+      <c r="I2822" t="inlineStr"/>
+      <c r="J2822" t="inlineStr"/>
+      <c r="K2822" t="inlineStr"/>
+      <c r="L2822" t="inlineStr">
+        <is>
+          <t>(N:8,P:51,T:1,R:0),(N:26,P:28,T:2,R:0),(N:1,P:25,T:3,R:0),(N:32,P:25,T:3,R:0),(N:19,P:23,T:1,R:0),(N:23,P:21,T:2,R:0),(N:33,P:11,T:3,R:0),(N:25,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2823" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2823" t="inlineStr"/>
+      <c r="D2823" t="inlineStr"/>
+      <c r="E2823" t="inlineStr"/>
+      <c r="F2823" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2823" t="inlineStr"/>
+      <c r="H2823" t="inlineStr"/>
+      <c r="I2823" t="inlineStr"/>
+      <c r="J2823" t="inlineStr"/>
+      <c r="K2823" t="inlineStr"/>
+      <c r="L2823" t="inlineStr">
+        <is>
+          <t>(N:8,P:51,T:2,R:0),(N:28,P:33,T:1,R:0),(N:26,P:28,T:3,R:0),(N:19,P:23,T:2,R:0),(N:23,P:21,T:3,R:0),(N:7,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2824" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2824" t="inlineStr"/>
+      <c r="D2824" t="inlineStr"/>
+      <c r="E2824" t="inlineStr"/>
+      <c r="F2824" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2824" t="inlineStr"/>
+      <c r="H2824" t="inlineStr"/>
+      <c r="I2824" t="inlineStr"/>
+      <c r="J2824" t="inlineStr"/>
+      <c r="K2824" t="inlineStr"/>
+      <c r="L2824" t="inlineStr">
+        <is>
+          <t>(N:8,P:51,T:3,R:0),(N:27,P:46,T:1,R:0),(N:28,P:33,T:2,R:0),(N:19,P:23,T:3,R:0),(N:7,P:11,T:2,R:0),(N:23,P:11,T:1,R:0),(N:24,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2825" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2825" t="inlineStr"/>
+      <c r="D2825" t="inlineStr"/>
+      <c r="E2825" t="inlineStr"/>
+      <c r="F2825" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2825" t="inlineStr"/>
+      <c r="H2825" t="inlineStr"/>
+      <c r="I2825" t="inlineStr"/>
+      <c r="J2825" t="inlineStr"/>
+      <c r="K2825" t="inlineStr"/>
+      <c r="L2825" t="inlineStr">
+        <is>
+          <t>(N:33,P:63,T:1,R:0),(N:27,P:46,T:2,R:0),(N:28,P:33,T:3,R:0),(N:32,P:15,T:1,R:0),(N:7,P:11,T:3,R:0),(N:23,P:11,T:2,R:0),(N:24,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2826" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2826" t="inlineStr"/>
+      <c r="D2826" t="inlineStr"/>
+      <c r="E2826" t="inlineStr"/>
+      <c r="F2826" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2826" t="inlineStr"/>
+      <c r="H2826" t="inlineStr"/>
+      <c r="I2826" t="inlineStr"/>
+      <c r="J2826" t="inlineStr"/>
+      <c r="K2826" t="inlineStr"/>
+      <c r="L2826" t="inlineStr">
+        <is>
+          <t>(N:27,P:74,T:2,R:1),(N:33,P:63,T:2,R:0),(N:32,P:27,T:1,R:1),(N:20,P:25,T:1,R:0),(N:23,P:11,T:3,R:0),(N:24,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2827">
+      <c r="A2827" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2827" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2827" t="inlineStr"/>
+      <c r="D2827" t="inlineStr"/>
+      <c r="E2827" t="inlineStr"/>
+      <c r="F2827" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2827" t="inlineStr"/>
+      <c r="H2827" t="inlineStr"/>
+      <c r="I2827" t="inlineStr"/>
+      <c r="J2827" t="inlineStr"/>
+      <c r="K2827" t="inlineStr"/>
+      <c r="L2827" t="inlineStr">
+        <is>
+          <t>(N:27,P:85,T:2,R:2),(N:33,P:63,T:3,R:0),(N:32,P:47,T:1,R:2),(N:20,P:25,T:2,R:0),(N:23,P:14,T:1,R:0),(N:16,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2828" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2828" t="inlineStr"/>
+      <c r="D2828" t="inlineStr"/>
+      <c r="E2828" t="inlineStr"/>
+      <c r="F2828" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2828" t="inlineStr"/>
+      <c r="H2828" t="inlineStr"/>
+      <c r="I2828" t="inlineStr"/>
+      <c r="J2828" t="inlineStr"/>
+      <c r="K2828" t="inlineStr"/>
+      <c r="L2828" t="inlineStr">
+        <is>
+          <t>(N:27,P:85,T:3,R:2),(N:32,P:47,T:2,R:2),(N:35,P:36,T:1,R:0),(N:20,P:25,T:3,R:0),(N:12,P:23,T:1,R:0),(N:23,P:14,T:2,R:0),(N:16,P:10,T:2,R:0),(N:3,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2829" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2829" t="inlineStr"/>
+      <c r="D2829" t="inlineStr"/>
+      <c r="E2829" t="inlineStr"/>
+      <c r="F2829" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2829" t="inlineStr"/>
+      <c r="H2829" t="inlineStr"/>
+      <c r="I2829" t="inlineStr"/>
+      <c r="J2829" t="inlineStr"/>
+      <c r="K2829" t="inlineStr"/>
+      <c r="L2829" t="inlineStr">
+        <is>
+          <t>(N:14,P:62,T:1,R:0),(N:32,P:47,T:3,R:2),(N:35,P:36,T:2,R:0),(N:12,P:23,T:2,R:0),(N:23,P:14,T:3,R:0),(N:17,P:11,T:1,R:0),(N:16,P:10,T:3,R:0),(N:3,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2830" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2830" t="inlineStr"/>
+      <c r="D2830" t="inlineStr"/>
+      <c r="E2830" t="inlineStr"/>
+      <c r="F2830" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2830" t="inlineStr"/>
+      <c r="H2830" t="inlineStr"/>
+      <c r="I2830" t="inlineStr"/>
+      <c r="J2830" t="inlineStr"/>
+      <c r="K2830" t="inlineStr"/>
+      <c r="L2830" t="inlineStr">
+        <is>
+          <t>(N:14,P:82,T:1,R:1),(N:12,P:41,T:2,R:1),(N:35,P:36,T:3,R:0),(N:15,P:20,T:1,R:0),(N:17,P:11,T:2,R:0),(N:3,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2831" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2831" t="inlineStr"/>
+      <c r="D2831" t="inlineStr"/>
+      <c r="E2831" t="inlineStr"/>
+      <c r="F2831" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2831" t="inlineStr"/>
+      <c r="H2831" t="inlineStr"/>
+      <c r="I2831" t="inlineStr"/>
+      <c r="J2831" t="inlineStr"/>
+      <c r="K2831" t="inlineStr"/>
+      <c r="L2831" t="inlineStr">
+        <is>
+          <t>(N:14,P:82,T:2,R:1),(N:12,P:41,T:3,R:1),(N:34,P:31,T:1,R:0),(N:15,P:20,T:2,R:0),(N:18,P:15,T:1,R:0),(N:24,P:12,T:1,R:0),(N:17,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2832" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2832" t="inlineStr"/>
+      <c r="D2832" t="inlineStr"/>
+      <c r="E2832" t="inlineStr"/>
+      <c r="F2832" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2832" t="inlineStr"/>
+      <c r="H2832" t="inlineStr"/>
+      <c r="I2832" t="inlineStr"/>
+      <c r="J2832" t="inlineStr"/>
+      <c r="K2832" t="inlineStr"/>
+      <c r="L2832" t="inlineStr">
+        <is>
+          <t>(N:14,P:82,T:3,R:1),(N:30,P:63,T:1,R:0),(N:34,P:31,T:2,R:0),(N:15,P:20,T:3,R:0),(N:18,P:15,T:2,R:0),(N:24,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2833" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2833" t="inlineStr"/>
+      <c r="D2833" t="inlineStr"/>
+      <c r="E2833" t="inlineStr"/>
+      <c r="F2833" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2833" t="inlineStr"/>
+      <c r="H2833" t="inlineStr"/>
+      <c r="I2833" t="inlineStr"/>
+      <c r="J2833" t="inlineStr"/>
+      <c r="K2833" t="inlineStr"/>
+      <c r="L2833" t="inlineStr">
+        <is>
+          <t>(N:7,P:75,T:1,R:0),(N:30,P:63,T:2,R:0),(N:34,P:31,T:3,R:0),(N:18,P:15,T:3,R:0),(N:24,P:12,T:3,R:0),(N:26,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2834" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2834" t="inlineStr"/>
+      <c r="D2834" t="inlineStr"/>
+      <c r="E2834" t="inlineStr"/>
+      <c r="F2834" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2834" t="inlineStr"/>
+      <c r="H2834" t="inlineStr"/>
+      <c r="I2834" t="inlineStr"/>
+      <c r="J2834" t="inlineStr"/>
+      <c r="K2834" t="inlineStr"/>
+      <c r="L2834" t="inlineStr">
+        <is>
+          <t>(N:7,P:75,T:2,R:0),(N:26,P:67,T:1,R:1),(N:30,P:63,T:3,R:0),(N:17,P:18,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" t="n">
+        <v>37</v>
+      </c>
+      <c r="B2835" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2835" t="inlineStr">
+        <is>
+          <t>(N:7,P:129,T:1,R:0,PL:1,J:2500)</t>
+        </is>
+      </c>
+      <c r="D2835" t="inlineStr"/>
+      <c r="E2835" t="inlineStr"/>
+      <c r="F2835" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2835" t="inlineStr"/>
+      <c r="H2835" t="inlineStr"/>
+      <c r="I2835" t="inlineStr"/>
+      <c r="J2835" t="inlineStr"/>
+      <c r="K2835" t="inlineStr"/>
+      <c r="L2835" t="inlineStr">
+        <is>
+          <t>(N:26,P:67,T:2,R:1),(N:17,P:18,T:2,R:0),(N:21,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" t="n">
+        <v>38</v>
+      </c>
+      <c r="B2836" t="n">
+        <v>36</v>
+      </c>
+      <c r="C2836" t="inlineStr">
+        <is>
+          <t>(N:7,P:129,T:2,R:0,PL:2,J:7500)</t>
+        </is>
+      </c>
+      <c r="D2836" t="inlineStr"/>
+      <c r="E2836" t="inlineStr"/>
+      <c r="F2836" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2836" t="inlineStr"/>
+      <c r="H2836" t="inlineStr"/>
+      <c r="I2836" t="inlineStr"/>
+      <c r="J2836" t="inlineStr"/>
+      <c r="K2836" t="inlineStr"/>
+      <c r="L2836" t="inlineStr">
+        <is>
+          <t>(N:26,P:67,T:3,R:1),(N:21,P:64,T:1,R:1),(N:17,P:18,T:3,R:0),(N:31,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" t="n">
+        <v>39</v>
+      </c>
+      <c r="B2837" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2837" t="inlineStr">
+        <is>
+          <t>(N:7,P:129,T:3,R:0,PL:3,J:15000)</t>
+        </is>
+      </c>
+      <c r="D2837" t="inlineStr"/>
+      <c r="E2837" t="inlineStr"/>
+      <c r="F2837" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2837" t="inlineStr"/>
+      <c r="H2837" t="inlineStr"/>
+      <c r="I2837" t="inlineStr"/>
+      <c r="J2837" t="inlineStr"/>
+      <c r="K2837" t="inlineStr"/>
+      <c r="L2837" t="inlineStr">
+        <is>
+          <t>(N:21,P:64,T:2,R:1),(N:24,P:40,T:1,R:0),(N:31,P:10,T:2,R:0),(N:17,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" t="n">
+        <v>40</v>
+      </c>
+      <c r="B2838" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2838" t="inlineStr">
+        <is>
+          <t>(N:7,P:129,T:4,R:0,PL:4,J:25000)</t>
+        </is>
+      </c>
+      <c r="D2838" t="inlineStr"/>
+      <c r="E2838" t="inlineStr"/>
+      <c r="F2838" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2838" t="inlineStr"/>
+      <c r="H2838" t="inlineStr"/>
+      <c r="I2838" t="inlineStr"/>
+      <c r="J2838" t="inlineStr"/>
+      <c r="K2838" t="inlineStr"/>
+      <c r="L2838" t="inlineStr">
+        <is>
+          <t>(N:21,P:64,T:3,R:1),(N:24,P:54,T:1,R:1),(N:17,P:53,T:1,R:1),(N:33,P:14,T:1,R:0),(N:31,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" t="n">
+        <v>41</v>
+      </c>
+      <c r="B2839" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2839" t="inlineStr">
+        <is>
+          <t>(N:7,P:129,T:5,R:0,PL:5,J:37500)</t>
+        </is>
+      </c>
+      <c r="D2839" t="inlineStr"/>
+      <c r="E2839" t="inlineStr"/>
+      <c r="F2839" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2839" t="inlineStr"/>
+      <c r="H2839" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="I2839" t="inlineStr"/>
+      <c r="J2839" t="inlineStr"/>
+      <c r="K2839" t="inlineStr"/>
+      <c r="L2839" t="inlineStr">
+        <is>
+          <t>(N:10,P:62,T:1,R:0),(N:24,P:54,T:2,R:1),(N:17,P:53,T:2,R:1),(N:30,P:23,T:1,R:0),(N:33,P:14,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2840" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2840" t="inlineStr"/>
+      <c r="D2840" t="inlineStr">
+        <is>
+          <t>(N:7,P:129,T:5,R:0,PL:5,J:50000)</t>
+        </is>
+      </c>
+      <c r="E2840" t="inlineStr"/>
+      <c r="F2840" t="n">
+        <v>53000</v>
+      </c>
+      <c r="G2840" t="inlineStr"/>
+      <c r="H2840" t="inlineStr"/>
+      <c r="I2840" t="inlineStr"/>
+      <c r="J2840" t="inlineStr"/>
+      <c r="K2840" t="inlineStr"/>
+      <c r="L2840" t="inlineStr">
+        <is>
+          <t>(N:10,P:85,T:1,R:1),(N:24,P:54,T:3,R:1),(N:17,P:53,T:3,R:1),(N:13,P:34,T:1,R:0),(N:30,P:23,T:2,R:0),(N:23,P:21,T:1,R:0),(N:33,P:14,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2841" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2841" t="inlineStr"/>
+      <c r="D2841" t="inlineStr"/>
+      <c r="E2841" t="inlineStr"/>
+      <c r="F2841" t="n">
+        <v>53000</v>
+      </c>
+      <c r="G2841" t="inlineStr"/>
+      <c r="H2841" t="inlineStr"/>
+      <c r="I2841" t="inlineStr"/>
+      <c r="J2841" t="inlineStr"/>
+      <c r="K2841" t="inlineStr"/>
+      <c r="L2841" t="inlineStr">
+        <is>
+          <t>(N:10,P:85,T:2,R:1),(N:13,P:34,T:2,R:0),(N:7,P:31,T:1,R:0),(N:30,P:23,T:3,R:0),(N:8,P:23,T:1,R:0),(N:23,P:21,T:2,R:0),(N:21,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" t="n">
+        <v>44</v>
+      </c>
+      <c r="B2842" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2842" t="inlineStr"/>
+      <c r="D2842" t="inlineStr"/>
+      <c r="E2842" t="inlineStr"/>
+      <c r="F2842" t="n">
+        <v>53000</v>
+      </c>
+      <c r="G2842" t="inlineStr"/>
+      <c r="H2842" t="inlineStr"/>
+      <c r="I2842" t="inlineStr"/>
+      <c r="J2842" t="inlineStr"/>
+      <c r="K2842" t="inlineStr"/>
+      <c r="L2842" t="inlineStr">
+        <is>
+          <t>(N:10,P:85,T:3,R:1),(N:8,P:67,T:1,R:1),(N:13,P:34,T:3,R:0),(N:7,P:31,T:2,R:0),(N:34,P:31,T:1,R:0),(N:23,P:21,T:3,R:0),(N:21,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2843" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2843" t="inlineStr"/>
+      <c r="D2843" t="inlineStr"/>
+      <c r="E2843" t="inlineStr"/>
+      <c r="F2843" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2843" t="inlineStr"/>
+      <c r="H2843" t="inlineStr"/>
+      <c r="I2843" t="inlineStr"/>
+      <c r="J2843" t="inlineStr"/>
+      <c r="K2843" t="inlineStr"/>
+      <c r="L2843" t="inlineStr"/>
+    </row>
+    <row r="2844">
+      <c r="A2844" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2844" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2844" t="inlineStr"/>
+      <c r="D2844" t="inlineStr"/>
+      <c r="E2844" t="inlineStr"/>
+      <c r="F2844" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2844" t="inlineStr"/>
+      <c r="H2844" t="inlineStr"/>
+      <c r="I2844" t="inlineStr"/>
+      <c r="J2844" t="inlineStr"/>
+      <c r="K2844" t="inlineStr"/>
+      <c r="L2844" t="inlineStr"/>
+    </row>
+    <row r="2845">
+      <c r="A2845" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2845" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2845" t="inlineStr"/>
+      <c r="D2845" t="inlineStr"/>
+      <c r="E2845" t="inlineStr"/>
+      <c r="F2845" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2845" t="inlineStr"/>
+      <c r="H2845" t="inlineStr"/>
+      <c r="I2845" t="inlineStr"/>
+      <c r="J2845" t="inlineStr"/>
+      <c r="K2845" t="inlineStr"/>
+      <c r="L2845" t="inlineStr"/>
+    </row>
+    <row r="2846">
+      <c r="A2846" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2846" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2846" t="inlineStr"/>
+      <c r="D2846" t="inlineStr"/>
+      <c r="E2846" t="inlineStr"/>
+      <c r="F2846" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2846" t="inlineStr"/>
+      <c r="H2846" t="inlineStr"/>
+      <c r="I2846" t="inlineStr"/>
+      <c r="J2846" t="inlineStr"/>
+      <c r="K2846" t="inlineStr"/>
+      <c r="L2846" t="inlineStr"/>
+    </row>
+    <row r="2847">
+      <c r="A2847" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2847" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2847" t="inlineStr"/>
+      <c r="D2847" t="inlineStr"/>
+      <c r="E2847" t="inlineStr"/>
+      <c r="F2847" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2847" t="inlineStr"/>
+      <c r="H2847" t="inlineStr"/>
+      <c r="I2847" t="inlineStr"/>
+      <c r="J2847" t="inlineStr"/>
+      <c r="K2847" t="inlineStr"/>
+      <c r="L2847" t="inlineStr"/>
+    </row>
+    <row r="2848">
+      <c r="A2848" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2848" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2848" t="inlineStr"/>
+      <c r="D2848" t="inlineStr"/>
+      <c r="E2848" t="inlineStr"/>
+      <c r="F2848" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2848" t="inlineStr"/>
+      <c r="H2848" t="inlineStr"/>
+      <c r="I2848" t="inlineStr"/>
+      <c r="J2848" t="inlineStr"/>
+      <c r="K2848" t="inlineStr"/>
+      <c r="L2848" t="inlineStr">
+        <is>
+          <t>(N:34,P:62,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2849" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2849" t="inlineStr">
+        <is>
+          <t>(N:31,P:77,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2849" t="inlineStr"/>
+      <c r="E2849" t="inlineStr"/>
+      <c r="F2849" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2849" t="inlineStr"/>
+      <c r="H2849" t="inlineStr"/>
+      <c r="I2849" t="inlineStr"/>
+      <c r="J2849" t="inlineStr"/>
+      <c r="K2849" t="inlineStr"/>
+      <c r="L2849" t="inlineStr">
+        <is>
+          <t>(N:34,P:62,T:2,R:0),(N:20,P:15,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2850" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2850" t="inlineStr">
+        <is>
+          <t>(N:31,P:77,T:2,R:0,PL:2,J:3000),(N:24,P:72,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2850" t="inlineStr"/>
+      <c r="E2850" t="inlineStr"/>
+      <c r="F2850" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2850" t="inlineStr"/>
+      <c r="H2850" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="I2850" t="inlineStr"/>
+      <c r="J2850" t="inlineStr"/>
+      <c r="K2850" t="inlineStr"/>
+      <c r="L2850" t="inlineStr">
+        <is>
+          <t>(N:34,P:62,T:3,R:0),(N:20,P:15,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2851" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2851" t="inlineStr">
+        <is>
+          <t>(N:31,P:77,T:3,R:0,PL:3,J:6000)</t>
+        </is>
+      </c>
+      <c r="D2851" t="inlineStr">
+        <is>
+          <t>(N:24,P:72,T:1,R:0,PL:1,J:2000)</t>
+        </is>
+      </c>
+      <c r="E2851" t="inlineStr"/>
+      <c r="F2851" t="inlineStr">
+        <is>
+          <t>5200</t>
+        </is>
+      </c>
+      <c r="G2851" t="inlineStr"/>
+      <c r="H2851" t="inlineStr"/>
+      <c r="I2851" t="inlineStr"/>
+      <c r="J2851" t="inlineStr"/>
+      <c r="K2851" t="inlineStr"/>
+      <c r="L2851" t="inlineStr">
+        <is>
+          <t>(N:8,P:28,T:1,R:0),(N:3,P:21,T:1,R:0),(N:20,P:15,T:3,R:0),(N:6,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2852" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2852" t="inlineStr">
+        <is>
+          <t>(N:31,P:77,T:4,R:0,PL:4,J:10000)</t>
+        </is>
+      </c>
+      <c r="D2852" t="inlineStr"/>
+      <c r="E2852" t="inlineStr"/>
+      <c r="F2852" t="inlineStr">
+        <is>
+          <t>5200</t>
+        </is>
+      </c>
+      <c r="G2852" t="inlineStr"/>
+      <c r="H2852" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="I2852" t="inlineStr"/>
+      <c r="J2852" t="inlineStr"/>
+      <c r="K2852" t="inlineStr"/>
+      <c r="L2852" t="inlineStr">
+        <is>
+          <t>(N:4,P:38,T:1,R:0),(N:8,P:28,T:2,R:0),(N:3,P:21,T:2,R:0),(N:0,P:18,T:1,R:0),(N:7,P:18,T:1,R:0),(N:16,P:15,T:1,R:0),(N:6,P:12,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2853" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2853" t="inlineStr">
+        <is>
+          <t>(N:17,P:89,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2853" t="inlineStr">
+        <is>
+          <t>(N:31,P:77,T:4,R:0,PL:4,J:14000)</t>
+        </is>
+      </c>
+      <c r="E2853" t="inlineStr"/>
+      <c r="F2853" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="G2853" t="inlineStr"/>
+      <c r="H2853" t="inlineStr"/>
+      <c r="I2853" t="inlineStr"/>
+      <c r="J2853" t="inlineStr"/>
+      <c r="K2853" t="inlineStr"/>
+      <c r="L2853" t="inlineStr">
+        <is>
+          <t>(N:4,P:38,T:2,R:0),(N:8,P:28,T:3,R:0),(N:3,P:21,T:3,R:0),(N:0,P:18,T:2,R:0),(N:7,P:18,T:2,R:0),(N:16,P:15,T:2,R:0),(N:6,P:12,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2854" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2854" t="inlineStr">
+        <is>
+          <t>(N:17,P:89,T:2,R:0,PL:2,J:3000)</t>
+        </is>
+      </c>
+      <c r="D2854" t="inlineStr"/>
+      <c r="E2854" t="inlineStr"/>
+      <c r="F2854" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="G2854" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H2854" t="inlineStr"/>
+      <c r="I2854" t="inlineStr"/>
+      <c r="J2854" t="inlineStr"/>
+      <c r="K2854" t="inlineStr"/>
+      <c r="L2854" t="inlineStr">
+        <is>
+          <t>(N:0,P:49,T:2,R:1),(N:4,P:38,T:3,R:0),(N:7,P:36,T:2,R:1),(N:8,P:18,T:1,R:0),(N:16,P:15,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2855" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2855" t="inlineStr"/>
+      <c r="D2855" t="inlineStr">
+        <is>
+          <t>(N:17,P:89,T:2,R:0,PL:2,J:5000)</t>
+        </is>
+      </c>
+      <c r="E2855" t="inlineStr"/>
+      <c r="F2855" t="inlineStr">
+        <is>
+          <t>29400</t>
+        </is>
+      </c>
+      <c r="G2855" t="inlineStr"/>
+      <c r="H2855" t="inlineStr"/>
+      <c r="I2855" t="inlineStr"/>
+      <c r="J2855" t="inlineStr"/>
+      <c r="K2855" t="inlineStr"/>
+      <c r="L2855" t="inlineStr">
+        <is>
+          <t>(N:14,P:54,T:1,R:0),(N:0,P:49,T:3,R:1),(N:7,P:36,T:3,R:1),(N:8,P:18,T:2,R:0),(N:28,P:18,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2856" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2856" t="inlineStr">
+        <is>
+          <t>(N:14,P:88,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2856" t="inlineStr"/>
+      <c r="E2856" t="inlineStr"/>
+      <c r="F2856" t="inlineStr">
+        <is>
+          <t>29400</t>
+        </is>
+      </c>
+      <c r="G2856" t="inlineStr"/>
+      <c r="H2856" t="inlineStr"/>
+      <c r="I2856" t="inlineStr"/>
+      <c r="J2856" t="inlineStr"/>
+      <c r="K2856" t="inlineStr"/>
+      <c r="L2856" t="inlineStr">
+        <is>
+          <t>(N:22,P:33,T:1,R:0),(N:8,P:18,T:3,R:0),(N:28,P:18,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2857" t="n">
+        <v>36</v>
+      </c>
+      <c r="C2857" t="inlineStr">
+        <is>
+          <t>(N:14,P:88,T:2,R:0,PL:2,J:3000)</t>
+        </is>
+      </c>
+      <c r="D2857" t="inlineStr"/>
+      <c r="E2857" t="inlineStr"/>
+      <c r="F2857" t="inlineStr">
+        <is>
+          <t>29400</t>
+        </is>
+      </c>
+      <c r="G2857" t="inlineStr"/>
+      <c r="H2857" t="inlineStr"/>
+      <c r="I2857" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="J2857" t="inlineStr"/>
+      <c r="K2857" t="inlineStr"/>
+      <c r="L2857" t="inlineStr">
+        <is>
+          <t>(N:9,P:36,T:1,R:0),(N:22,P:33,T:2,R:0),(N:8,P:23,T:1,R:0),(N:28,P:18,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2858" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2858" t="inlineStr"/>
+      <c r="D2858" t="inlineStr">
+        <is>
+          <t>(N:14,P:88,T:2,R:0,PL:2,J:5000)</t>
+        </is>
+      </c>
+      <c r="E2858" t="inlineStr"/>
+      <c r="F2858" t="inlineStr">
+        <is>
+          <t>38800</t>
+        </is>
+      </c>
+      <c r="G2858" t="inlineStr"/>
+      <c r="H2858" t="inlineStr"/>
+      <c r="I2858" t="inlineStr"/>
+      <c r="J2858" t="inlineStr"/>
+      <c r="K2858" t="inlineStr"/>
+      <c r="L2858" t="inlineStr">
+        <is>
+          <t>(N:24,P:56,T:1,R:0),(N:9,P:36,T:2,R:0),(N:22,P:33,T:3,R:0),(N:8,P:23,T:2,R:0),(N:4,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2859" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2859" t="inlineStr"/>
+      <c r="D2859" t="inlineStr"/>
+      <c r="E2859" t="inlineStr"/>
+      <c r="F2859" t="inlineStr">
+        <is>
+          <t>38800</t>
+        </is>
+      </c>
+      <c r="G2859" t="inlineStr"/>
+      <c r="H2859" t="inlineStr"/>
+      <c r="I2859" t="inlineStr"/>
+      <c r="J2859" t="inlineStr"/>
+      <c r="K2859" t="inlineStr"/>
+      <c r="L2859" t="inlineStr">
+        <is>
+          <t>(N:24,P:56,T:2,R:0),(N:8,P:50,T:2,R:1),(N:9,P:36,T:3,R:0),(N:4,P:12,T:2,R:0),(N:21,P:11,T:1,R:0),(N:15,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2860" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2860" t="inlineStr"/>
+      <c r="D2860" t="inlineStr"/>
+      <c r="E2860" t="inlineStr"/>
+      <c r="F2860" t="inlineStr">
+        <is>
+          <t>38800</t>
+        </is>
+      </c>
+      <c r="G2860" t="inlineStr"/>
+      <c r="H2860" t="inlineStr"/>
+      <c r="I2860" t="inlineStr"/>
+      <c r="J2860" t="inlineStr"/>
+      <c r="K2860" t="inlineStr"/>
+      <c r="L2860" t="inlineStr">
+        <is>
+          <t>(N:24,P:56,T:3,R:0),(N:8,P:50,T:3,R:1),(N:23,P:34,T:1,R:0),(N:26,P:31,T:1,R:0),(N:4,P:12,T:3,R:0),(N:21,P:11,T:2,R:0),(N:15,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2861" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2861" t="inlineStr">
+        <is>
+          <t>(N:23,P:95,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2861" t="inlineStr"/>
+      <c r="E2861" t="inlineStr"/>
+      <c r="F2861" t="inlineStr">
+        <is>
+          <t>38800</t>
+        </is>
+      </c>
+      <c r="G2861" t="inlineStr"/>
+      <c r="H2861" t="inlineStr"/>
+      <c r="I2861" t="inlineStr"/>
+      <c r="J2861" t="inlineStr"/>
+      <c r="K2861" t="inlineStr"/>
+      <c r="L2861" t="inlineStr">
+        <is>
+          <t>(N:26,P:31,T:2,R:0),(N:21,P:11,T:3,R:0),(N:15,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2862" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2862" t="inlineStr">
+        <is>
+          <t>(N:23,P:95,T:2,R:0,PL:2,J:3000),(N:8,P:73,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2862" t="inlineStr"/>
+      <c r="E2862" t="inlineStr"/>
+      <c r="F2862" t="inlineStr">
+        <is>
+          <t>38800</t>
+        </is>
+      </c>
+      <c r="G2862" t="inlineStr"/>
+      <c r="H2862" t="inlineStr"/>
+      <c r="I2862" t="inlineStr"/>
+      <c r="J2862" t="inlineStr"/>
+      <c r="K2862" t="inlineStr"/>
+      <c r="L2862" t="inlineStr">
+        <is>
+          <t>(N:26,P:31,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2863" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2863" t="inlineStr">
+        <is>
+          <t>(N:23,P:95,T:3,R:0,PL:3,J:6000),(N:8,P:73,T:2,R:0,PL:2,J:3000)</t>
+        </is>
+      </c>
+      <c r="D2863" t="inlineStr"/>
+      <c r="E2863" t="inlineStr"/>
+      <c r="F2863" t="inlineStr">
+        <is>
+          <t>38800</t>
+        </is>
+      </c>
+      <c r="G2863" t="inlineStr"/>
+      <c r="H2863" t="inlineStr"/>
+      <c r="I2863" t="inlineStr"/>
+      <c r="J2863" t="inlineStr"/>
+      <c r="K2863" t="inlineStr"/>
+      <c r="L2863" t="inlineStr">
+        <is>
+          <t>(N:27,P:61,T:1,R:0),(N:10,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2864" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2864" t="inlineStr">
+        <is>
+          <t>(N:23,P:95,T:4,R:0,PL:4,J:10000),(N:8,P:73,T:3,R:0,PL:3,J:6000),(N:33,P:72,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2864" t="inlineStr"/>
+      <c r="E2864" t="inlineStr"/>
+      <c r="F2864" t="inlineStr">
+        <is>
+          <t>38800</t>
+        </is>
+      </c>
+      <c r="G2864" t="inlineStr"/>
+      <c r="H2864" t="inlineStr"/>
+      <c r="I2864" t="inlineStr"/>
+      <c r="J2864" t="inlineStr"/>
+      <c r="K2864" t="inlineStr"/>
+      <c r="L2864" t="inlineStr">
+        <is>
+          <t>(N:27,P:61,T:2,R:0),(N:10,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2865" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2865" t="inlineStr">
+        <is>
+          <t>(N:23,P:95,T:5,R:0,PL:5,J:15000),(N:8,P:73,T:4,R:0,PL:4,J:10000),(N:33,P:72,T:2,R:0,PL:2,J:3000),(N:32,P:79,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2865" t="inlineStr"/>
+      <c r="E2865" t="inlineStr"/>
+      <c r="F2865" t="inlineStr">
+        <is>
+          <t>38800</t>
+        </is>
+      </c>
+      <c r="G2865" t="inlineStr"/>
+      <c r="H2865" t="inlineStr"/>
+      <c r="I2865" t="inlineStr"/>
+      <c r="J2865" t="inlineStr"/>
+      <c r="K2865" t="inlineStr"/>
+      <c r="L2865" t="inlineStr">
+        <is>
+          <t>(N:27,P:61,T:3,R:0),(N:10,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2866" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2866" t="inlineStr">
+        <is>
+          <t>(N:23,P:106,T:5,R:1,PL:7,J:21000),(N:8,P:73,T:5,R:0,PL:5,J:15000),(N:33,P:72,T:3,R:0,PL:3,J:6000),(N:32,P:125,T:1,R:1,PL:3,J:3000)</t>
+        </is>
+      </c>
+      <c r="D2866" t="inlineStr"/>
+      <c r="E2866" t="inlineStr"/>
+      <c r="F2866" t="inlineStr">
+        <is>
+          <t>38800</t>
+        </is>
+      </c>
+      <c r="G2866" t="inlineStr"/>
+      <c r="H2866" t="inlineStr"/>
+      <c r="I2866" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="J2866" t="inlineStr"/>
+      <c r="K2866" t="inlineStr"/>
+      <c r="L2866" t="inlineStr"/>
+    </row>
+    <row r="2867">
+      <c r="A2867" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2867" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2867" t="inlineStr">
+        <is>
+          <t>(N:8,P:73,T:6,R:0,PL:6,J:21000),(N:33,P:72,T:4,R:0,PL:4,J:10000),(N:32,P:125,T:2,R:1,PL:4,J:7000),(N:2,P:73,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2867" t="inlineStr">
+        <is>
+          <t>(N:23,P:106,T:5,R:1,PL:7,J:28000)</t>
+        </is>
+      </c>
+      <c r="E2867" t="inlineStr"/>
+      <c r="F2867" t="inlineStr">
+        <is>
+          <t>61200</t>
+        </is>
+      </c>
+      <c r="G2867" t="inlineStr"/>
+      <c r="H2867" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="I2867" t="inlineStr"/>
+      <c r="J2867" t="inlineStr"/>
+      <c r="K2867" t="inlineStr"/>
+      <c r="L2867" t="inlineStr"/>
+    </row>
+    <row r="2868">
+      <c r="A2868" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2868" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2868" t="inlineStr">
+        <is>
+          <t>(N:33,P:72,T:5,R:0,PL:5,J:15000),(N:32,P:125,T:3,R:1,PL:5,J:12000),(N:2,P:73,T:2,R:0,PL:2,J:3000)</t>
+        </is>
+      </c>
+      <c r="D2868" t="inlineStr">
+        <is>
+          <t>(N:8,P:73,T:6,R:0,PL:6,J:27000)</t>
+        </is>
+      </c>
+      <c r="E2868" t="inlineStr"/>
+      <c r="F2868" t="inlineStr">
+        <is>
+          <t>77400</t>
+        </is>
+      </c>
+      <c r="G2868" t="inlineStr"/>
+      <c r="H2868" t="inlineStr"/>
+      <c r="I2868" t="inlineStr"/>
+      <c r="J2868" t="inlineStr"/>
+      <c r="K2868" t="inlineStr"/>
+      <c r="L2868" t="inlineStr">
+        <is>
+          <t>(N:18,P:37,T:1,R:0),(N:21,P:28,T:1,R:0),(N:36,P:15,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2869" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2869" t="inlineStr">
+        <is>
+          <t>(N:33,P:72,T:6,R:0,PL:6,J:21000),(N:32,P:125,T:4,R:1,PL:6,J:18000),(N:2,P:73,T:3,R:0,PL:3,J:6000)</t>
+        </is>
+      </c>
+      <c r="D2869" t="inlineStr"/>
+      <c r="E2869" t="inlineStr"/>
+      <c r="F2869" t="inlineStr">
+        <is>
+          <t>77400</t>
+        </is>
+      </c>
+      <c r="G2869" t="inlineStr"/>
+      <c r="H2869" t="inlineStr"/>
+      <c r="I2869" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="J2869" t="inlineStr"/>
+      <c r="K2869" t="inlineStr"/>
+      <c r="L2869" t="inlineStr">
+        <is>
+          <t>(N:18,P:37,T:2,R:0),(N:21,P:28,T:2,R:0),(N:34,P:21,T:1,R:0),(N:1,P:20,T:1,R:0),(N:36,P:15,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2870" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2870" t="inlineStr">
+        <is>
+          <t>(N:32,P:125,T:5,R:1,PL:7,J:25000),(N:2,P:73,T:4,R:0,PL:4,J:10000),(N:21,P:101,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2870" t="inlineStr">
+        <is>
+          <t>(N:33,P:72,T:6,R:0,PL:6,J:27000)</t>
+        </is>
+      </c>
+      <c r="E2870" t="inlineStr"/>
+      <c r="F2870" t="inlineStr">
+        <is>
+          <t>93600</t>
+        </is>
+      </c>
+      <c r="G2870" t="inlineStr"/>
+      <c r="H2870" t="inlineStr"/>
+      <c r="I2870" t="inlineStr"/>
+      <c r="J2870" t="inlineStr"/>
+      <c r="K2870" t="inlineStr"/>
+      <c r="L2870" t="inlineStr">
+        <is>
+          <t>(N:18,P:37,T:3,R:0),(N:34,P:21,T:2,R:0),(N:1,P:20,T:2,R:0),(N:8,P:17,T:1,R:0),(N:36,P:15,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2871" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2871" t="inlineStr">
+        <is>
+          <t>(N:32,P:125,T:6,R:1,PL:8,J:33000),(N:2,P:73,T:5,R:0,PL:5,J:15000),(N:21,P:101,T:2,R:0,PL:2,J:3000)</t>
+        </is>
+      </c>
+      <c r="D2871" t="inlineStr"/>
+      <c r="E2871" t="inlineStr"/>
+      <c r="F2871" t="inlineStr">
+        <is>
+          <t>93600</t>
+        </is>
+      </c>
+      <c r="G2871" t="inlineStr"/>
+      <c r="H2871" t="inlineStr"/>
+      <c r="I2871" t="inlineStr"/>
+      <c r="J2871" t="inlineStr"/>
+      <c r="K2871" t="inlineStr"/>
+      <c r="L2871" t="inlineStr">
+        <is>
+          <t>(N:23,P:68,T:1,R:0),(N:34,P:21,T:3,R:0),(N:1,P:20,T:3,R:0),(N:13,P:18,T:1,R:0),(N:8,P:17,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2872" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2872" t="inlineStr">
+        <is>
+          <t>(N:32,P:125,T:7,R:1,PL:9,J:42000),(N:2,P:73,T:6,R:0,PL:6,J:21000),(N:21,P:101,T:3,R:0,PL:3,J:6000),(N:7,P:92,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2872" t="inlineStr"/>
+      <c r="E2872" t="inlineStr"/>
+      <c r="F2872" t="inlineStr">
+        <is>
+          <t>93600</t>
+        </is>
+      </c>
+      <c r="G2872" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H2872" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="I2872" t="inlineStr"/>
+      <c r="J2872" t="inlineStr"/>
+      <c r="K2872" t="inlineStr"/>
+      <c r="L2872" t="inlineStr">
+        <is>
+          <t>(N:23,P:68,T:2,R:0),(N:13,P:18,T:2,R:0),(N:8,P:17,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2873" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2873" t="inlineStr">
+        <is>
+          <t>(N:32,P:125,T:8,R:1,PL:10,J:52000),(N:7,P:92,T:2,R:0,PL:2,J:3000),(N:24,P:88,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2873" t="inlineStr">
+        <is>
+          <t>(N:2,P:73,T:6,R:0,PL:6,J:27000),(N:21,P:101,T:3,R:0,PL:3,J:9000)</t>
+        </is>
+      </c>
+      <c r="E2873" t="inlineStr"/>
+      <c r="F2873" t="inlineStr">
+        <is>
+          <t>122400</t>
+        </is>
+      </c>
+      <c r="G2873" t="inlineStr"/>
+      <c r="H2873" t="inlineStr"/>
+      <c r="I2873" t="inlineStr"/>
+      <c r="J2873" t="inlineStr"/>
+      <c r="K2873" t="inlineStr"/>
+      <c r="L2873" t="inlineStr">
+        <is>
+          <t>(N:23,P:68,T:3,R:0),(N:13,P:18,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" t="n">
+        <v>32</v>
+      </c>
+      <c r="B2874" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2874" t="inlineStr">
+        <is>
+          <t>(N:7,P:92,T:3,R:0,PL:3,J:6000),(N:24,P:88,T:2,R:0,PL:2,J:3000)</t>
+        </is>
+      </c>
+      <c r="D2874" t="inlineStr"/>
+      <c r="E2874" t="inlineStr">
+        <is>
+          <t>(N:32,P:125,T:8,R:1,PL:10,J:52000)</t>
+        </is>
+      </c>
+      <c r="F2874" t="inlineStr">
+        <is>
+          <t>70400</t>
+        </is>
+      </c>
+      <c r="G2874" t="inlineStr"/>
+      <c r="H2874" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="I2874" t="inlineStr"/>
+      <c r="J2874" t="inlineStr"/>
+      <c r="K2874" t="inlineStr"/>
+      <c r="L2874" t="inlineStr">
+        <is>
+          <t>(N:0,P:46,T:1,R:0),(N:31,P:15,T:1,R:0),(N:21,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" t="n">
+        <v>33</v>
+      </c>
+      <c r="B2875" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2875" t="inlineStr">
+        <is>
+          <t>(N:7,P:92,T:4,R:0,PL:4,J:10000)</t>
+        </is>
+      </c>
+      <c r="D2875" t="inlineStr">
+        <is>
+          <t>(N:24,P:88,T:2,R:0,PL:2,J:5000)</t>
+        </is>
+      </c>
+      <c r="E2875" t="inlineStr"/>
+      <c r="F2875" t="inlineStr">
+        <is>
+          <t>79800</t>
+        </is>
+      </c>
+      <c r="G2875" t="inlineStr"/>
+      <c r="H2875" t="inlineStr"/>
+      <c r="I2875" t="inlineStr"/>
+      <c r="J2875" t="inlineStr"/>
+      <c r="K2875" t="inlineStr"/>
+      <c r="L2875" t="inlineStr">
+        <is>
+          <t>(N:0,P:46,T:2,R:0),(N:2,P:43,T:1,R:0),(N:14,P:31,T:1,R:0),(N:31,P:15,T:2,R:0),(N:21,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" t="n">
+        <v>34</v>
+      </c>
+      <c r="B2876" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2876" t="inlineStr">
+        <is>
+          <t>(N:7,P:92,T:5,R:0,PL:5,J:15000)</t>
+        </is>
+      </c>
+      <c r="D2876" t="inlineStr"/>
+      <c r="E2876" t="inlineStr"/>
+      <c r="F2876" t="inlineStr">
+        <is>
+          <t>79800</t>
+        </is>
+      </c>
+      <c r="G2876" t="inlineStr"/>
+      <c r="H2876" t="inlineStr"/>
+      <c r="I2876" t="inlineStr"/>
+      <c r="J2876" t="inlineStr"/>
+      <c r="K2876" t="inlineStr"/>
+      <c r="L2876" t="inlineStr">
+        <is>
+          <t>(N:0,P:46,T:3,R:0),(N:2,P:43,T:2,R:0),(N:22,P:34,T:1,R:0),(N:14,P:31,T:2,R:0),(N:31,P:15,T:3,R:0),(N:27,P:15,T:1,R:0),(N:21,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" t="n">
+        <v>35</v>
+      </c>
+      <c r="B2877" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2877" t="inlineStr">
+        <is>
+          <t>(N:7,P:92,T:6,R:0,PL:6,J:21000)</t>
+        </is>
+      </c>
+      <c r="D2877" t="inlineStr"/>
+      <c r="E2877" t="inlineStr"/>
+      <c r="F2877" t="inlineStr">
+        <is>
+          <t>79800</t>
+        </is>
+      </c>
+      <c r="G2877" t="inlineStr"/>
+      <c r="H2877" t="inlineStr"/>
+      <c r="I2877" t="inlineStr"/>
+      <c r="J2877" t="inlineStr"/>
+      <c r="K2877" t="inlineStr"/>
+      <c r="L2877" t="inlineStr">
+        <is>
+          <t>(N:2,P:43,T:3,R:0),(N:22,P:34,T:2,R:0),(N:14,P:31,T:3,R:0),(N:36,P:27,T:1,R:0),(N:18,P:21,T:1,R:0),(N:21,P:17,T:1,R:0),(N:27,P:15,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2878" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2878" t="inlineStr">
+        <is>
+          <t>(N:7,P:92,T:7,R:0,PL:7,J:28000)</t>
+        </is>
+      </c>
+      <c r="D2878" t="inlineStr"/>
+      <c r="E2878" t="inlineStr"/>
+      <c r="F2878" t="inlineStr">
+        <is>
+          <t>79800</t>
+        </is>
+      </c>
+      <c r="G2878" t="inlineStr"/>
+      <c r="H2878" t="inlineStr"/>
+      <c r="I2878" t="inlineStr"/>
+      <c r="J2878" t="inlineStr"/>
+      <c r="K2878" t="inlineStr"/>
+      <c r="L2878" t="inlineStr">
+        <is>
+          <t>(N:21,P:54,T:1,R:1),(N:8,P:47,T:1,R:0),(N:22,P:34,T:3,R:0),(N:36,P:27,T:2,R:0),(N:18,P:21,T:2,R:0),(N:27,P:15,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="n">
+        <v>37</v>
+      </c>
+      <c r="B2879" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2879" t="inlineStr">
+        <is>
+          <t>(N:7,P:92,T:8,R:0,PL:8,J:36000)</t>
+        </is>
+      </c>
+      <c r="D2879" t="inlineStr"/>
+      <c r="E2879" t="inlineStr"/>
+      <c r="F2879" t="inlineStr">
+        <is>
+          <t>79800</t>
+        </is>
+      </c>
+      <c r="G2879" t="inlineStr"/>
+      <c r="H2879" t="inlineStr"/>
+      <c r="I2879" t="inlineStr"/>
+      <c r="J2879" t="inlineStr"/>
+      <c r="K2879" t="inlineStr"/>
+      <c r="L2879" t="inlineStr">
+        <is>
+          <t>(N:21,P:54,T:2,R:1),(N:8,P:47,T:2,R:0),(N:36,P:27,T:3,R:0),(N:31,P:25,T:1,R:0),(N:18,P:21,T:3,R:0),(N:3,P:20,T:1,R:0),(N:22,P:15,T:1,R:0),(N:4,P:12,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" t="n">
+        <v>38</v>
+      </c>
+      <c r="B2880" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2880" t="inlineStr"/>
+      <c r="D2880" t="inlineStr"/>
+      <c r="E2880" t="inlineStr">
+        <is>
+          <t>(N:7,P:92,T:8,R:0,PL:8,J:36000)</t>
+        </is>
+      </c>
+      <c r="F2880" t="inlineStr">
+        <is>
+          <t>43800</t>
+        </is>
+      </c>
+      <c r="G2880" t="inlineStr"/>
+      <c r="H2880" t="inlineStr"/>
+      <c r="I2880" t="inlineStr"/>
+      <c r="J2880" t="inlineStr"/>
+      <c r="K2880" t="inlineStr"/>
+      <c r="L2880" t="inlineStr">
+        <is>
+          <t>(N:21,P:54,T:3,R:1),(N:8,P:47,T:3,R:0),(N:24,P:46,T:1,R:0),(N:31,P:25,T:2,R:0),(N:3,P:20,T:2,R:0),(N:22,P:15,T:2,R:0),(N:4,P:12,T:2,R:0),(N:1,P:12,T:1,R:0),(N:14,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2881">
+      <c r="A2881" t="n">
+        <v>39</v>
+      </c>
+      <c r="B2881" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2881" t="inlineStr"/>
+      <c r="D2881" t="inlineStr"/>
+      <c r="E2881" t="inlineStr"/>
+      <c r="F2881" t="inlineStr">
+        <is>
+          <t>43800</t>
+        </is>
+      </c>
+      <c r="G2881" t="inlineStr"/>
+      <c r="H2881" t="inlineStr"/>
+      <c r="I2881" t="inlineStr"/>
+      <c r="J2881" t="inlineStr"/>
+      <c r="K2881" t="inlineStr"/>
+      <c r="L2881" t="inlineStr">
+        <is>
+          <t>(N:24,P:46,T:2,R:0),(N:19,P:38,T:1,R:0),(N:31,P:25,T:3,R:0),(N:3,P:20,T:3,R:0),(N:22,P:15,T:3,R:0),(N:5,P:15,T:1,R:0),(N:4,P:12,T:3,R:0),(N:1,P:12,T:2,R:0),(N:14,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2882">
+      <c r="A2882" t="n">
+        <v>40</v>
+      </c>
+      <c r="B2882" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2882" t="inlineStr"/>
+      <c r="D2882" t="inlineStr"/>
+      <c r="E2882" t="inlineStr"/>
+      <c r="F2882" t="inlineStr">
+        <is>
+          <t>43800</t>
+        </is>
+      </c>
+      <c r="G2882" t="inlineStr"/>
+      <c r="H2882" t="inlineStr"/>
+      <c r="I2882" t="inlineStr"/>
+      <c r="J2882" t="inlineStr"/>
+      <c r="K2882" t="inlineStr"/>
+      <c r="L2882" t="inlineStr">
+        <is>
+          <t>(N:6,P:50,T:1,R:0),(N:24,P:46,T:3,R:0),(N:19,P:38,T:2,R:0),(N:5,P:15,T:2,R:0),(N:1,P:12,T:3,R:0),(N:17,P:12,T:1,R:0),(N:12,P:11,T:1,R:0),(N:14,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" t="n">
+        <v>41</v>
+      </c>
+      <c r="B2883" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2883" t="inlineStr">
+        <is>
+          <t>(N:2,P:86,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2883" t="inlineStr"/>
+      <c r="E2883" t="inlineStr"/>
+      <c r="F2883" t="inlineStr">
+        <is>
+          <t>43800</t>
+        </is>
+      </c>
+      <c r="G2883" t="inlineStr"/>
+      <c r="H2883" t="inlineStr"/>
+      <c r="I2883" t="inlineStr"/>
+      <c r="J2883" t="inlineStr"/>
+      <c r="K2883" t="inlineStr"/>
+      <c r="L2883" t="inlineStr">
+        <is>
+          <t>(N:6,P:50,T:2,R:0),(N:19,P:38,T:3,R:0),(N:5,P:15,T:3,R:0),(N:17,P:12,T:2,R:0),(N:12,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" t="n">
+        <v>42</v>
+      </c>
+      <c r="B2884" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2884" t="inlineStr">
+        <is>
+          <t>(N:2,P:86,T:2,R:0,PL:2,J:3000)</t>
+        </is>
+      </c>
+      <c r="D2884" t="inlineStr"/>
+      <c r="E2884" t="inlineStr"/>
+      <c r="F2884" t="inlineStr">
+        <is>
+          <t>43800</t>
+        </is>
+      </c>
+      <c r="G2884" t="inlineStr"/>
+      <c r="H2884" t="inlineStr"/>
+      <c r="I2884" t="inlineStr"/>
+      <c r="J2884" t="inlineStr"/>
+      <c r="K2884" t="inlineStr"/>
+      <c r="L2884" t="inlineStr">
+        <is>
+          <t>(N:16,P:51,T:1,R:0),(N:6,P:50,T:3,R:0),(N:17,P:12,T:3,R:0),(N:12,P:11,T:3,R:0),(N:34,P:11,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2885" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2885" t="inlineStr">
+        <is>
+          <t>(N:2,P:86,T:3,R:0,PL:3,J:6000),(N:17,P:70,T:1,R:0,PL:1,J:1000)</t>
+        </is>
+      </c>
+      <c r="D2885" t="inlineStr"/>
+      <c r="E2885" t="inlineStr"/>
+      <c r="F2885" t="inlineStr">
+        <is>
+          <t>43800</t>
+        </is>
+      </c>
+      <c r="G2885" t="inlineStr"/>
+      <c r="H2885" t="inlineStr"/>
+      <c r="I2885" t="inlineStr"/>
+      <c r="J2885" t="inlineStr"/>
+      <c r="K2885" t="inlineStr"/>
+      <c r="L2885" t="inlineStr">
+        <is>
+          <t>(N:16,P:51,T:2,R:0),(N:33,P:18,T:1,R:0),(N:34,P:11,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" t="n">
+        <v>44</v>
+      </c>
+      <c r="B2886" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2886" t="inlineStr">
+        <is>
+          <t>(N:2,P:86,T:4,R:0,PL:4,J:10000),(N:17,P:70,T:2,R:0,PL:2,J:3000)</t>
+        </is>
+      </c>
+      <c r="D2886" t="inlineStr"/>
+      <c r="E2886" t="inlineStr"/>
+      <c r="F2886" t="inlineStr">
+        <is>
+          <t>43800</t>
+        </is>
+      </c>
+      <c r="G2886" t="inlineStr"/>
+      <c r="H2886" t="inlineStr"/>
+      <c r="I2886" t="inlineStr"/>
+      <c r="J2886" t="inlineStr"/>
+      <c r="K2886" t="inlineStr"/>
+      <c r="L2886" t="inlineStr">
+        <is>
+          <t>(N:16,P:51,T:3,R:0),(N:22,P:37,T:1,R:0),(N:33,P:18,T:2,R:0),(N:10,P:15,T:1,R:0),(N:34,P:11,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" t="n">
+        <v>45</v>
+      </c>
+      <c r="B2887" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2887" t="inlineStr">
+        <is>
+          <t>(N:2,P:86,T:5,R:0,PL:5,J:15000),(N:17,P:70,T:3,R:0,PL:3,J:6000)</t>
+        </is>
+      </c>
+      <c r="D2887" t="inlineStr"/>
+      <c r="E2887" t="inlineStr"/>
+      <c r="F2887" t="inlineStr">
+        <is>
+          <t>43800</t>
+        </is>
+      </c>
+      <c r="G2887" t="inlineStr"/>
+      <c r="H2887" t="inlineStr"/>
+      <c r="I2887" t="inlineStr"/>
+      <c r="J2887" t="inlineStr"/>
+      <c r="K2887" t="inlineStr"/>
+      <c r="L2887" t="inlineStr">
+        <is>
+          <t>(N:22,P:37,T:2,R:0),(N:14,P:36,T:1,R:0),(N:15,P:20,T:1,R:0),(N:33,P:18,T:3,R:0),(N:10,P:15,T:2,R:0),(N:6,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="A2888" t="n">
+        <v>46</v>
+      </c>
+      <c r="B2888" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2888" t="inlineStr">
+        <is>
+          <t>(N:2,P:86,T:6,R:0,PL:6,J:21000),(N:17,P:70,T:4,R:0,PL:4,J:10000)</t>
+        </is>
+      </c>
+      <c r="D2888" t="inlineStr"/>
+      <c r="E2888" t="inlineStr"/>
+      <c r="F2888" t="inlineStr">
+        <is>
+          <t>43800</t>
+        </is>
+      </c>
+      <c r="G2888" t="inlineStr"/>
+      <c r="H2888" t="inlineStr"/>
+      <c r="I2888" t="inlineStr"/>
+      <c r="J2888" t="inlineStr"/>
+      <c r="K2888" t="inlineStr"/>
+      <c r="L2888" t="inlineStr">
+        <is>
+          <t>(N:5,P:60,T:1,R:0),(N:22,P:37,T:3,R:0),(N:14,P:36,T:2,R:0),(N:15,P:30,T:1,R:1),(N:6,P:20,T:1,R:1),(N:10,P:15,T:3,R:0),(N:20,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" t="n">
+        <v>47</v>
+      </c>
+      <c r="B2889" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2889" t="inlineStr">
+        <is>
+          <t>(N:2,P:101,T:6,R:1,PL:8,J:28000),(N:17,P:70,T:5,R:0,PL:5,J:15000)</t>
+        </is>
+      </c>
+      <c r="D2889" t="inlineStr"/>
+      <c r="E2889" t="inlineStr"/>
+      <c r="F2889" t="inlineStr">
+        <is>
+          <t>43800</t>
+        </is>
+      </c>
+      <c r="G2889" t="inlineStr"/>
+      <c r="H2889" t="inlineStr"/>
+      <c r="I2889" t="inlineStr"/>
+      <c r="J2889" t="inlineStr"/>
+      <c r="K2889" t="inlineStr"/>
+      <c r="L2889" t="inlineStr">
+        <is>
+          <t>(N:5,P:60,T:2,R:0),(N:14,P:36,T:3,R:0),(N:15,P:30,T:2,R:1),(N:12,P:28,T:1,R:0),(N:6,P:20,T:2,R:1),(N:7,P:15,T:1,R:0),(N:4,P:12,T:1,R:0),(N:20,P:10,T:2,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" t="n">
+        <v>48</v>
+      </c>
+      <c r="B2890" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2890" t="inlineStr">
+        <is>
+          <t>(N:2,P:101,T:7,R:1,PL:9,J:37000),(N:17,P:70,T:6,R:0,PL:6,J:21000)</t>
+        </is>
+      </c>
+      <c r="D2890" t="inlineStr"/>
+      <c r="E2890" t="inlineStr"/>
+      <c r="F2890" t="inlineStr">
+        <is>
+          <t>43800</t>
+        </is>
+      </c>
+      <c r="G2890" t="inlineStr"/>
+      <c r="H2890" t="inlineStr"/>
+      <c r="I2890" t="inlineStr"/>
+      <c r="J2890" t="inlineStr"/>
+      <c r="K2890" t="inlineStr"/>
+      <c r="L2890" t="inlineStr">
+        <is>
+          <t>(N:5,P:60,T:3,R:0),(N:32,P:37,T:1,R:0),(N:27,P:31,T:1,R:0),(N:15,P:30,T:3,R:1),(N:12,P:28,T:2,R:0),(N:6,P:20,T:3,R:1),(N:7,P:15,T:2,R:0),(N:4,P:12,T:2,R:0),(N:20,P:10,T:3,R:0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" t="n">
+        <v>49</v>
+      </c>
+      <c r="B2891" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2891" t="inlineStr">
+        <is>
+          <t>(N:2,P:101,T:8,R:1,PL:10,J:47000),(N:17,P:70,T:7,R:0,PL:7,J:28000)</t>
+        </is>
+      </c>
+      <c r="D2891" t="inlineStr"/>
+      <c r="E2891" t="inlineStr"/>
+      <c r="F2891" t="inlineStr">
+        <is>
+          <t>43800</t>
+        </is>
+      </c>
+      <c r="G2891" t="inlineStr"/>
+      <c r="H2891" t="inlineStr"/>
+      <c r="I2891" t="inlineStr"/>
+      <c r="J2891" t="inlineStr"/>
+      <c r="K2891" t="inlineStr"/>
+      <c r="L2891" t="inlineStr">
+        <is>
+          <t>(N:32,P:57,T:1,R:1),(N:27,P:31,T:2,R:0),(N:35,P:30,T:1,R:0),(N:12,P:28,T:3,R:0),(N:7,P:15,T:3,R:0),(N:4,P:12,T:3,R:0),(N:13,P:10,T:1,R:0)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
